--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9812CAB2-59A4-4052-8372-40FE3C2488C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62FD2E11-E5AD-4017-B9DB-490F2B61E6FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>Rogue</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Warleader</t>
-  </si>
-  <si>
-    <t>Fire</t>
   </si>
   <si>
     <t>Ice</t>
@@ -211,12 +208,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,8 +240,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,67 +562,67 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -619,51 +630,51 @@
         <v>10</v>
       </c>
       <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>95</v>
       </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
       <c r="H2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <f>SUM(J2)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2">
-        <f>SUM(E2*(24/F2))</f>
-        <v>12</v>
+        <f>SUM(H2*(24/I2))</f>
+        <v>13.333333333333332</v>
       </c>
       <c r="O2">
-        <f>SUM(E2*(24/F2))*I2</f>
-        <v>12</v>
+        <f>SUM(H2*(24/I2))*F2</f>
+        <v>13.333333333333332</v>
       </c>
       <c r="P2">
-        <f>SUM(K2/N2)</f>
-        <v>6.666666666666667</v>
+        <f t="shared" ref="P2:P11" si="0">SUM(K2/N2)</f>
+        <v>3.0000000000000004</v>
       </c>
       <c r="Q2">
-        <f>SUM(K2/O2)</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q2:Q11" si="1">SUM(K2/O2)</f>
+        <v>3.0000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -671,48 +682,48 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>3</v>
-      </c>
-      <c r="G3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
       </c>
       <c r="J3">
         <v>320</v>
       </c>
       <c r="K3">
         <f>SUM(J3+J2)</f>
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3">
-        <f>SUM(E3*(24/F3))</f>
+        <f>SUM(H3*(24/I3))</f>
         <v>56</v>
       </c>
       <c r="O3">
-        <f>SUM(E3*(24/F3))*I3</f>
+        <f>SUM(H3*(24/I3))*F3</f>
         <v>56</v>
       </c>
       <c r="P3">
-        <f>SUM(K3/N3)</f>
-        <v>7.1428571428571432</v>
+        <f t="shared" si="0"/>
+        <v>6.4285714285714288</v>
       </c>
       <c r="Q3">
-        <f>SUM(K3/O3)</f>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -721,26 +732,26 @@
       </c>
       <c r="K4">
         <f>SUM(J4+J2)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N4" t="e">
-        <f>SUM(E4*(24/F4))</f>
+        <f>SUM(H4*(24/I4))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O4" t="e">
-        <f>SUM(E4*(24/F4))*I4</f>
+        <f>SUM(H4*(24/I4))*F4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" t="e">
-        <f>SUM(K4/N4)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" t="e">
-        <f>SUM(K4/O4)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -749,26 +760,26 @@
       </c>
       <c r="K5">
         <f>SUM(J5+J2)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N5" t="e">
-        <f>SUM(E5*(24/F5))</f>
+        <f>SUM(H5*(24/I5))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" t="e">
-        <f>SUM(E5*(24/F5))*I5</f>
+        <f>SUM(H5*(24/I5))*F5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P5" t="e">
-        <f>SUM(K5/N5)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" t="e">
-        <f>SUM(K5/O5)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -776,48 +787,48 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>125</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>4</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
       </c>
       <c r="J6">
         <v>280</v>
       </c>
       <c r="K6">
         <f>SUM(J6+J2)</f>
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N6">
-        <f>SUM(E6*(24/F6))</f>
+        <f>SUM(H6*(24/I6))</f>
         <v>60</v>
       </c>
       <c r="O6">
-        <f>SUM(E6*(24/F6))*I6</f>
+        <f>SUM(H6*(24/I6))*F6</f>
         <v>60</v>
       </c>
       <c r="P6">
-        <f>SUM(K6/N6)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="Q6">
-        <f>SUM(K6/O6)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -826,26 +837,26 @@
       </c>
       <c r="K7">
         <f>SUM(J7+J2)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N7" t="e">
-        <f>SUM(E7*(24/F7))</f>
+        <f>SUM(H7*(24/I7))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O7" t="e">
-        <f>SUM(E7*(24/F7))*I7</f>
+        <f>SUM(H7*(24/I7))*F7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P7" t="e">
-        <f>SUM(K7/N7)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" t="e">
-        <f>SUM(K7/O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -854,26 +865,26 @@
       </c>
       <c r="K8">
         <f>SUM(J8+J2)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N8" t="e">
-        <f>SUM(E8*(24/F8))</f>
+        <f>SUM(H8*(24/I8))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O8" t="e">
-        <f>SUM(E8*(24/F8))*I8</f>
+        <f>SUM(H8*(24/I8))*F8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" t="e">
-        <f>SUM(K8/N8)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q8" t="e">
-        <f>SUM(K8/O8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -881,48 +892,48 @@
         <v>3</v>
       </c>
       <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>95</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>12</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
       </c>
       <c r="J9">
         <v>250</v>
       </c>
       <c r="K9">
         <f>SUM(J9+J2)</f>
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9">
-        <f>SUM(E9*(24/F9))</f>
+        <f>SUM(H9*(24/I9))</f>
         <v>40</v>
       </c>
       <c r="O9">
-        <f>SUM(E9*(24/F9))*I9</f>
+        <f>SUM(H9*(24/I9))*F9</f>
         <v>80</v>
       </c>
       <c r="P9">
-        <f>SUM(K9/N9)</f>
-        <v>8.25</v>
+        <f t="shared" si="0"/>
+        <v>7.25</v>
       </c>
       <c r="Q9">
-        <f>SUM(K9/O9)</f>
-        <v>4.125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -931,26 +942,26 @@
       </c>
       <c r="K10">
         <f>SUM(J10+J2)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N10" t="e">
-        <f>SUM(E10*(24/F10))</f>
+        <f>SUM(H10*(24/I10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" t="e">
-        <f>SUM(E10*(24/F10))*I10</f>
+        <f>SUM(H10*(24/I10))*F10</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" t="e">
-        <f>SUM(K10/N10)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q10" t="e">
-        <f>SUM(K10/O10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -959,25 +970,26 @@
       </c>
       <c r="K11">
         <f>SUM(J11+J2)</f>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N11" t="e">
-        <f>SUM(E11*(24/F11))</f>
+        <f>SUM(H11*(24/I11))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" t="e">
-        <f>SUM(E11*(24/F11))*I11</f>
+        <f>SUM(H11*(24/I11))*F11</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" t="e">
-        <f>SUM(K11/N11)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q11" t="e">
-        <f>SUM(K11/O11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
@@ -986,48 +998,48 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <f>SUM(J14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N14">
-        <f>SUM(E14*(24/F14))</f>
-        <v>24</v>
+        <f>SUM(H14*(24/I14))</f>
+        <v>15</v>
       </c>
       <c r="O14">
-        <f>SUM(E14*(24/F14))*I14</f>
-        <v>24</v>
+        <f>SUM(H14*(24/I14))*F14</f>
+        <v>15</v>
       </c>
       <c r="P14">
-        <f>SUM(K14/N14)</f>
-        <v>2.5</v>
+        <f t="shared" ref="P14:P23" si="2">SUM(K14/N14)</f>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <f>SUM(K14/O14)</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q14:Q23" si="3">SUM(K14/O14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1037,108 +1049,108 @@
       <c r="D15">
         <v>50</v>
       </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
       <c r="F15">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
       <c r="I15">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J15">
         <v>235</v>
       </c>
       <c r="K15">
         <f>SUM(J15+J14)</f>
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N15">
-        <f>SUM(E15*(24/F15))</f>
+        <f>SUM(H15*(24/I15))</f>
         <v>60</v>
       </c>
       <c r="O15">
-        <f>SUM(E15*(24/F15))*I15</f>
+        <f>SUM(H15*(24/I15))*F15</f>
         <v>60</v>
       </c>
       <c r="P15">
-        <f>SUM(K15/N15)</f>
-        <v>4.916666666666667</v>
+        <f t="shared" si="2"/>
+        <v>4.416666666666667</v>
       </c>
       <c r="Q15">
-        <f>SUM(K15/O15)</f>
-        <v>4.916666666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="F16">
         <v>1</v>
       </c>
       <c r="K16">
         <f>SUM(J16+J14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N16" t="e">
-        <f>SUM(E16*(24/F16))</f>
+        <f>SUM(H16*(24/I16))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" t="e">
-        <f>SUM(E16*(24/F16))*I16</f>
+        <f>SUM(H16*(24/I16))*F16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" t="e">
-        <f>SUM(K16/N16)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" t="e">
-        <f>SUM(K16/O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="I17">
+      <c r="F17">
         <v>1</v>
       </c>
       <c r="K17">
         <f>SUM(J17+J14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N17" t="e">
-        <f>SUM(E17*(24/F17))</f>
+        <f>SUM(H17*(24/I17))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" t="e">
-        <f>SUM(E17*(24/F17))*I17</f>
+        <f>SUM(H17*(24/I17))*F17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" t="e">
-        <f>SUM(K17/N17)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" t="e">
-        <f>SUM(K17/O17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1148,46 +1160,46 @@
       <c r="D18">
         <v>50</v>
       </c>
-      <c r="E18">
-        <v>38</v>
-      </c>
       <c r="F18">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>50</v>
       </c>
+      <c r="H18">
+        <v>38</v>
+      </c>
       <c r="I18">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <v>205</v>
       </c>
       <c r="K18">
         <f>SUM(J18+J14)</f>
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="L18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N18">
-        <f>SUM(E18*(24/F18))</f>
+        <f>SUM(H18*(24/I18))</f>
         <v>60.800000000000004</v>
       </c>
       <c r="O18">
-        <f>SUM(E18*(24/F18))*I18</f>
+        <f>SUM(H18*(24/I18))*F18</f>
         <v>60.800000000000004</v>
       </c>
       <c r="P18">
-        <f>SUM(K18/N18)</f>
-        <v>4.3585526315789469</v>
+        <f t="shared" si="2"/>
+        <v>3.8651315789473681</v>
       </c>
       <c r="Q18">
-        <f>SUM(K18/O18)</f>
-        <v>4.3585526315789469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>3.8651315789473681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1196,26 +1208,26 @@
       </c>
       <c r="K19">
         <f>SUM(J19+J14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N19" t="e">
-        <f>SUM(E19*(24/F19))</f>
+        <f>SUM(H19*(24/I19))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" t="e">
-        <f>SUM(E19*(24/F19))*I19</f>
+        <f>SUM(H19*(24/I19))*F19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" t="e">
-        <f>SUM(K19/N19)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" t="e">
-        <f>SUM(K19/O19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1224,26 +1236,26 @@
       </c>
       <c r="K20">
         <f>SUM(J20+J14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N20" t="e">
-        <f>SUM(E20*(24/F20))</f>
+        <f>SUM(H20*(24/I20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" t="e">
-        <f>SUM(E20*(24/F20))*I20</f>
+        <f>SUM(H20*(24/I20))*F20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" t="e">
-        <f>SUM(K20/N20)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" t="e">
-        <f>SUM(K20/O20)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1253,46 +1265,46 @@
       <c r="D21">
         <v>50</v>
       </c>
-      <c r="E21">
-        <v>77</v>
-      </c>
       <c r="F21">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>50</v>
       </c>
+      <c r="H21">
+        <v>77</v>
+      </c>
       <c r="I21">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <v>550</v>
       </c>
       <c r="K21">
         <f>SUM(J21+J14)</f>
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="L21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N21">
-        <f>SUM(E21*(24/F21))</f>
+        <f>SUM(H21*(24/I21))</f>
         <v>102.66666666666666</v>
       </c>
       <c r="O21">
-        <f>SUM(E21*(24/F21))*I21</f>
+        <f>SUM(H21*(24/I21))*F21</f>
         <v>102.66666666666666</v>
       </c>
       <c r="P21">
-        <f>SUM(K21/N21)</f>
-        <v>5.9415584415584419</v>
+        <f t="shared" si="2"/>
+        <v>5.6493506493506498</v>
       </c>
       <c r="Q21">
-        <f>SUM(K21/O21)</f>
-        <v>5.9415584415584419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>5.6493506493506498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1301,26 +1313,26 @@
       </c>
       <c r="K22">
         <f>SUM(J22+J14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N22" t="e">
-        <f>SUM(E22*(24/F22))</f>
+        <f>SUM(H22*(24/I22))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" t="e">
-        <f>SUM(E22*(24/F22))*I22</f>
+        <f>SUM(H22*(24/I22))*F22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" t="e">
-        <f>SUM(K22/N22)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" t="e">
-        <f>SUM(K22/O22)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1329,46 +1341,47 @@
       </c>
       <c r="K23">
         <f>SUM(J23+J14)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N23" t="e">
-        <f>SUM(E23*(24/F23))</f>
+        <f>SUM(H23*(24/I23))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" t="e">
-        <f>SUM(E23*(24/F23))*I23</f>
+        <f>SUM(H23*(24/I23))*F23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" t="e">
-        <f>SUM(K23/N23)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" t="e">
-        <f>SUM(K23/O23)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>90</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>2</v>
-      </c>
-      <c r="G26">
-        <v>8</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
       </c>
       <c r="J26">
         <v>350</v>
@@ -1378,46 +1391,46 @@
         <v>350</v>
       </c>
       <c r="L26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26">
-        <f>SUM(E26*(24/F26))</f>
+        <f>SUM(H26*(24/I26))</f>
         <v>36</v>
       </c>
       <c r="O26">
-        <f>SUM(E26*(24/F26))*I26</f>
+        <f>SUM(H26*(24/I26))*F26</f>
         <v>36</v>
       </c>
       <c r="P26">
-        <f>SUM(K26/N26)</f>
+        <f t="shared" ref="P26:P34" si="4">SUM(K26/N26)</f>
         <v>9.7222222222222214</v>
       </c>
       <c r="Q26">
-        <f>SUM(K26/O26)</f>
+        <f t="shared" ref="Q26:Q34" si="5">SUM(K26/O26)</f>
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>12.5</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>6</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>4</v>
       </c>
       <c r="J27">
         <v>550</v>
@@ -1427,99 +1440,99 @@
         <v>900</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N27">
-        <f>SUM(E27*(24/F27))</f>
+        <f>SUM(H27*(24/I27))</f>
         <v>50</v>
       </c>
       <c r="O27">
-        <f>SUM(E27*(24/F27))*I27</f>
+        <f>SUM(H27*(24/I27))*F27</f>
         <v>200</v>
       </c>
       <c r="P27">
-        <f>SUM(K27/N27)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="Q27">
-        <f>SUM(K27/O27)</f>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K28">
         <f>SUM(J28+J26)</f>
         <v>350</v>
       </c>
       <c r="N28" t="e">
-        <f>SUM(E28*(24/F28))</f>
+        <f>SUM(H28*(24/I28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" t="e">
-        <f>SUM(E28*(24/F28))*I28</f>
+        <f>SUM(H28*(24/I28))*F28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" t="e">
-        <f>SUM(K28/N28)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" t="e">
-        <f>SUM(K28/O28)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K29">
         <f>SUM(J29+J26)</f>
         <v>350</v>
       </c>
       <c r="N29" t="e">
-        <f>SUM(E29*(24/F29))</f>
+        <f>SUM(H29*(24/I29))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" t="e">
-        <f>SUM(E29*(24/F29))*I29</f>
+        <f>SUM(H29*(24/I29))*F29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" t="e">
-        <f>SUM(K29/N29)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" t="e">
-        <f>SUM(K29/O29)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>85</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>85</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -1532,99 +1545,99 @@
         <v>900</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N30">
-        <f>SUM(E30*(24/F30))</f>
+        <f>SUM(H30*(24/I30))</f>
         <v>36</v>
       </c>
       <c r="O30">
-        <f>SUM(E30*(24/F30))*I30</f>
+        <f>SUM(H30*(24/I30))*F30</f>
         <v>72</v>
       </c>
       <c r="P30">
-        <f>SUM(K30/N30)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="Q30">
-        <f>SUM(K30/O30)</f>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K31">
         <f>SUM(J31+J26)</f>
         <v>350</v>
       </c>
       <c r="N31" t="e">
-        <f>SUM(E31*(24/F31))</f>
+        <f>SUM(H31*(24/I31))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" t="e">
-        <f>SUM(E31*(24/F31))*I31</f>
+        <f>SUM(H31*(24/I31))*F31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" t="e">
-        <f>SUM(K31/N31)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" t="e">
-        <f>SUM(K31/O31)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
         <f>SUM(J32+J26)</f>
         <v>350</v>
       </c>
       <c r="N32" t="e">
-        <f>SUM(E32*(24/F32))</f>
+        <f>SUM(H32*(24/I32))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" t="e">
-        <f>SUM(E32*(24/F32))*I32</f>
+        <f>SUM(H32*(24/I32))*F32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" t="e">
-        <f>SUM(K32/N32)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" t="e">
-        <f>SUM(K32/O32)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>150</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>15</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>32</v>
-      </c>
-      <c r="G33">
-        <v>36</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
       </c>
       <c r="J33">
         <v>350</v>
@@ -1634,76 +1647,77 @@
         <v>700</v>
       </c>
       <c r="L33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N33">
-        <f>SUM(E33*(24/F33))</f>
+        <f>SUM(H33*(24/I33))</f>
         <v>11.25</v>
       </c>
       <c r="O33">
-        <f>SUM(E33*(24/F33))*I33</f>
+        <f>SUM(H33*(24/I33))*F33</f>
         <v>11.25</v>
       </c>
       <c r="P33">
-        <f>SUM(K33/N33)</f>
+        <f t="shared" si="4"/>
         <v>62.222222222222221</v>
       </c>
       <c r="Q33">
-        <f>SUM(K33/O33)</f>
+        <f t="shared" si="5"/>
         <v>62.222222222222221</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K34">
         <f>SUM(J34+J26)</f>
         <v>350</v>
       </c>
       <c r="N34" t="e">
-        <f>SUM(E34*(24/F34))</f>
+        <f>SUM(H34*(24/I34))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" t="e">
-        <f>SUM(E34*(24/F34))*I34</f>
+        <f>SUM(H34*(24/I34))*F34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" t="e">
-        <f>SUM(K34/N34)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" t="e">
-        <f>SUM(K34/O34)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
-      </c>
-    </row>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38">
+        <v>24</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>100</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>20</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>36</v>
-      </c>
-      <c r="G38">
-        <v>24</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
       </c>
       <c r="J38">
         <v>250</v>
@@ -1713,49 +1727,49 @@
         <v>250</v>
       </c>
       <c r="L38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N38">
-        <f>SUM(E38*(24/F38))</f>
+        <f>SUM(H38*(24/I38))</f>
         <v>13.333333333333332</v>
       </c>
       <c r="O38">
-        <f>SUM(E38*(24/F38))*I38</f>
+        <f>SUM(H38*(24/I38))*F38</f>
         <v>13.333333333333332</v>
       </c>
       <c r="P38">
-        <f>SUM(K38/N38)</f>
+        <f t="shared" ref="P38:P45" si="6">SUM(K38/N38)</f>
         <v>18.75</v>
       </c>
       <c r="Q38">
-        <f>SUM(K38/O38)</f>
+        <f t="shared" ref="Q38:Q45" si="7">SUM(K38/O38)</f>
         <v>18.75</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39">
         <v>50</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>550</v>
@@ -1765,96 +1779,96 @@
         <v>800</v>
       </c>
       <c r="L39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N39">
-        <f>SUM(E39*(24/F39))</f>
+        <f>SUM(H39*(24/I39))</f>
         <v>24</v>
       </c>
       <c r="O39">
-        <f>SUM(E39*(24/F39))*I39</f>
+        <f>SUM(H39*(24/I39))*F39</f>
         <v>96</v>
       </c>
       <c r="P39">
-        <f>SUM(K39/N39)</f>
+        <f t="shared" si="6"/>
         <v>33.333333333333336</v>
       </c>
       <c r="Q39">
-        <f>SUM(K39/O39)</f>
+        <f t="shared" si="7"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
         <f>SUM(J40+J38)</f>
         <v>250</v>
       </c>
       <c r="N40" t="e">
-        <f>SUM(E40*(24/F40))</f>
+        <f>SUM(H40*(24/I40))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" t="e">
-        <f>SUM(E40*(24/F40))*I40</f>
+        <f>SUM(H40*(24/I40))*F40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" t="e">
-        <f>SUM(K40/N40)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" t="e">
-        <f>SUM(K40/O40)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K41">
         <f>SUM(J41+J38)</f>
         <v>250</v>
       </c>
       <c r="N41" t="e">
-        <f>SUM(E41*(24/F41))</f>
+        <f>SUM(H41*(24/I41))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" t="e">
-        <f>SUM(E41*(24/F41))*I41</f>
+        <f>SUM(H41*(24/I41))*F41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" t="e">
-        <f>SUM(K41/N41)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" t="e">
-        <f>SUM(K41/O41)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>120</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>15</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>6</v>
-      </c>
-      <c r="G42">
-        <v>30</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
       </c>
       <c r="J42">
         <v>400</v>
@@ -1864,99 +1878,99 @@
         <v>650</v>
       </c>
       <c r="L42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N42">
-        <f>SUM(E42*(24/F42))</f>
+        <f>SUM(H42*(24/I42))</f>
         <v>60</v>
       </c>
       <c r="O42">
-        <f>SUM(E42*(24/F42))*I42</f>
+        <f>SUM(H42*(24/I42))*F42</f>
         <v>60</v>
       </c>
       <c r="P42">
-        <f>SUM(K42/N42)</f>
+        <f t="shared" si="6"/>
         <v>10.833333333333334</v>
       </c>
       <c r="Q42">
-        <f>SUM(K42/O42)</f>
+        <f t="shared" si="7"/>
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <f>SUM(J43+J38)</f>
         <v>250</v>
       </c>
       <c r="N43" t="e">
-        <f>SUM(E43*(24/F43))</f>
+        <f>SUM(H43*(24/I43))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" t="e">
-        <f>SUM(E43*(24/F43))*I43</f>
+        <f>SUM(H43*(24/I43))*F43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P43" t="e">
-        <f>SUM(K43/N43)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" t="e">
-        <f>SUM(K43/O43)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K44">
         <f>SUM(J44+J38)</f>
         <v>250</v>
       </c>
       <c r="N44" t="e">
-        <f>SUM(E44*(24/F44))</f>
+        <f>SUM(H44*(24/I44))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" t="e">
-        <f>SUM(E44*(24/F44))*I44</f>
+        <f>SUM(H44*(24/I44))*F44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P44" t="e">
-        <f>SUM(K44/N44)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" t="e">
-        <f>SUM(K44/O44)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J45">
         <v>250</v>
@@ -1966,56 +1980,57 @@
         <v>500</v>
       </c>
       <c r="L45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N45">
-        <f>SUM(E45*(24/F45))</f>
+        <f>SUM(H45*(24/I45))</f>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>SUM(E45*(24/F45))*I45</f>
+        <f>SUM(H45*(24/I45))*F45</f>
         <v>0</v>
       </c>
       <c r="P45" t="e">
-        <f>SUM(K45/N45)</f>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" t="e">
-        <f>SUM(K45/O45)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>21</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
         <v>133</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>15</v>
       </c>
-      <c r="F50">
+      <c r="I50">
         <v>60</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50">
-        <v>50</v>
-      </c>
-      <c r="I50">
-        <v>5</v>
       </c>
       <c r="J50">
         <v>100</v>
@@ -2025,14 +2040,14 @@
         <v>100</v>
       </c>
       <c r="L50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N50">
-        <f>SUM(E50*(24/F50))</f>
+        <f>SUM(H50*(24/I50))</f>
         <v>6</v>
       </c>
       <c r="O50">
-        <f>SUM(E50*(24/F50))*I50</f>
+        <f>SUM(H50*(24/I50))*F50</f>
         <v>30</v>
       </c>
       <c r="P50">
@@ -2044,30 +2059,30 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51">
+        <v>65</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
         <v>133</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>60</v>
       </c>
-      <c r="F51">
+      <c r="I51">
         <v>40</v>
-      </c>
-      <c r="G51">
-        <v>30</v>
-      </c>
-      <c r="H51">
-        <v>65</v>
-      </c>
-      <c r="I51">
-        <v>6</v>
       </c>
       <c r="J51">
         <v>300</v>
@@ -2077,14 +2092,14 @@
         <v>400</v>
       </c>
       <c r="L51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N51">
-        <f>SUM(E51*(24/F51))</f>
+        <f>SUM(H51*(24/I51))</f>
         <v>36</v>
       </c>
       <c r="O51">
-        <f>SUM(E51*(24/F51))*I51</f>
+        <f>SUM(H51*(24/I51))*F51</f>
         <v>216</v>
       </c>
       <c r="P51">
@@ -2096,25 +2111,25 @@
         <v>1.8518518518518519</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <f>SUM(J53+J50)</f>
         <v>100</v>
       </c>
       <c r="N53" t="e">
-        <f>SUM(E53*(24/F53))</f>
+        <f>SUM(H53*(24/I53))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" t="e">
-        <f>SUM(E53*(24/F53))*I53</f>
+        <f>SUM(H53*(24/I53))*F53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P53" t="e">
@@ -2126,20 +2141,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <f>SUM(J54+J50)</f>
         <v>100</v>
       </c>
       <c r="N54" t="e">
-        <f>SUM(E54*(24/F54))</f>
+        <f>SUM(H54*(24/I54))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" t="e">
-        <f>SUM(E54*(24/F54))*I54</f>
+        <f>SUM(H54*(24/I54))*F54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P54" t="e">
@@ -2151,16 +2166,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N55" t="e">
-        <f>SUM(E55*(24/F55))</f>
+        <f>SUM(H55*(24/I55))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O55" t="e">
-        <f>SUM(E55*(24/F55))*I55</f>
+        <f>SUM(H55*(24/I55))*F55</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P55" t="e">
@@ -2172,16 +2187,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N56" t="e">
-        <f>SUM(E56*(24/F56))</f>
+        <f>SUM(H56*(24/I56))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O56" t="e">
-        <f>SUM(E56*(24/F56))*I56</f>
+        <f>SUM(H56*(24/I56))*F56</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P56" t="e">
@@ -2193,42 +2208,43 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>44</v>
-      </c>
-    </row>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:17" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>100</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>8</v>
       </c>
-      <c r="F62">
+      <c r="I62">
         <v>3</v>
-      </c>
-      <c r="G62">
-        <v>30</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
       </c>
       <c r="J62">
         <v>260</v>
@@ -2238,14 +2254,14 @@
         <v>260</v>
       </c>
       <c r="L62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N62">
-        <f>SUM(E62*(24/F62))</f>
+        <f>SUM(H62*(24/I62))</f>
         <v>64</v>
       </c>
       <c r="O62">
-        <f>SUM(E62*(24/F62))*I62</f>
+        <f>SUM(H62*(24/I62))*F62</f>
         <v>64</v>
       </c>
       <c r="P62">
@@ -2259,25 +2275,25 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>100</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>10</v>
       </c>
-      <c r="F64">
+      <c r="I64">
         <v>12</v>
-      </c>
-      <c r="G64">
-        <v>20</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
       </c>
       <c r="J64">
         <v>10</v>
@@ -2287,14 +2303,14 @@
         <v>10</v>
       </c>
       <c r="L64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N64">
-        <f>SUM(E64*(24/F64))</f>
+        <f>SUM(H64*(24/I64))</f>
         <v>20</v>
       </c>
       <c r="O64">
-        <f>SUM(E64*(24/F64))*I64</f>
+        <f>SUM(H64*(24/I64))*F64</f>
         <v>20</v>
       </c>
       <c r="P64">

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62FD2E11-E5AD-4017-B9DB-490F2B61E6FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3D3AED53-358F-45DD-8B8A-4140F3453B4E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -639,12 +639,12 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2">
         <v>18</v>
       </c>
       <c r="J2">
@@ -658,20 +658,20 @@
         <v>33</v>
       </c>
       <c r="N2">
-        <f>SUM(H2*(24/I2))</f>
-        <v>13.333333333333332</v>
+        <f t="shared" ref="N2:N11" si="0">SUM(H2*(24/I2))</f>
+        <v>16</v>
       </c>
       <c r="O2">
-        <f>SUM(H2*(24/I2))*F2</f>
-        <v>13.333333333333332</v>
+        <f t="shared" ref="O2:O11" si="1">SUM(H2*(24/I2))*F2</f>
+        <v>16</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P11" si="0">SUM(K2/N2)</f>
-        <v>3.0000000000000004</v>
+        <f t="shared" ref="P2:P11" si="2">SUM(K2/N2)</f>
+        <v>2.5</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q11" si="1">SUM(K2/O2)</f>
-        <v>3.0000000000000004</v>
+        <f t="shared" ref="Q2:Q11" si="3">SUM(K2/O2)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -690,10 +690,10 @@
       <c r="G3">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>3</v>
       </c>
       <c r="J3">
@@ -707,19 +707,19 @@
         <v>33</v>
       </c>
       <c r="N3">
-        <f>SUM(H3*(24/I3))</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="O3">
-        <f>SUM(H3*(24/I3))*F3</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="P3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4285714285714288</v>
       </c>
       <c r="Q3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4285714285714288</v>
       </c>
     </row>
@@ -730,24 +730,26 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2"/>
       <c r="K4">
         <f>SUM(J4+J2)</f>
         <v>40</v>
       </c>
       <c r="N4" t="e">
-        <f>SUM(H4*(24/I4))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O4" t="e">
-        <f>SUM(H4*(24/I4))*F4</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P4" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -758,24 +760,26 @@
       <c r="C5" t="s">
         <v>1</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2"/>
       <c r="K5">
         <f>SUM(J5+J2)</f>
         <v>40</v>
       </c>
       <c r="N5" t="e">
-        <f>SUM(H5*(24/I5))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" t="e">
-        <f>SUM(H5*(24/I5))*F5</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P5" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -795,10 +799,10 @@
       <c r="G6">
         <v>125</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>4</v>
       </c>
       <c r="J6">
@@ -812,19 +816,19 @@
         <v>33</v>
       </c>
       <c r="N6">
-        <f>SUM(H6*(24/I6))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="O6">
-        <f>SUM(H6*(24/I6))*F6</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -835,24 +839,26 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="2"/>
       <c r="K7">
         <f>SUM(J7+J2)</f>
         <v>40</v>
       </c>
       <c r="N7" t="e">
-        <f>SUM(H7*(24/I7))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O7" t="e">
-        <f>SUM(H7*(24/I7))*F7</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P7" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -863,24 +869,26 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
       <c r="K8">
         <f>SUM(J8+J2)</f>
         <v>40</v>
       </c>
       <c r="N8" t="e">
-        <f>SUM(H8*(24/I8))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O8" t="e">
-        <f>SUM(H8*(24/I8))*F8</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -900,10 +908,10 @@
       <c r="G9">
         <v>95</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>20</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>12</v>
       </c>
       <c r="J9">
@@ -917,19 +925,19 @@
         <v>36</v>
       </c>
       <c r="N9">
-        <f>SUM(H9*(24/I9))</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O9">
-        <f>SUM(H9*(24/I9))*F9</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.625</v>
       </c>
     </row>
@@ -940,24 +948,26 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2"/>
       <c r="K10">
         <f>SUM(J10+J2)</f>
         <v>40</v>
       </c>
       <c r="N10" t="e">
-        <f>SUM(H10*(24/I10))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O10" t="e">
-        <f>SUM(H10*(24/I10))*F10</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P10" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -968,28 +978,37 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
       <c r="K11">
         <f>SUM(J11+J2)</f>
         <v>40</v>
       </c>
       <c r="N11" t="e">
-        <f>SUM(H11*(24/I11))</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" t="e">
-        <f>SUM(H11*(24/I11))*F11</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P11" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="2"/>
+    </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
@@ -1006,10 +1025,10 @@
       <c r="G14">
         <v>50</v>
       </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="1">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2">
         <v>24</v>
       </c>
       <c r="J14">
@@ -1023,20 +1042,20 @@
         <v>33</v>
       </c>
       <c r="N14">
-        <f>SUM(H14*(24/I14))</f>
-        <v>15</v>
+        <f t="shared" ref="N14:N23" si="4">SUM(H14*(24/I14))</f>
+        <v>17</v>
       </c>
       <c r="O14">
-        <f>SUM(H14*(24/I14))*F14</f>
-        <v>15</v>
+        <f t="shared" ref="O14:O23" si="5">SUM(H14*(24/I14))*F14</f>
+        <v>17</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P23" si="2">SUM(K14/N14)</f>
-        <v>2</v>
+        <f t="shared" ref="P14:P23" si="6">SUM(K14/N14)</f>
+        <v>1.7647058823529411</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14:Q23" si="3">SUM(K14/O14)</f>
-        <v>2</v>
+        <f t="shared" ref="Q14:Q23" si="7">SUM(K14/O14)</f>
+        <v>1.7647058823529411</v>
       </c>
     </row>
     <row r="15" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1055,10 +1074,10 @@
       <c r="G15">
         <v>50</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>30</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>12</v>
       </c>
       <c r="J15">
@@ -1072,19 +1091,19 @@
         <v>33</v>
       </c>
       <c r="N15">
-        <f>SUM(H15*(24/I15))</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="O15">
-        <f>SUM(H15*(24/I15))*F15</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="P15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.416666666666667</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.416666666666667</v>
       </c>
     </row>
@@ -1098,24 +1117,26 @@
       <c r="F16">
         <v>1</v>
       </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="2"/>
       <c r="K16">
         <f>SUM(J16+J14)</f>
         <v>30</v>
       </c>
       <c r="N16" t="e">
-        <f>SUM(H16*(24/I16))</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" t="e">
-        <f>SUM(H16*(24/I16))*F16</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P16" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q16" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1129,24 +1150,26 @@
       <c r="F17">
         <v>1</v>
       </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
       <c r="K17">
         <f>SUM(J17+J14)</f>
         <v>30</v>
       </c>
       <c r="N17" t="e">
-        <f>SUM(H17*(24/I17))</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" t="e">
-        <f>SUM(H17*(24/I17))*F17</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P17" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q17" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1166,10 +1189,10 @@
       <c r="G18">
         <v>50</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>38</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>15</v>
       </c>
       <c r="J18">
@@ -1183,19 +1206,19 @@
         <v>33</v>
       </c>
       <c r="N18">
-        <f>SUM(H18*(24/I18))</f>
+        <f t="shared" si="4"/>
         <v>60.800000000000004</v>
       </c>
       <c r="O18">
-        <f>SUM(H18*(24/I18))*F18</f>
+        <f t="shared" si="5"/>
         <v>60.800000000000004</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.8651315789473681</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.8651315789473681</v>
       </c>
     </row>
@@ -1206,24 +1229,26 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2"/>
       <c r="K19">
         <f>SUM(J19+J14)</f>
         <v>30</v>
       </c>
       <c r="N19" t="e">
-        <f>SUM(H19*(24/I19))</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" t="e">
-        <f>SUM(H19*(24/I19))*F19</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q19" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1234,24 +1259,26 @@
       <c r="C20" t="s">
         <v>17</v>
       </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
       <c r="K20">
         <f>SUM(J20+J14)</f>
         <v>30</v>
       </c>
       <c r="N20" t="e">
-        <f>SUM(H20*(24/I20))</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" t="e">
-        <f>SUM(H20*(24/I20))*F20</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1271,10 +1298,10 @@
       <c r="G21">
         <v>50</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>77</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>18</v>
       </c>
       <c r="J21">
@@ -1288,19 +1315,19 @@
         <v>33</v>
       </c>
       <c r="N21">
-        <f>SUM(H21*(24/I21))</f>
+        <f t="shared" si="4"/>
         <v>102.66666666666666</v>
       </c>
       <c r="O21">
-        <f>SUM(H21*(24/I21))*F21</f>
+        <f t="shared" si="5"/>
         <v>102.66666666666666</v>
       </c>
       <c r="P21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.6493506493506498</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.6493506493506498</v>
       </c>
     </row>
@@ -1311,24 +1338,26 @@
       <c r="C22" t="s">
         <v>18</v>
       </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
       <c r="K22">
         <f>SUM(J22+J14)</f>
         <v>30</v>
       </c>
       <c r="N22" t="e">
-        <f>SUM(H22*(24/I22))</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" t="e">
-        <f>SUM(H22*(24/I22))*F22</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q22" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1339,28 +1368,37 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="K23">
         <f>SUM(J23+J14)</f>
         <v>30</v>
       </c>
       <c r="N23" t="e">
-        <f>SUM(H23*(24/I23))</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O23" t="e">
-        <f>SUM(H23*(24/I23))*F23</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+    </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
@@ -1375,39 +1413,39 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>90</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <f>SUM(J26)</f>
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="L26" t="s">
         <v>37</v>
       </c>
       <c r="N26">
-        <f>SUM(H26*(24/I26))</f>
-        <v>36</v>
+        <f t="shared" ref="N26:N34" si="8">SUM(H26*(24/I26))</f>
+        <v>30</v>
       </c>
       <c r="O26">
-        <f>SUM(H26*(24/I26))*F26</f>
-        <v>36</v>
+        <f t="shared" ref="O26:O34" si="9">SUM(H26*(24/I26))*F26</f>
+        <v>30</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26:P34" si="4">SUM(K26/N26)</f>
-        <v>9.7222222222222214</v>
+        <f t="shared" ref="P26:P34" si="10">SUM(K26/N26)</f>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q34" si="5">SUM(K26/O26)</f>
-        <v>9.7222222222222214</v>
+        <f t="shared" ref="Q26:Q34" si="11">SUM(K26/O26)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1426,10 +1464,10 @@
       <c r="G27">
         <v>50</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>12.5</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>6</v>
       </c>
       <c r="J27">
@@ -1437,26 +1475,26 @@
       </c>
       <c r="K27">
         <f>SUM(J27+J26)</f>
-        <v>900</v>
+        <v>610</v>
       </c>
       <c r="L27" t="s">
         <v>38</v>
       </c>
       <c r="N27">
-        <f>SUM(H27*(24/I27))</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="O27">
-        <f>SUM(H27*(24/I27))*F27</f>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="P27">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="10"/>
+        <v>12.2</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>3.05</v>
       </c>
     </row>
     <row r="28" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1466,24 +1504,26 @@
       <c r="C28" t="s">
         <v>23</v>
       </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
       <c r="K28">
         <f>SUM(J28+J26)</f>
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N28" t="e">
-        <f>SUM(H28*(24/I28))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" t="e">
-        <f>SUM(H28*(24/I28))*F28</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1494,24 +1534,26 @@
       <c r="C29" t="s">
         <v>24</v>
       </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
       <c r="K29">
         <f>SUM(J29+J26)</f>
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N29" t="e">
-        <f>SUM(H29*(24/I29))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" t="e">
-        <f>SUM(H29*(24/I29))*F29</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1531,10 +1573,10 @@
       <c r="G30">
         <v>85</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>3</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>2</v>
       </c>
       <c r="J30">
@@ -1542,26 +1584,26 @@
       </c>
       <c r="K30">
         <f>SUM(J30+J26)</f>
-        <v>900</v>
+        <v>610</v>
       </c>
       <c r="L30" t="s">
         <v>38</v>
       </c>
       <c r="N30">
-        <f>SUM(H30*(24/I30))</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="O30">
-        <f>SUM(H30*(24/I30))*F30</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="P30">
-        <f t="shared" si="4"/>
-        <v>25</v>
+        <f t="shared" si="10"/>
+        <v>16.944444444444443</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
+        <f t="shared" si="11"/>
+        <v>8.4722222222222214</v>
       </c>
     </row>
     <row r="31" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1571,24 +1613,26 @@
       <c r="C31" t="s">
         <v>26</v>
       </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
       <c r="K31">
         <f>SUM(J31+J26)</f>
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N31" t="e">
-        <f>SUM(H31*(24/I31))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" t="e">
-        <f>SUM(H31*(24/I31))*F31</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1596,24 +1640,26 @@
       <c r="A32" t="s">
         <v>54</v>
       </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="2"/>
       <c r="K32">
         <f>SUM(J32+J26)</f>
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N32" t="e">
-        <f>SUM(H32*(24/I32))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" t="e">
-        <f>SUM(H32*(24/I32))*F32</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q32" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1633,10 +1679,10 @@
       <c r="G33">
         <v>150</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>15</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>32</v>
       </c>
       <c r="J33">
@@ -1644,26 +1690,26 @@
       </c>
       <c r="K33">
         <f>SUM(J33+J26)</f>
-        <v>700</v>
+        <v>410</v>
       </c>
       <c r="L33" t="s">
         <v>37</v>
       </c>
       <c r="N33">
-        <f>SUM(H33*(24/I33))</f>
+        <f t="shared" si="8"/>
         <v>11.25</v>
       </c>
       <c r="O33">
-        <f>SUM(H33*(24/I33))*F33</f>
+        <f t="shared" si="9"/>
         <v>11.25</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
-        <v>62.222222222222221</v>
+        <f t="shared" si="10"/>
+        <v>36.444444444444443</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="5"/>
-        <v>62.222222222222221</v>
+        <f t="shared" si="11"/>
+        <v>36.444444444444443</v>
       </c>
     </row>
     <row r="34" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1673,24 +1719,26 @@
       <c r="C34" t="s">
         <v>22</v>
       </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="2"/>
       <c r="K34">
         <f>SUM(J34+J26)</f>
-        <v>350</v>
+        <v>60</v>
       </c>
       <c r="N34" t="e">
-        <f>SUM(H34*(24/I34))</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" t="e">
-        <f>SUM(H34*(24/I34))*F34</f>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q34" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1698,8 +1746,17 @@
       <c r="A35" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+      <c r="I37" s="2"/>
+    </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
@@ -1713,10 +1770,10 @@
       <c r="G38">
         <v>100</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>20</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>36</v>
       </c>
       <c r="J38">
@@ -1730,19 +1787,19 @@
         <v>39</v>
       </c>
       <c r="N38">
-        <f>SUM(H38*(24/I38))</f>
+        <f t="shared" ref="N38:N45" si="12">SUM(H38*(24/I38))</f>
         <v>13.333333333333332</v>
       </c>
       <c r="O38">
-        <f>SUM(H38*(24/I38))*F38</f>
+        <f t="shared" ref="O38:O45" si="13">SUM(H38*(24/I38))*F38</f>
         <v>13.333333333333332</v>
       </c>
       <c r="P38">
-        <f t="shared" ref="P38:P45" si="6">SUM(K38/N38)</f>
+        <f t="shared" ref="P38:P45" si="14">SUM(K38/N38)</f>
         <v>18.75</v>
       </c>
       <c r="Q38">
-        <f t="shared" ref="Q38:Q45" si="7">SUM(K38/O38)</f>
+        <f t="shared" ref="Q38:Q45" si="15">SUM(K38/O38)</f>
         <v>18.75</v>
       </c>
     </row>
@@ -1765,10 +1822,10 @@
       <c r="G39">
         <v>50</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>1</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39">
@@ -1782,19 +1839,19 @@
         <v>39</v>
       </c>
       <c r="N39">
-        <f>SUM(H39*(24/I39))</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="O39">
-        <f>SUM(H39*(24/I39))*F39</f>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
       <c r="P39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>33.333333333333336</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -1802,24 +1859,26 @@
       <c r="A40" t="s">
         <v>55</v>
       </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="2"/>
       <c r="K40">
         <f>SUM(J40+J38)</f>
         <v>250</v>
       </c>
       <c r="N40" t="e">
-        <f>SUM(H40*(24/I40))</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" t="e">
-        <f>SUM(H40*(24/I40))*F40</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q40" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1827,24 +1886,26 @@
       <c r="A41" t="s">
         <v>55</v>
       </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="2"/>
       <c r="K41">
         <f>SUM(J41+J38)</f>
         <v>250</v>
       </c>
       <c r="N41" t="e">
-        <f>SUM(H41*(24/I41))</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" t="e">
-        <f>SUM(H41*(24/I41))*F41</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P41" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q41" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1864,10 +1925,10 @@
       <c r="G42">
         <v>120</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>15</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>6</v>
       </c>
       <c r="J42">
@@ -1881,19 +1942,19 @@
         <v>39</v>
       </c>
       <c r="N42">
-        <f>SUM(H42*(24/I42))</f>
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
       <c r="O42">
-        <f>SUM(H42*(24/I42))*F42</f>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="P42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>10.833333333333334</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>10.833333333333334</v>
       </c>
     </row>
@@ -1901,24 +1962,26 @@
       <c r="A43" t="s">
         <v>55</v>
       </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="2"/>
       <c r="K43">
         <f>SUM(J43+J38)</f>
         <v>250</v>
       </c>
       <c r="N43" t="e">
-        <f>SUM(H43*(24/I43))</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" t="e">
-        <f>SUM(H43*(24/I43))*F43</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P43" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q43" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1926,24 +1989,26 @@
       <c r="A44" t="s">
         <v>55</v>
       </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="2"/>
       <c r="K44">
         <f>SUM(J44+J38)</f>
         <v>250</v>
       </c>
       <c r="N44" t="e">
-        <f>SUM(H44*(24/I44))</f>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" t="e">
-        <f>SUM(H44*(24/I44))*F44</f>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P44" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q44" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1966,10 +2031,10 @@
       <c r="G45">
         <v>2</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>0</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="2">
         <v>24</v>
       </c>
       <c r="J45">
@@ -1983,19 +2048,19 @@
         <v>53</v>
       </c>
       <c r="N45">
-        <f>SUM(H45*(24/I45))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f>SUM(H45*(24/I45))*F45</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P45" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q45" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2003,13 +2068,24 @@
       <c r="A46" t="s">
         <v>20</v>
       </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:17" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+      <c r="I49" s="2"/>
+    </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
@@ -2026,10 +2102,10 @@
       <c r="G50">
         <v>133</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>15</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>60</v>
       </c>
       <c r="J50">
@@ -2078,10 +2154,10 @@
       <c r="G51">
         <v>133</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>60</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="2">
         <v>40</v>
       </c>
       <c r="J51">
@@ -2115,11 +2191,15 @@
       <c r="A52" t="s">
         <v>43</v>
       </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="2"/>
       <c r="K53">
         <f>SUM(J53+J50)</f>
         <v>100</v>
@@ -2145,6 +2225,8 @@
       <c r="A54" t="s">
         <v>43</v>
       </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="2"/>
       <c r="K54">
         <f>SUM(J54+J50)</f>
         <v>100</v>
@@ -2170,6 +2252,8 @@
       <c r="A55" t="s">
         <v>43</v>
       </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="2"/>
       <c r="N55" t="e">
         <f>SUM(H55*(24/I55))</f>
         <v>#DIV/0!</v>
@@ -2191,6 +2275,8 @@
       <c r="A56" t="s">
         <v>43</v>
       </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="2"/>
       <c r="N56" t="e">
         <f>SUM(H56*(24/I56))</f>
         <v>#DIV/0!</v>
@@ -2212,18 +2298,31 @@
       <c r="A57" t="s">
         <v>43</v>
       </c>
+      <c r="H57" s="1"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
+      <c r="H58" s="1"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" collapsed="1" x14ac:dyDescent="0.25"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:17" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
+      <c r="I61" s="2"/>
+    </row>
     <row r="62" spans="1:17" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>46</v>
@@ -2240,10 +2339,10 @@
       <c r="G62">
         <v>100</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>8</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="2">
         <v>3</v>
       </c>
       <c r="J62">
@@ -2273,6 +2372,10 @@
         <v>4.0625</v>
       </c>
     </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+      <c r="I63" s="2"/>
+    </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>44</v>
@@ -2289,10 +2392,10 @@
       <c r="G64">
         <v>100</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>10</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="2">
         <v>12</v>
       </c>
       <c r="J64">

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A325D24F-945B-4702-88CC-B32AD4CB0D87}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF90C3A4-AAB9-48DB-8001-6C9923F275FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -567,8 +567,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -689,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
         <v>135</v>
@@ -706,19 +706,19 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" si="2"/>
-        <v>3.125</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" si="3"/>
-        <v>1.5625</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="O3">
         <v>30</v>
@@ -1630,43 +1630,46 @@
       <c r="A33" t="s">
         <v>49</v>
       </c>
+      <c r="B33">
+        <v>85</v>
+      </c>
       <c r="C33">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G33" s="3">
-        <v>350</v>
+        <v>160</v>
       </c>
       <c r="H33" s="3">
         <f>SUM(G33+G26)</f>
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="8"/>
-        <v>11.25</v>
+        <v>22.105263157894736</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="9"/>
-        <v>11.25</v>
+        <v>66.315789473684205</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="10"/>
-        <v>36.444444444444443</v>
+        <v>9.9523809523809526</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="11"/>
-        <v>36.444444444444443</v>
+        <v>3.3174603174603177</v>
       </c>
       <c r="O33">
         <v>36</v>
@@ -2115,21 +2118,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>38</v>
       </c>
       <c r="B51">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C51">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F51" s="2">
         <v>28</v>
@@ -2146,25 +2149,25 @@
       </c>
       <c r="K51" s="4">
         <f>SUM(E51*(24/F51))</f>
-        <v>51.428571428571423</v>
+        <v>30</v>
       </c>
       <c r="L51" s="4">
         <f>SUM(E51*(24/F51))*D51</f>
-        <v>154.28571428571428</v>
+        <v>120</v>
       </c>
       <c r="M51" s="5">
         <f>SUM(H51/K51)</f>
-        <v>4.4722222222222223</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="N51" s="5">
         <f>SUM(H51/L51)</f>
-        <v>1.4907407407407409</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="O51">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
       <c r="G52" s="3"/>
@@ -2174,7 +2177,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
       <c r="G53" s="3"/>
@@ -2199,7 +2202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
       <c r="G54" s="3"/>
@@ -2224,7 +2227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
@@ -2246,7 +2249,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="2"/>
       <c r="G56" s="3"/>
@@ -2268,7 +2271,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
@@ -2278,7 +2281,7 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
       <c r="G58" s="3"/>
@@ -2288,7 +2291,7 @@
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="2"/>
       <c r="G59" s="3"/>
@@ -2298,7 +2301,7 @@
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
-    <row r="60" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
       <c r="G60" s="3"/>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CF90C3A4-AAB9-48DB-8001-6C9923F275FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D14ECF66-C35C-4522-BE49-63F22209334B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Rogue</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>_FireSpout</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -566,15 +572,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E33" sqref="E33"/>
+      <selection pane="topRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
@@ -582,35 +588,42 @@
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
       <c r="K1" t="s">
@@ -630,48 +643,51 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>18</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>40</v>
       </c>
-      <c r="H2" s="3">
-        <f>SUM(G2)</f>
+      <c r="I2" s="3">
+        <f>SUM(H2)</f>
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K11" si="0">SUM(E2*(24/F2))</f>
+        <f>SUM(F2*(24/G2))</f>
         <v>16</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L11" si="1">SUM(E2*(24/F2))*D2</f>
+        <f>SUM(F2*(24/G2))*E2</f>
         <v>16</v>
       </c>
       <c r="M2" s="5">
-        <f t="shared" ref="M2:M11" si="2">SUM(H2/K2)</f>
+        <f>SUM(I2/K2)</f>
         <v>2.5</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" ref="N2:N11" si="3">SUM(H2/L2)</f>
+        <f>SUM(I2/L2)</f>
         <v>2.5</v>
       </c>
       <c r="O2">
@@ -679,45 +695,48 @@
       </c>
     </row>
     <row r="3" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>100</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>25</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>20</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>135</v>
       </c>
-      <c r="H3" s="3">
-        <f>SUM(G3+G2)</f>
+      <c r="I3" s="3">
+        <f>SUM(H3+H2)</f>
         <v>175</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(F3*(24/G3))</f>
         <v>30</v>
       </c>
       <c r="L3" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(F3*(24/G3))*E3</f>
         <v>60</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" si="2"/>
+        <f>SUM(I3/K3)</f>
         <v>5.833333333333333</v>
       </c>
       <c r="N3" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(I3/L3)</f>
         <v>2.9166666666666665</v>
       </c>
       <c r="O3">
@@ -725,101 +744,86 @@
       </c>
     </row>
     <row r="4" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <f>SUM(G4+G2)</f>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <f>SUM(H4+H2)</f>
         <v>40</v>
       </c>
-      <c r="K4" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <f>SUM(G5+G2)</f>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <f>SUM(H5+H2)</f>
         <v>40</v>
       </c>
-      <c r="K5" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>125</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>180</v>
       </c>
-      <c r="H6" s="3">
-        <f>SUM(G6+G2)</f>
+      <c r="I6" s="3">
+        <f>SUM(H6+H2)</f>
         <v>220</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(F6*(24/G6))</f>
         <v>60</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(F6*(24/G6))*E6</f>
         <v>60</v>
       </c>
       <c r="M6" s="5">
-        <f t="shared" si="2"/>
+        <f>SUM(I6/K6)</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(I6/L6)</f>
         <v>3.6666666666666665</v>
       </c>
       <c r="O6">
@@ -827,101 +831,86 @@
       </c>
     </row>
     <row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <f>SUM(G7+G2)</f>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <f>SUM(H7+H2)</f>
         <v>40</v>
       </c>
-      <c r="K7" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <f>SUM(G8+G2)</f>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <f>SUM(H8+H2)</f>
         <v>40</v>
       </c>
-      <c r="K8" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>95</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>60</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>24</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120</v>
       </c>
-      <c r="H9" s="3">
-        <f>SUM(G9+G2)</f>
+      <c r="I9" s="3">
+        <f>SUM(H9+H2)</f>
         <v>160</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(F9*(24/G9))</f>
         <v>60</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(F9*(24/G9))*E9</f>
         <v>60</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="2"/>
+        <f>SUM(I9/K9)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(I9/L9)</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="O9">
@@ -929,551 +918,581 @@
       </c>
     </row>
     <row r="10" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <f>SUM(G10+G2)</f>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <f>SUM(H10+H2)</f>
         <v>40</v>
       </c>
-      <c r="K10" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <f>SUM(G11+G2)</f>
+      <c r="F11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <f>SUM(H11+H2)</f>
         <v>40</v>
       </c>
-      <c r="K11" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>17</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>30</v>
       </c>
-      <c r="H14" s="3">
-        <f>SUM(G14)</f>
+      <c r="I14" s="3">
+        <f>SUM(H14)</f>
         <v>30</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" ref="K14:K23" si="4">SUM(E14*(24/F14))</f>
+        <f>SUM(F14*(24/G14))</f>
         <v>17</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" ref="L14:L23" si="5">SUM(E14*(24/F14))*D14</f>
+        <f>SUM(F14*(24/G14))*E14</f>
         <v>17</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" ref="M14:M23" si="6">SUM(H14/K14)</f>
+        <f>SUM(I14/K14)</f>
         <v>1.7647058823529411</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" ref="N14:N23" si="7">SUM(H14/L14)</f>
+        <f>SUM(I14/L14)</f>
         <v>1.7647058823529411</v>
       </c>
       <c r="O14">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>50</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>50</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>16</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>120</v>
       </c>
-      <c r="H15" s="3">
-        <f>SUM(G15+G14)</f>
+      <c r="I15" s="3">
+        <f>SUM(H15+H14)</f>
         <v>150</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F15*(24/G15))</f>
         <v>75</v>
       </c>
       <c r="L15" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(F15*(24/G15))*E15</f>
         <v>75</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(I15/K15)</f>
         <v>2</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(I15/L15)</f>
         <v>2</v>
       </c>
       <c r="O15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <f>SUM(G16+G14)</f>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <f>SUM(H16+H14)</f>
         <v>30</v>
       </c>
       <c r="K16" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f>SUM(F16*(24/G16))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L16" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f>SUM(F16*(24/G16))*E16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(I16/K16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <f>SUM(I16/L16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <f>SUM(G17+G14)</f>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <f>SUM(H17+H14)</f>
         <v>30</v>
       </c>
       <c r="K17" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f>SUM(F17*(24/G17))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L17" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f>SUM(F17*(24/G17))*E17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(I17/K17)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N17" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <f>SUM(I17/L17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>50</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>40</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>15</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>160</v>
       </c>
-      <c r="H18" s="3">
-        <f>SUM(G18+G14)</f>
+      <c r="I18" s="3">
+        <f>SUM(H18+H14)</f>
         <v>190</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F18*(24/G18))</f>
         <v>64</v>
       </c>
       <c r="L18" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(F18*(24/G18))*E18</f>
         <v>64</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(I18/K18)</f>
         <v>2.96875</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(I18/L18)</f>
         <v>2.96875</v>
       </c>
       <c r="O18">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
-        <f>SUM(G19+G14)</f>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <f>SUM(H19+H14)</f>
         <v>30</v>
       </c>
       <c r="K19" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f>SUM(F19*(24/G19))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f>SUM(F19*(24/G19))*E19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(I19/K19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <f>SUM(I19/L19)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <f>SUM(G20+G14)</f>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <f>SUM(H20+H14)</f>
         <v>30</v>
       </c>
       <c r="K20" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f>SUM(F20*(24/G20))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f>SUM(F20*(24/G20))*E20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(I20/K20)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <f>SUM(I20/L20)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>50</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>77</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>18</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>550</v>
       </c>
-      <c r="H21" s="3">
-        <f>SUM(G21+G14)</f>
+      <c r="I21" s="3">
+        <f>SUM(H21+H14)</f>
         <v>580</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>15</v>
       </c>
       <c r="K21" s="4">
-        <f t="shared" si="4"/>
+        <f>SUM(F21*(24/G21))</f>
         <v>102.66666666666666</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" si="5"/>
+        <f>SUM(F21*(24/G21))*E21</f>
         <v>102.66666666666666</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="6"/>
+        <f>SUM(I21/K21)</f>
         <v>5.6493506493506498</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="7"/>
+        <f>SUM(I21/L21)</f>
         <v>5.6493506493506498</v>
       </c>
       <c r="O21">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <f>SUM(G22+G14)</f>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <f>SUM(H22+H14)</f>
         <v>30</v>
       </c>
       <c r="K22" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f>SUM(F22*(24/G22))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f>SUM(F22*(24/G22))*E22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(I22/K22)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <f>SUM(I22/L22)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <f>SUM(G23+G14)</f>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <f>SUM(H23+H14)</f>
         <v>30</v>
       </c>
       <c r="K23" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f>SUM(F23*(24/G23))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f>SUM(F23*(24/G23))*E23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="5" t="e">
-        <f t="shared" si="6"/>
+        <f>SUM(I23/K23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="3"/>
+        <f>SUM(I23/L23)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+    <row r="25" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>75</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>4</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>60</v>
       </c>
-      <c r="H26" s="3">
-        <f>SUM(G26)</f>
+      <c r="I26" s="3">
+        <f>SUM(H26)</f>
         <v>60</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="4">
-        <f t="shared" ref="K26:K34" si="8">SUM(E26*(24/F26))</f>
+        <f>SUM(F26*(24/G26))</f>
         <v>30</v>
       </c>
       <c r="L26" s="4">
-        <f t="shared" ref="L26:L34" si="9">SUM(E26*(24/F26))*D26</f>
+        <f>SUM(F26*(24/G26))*E26</f>
         <v>30</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" ref="M26:M34" si="10">SUM(H26/K26)</f>
+        <f>SUM(I26/K26)</f>
         <v>2</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" ref="N26:N34" si="11">SUM(H26/L26)</f>
+        <f>SUM(I26/L26)</f>
         <v>2</v>
       </c>
       <c r="O26">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:15" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>50</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>10</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>8</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>220</v>
       </c>
-      <c r="H27" s="3">
-        <f>SUM(G27+G26)</f>
+      <c r="I27" s="3">
+        <f>SUM(H27+H26)</f>
         <v>280</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(F27*(24/G27))</f>
         <v>30</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(F27*(24/G27))*E27</f>
         <v>180</v>
       </c>
       <c r="M27" s="5">
-        <f t="shared" si="10"/>
+        <f>SUM(I27/K27)</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="11"/>
+        <f>SUM(I27/L27)</f>
         <v>1.5555555555555556</v>
       </c>
       <c r="O27">
@@ -1481,95 +1500,80 @@
       </c>
     </row>
     <row r="28" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <f>SUM(G28+G26)</f>
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <f>SUM(H28+H26)</f>
         <v>60</v>
       </c>
-      <c r="K28" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3">
-        <f>SUM(G29+G26)</f>
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <f>SUM(H29+H26)</f>
         <v>60</v>
       </c>
-      <c r="K29" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>50</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>85</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>10</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>4</v>
       </c>
-      <c r="G30" s="3">
+      <c r="H30" s="3">
         <v>120</v>
       </c>
-      <c r="H30" s="3">
-        <f>SUM(G30+G26)</f>
+      <c r="I30" s="3">
+        <f>SUM(H30+H26)</f>
         <v>180</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>20</v>
       </c>
       <c r="K30" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(F30*(24/G30))</f>
         <v>60</v>
       </c>
       <c r="L30" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(F30*(24/G30))*E30</f>
         <v>120</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="10"/>
+        <f>SUM(I30/K30)</f>
         <v>3</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="11"/>
+        <f>SUM(I30/L30)</f>
         <v>1.5</v>
       </c>
       <c r="O30">
@@ -1577,98 +1581,83 @@
       </c>
     </row>
     <row r="31" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <f>SUM(G31+G26)</f>
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <f>SUM(H31+H26)</f>
         <v>60</v>
       </c>
-      <c r="K31" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M31" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <f>SUM(G32+G26)</f>
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <f>SUM(H32+H26)</f>
         <v>60</v>
       </c>
-      <c r="K32" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M32" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>85</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>100</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <v>35</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>38</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>160</v>
       </c>
-      <c r="H33" s="3">
-        <f>SUM(G33+G26)</f>
+      <c r="I33" s="3">
+        <f>SUM(H33+H26)</f>
         <v>220</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="4">
-        <f t="shared" si="8"/>
+        <f>SUM(F33*(24/G33))</f>
         <v>22.105263157894736</v>
       </c>
       <c r="L33" s="4">
-        <f t="shared" si="9"/>
+        <f>SUM(F33*(24/G33))*E33</f>
         <v>66.315789473684205</v>
       </c>
       <c r="M33" s="5">
-        <f t="shared" si="10"/>
+        <f>SUM(I33/K33)</f>
         <v>9.9523809523809526</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="11"/>
+        <f>SUM(I33/L33)</f>
         <v>3.3174603174603177</v>
       </c>
       <c r="O33">
@@ -1676,442 +1665,481 @@
       </c>
     </row>
     <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3">
-        <f>SUM(G34+G26)</f>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <f>SUM(H34+H26)</f>
         <v>60</v>
       </c>
-      <c r="K34" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="5" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="5" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>34</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>100</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="E38" s="1">
+      <c r="F38" s="1">
         <v>20</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>24</v>
       </c>
-      <c r="G38" s="3">
+      <c r="H38" s="3">
         <v>80</v>
       </c>
-      <c r="H38" s="3">
-        <f>SUM(G38)</f>
+      <c r="I38" s="3">
+        <f>SUM(H38)</f>
         <v>80</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>21</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" ref="K38:K45" si="12">SUM(E38*(24/F38))</f>
+        <f>SUM(F38*(24/G38))</f>
         <v>20</v>
       </c>
       <c r="L38" s="4">
-        <f t="shared" ref="L38:L45" si="13">SUM(E38*(24/F38))*D38</f>
+        <f>SUM(F38*(24/G38))*E38</f>
         <v>20</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" ref="M38:M45" si="14">SUM(H38/K38)</f>
+        <f>SUM(I38/K38)</f>
         <v>4</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" ref="N38:N45" si="15">SUM(H38/L38)</f>
+        <f>SUM(I38/L38)</f>
         <v>4</v>
       </c>
       <c r="O38">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>50</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>24</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H39" s="3">
         <v>220</v>
       </c>
-      <c r="H39" s="3">
-        <f>SUM(G39+G38)</f>
+      <c r="I39" s="3">
+        <f>SUM(H39+H38)</f>
         <v>300</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>21</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(F39*(24/G39))</f>
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" si="13"/>
+        <f>SUM(F39*(24/G39))*E39</f>
         <v>0</v>
       </c>
       <c r="M39" s="5" t="e">
-        <f t="shared" si="14"/>
+        <f>SUM(I39/K39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="5" t="e">
-        <f t="shared" si="15"/>
+        <f>SUM(I39/L39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <f>SUM(G40+G38)</f>
+    <row r="40" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <f>SUM(H40+H38)</f>
         <v>80</v>
       </c>
       <c r="K40" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f>SUM(F40*(24/G40))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f>SUM(F40*(24/G40))*E40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M40" s="5" t="e">
-        <f t="shared" si="14"/>
+        <f>SUM(I40/K40)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="5" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <f>SUM(G41+G38)</f>
+        <f>SUM(I40/L40)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <f>SUM(H41+H38)</f>
         <v>80</v>
       </c>
       <c r="K41" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f>SUM(F41*(24/G41))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L41" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f>SUM(F41*(24/G41))*E41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M41" s="5" t="e">
-        <f t="shared" si="14"/>
+        <f>SUM(I41/K41)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="5" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <f>SUM(I41/L41)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>133</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="E42" s="1">
+      <c r="F42" s="1">
         <v>80</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>22</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>180</v>
       </c>
-      <c r="H42" s="3">
-        <f>SUM(G42+G38)</f>
+      <c r="I42" s="3">
+        <f>SUM(H42+H38)</f>
         <v>260</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(F42*(24/G42))</f>
         <v>87.272727272727266</v>
       </c>
       <c r="L42" s="4">
-        <f t="shared" si="13"/>
+        <f>SUM(F42*(24/G42))*E42</f>
         <v>87.272727272727266</v>
       </c>
       <c r="M42" s="5">
-        <f t="shared" si="14"/>
+        <f>SUM(I42/K42)</f>
         <v>2.979166666666667</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="15"/>
+        <f>SUM(I42/L42)</f>
         <v>2.979166666666667</v>
       </c>
       <c r="O42">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
-        <f>SUM(G43+G38)</f>
+    <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <f>SUM(H43+H38)</f>
         <v>80</v>
       </c>
       <c r="K43" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f>SUM(F43*(24/G43))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L43" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f>SUM(F43*(24/G43))*E43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="5" t="e">
-        <f t="shared" si="14"/>
+        <f>SUM(I43/K43)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="5" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <f>SUM(G44+G38)</f>
+        <f>SUM(I43/L43)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <f>SUM(H44+H38)</f>
         <v>80</v>
       </c>
       <c r="K44" s="4" t="e">
-        <f t="shared" si="12"/>
+        <f>SUM(F44*(24/G44))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L44" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f>SUM(F44*(24/G44))*E44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" s="5" t="e">
-        <f t="shared" si="14"/>
+        <f>SUM(I44/K44)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="5" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+        <f>SUM(I44/L44)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>37</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>2</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0</v>
       </c>
-      <c r="E45" s="1">
+      <c r="F45" s="1">
         <v>0</v>
       </c>
-      <c r="F45" s="2">
+      <c r="G45" s="2">
         <v>24</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>250</v>
       </c>
-      <c r="H45" s="3">
-        <f>SUM(G45+G38)</f>
+      <c r="I45" s="3">
+        <f>SUM(H45+H38)</f>
         <v>330</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>32</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="12"/>
+        <f>SUM(F45*(24/G45))</f>
         <v>0</v>
       </c>
       <c r="L45" s="4">
-        <f t="shared" si="13"/>
+        <f>SUM(F45*(24/G45))*E45</f>
         <v>0</v>
       </c>
       <c r="M45" s="5" t="e">
-        <f t="shared" si="14"/>
+        <f>SUM(I45/K45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N45" s="5" t="e">
-        <f t="shared" si="15"/>
+        <f>SUM(I45/L45)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
+    <row r="46" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="3"/>
+    <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="3"/>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
+    <row r="49" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>25</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>50</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>112</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="F50" s="1">
         <v>8</v>
       </c>
-      <c r="F50" s="2">
+      <c r="G50" s="2">
         <v>16</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <v>50</v>
       </c>
-      <c r="H50" s="3">
-        <f>SUM(G50)</f>
+      <c r="I50" s="3">
+        <f>SUM(H50)</f>
         <v>50</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="4">
-        <f>SUM(E50*(24/F50))</f>
+        <f>SUM(F50*(24/G50))</f>
         <v>12</v>
       </c>
       <c r="L50" s="4">
-        <f>SUM(E50*(24/F50))*D50</f>
+        <f>SUM(F50*(24/G50))*E50</f>
         <v>24</v>
       </c>
       <c r="M50" s="5">
-        <f>SUM(H50/K50)</f>
+        <f>SUM(I50/K50)</f>
         <v>4.166666666666667</v>
       </c>
       <c r="N50" s="5">
-        <f>SUM(H50/L50)</f>
+        <f>SUM(I50/L50)</f>
         <v>2.0833333333333335</v>
       </c>
       <c r="O50">
@@ -2119,48 +2147,51 @@
       </c>
     </row>
     <row r="51" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>95</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>110</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>4</v>
       </c>
-      <c r="E51" s="1">
+      <c r="F51" s="1">
         <v>35</v>
       </c>
-      <c r="F51" s="2">
+      <c r="G51" s="2">
         <v>28</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>180</v>
       </c>
-      <c r="H51" s="3">
-        <f>SUM(G51+G50)</f>
+      <c r="I51" s="3">
+        <f>SUM(H51+H50)</f>
         <v>230</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>15</v>
       </c>
       <c r="K51" s="4">
-        <f>SUM(E51*(24/F51))</f>
+        <f>SUM(F51*(24/G51))</f>
         <v>30</v>
       </c>
       <c r="L51" s="4">
-        <f>SUM(E51*(24/F51))*D51</f>
+        <f>SUM(F51*(24/G51))*E51</f>
         <v>120</v>
       </c>
       <c r="M51" s="5">
-        <f>SUM(H51/K51)</f>
+        <f>SUM(I51/K51)</f>
         <v>7.666666666666667</v>
       </c>
       <c r="N51" s="5">
-        <f>SUM(H51/L51)</f>
+        <f>SUM(I51/L51)</f>
         <v>1.9166666666666667</v>
       </c>
       <c r="O51">
@@ -2168,202 +2199,148 @@
       </c>
     </row>
     <row r="52" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3">
-        <f>SUM(G53+G50)</f>
-        <v>50</v>
-      </c>
-      <c r="K53" s="4" t="e">
-        <f>SUM(E53*(24/F53))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="4" t="e">
-        <f>SUM(E53*(24/F53))*D53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M53" s="5" t="e">
-        <f>SUM(H53/K53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N53" s="5" t="e">
-        <f>SUM(H53/L53)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
-        <f>SUM(G54+G50)</f>
-        <v>50</v>
-      </c>
-      <c r="K54" s="4" t="e">
-        <f>SUM(E54*(24/F54))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" s="4" t="e">
-        <f>SUM(E54*(24/F54))*D54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M54" s="5" t="e">
-        <f>SUM(H54/K54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N54" s="5" t="e">
-        <f>SUM(H54/L54)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="3"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="3"/>
-      <c r="K55" s="4" t="e">
-        <f>SUM(E55*(24/F55))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L55" s="4" t="e">
-        <f>SUM(E55*(24/F55))*D55</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M55" s="5" t="e">
-        <f>SUM(H55/K55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N55" s="5" t="e">
-        <f>SUM(H55/L55)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I55" s="3"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="3"/>
-      <c r="K56" s="4" t="e">
-        <f>SUM(E56*(24/F56))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" s="4" t="e">
-        <f>SUM(E56*(24/F56))*D56</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M56" s="5" t="e">
-        <f>SUM(H56/K56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N56" s="5" t="e">
-        <f>SUM(H56/L56)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="I56" s="3"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="3"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="3"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="3"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="3"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="3"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
     </row>
-    <row r="62" spans="1:15" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>27</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>0</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>100</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>1</v>
       </c>
-      <c r="E62" s="1">
+      <c r="F62" s="1">
         <v>8</v>
       </c>
-      <c r="F62" s="2">
+      <c r="G62" s="2">
         <v>3</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>260</v>
       </c>
-      <c r="H62" s="3">
-        <f>SUM(G62)</f>
+      <c r="I62" s="3">
+        <f>SUM(H62)</f>
         <v>260</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>15</v>
       </c>
       <c r="K62" s="4">
-        <f>SUM(E62*(24/F62))</f>
+        <f>SUM(F62*(24/G62))</f>
         <v>64</v>
       </c>
       <c r="L62" s="4">
-        <f>SUM(E62*(24/F62))*D62</f>
+        <f>SUM(F62*(24/G62))*E62</f>
         <v>64</v>
       </c>
       <c r="M62" s="5">
-        <f>SUM(H62/K62)</f>
+        <f>SUM(I62/K62)</f>
         <v>4.0625</v>
       </c>
       <c r="N62" s="5">
-        <f>SUM(H62/L62)</f>
+        <f>SUM(I62/L62)</f>
         <v>4.0625</v>
       </c>
       <c r="O62">
@@ -2371,58 +2348,58 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B64" t="s">
         <v>26</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>0</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>100</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>1</v>
       </c>
-      <c r="E64" s="1">
+      <c r="F64" s="1">
         <v>10</v>
       </c>
-      <c r="F64" s="2">
+      <c r="G64" s="2">
         <v>12</v>
       </c>
-      <c r="G64" s="3">
+      <c r="H64" s="3">
         <v>10</v>
       </c>
-      <c r="H64" s="3">
-        <f>SUM(G64)</f>
+      <c r="I64" s="3">
+        <f>SUM(H64)</f>
         <v>10</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>20</v>
       </c>
       <c r="K64" s="4">
-        <f>SUM(E64*(24/F64))</f>
+        <f>SUM(F64*(24/G64))</f>
         <v>20</v>
       </c>
       <c r="L64" s="4">
-        <f>SUM(E64*(24/F64))*D64</f>
+        <f>SUM(F64*(24/G64))*E64</f>
         <v>20</v>
       </c>
       <c r="M64" s="5">
-        <f>SUM(H64/K64)</f>
+        <f>SUM(I64/K64)</f>
         <v>0.5</v>
       </c>
       <c r="N64" s="5">
-        <f>SUM(H64/L64)</f>
+        <f>SUM(I64/L64)</f>
         <v>0.5</v>
       </c>
       <c r="O64">

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{322D2E5F-F181-4E2D-B88F-C302E883CE26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D693C992-88E0-48F8-AFE6-84C0FCF4441A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I30" sqref="I30"/>
+      <selection pane="topRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>18</v>
@@ -746,19 +746,19 @@
       </c>
       <c r="L3" s="4">
         <f>SUM(G3*(24/H3))</f>
-        <v>30.666666666666664</v>
+        <v>32</v>
       </c>
       <c r="M3" s="4">
         <f>SUM(G3*(24/H3))*F3</f>
-        <v>61.333333333333329</v>
+        <v>64</v>
       </c>
       <c r="N3" s="5">
         <f>SUM(J3/L3)</f>
-        <v>4.5652173913043486</v>
+        <v>4.375</v>
       </c>
       <c r="O3" s="5">
         <f>SUM(J3/M3)</f>
-        <v>2.2826086956521743</v>
+        <v>2.1875</v>
       </c>
       <c r="P3">
         <v>30</v>
@@ -793,8 +793,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="3">
-        <f>SUM(I4+I3)</f>
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <f>SUM(G4*(24/H4))</f>
@@ -806,11 +805,11 @@
       </c>
       <c r="N4" s="5">
         <f>SUM(J4/L4)</f>
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5">
         <f>SUM(J4/M4)</f>
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -842,8 +841,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3">
-        <f>SUM(I5+I2)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <f>SUM(G5*(24/H5))</f>
@@ -855,11 +853,11 @@
       </c>
       <c r="N5" s="5">
         <f>SUM(J5/L5)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O5" s="5">
         <f>SUM(J5/M5)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -879,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H6" s="2">
         <v>16</v>
@@ -896,19 +894,19 @@
       </c>
       <c r="L6" s="4">
         <f>SUM(G6*(24/H6))</f>
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M6" s="4">
         <f>SUM(G6*(24/H6))*F6</f>
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="N6" s="5">
         <f>SUM(J6/L6)</f>
-        <v>1.8518518518518519</v>
+        <v>2.0202020202020203</v>
       </c>
       <c r="O6" s="5">
         <f>SUM(J6/M6)</f>
-        <v>1.8518518518518519</v>
+        <v>2.0202020202020203</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -943,8 +941,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3">
-        <f>SUM(I7+I2)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <f>SUM(G7*(24/H7))</f>
@@ -956,11 +953,11 @@
       </c>
       <c r="N7" s="5">
         <f>SUM(J7/L7)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5">
         <f>SUM(J7/M7)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -992,8 +989,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <f>SUM(I8+I2)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <f>SUM(G8*(24/H8))</f>
@@ -1005,11 +1001,11 @@
       </c>
       <c r="N8" s="5">
         <f>SUM(J8/L8)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O8" s="5">
         <f>SUM(J8/M8)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1093,8 +1089,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3">
-        <f>SUM(I10+I2)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
         <f>SUM(G10*(24/H10))</f>
@@ -1106,11 +1101,11 @@
       </c>
       <c r="N10" s="5">
         <f>SUM(J10/L10)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
         <f>SUM(J10/M10)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1142,8 +1137,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="3">
-        <f>SUM(I11+I2)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <f>SUM(G11*(24/H11))</f>
@@ -1155,11 +1149,11 @@
       </c>
       <c r="N11" s="5">
         <f>SUM(J11/L11)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5">
         <f>SUM(J11/M11)</f>
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1298,8 +1292,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <f>SUM(I14+I12)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4">
         <f>SUM(G14*(24/H14))</f>
@@ -1311,11 +1304,11 @@
       </c>
       <c r="N14" s="5">
         <f>SUM(J14/L14)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5">
         <f>SUM(J14/M14)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1347,8 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3">
-        <f>SUM(I15+I12)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
         <f>SUM(G15*(24/H15))</f>
@@ -1360,11 +1352,11 @@
       </c>
       <c r="N15" s="5">
         <f>SUM(J15/L15)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O15" s="5">
         <f>SUM(J15/M15)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1448,8 +1440,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3">
-        <f>SUM(I17+I12)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L17" s="4">
         <f>SUM(G17*(24/H17))</f>
@@ -1461,11 +1452,11 @@
       </c>
       <c r="N17" s="5">
         <f>SUM(J17/L17)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O17" s="5">
         <f>SUM(J17/M17)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1497,8 +1488,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="3">
-        <f>SUM(I18+I12)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
         <f>SUM(G18*(24/H18))</f>
@@ -1510,11 +1500,11 @@
       </c>
       <c r="N18" s="5">
         <f>SUM(J18/L18)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O18" s="5">
         <f>SUM(J18/M18)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1598,8 +1588,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="3">
-        <f>SUM(I20+I12)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
         <f>SUM(G20*(24/H20))</f>
@@ -1611,11 +1600,11 @@
       </c>
       <c r="N20" s="5">
         <f>SUM(J20/L20)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O20" s="5">
         <f>SUM(J20/M20)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1647,8 +1636,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="3">
-        <f>SUM(I21+I12)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
         <f>SUM(G21*(24/H21))</f>
@@ -1660,11 +1648,11 @@
       </c>
       <c r="N21" s="5">
         <f>SUM(J21/L21)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O21" s="5">
         <f>SUM(J21/M21)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -1846,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H25" s="2">
         <v>32</v>
@@ -1863,19 +1851,19 @@
       </c>
       <c r="L25" s="4">
         <f>SUM(G25*(24/H25))</f>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M25" s="4">
         <f>SUM(G25*(24/H25))*F25</f>
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="N25" s="5">
         <f>SUM(J25/L25)</f>
-        <v>3.1333333333333333</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="O25" s="5">
         <f>SUM(J25/M25)</f>
-        <v>1.0444444444444445</v>
+        <v>1.3055555555555556</v>
       </c>
       <c r="P25">
         <v>36</v>
@@ -2118,10 +2106,10 @@
         <v>3</v>
       </c>
       <c r="G30" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I30" s="3">
         <v>50</v>
@@ -2135,19 +2123,19 @@
       </c>
       <c r="L30" s="4">
         <f>SUM(G30*(24/H30))</f>
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="M30" s="4">
         <f>SUM(G30*(24/H30))*F30</f>
-        <v>28.799999999999997</v>
+        <v>27</v>
       </c>
       <c r="N30" s="5">
         <f>SUM(J30/L30)</f>
-        <v>5.2083333333333339</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="O30" s="5">
         <f>SUM(J30/M30)</f>
-        <v>1.7361111111111114</v>
+        <v>1.8518518518518519</v>
       </c>
       <c r="P30">
         <v>10</v>
@@ -2292,8 +2280,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="3">
-        <f>SUM(I33)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>20</v>
@@ -2308,11 +2295,11 @@
       </c>
       <c r="N33" s="5">
         <f>SUM(J33/L33)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O33" s="5">
         <f>SUM(J33/M33)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -2322,6 +2309,18 @@
   <sortState ref="A2:P33">
     <sortCondition ref="B1"/>
   </sortState>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D693C992-88E0-48F8-AFE6-84C0FCF4441A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01E05552-EC5C-4F24-92CF-DF4FA1738BF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -584,9 +584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H30" sqref="H30"/>
+      <selection pane="topRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -693,19 +693,19 @@
         <v>15</v>
       </c>
       <c r="L2" s="4">
-        <f>SUM(G2*(24/H2))</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(G2*(24/H2))</f>
         <v>16</v>
       </c>
       <c r="M2" s="4">
-        <f>SUM(G2*(24/H2))*F2</f>
+        <f t="shared" ref="M2:M33" si="1">SUM(G2*(24/H2))*F2</f>
         <v>16</v>
       </c>
       <c r="N2" s="5">
-        <f>SUM(J2/L2)</f>
+        <f t="shared" ref="N2:N33" si="2">SUM(J2/L2)</f>
         <v>2.5</v>
       </c>
       <c r="O2" s="5">
-        <f>SUM(J2/M2)</f>
+        <f t="shared" ref="O2:O33" si="3">SUM(J2/M2)</f>
         <v>2.5</v>
       </c>
       <c r="P2">
@@ -729,36 +729,36 @@
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>18</v>
       </c>
       <c r="I3" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J3" s="3">
         <f>SUM(I3+I2)</f>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="K3" t="s">
         <v>54</v>
       </c>
       <c r="L3" s="4">
-        <f>SUM(G3*(24/H3))</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>29.333333333333332</v>
       </c>
       <c r="M3" s="4">
-        <f>SUM(G3*(24/H3))*F3</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>58.666666666666664</v>
       </c>
       <c r="N3" s="5">
-        <f>SUM(J3/L3)</f>
-        <v>4.375</v>
+        <f t="shared" si="2"/>
+        <v>4.0909090909090908</v>
       </c>
       <c r="O3" s="5">
-        <f>SUM(J3/M3)</f>
-        <v>2.1875</v>
+        <f t="shared" si="3"/>
+        <v>2.0454545454545454</v>
       </c>
       <c r="P3">
         <v>30</v>
@@ -796,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>SUM(G4*(24/H4))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M4" s="4">
-        <f>SUM(G4*(24/H4))*F4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N4" s="5">
-        <f>SUM(J4/L4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f>SUM(J4/M4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -844,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="L5" s="4">
-        <f>SUM(G5*(24/H5))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M5" s="4">
-        <f>SUM(G5*(24/H5))*F5</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N5" s="5">
-        <f>SUM(J5/L5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <f>SUM(J5/M5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -893,19 +893,19 @@
         <v>54</v>
       </c>
       <c r="L6" s="4">
-        <f>SUM(G6*(24/H6))</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="M6" s="4">
-        <f>SUM(G6*(24/H6))*F6</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="N6" s="5">
-        <f>SUM(J6/L6)</f>
+        <f t="shared" si="2"/>
         <v>2.0202020202020203</v>
       </c>
       <c r="O6" s="5">
-        <f>SUM(J6/M6)</f>
+        <f t="shared" si="3"/>
         <v>2.0202020202020203</v>
       </c>
       <c r="P6">
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="L7" s="4">
-        <f>SUM(G7*(24/H7))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M7" s="4">
-        <f>SUM(G7*(24/H7))*F7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N7" s="5">
-        <f>SUM(J7/L7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O7" s="5">
-        <f>SUM(J7/M7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -992,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="L8" s="4">
-        <f>SUM(G8*(24/H8))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M8" s="4">
-        <f>SUM(G8*(24/H8))*F8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N8" s="5">
-        <f>SUM(J8/L8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f>SUM(J8/M8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1041,19 +1041,19 @@
         <v>18</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM(G9*(24/H9))</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="M9" s="4">
-        <f>SUM(G9*(24/H9))*F9</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="N9" s="5">
-        <f>SUM(J9/L9)</f>
+        <f t="shared" si="2"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="O9" s="5">
-        <f>SUM(J9/M9)</f>
+        <f t="shared" si="3"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="P9">
@@ -1092,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="L10" s="4">
-        <f>SUM(G10*(24/H10))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M10" s="4">
-        <f>SUM(G10*(24/H10))*F10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="5">
-        <f>SUM(J10/L10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O10" s="5">
-        <f>SUM(J10/M10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1140,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <f>SUM(G11*(24/H11))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M11" s="4">
-        <f>SUM(G11*(24/H11))*F11</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="5">
-        <f>SUM(J11/L11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O11" s="5">
-        <f>SUM(J11/M11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1192,19 +1192,19 @@
         <v>15</v>
       </c>
       <c r="L12" s="4">
-        <f>SUM(G12*(24/H12))</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="M12" s="4">
-        <f>SUM(G12*(24/H12))*F12</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="N12" s="5">
-        <f>SUM(J12/L12)</f>
+        <f t="shared" si="2"/>
         <v>1.7647058823529411</v>
       </c>
       <c r="O12" s="5">
-        <f>SUM(J12/M12)</f>
+        <f t="shared" si="3"/>
         <v>1.7647058823529411</v>
       </c>
       <c r="P12">
@@ -1244,19 +1244,19 @@
         <v>56</v>
       </c>
       <c r="L13" s="4">
-        <f>SUM(G13*(24/H13))</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="M13" s="4">
-        <f>SUM(G13*(24/H13))*F13</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="N13" s="5">
-        <f>SUM(J13/L13)</f>
+        <f t="shared" si="2"/>
         <v>1.4102564102564104</v>
       </c>
       <c r="O13" s="5">
-        <f>SUM(J13/M13)</f>
+        <f t="shared" si="3"/>
         <v>1.4102564102564104</v>
       </c>
       <c r="P13">
@@ -1295,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="4">
-        <f>SUM(G14*(24/H14))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M14" s="4">
-        <f>SUM(G14*(24/H14))*F14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N14" s="5">
-        <f>SUM(J14/L14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O14" s="5">
-        <f>SUM(J14/M14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1343,19 +1343,19 @@
         <v>0</v>
       </c>
       <c r="L15" s="4">
-        <f>SUM(G15*(24/H15))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M15" s="4">
-        <f>SUM(G15*(24/H15))*F15</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N15" s="5">
-        <f>SUM(J15/L15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O15" s="5">
-        <f>SUM(J15/M15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1392,19 +1392,19 @@
         <v>55</v>
       </c>
       <c r="L16" s="4">
-        <f>SUM(G16*(24/H16))</f>
+        <f t="shared" si="0"/>
         <v>98.181818181818173</v>
       </c>
       <c r="M16" s="4">
-        <f>SUM(G16*(24/H16))*F16</f>
+        <f t="shared" si="1"/>
         <v>98.181818181818173</v>
       </c>
       <c r="N16" s="5">
-        <f>SUM(J16/L16)</f>
+        <f t="shared" si="2"/>
         <v>1.5277777777777779</v>
       </c>
       <c r="O16" s="5">
-        <f>SUM(J16/M16)</f>
+        <f t="shared" si="3"/>
         <v>1.5277777777777779</v>
       </c>
       <c r="P16">
@@ -1443,19 +1443,19 @@
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>SUM(G17*(24/H17))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M17" s="4">
-        <f>SUM(G17*(24/H17))*F17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N17" s="5">
-        <f>SUM(J17/L17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <f>SUM(J17/M17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>SUM(G18*(24/H18))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M18" s="4">
-        <f>SUM(G18*(24/H18))*F18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N18" s="5">
-        <f>SUM(J18/L18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O18" s="5">
-        <f>SUM(J18/M18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1540,19 +1540,19 @@
         <v>55</v>
       </c>
       <c r="L19" s="4">
-        <f>SUM(G19*(24/H19))</f>
+        <f t="shared" si="0"/>
         <v>106.66666666666666</v>
       </c>
       <c r="M19" s="4">
-        <f>SUM(G19*(24/H19))*F19</f>
+        <f t="shared" si="1"/>
         <v>106.66666666666666</v>
       </c>
       <c r="N19" s="5">
-        <f>SUM(J19/L19)</f>
+        <f t="shared" si="2"/>
         <v>1.7812500000000002</v>
       </c>
       <c r="O19" s="5">
-        <f>SUM(J19/M19)</f>
+        <f t="shared" si="3"/>
         <v>1.7812500000000002</v>
       </c>
       <c r="P19">
@@ -1591,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="4">
-        <f>SUM(G20*(24/H20))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M20" s="4">
-        <f>SUM(G20*(24/H20))*F20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N20" s="5">
-        <f>SUM(J20/L20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O20" s="5">
-        <f>SUM(J20/M20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1639,19 +1639,19 @@
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f>SUM(G21*(24/H21))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="M21" s="4">
-        <f>SUM(G21*(24/H21))*F21</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N21" s="5">
-        <f>SUM(J21/L21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21" s="5">
-        <f>SUM(J21/M21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1691,19 +1691,19 @@
         <v>19</v>
       </c>
       <c r="L22" s="4">
-        <f>SUM(G22*(24/H22))</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="M22" s="4">
-        <f>SUM(G22*(24/H22))*F22</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="N22" s="5">
-        <f>SUM(J22/L22)</f>
+        <f t="shared" si="2"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="O22" s="5">
-        <f>SUM(J22/M22)</f>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="P22">
@@ -1743,19 +1743,19 @@
         <v>20</v>
       </c>
       <c r="L23" s="4">
-        <f>SUM(G23*(24/H23))</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="M23" s="4">
-        <f>SUM(G23*(24/H23))*F23</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="N23" s="5">
-        <f>SUM(J23/L23)</f>
+        <f t="shared" si="2"/>
         <v>5.875</v>
       </c>
       <c r="O23" s="5">
-        <f>SUM(J23/M23)</f>
+        <f t="shared" si="3"/>
         <v>1.46875</v>
       </c>
       <c r="P23">
@@ -1795,19 +1795,19 @@
         <v>20</v>
       </c>
       <c r="L24" s="4">
-        <f>SUM(G24*(24/H24))</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="M24" s="4">
-        <f>SUM(G24*(24/H24))*F24</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="N24" s="5">
-        <f>SUM(J24/L24)</f>
+        <f t="shared" si="2"/>
         <v>3.3653846153846154</v>
       </c>
       <c r="O24" s="5">
-        <f>SUM(J24/M24)</f>
+        <f t="shared" si="3"/>
         <v>1.6826923076923077</v>
       </c>
       <c r="P24">
@@ -1850,19 +1850,19 @@
         <v>19</v>
       </c>
       <c r="L25" s="4">
-        <f>SUM(G25*(24/H25))</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="M25" s="4">
-        <f>SUM(G25*(24/H25))*F25</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="N25" s="5">
-        <f>SUM(J25/L25)</f>
+        <f t="shared" si="2"/>
         <v>3.9166666666666665</v>
       </c>
       <c r="O25" s="5">
-        <f>SUM(J25/M25)</f>
+        <f t="shared" si="3"/>
         <v>1.3055555555555556</v>
       </c>
       <c r="P25">
@@ -1905,19 +1905,19 @@
         <v>21</v>
       </c>
       <c r="L26" s="4">
-        <f>SUM(G26*(24/H26))</f>
+        <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
       <c r="M26" s="4">
-        <f>SUM(G26*(24/H26))*F26</f>
+        <f t="shared" si="1"/>
         <v>16.8</v>
       </c>
       <c r="N26" s="5">
-        <f>SUM(J26/L26)</f>
+        <f t="shared" si="2"/>
         <v>5.9523809523809526</v>
       </c>
       <c r="O26" s="5">
-        <f>SUM(J26/M26)</f>
+        <f t="shared" si="3"/>
         <v>2.9761904761904763</v>
       </c>
       <c r="P26">
@@ -1960,19 +1960,19 @@
         <v>21</v>
       </c>
       <c r="L27" s="4">
-        <f>SUM(G27*(24/H27))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M27" s="4">
-        <f>SUM(G27*(24/H27))*F27</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="5" t="e">
-        <f>SUM(J27/L27)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="5" t="e">
-        <f>SUM(J27/M27)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P27">
@@ -2012,19 +2012,19 @@
         <v>21</v>
       </c>
       <c r="L28" s="4">
-        <f>SUM(G28*(24/H28))</f>
+        <f t="shared" si="0"/>
         <v>57.818181818181813</v>
       </c>
       <c r="M28" s="4">
-        <f>SUM(G28*(24/H28))*F28</f>
+        <f t="shared" si="1"/>
         <v>57.818181818181813</v>
       </c>
       <c r="N28" s="5">
-        <f>SUM(J28/L28)</f>
+        <f t="shared" si="2"/>
         <v>2.2484276729559749</v>
       </c>
       <c r="O28" s="5">
-        <f>SUM(J28/M28)</f>
+        <f t="shared" si="3"/>
         <v>2.2484276729559749</v>
       </c>
       <c r="P28">
@@ -2067,19 +2067,19 @@
         <v>32</v>
       </c>
       <c r="L29" s="4">
-        <f>SUM(G29*(24/H29))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M29" s="4">
-        <f>SUM(G29*(24/H29))*F29</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="5" t="e">
-        <f>SUM(J29/L29)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="5" t="e">
-        <f>SUM(J29/M29)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29">
@@ -2097,7 +2097,7 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>112</v>
@@ -2106,36 +2106,36 @@
         <v>3</v>
       </c>
       <c r="G30" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2">
         <v>24</v>
       </c>
       <c r="I30" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J30" s="3">
         <f>SUM(I30)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="4">
-        <f>SUM(G30*(24/H30))</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="M30" s="4">
-        <f>SUM(G30*(24/H30))*F30</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="N30" s="5">
-        <f>SUM(J30/L30)</f>
-        <v>5.5555555555555554</v>
+        <f t="shared" si="2"/>
+        <v>5.4545454545454541</v>
       </c>
       <c r="O30" s="5">
-        <f>SUM(J30/M30)</f>
-        <v>1.8518518518518519</v>
+        <f t="shared" si="3"/>
+        <v>1.8181818181818181</v>
       </c>
       <c r="P30">
         <v>10</v>
@@ -2171,26 +2171,26 @@
       </c>
       <c r="J31" s="3">
         <f>SUM(I31+I30)</f>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
         <v>15</v>
       </c>
       <c r="L31" s="4">
-        <f>SUM(G31*(24/H31))</f>
+        <f t="shared" si="0"/>
         <v>42.857142857142854</v>
       </c>
       <c r="M31" s="4">
-        <f>SUM(G31*(24/H31))*F31</f>
+        <f t="shared" si="1"/>
         <v>128.57142857142856</v>
       </c>
       <c r="N31" s="5">
-        <f>SUM(J31/L31)</f>
-        <v>4.9000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>5.1333333333333337</v>
       </c>
       <c r="O31" s="5">
-        <f>SUM(J31/M31)</f>
-        <v>1.6333333333333335</v>
+        <f t="shared" si="3"/>
+        <v>1.7111111111111112</v>
       </c>
       <c r="P31">
         <v>30</v>
@@ -2232,19 +2232,19 @@
         <v>15</v>
       </c>
       <c r="L32" s="4">
-        <f>SUM(G32*(24/H32))</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="M32" s="4">
-        <f>SUM(G32*(24/H32))*F32</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="N32" s="5">
-        <f>SUM(J32/L32)</f>
+        <f t="shared" si="2"/>
         <v>4.0625</v>
       </c>
       <c r="O32" s="5">
-        <f>SUM(J32/M32)</f>
+        <f t="shared" si="3"/>
         <v>4.0625</v>
       </c>
       <c r="P32">
@@ -2286,19 +2286,19 @@
         <v>20</v>
       </c>
       <c r="L33" s="4">
-        <f>SUM(G33*(24/H33))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M33" s="4">
-        <f>SUM(G33*(24/H33))*F33</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="N33" s="5">
-        <f>SUM(J33/L33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O33" s="5">
-        <f>SUM(J33/M33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P33">

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{01E05552-EC5C-4F24-92CF-DF4FA1738BF4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C29564A3-920F-4973-9F16-496D8FF3B82C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Rogue</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>heavy</t>
+  </si>
+  <si>
+    <t>Lightning</t>
+  </si>
+  <si>
+    <t>Multishooter</t>
   </si>
 </sst>
 </file>
@@ -582,11 +588,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G31" sqref="G31"/>
+      <selection pane="topRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -693,11 +699,11 @@
         <v>15</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L33" si="0">SUM(G2*(24/H2))</f>
+        <f t="shared" ref="L2:L34" si="0">SUM(G2*(24/H2))</f>
         <v>16</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:M33" si="1">SUM(G2*(24/H2))*F2</f>
+        <f t="shared" ref="M2:M34" si="1">SUM(G2*(24/H2))*F2</f>
         <v>16</v>
       </c>
       <c r="N2" s="5">
@@ -2303,6 +2309,110 @@
       </c>
       <c r="P33">
         <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>150</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3">
+        <v>65</v>
+      </c>
+      <c r="J34" s="3">
+        <f>SUM(I34)</f>
+        <v>65</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" ref="L34:L35" si="4">SUM(G34*(24/H34))</f>
+        <v>24</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:M35" si="5">SUM(G34*(24/H34))*F34</f>
+        <v>24</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" ref="N34" si="6">SUM(J34/L34)</f>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="O34" s="5">
+        <f t="shared" ref="O34" si="7">SUM(J34/M34)</f>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="P34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>80</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <f>SUM(J34+I35)</f>
+        <v>165</v>
+      </c>
+      <c r="L35" s="4">
+        <f t="shared" ref="L35" si="8">SUM(G35*(24/H35))</f>
+        <v>24</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" ref="M35" si="9">SUM(G35*(24/H35))*F35</f>
+        <v>96</v>
+      </c>
+      <c r="N35" s="5">
+        <f t="shared" ref="N35" si="10">SUM(J35/L35)</f>
+        <v>6.875</v>
+      </c>
+      <c r="O35" s="5">
+        <f t="shared" ref="O35" si="11">SUM(J35/M35)</f>
+        <v>1.71875</v>
+      </c>
+      <c r="P35">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C29564A3-920F-4973-9F16-496D8FF3B82C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3DF479EC-B1E4-459D-AAB8-0514937C4A52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -590,9 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F35" sqref="F35"/>
+      <selection pane="topRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -699,11 +699,11 @@
         <v>15</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L34" si="0">SUM(G2*(24/H2))</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(G2*(24/H2))</f>
         <v>16</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:M34" si="1">SUM(G2*(24/H2))*F2</f>
+        <f t="shared" ref="M2:M33" si="1">SUM(G2*(24/H2))*F2</f>
         <v>16</v>
       </c>
       <c r="N2" s="5">
@@ -2347,11 +2347,11 @@
         <v>20</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" ref="L34:L35" si="4">SUM(G34*(24/H34))</f>
+        <f t="shared" ref="L34" si="4">SUM(G34*(24/H34))</f>
         <v>24</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ref="M34:M35" si="5">SUM(G34*(24/H34))*F34</f>
+        <f t="shared" ref="M34" si="5">SUM(G34*(24/H34))*F34</f>
         <v>24</v>
       </c>
       <c r="N34" s="5">
@@ -2377,7 +2377,7 @@
         <v>58</v>
       </c>
       <c r="E35">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F35">
         <v>4</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3DF479EC-B1E4-459D-AAB8-0514937C4A52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1ADD4924-DBB1-4AB1-A1A7-A78C805773A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -590,9 +590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1237,7 +1237,7 @@
         <v>65</v>
       </c>
       <c r="H13" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I13" s="3">
         <v>80</v>
@@ -1251,19 +1251,19 @@
       </c>
       <c r="L13" s="4">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>86.666666666666657</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>86.666666666666657</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="2"/>
-        <v>1.4102564102564104</v>
+        <v>1.2692307692307694</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="3"/>
-        <v>1.4102564102564104</v>
+        <v>1.2692307692307694</v>
       </c>
       <c r="P13">
         <v>50</v>
@@ -1947,20 +1947,20 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I27" s="3">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
         <f>SUM(I27+I26)</f>
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="K27" t="s">
         <v>21</v>
@@ -1996,7 +1996,7 @@
         <v>36</v>
       </c>
       <c r="E28">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2325,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H34" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I34" s="3">
         <v>65</v>
@@ -2348,19 +2348,19 @@
       </c>
       <c r="L34" s="4">
         <f t="shared" ref="L34" si="4">SUM(G34*(24/H34))</f>
-        <v>24</v>
+        <v>19.2</v>
       </c>
       <c r="M34" s="4">
         <f t="shared" ref="M34" si="5">SUM(G34*(24/H34))*F34</f>
-        <v>24</v>
+        <v>19.2</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" ref="N34" si="6">SUM(J34/L34)</f>
-        <v>2.7083333333333335</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" ref="O34" si="7">SUM(J34/M34)</f>
-        <v>2.7083333333333335</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="P34">
         <v>30</v>
@@ -2377,16 +2377,16 @@
         <v>58</v>
       </c>
       <c r="E35">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G35" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="M35" s="4">
         <f t="shared" ref="M35" si="9">SUM(G35*(24/H35))*F35</f>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" ref="N35" si="10">SUM(J35/L35)</f>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="O35" s="5">
         <f t="shared" ref="O35" si="11">SUM(J35/M35)</f>
-        <v>1.71875</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="P35">
         <v>31</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F6395172-17EF-4CAF-BE6C-E0E1AE2DEE22}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{747756C8-2179-4F34-AA9F-71DCF2E77FA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t>Rogue</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Master Swordsman</t>
+  </si>
+  <si>
+    <t>earth</t>
   </si>
 </sst>
 </file>
@@ -451,12 +454,9 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <fill>
@@ -470,7 +470,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -513,6 +513,9 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -590,7 +593,7 @@
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="1" name="maxHits" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="1" name="maxHits" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
       <xmlColumnPr mapId="1" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
@@ -600,29 +603,29 @@
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
       <xmlColumnPr mapId="1" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="7">
       <xmlColumnPr mapId="1" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="Total_Cost" name="Total Cost" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="Total_Cost" name="Total Cost" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
       <xmlColumnPr mapId="1" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="Min_DPS" name="Min DPS" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="Min_DPS" name="Min DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(F2*(24/G2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="Max_DPS" name="Max DPS" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="Max_DPS" name="Max DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM(F2*(24/G2))*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="Gold_per_Min_DPS" name="Gold per Min DPS" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="Gold_per_Min_DPS" name="Gold per Min DPS" dataDxfId="1">
       <calculatedColumnFormula>SUM(I2/K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="G_M_DPS" name="G/M.DPS" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="G_M_DPS" name="G/M.DPS" dataDxfId="0">
       <calculatedColumnFormula>SUM(I2/L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
@@ -946,7 +949,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J29" sqref="J29"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1133,7 @@
         <v>58.666666666666664</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M2:M34" si="2">SUM(I3/K3)</f>
+        <f t="shared" ref="M3:M34" si="2">SUM(I3/K3)</f>
         <v>4.0909090909090908</v>
       </c>
       <c r="N3" s="5">
@@ -1258,7 +1261,7 @@
         <v>2.979166666666667</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" ref="N2:N34" si="3">SUM(I5/L5)</f>
+        <f t="shared" ref="N5:N34" si="3">SUM(I5/L5)</f>
         <v>0.99305555555555558</v>
       </c>
       <c r="O5" s="7">
@@ -1320,7 +1323,7 @@
         <v>2.4</v>
       </c>
       <c r="N6" s="5">
-        <f>SUM(I6/L6)</f>
+        <f t="shared" ref="N6:N18" si="4">SUM(I6/L6)</f>
         <v>2.4</v>
       </c>
       <c r="O6" s="7">
@@ -1382,7 +1385,7 @@
         <v>2.25</v>
       </c>
       <c r="N7" s="5">
-        <f>SUM(I7/L7)</f>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="O7" s="7">
@@ -1444,7 +1447,7 @@
         <v>1.9708333333333334</v>
       </c>
       <c r="N8" s="5">
-        <f>SUM(I8/L8)</f>
+        <f t="shared" si="4"/>
         <v>1.9708333333333334</v>
       </c>
       <c r="O8" s="7">
@@ -1506,7 +1509,7 @@
         <v>2.1333333333333333</v>
       </c>
       <c r="N9" s="5">
-        <f>SUM(I9/L9)</f>
+        <f t="shared" si="4"/>
         <v>2.1333333333333333</v>
       </c>
       <c r="O9" s="7">
@@ -1552,7 +1555,9 @@
         <f>SUM(H10+I9)</f>
         <v>161</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1566,7 +1571,7 @@
         <v>161</v>
       </c>
       <c r="N10" s="5">
-        <f>SUM(I10/L10)</f>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="O10" s="7">
@@ -1612,7 +1617,9 @@
         <f>SUM(H11+I9)</f>
         <v>161</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1626,7 +1633,7 @@
         <v>161</v>
       </c>
       <c r="N11" s="5">
-        <f>SUM(I11/L11)</f>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
       <c r="O11" s="7">
@@ -1686,7 +1693,7 @@
         <v>1.7647058823529411</v>
       </c>
       <c r="N12" s="5">
-        <f>SUM(I12/L12)</f>
+        <f t="shared" si="4"/>
         <v>1.7647058823529411</v>
       </c>
       <c r="O12" s="7">
@@ -1748,7 +1755,7 @@
         <v>1.1282051282051282</v>
       </c>
       <c r="N13" s="5">
-        <f>SUM(I13/L13)</f>
+        <f t="shared" si="4"/>
         <v>1.1282051282051282</v>
       </c>
       <c r="O13" s="7">
@@ -1810,7 +1817,7 @@
         <v>0.875</v>
       </c>
       <c r="N14" s="5">
-        <f>SUM(I14/L14)</f>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
       <c r="O14" s="7">
@@ -1872,7 +1879,7 @@
         <v>0.7857142857142857</v>
       </c>
       <c r="N15" s="5">
-        <f>SUM(I15/L15)</f>
+        <f t="shared" si="4"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="O15" s="7">
@@ -1934,7 +1941,7 @@
         <v>1.3750000000000002</v>
       </c>
       <c r="N16" s="5">
-        <f>SUM(I16/L16)</f>
+        <f t="shared" si="4"/>
         <v>1.3750000000000002</v>
       </c>
       <c r="O16" s="7">
@@ -1980,7 +1987,9 @@
         <f>SUM(H17+I16)</f>
         <v>350</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -1994,7 +2003,7 @@
         <v>1.0606060606060606</v>
       </c>
       <c r="N17" s="5">
-        <f>SUM(I17/L17)</f>
+        <f t="shared" si="4"/>
         <v>1.0606060606060606</v>
       </c>
       <c r="O17" s="7">
@@ -2040,7 +2049,9 @@
         <f>SUM(H18+I16)</f>
         <v>390</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>375</v>
@@ -2054,7 +2065,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" s="5">
-        <f>SUM(I18/L18)</f>
+        <f t="shared" si="4"/>
         <v>1.04</v>
       </c>
       <c r="O18" s="7">
@@ -2162,7 +2173,9 @@
         <f>SUM(H20+I19)</f>
         <v>191</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2220,7 +2233,9 @@
         <f>SUM(H21+I19)</f>
         <v>191</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -2756,7 +2771,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>60</v>
@@ -2789,7 +2804,7 @@
       </c>
       <c r="L30" s="4">
         <f>SUM(F30*(24/G30))*B30</f>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="2"/>
@@ -2797,7 +2812,7 @@
       </c>
       <c r="N30" s="5">
         <f t="shared" si="3"/>
-        <v>1.8181818181818181</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="O30" s="7">
         <v>6</v>
@@ -2820,13 +2835,13 @@
         <v>51</v>
       </c>
       <c r="B31" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>95</v>
       </c>
       <c r="D31">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2853,7 +2868,7 @@
       </c>
       <c r="L31" s="4">
         <f>SUM(F31*(24/G31))*B31</f>
-        <v>171.42857142857142</v>
+        <v>128.57142857142856</v>
       </c>
       <c r="M31" s="5">
         <f t="shared" si="2"/>
@@ -2861,7 +2876,7 @@
       </c>
       <c r="N31" s="5">
         <f t="shared" si="3"/>
-        <v>1.2833333333333334</v>
+        <v>1.7111111111111112</v>
       </c>
       <c r="O31" s="7">
         <v>6</v>
@@ -2888,51 +2903,51 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2">
         <v>3</v>
       </c>
       <c r="H32" s="3">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="I32" s="3">
         <f>SUM(H32+I30)</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="2"/>
-        <v>2.34375</v>
+        <v>1.7708333333333333</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="3"/>
-        <v>2.34375</v>
+        <v>1.7708333333333333</v>
       </c>
       <c r="O32" s="7">
         <v>1</v>
       </c>
       <c r="P32" s="7">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Q32" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="R32" s="6" t="s">
         <v>76</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{747756C8-2179-4F34-AA9F-71DCF2E77FA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFD8C4F9-E790-4D3F-A3B4-DBF0B3C368A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -949,7 +949,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2771,10 +2771,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D30">
         <v>112</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="L30" s="4">
         <f>SUM(F30*(24/G30))*B30</f>
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="2"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="N30" s="5">
         <f t="shared" si="3"/>
-        <v>2.7272727272727271</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="O30" s="7">
         <v>6</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFD8C4F9-E790-4D3F-A3B4-DBF0B3C368A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{927916F5-374B-4174-B6E9-E2F2885EE258}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -309,13 +309,13 @@
     <t>Icicle</t>
   </si>
   <si>
-    <t>Shoots ice spikes.  Long range, single target.  Slows 15% and reduces armor by 2 for 2 seconds.</t>
-  </si>
-  <si>
     <t>Master Swordsman</t>
   </si>
   <si>
     <t>earth</t>
+  </si>
+  <si>
+    <t>Shoots ice spikes.  Long range, single target.  Slows 15% and reduces armor by 1 for 2 seconds.</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B30" sqref="B30"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1109,36 +1109,36 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(H3+H2)</f>
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>29.333333333333332</v>
+        <v>35</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>58.666666666666664</v>
+        <v>70</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ref="M3:M34" si="2">SUM(I3/K3)</f>
-        <v>4.0909090909090908</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="N3" s="5">
         <f>SUM(I3/L3)</f>
-        <v>2.0454545454545454</v>
+        <v>2.2857142857142856</v>
       </c>
       <c r="O3" s="7">
         <v>5</v>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G4" s="2">
         <v>16</v>
@@ -1181,26 +1181,26 @@
       </c>
       <c r="I4" s="3">
         <f>SUM(I3+Table1[[#This Row],[Cost]])</f>
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>82.5</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="2"/>
-        <v>2.5416666666666665</v>
+        <v>4.1818181818181817</v>
       </c>
       <c r="N4" s="5">
         <f>SUM(I4/L4)</f>
-        <v>1.2708333333333333</v>
+        <v>2.0909090909090908</v>
       </c>
       <c r="O4" s="7">
         <v>5</v>
@@ -1233,36 +1233,36 @@
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3">
-        <v>265</v>
+        <v>175</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(I3+Table1[[#This Row],[Cost]])</f>
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>129.23076923076923</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>387.69230769230768</v>
+        <v>163.63636363636363</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="2"/>
-        <v>2.979166666666667</v>
+        <v>6.1416666666666675</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ref="N5:N34" si="3">SUM(I5/L5)</f>
-        <v>0.99305555555555558</v>
+        <v>2.0472222222222225</v>
       </c>
       <c r="O5" s="7">
         <v>5</v>
@@ -1295,36 +1295,36 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I6" s="3">
         <f>SUM(I2+Table1[[#This Row],[Cost]])</f>
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>79.058823529411768</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>79.058823529411768</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>2.4</v>
+        <v>2.2135416666666665</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ref="N6:N18" si="4">SUM(I6/L6)</f>
-        <v>2.4</v>
+        <v>2.2135416666666665</v>
       </c>
       <c r="O6" s="7">
         <v>5</v>
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G7" s="2">
         <v>18</v>
@@ -1367,26 +1367,26 @@
       </c>
       <c r="I7" s="3">
         <f>SUM(I6+Table1[[#This Row],[Cost]])</f>
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>2.4204545454545454</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="4"/>
-        <v>2.25</v>
+        <v>2.4204545454545454</v>
       </c>
       <c r="O7" s="7">
         <v>5</v>
@@ -1395,7 +1395,7 @@
         <v>20</v>
       </c>
       <c r="Q7" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>54</v>
@@ -1419,36 +1419,36 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G8" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="I8" s="3">
         <f>SUM(I6+Table1[[#This Row],[Cost]])</f>
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>218.18181818181816</v>
+        <v>180</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>218.18181818181816</v>
+        <v>180</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="2"/>
-        <v>1.9708333333333334</v>
+        <v>2.0277777777777777</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="4"/>
-        <v>1.9708333333333334</v>
+        <v>2.0277777777777777</v>
       </c>
       <c r="O8" s="7">
         <v>5</v>
@@ -1481,36 +1481,36 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I9" s="3">
         <f>SUM(H9+I2)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>51.6</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>51.6</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>2.1333333333333333</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="4"/>
-        <v>2.1333333333333333</v>
+        <v>2.3255813953488373</v>
       </c>
       <c r="O9" s="7">
         <v>5</v>
@@ -1553,10 +1553,10 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(H10+I9)</f>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
@@ -1568,11 +1568,11 @@
       </c>
       <c r="M10" s="5">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="O10" s="7">
         <v>5</v>
@@ -1615,10 +1615,10 @@
       </c>
       <c r="I11" s="3">
         <f>SUM(H11+I9)</f>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
@@ -1630,11 +1630,11 @@
       </c>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="O11" s="7">
         <v>5</v>
@@ -1727,10 +1727,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3">
         <v>80</v>
@@ -1744,19 +1744,19 @@
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>72</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="1"/>
-        <v>97.5</v>
+        <v>72</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="2"/>
-        <v>1.1282051282051282</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="4"/>
-        <v>1.1282051282051282</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="O13" s="7">
         <v>8</v>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="G14" s="2">
         <v>12</v>
@@ -1806,19 +1806,19 @@
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="2"/>
-        <v>0.875</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="4"/>
-        <v>0.875</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O14" s="7">
         <v>8</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="G15" s="2">
         <v>16</v>
@@ -1868,19 +1868,19 @@
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>330</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="2"/>
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="4"/>
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="O15" s="7">
         <v>8</v>
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -2298,19 +2298,19 @@
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="2"/>
-        <v>1.8333333333333333</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="O22" s="7">
         <v>2</v>
@@ -2332,7 +2332,9 @@
       <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="7">
+        <v>5</v>
+      </c>
       <c r="C23">
         <v>0</v>
       </c>
@@ -2346,33 +2348,33 @@
         <v>10</v>
       </c>
       <c r="G23" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H23" s="3">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="I23" s="3">
         <f>SUM(H23+I22)</f>
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>SUM(F23*(24/G23))*B23</f>
+        <v>150</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="2"/>
-        <v>4.875</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="N23" s="5">
         <f>SUM(I23/L23)</f>
-        <v>4.875</v>
+        <v>1.4333333333333333</v>
       </c>
       <c r="O23" s="7">
         <v>0</v>
@@ -2405,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" s="2">
         <v>6</v>
@@ -2422,19 +2424,19 @@
       </c>
       <c r="K24" s="4">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="M24" s="5">
         <f t="shared" si="2"/>
-        <v>3.3653846153846154</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="N24" s="5">
         <f>SUM(I24/L24)</f>
-        <v>1.6826923076923077</v>
+        <v>1.4583333333333333</v>
       </c>
       <c r="O24" s="7">
         <v>2</v>
@@ -2457,19 +2459,19 @@
         <v>49</v>
       </c>
       <c r="B25" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G25" s="2">
         <v>32</v>
@@ -2486,19 +2488,19 @@
       </c>
       <c r="K25" s="4">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L25" s="19">
         <f>SUM(F25*(24/G25))*B25</f>
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="2"/>
-        <v>3.5833333333333335</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" si="3"/>
-        <v>0.89583333333333337</v>
+        <v>1.5925925925925926</v>
       </c>
       <c r="O25" s="7">
         <v>2</v>
@@ -2524,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>80</v>
@@ -2533,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2">
         <v>20</v>
@@ -2550,19 +2552,19 @@
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="L26" s="19">
         <f>SUM(F26*(24/G26))*B26</f>
-        <v>16.8</v>
+        <v>24</v>
       </c>
       <c r="M26" s="5">
         <f t="shared" si="2"/>
-        <v>5.9523809523809526</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="N26" s="5">
         <f t="shared" si="3"/>
-        <v>2.9761904761904763</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="O26" s="7">
         <v>3</v>
@@ -2701,7 +2703,7 @@
         <v>76</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2771,13 +2773,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2804,7 +2806,7 @@
       </c>
       <c r="L30" s="4">
         <f>SUM(F30*(24/G30))*B30</f>
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M30" s="5">
         <f t="shared" si="2"/>
@@ -2812,7 +2814,7 @@
       </c>
       <c r="N30" s="5">
         <f t="shared" si="3"/>
-        <v>1.8181818181818181</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="O30" s="7">
         <v>6</v>
@@ -2838,10 +2840,10 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2903,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" s="2">
         <v>10</v>
@@ -2988,19 +2990,19 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>19.2</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="1"/>
-        <v>19.2</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>3.385416666666667</v>
+        <v>3.0092592592592595</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>3.385416666666667</v>
+        <v>3.0092592592592595</v>
       </c>
       <c r="O33" s="7">
         <v>7</v>
@@ -3027,13 +3029,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" s="2">
         <v>8</v>
@@ -3050,19 +3052,19 @@
       </c>
       <c r="K34" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M34" s="5">
         <f t="shared" si="2"/>
-        <v>6.458333333333333</v>
+        <v>5.7407407407407405</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>2.1527777777777777</v>
+        <v>1.9135802469135803</v>
       </c>
       <c r="O34" s="7">
         <v>7</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>1</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{927916F5-374B-4174-B6E9-E2F2885EE258}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61BCA32A-7BE0-44D3-A3D3-E729B1FA5D72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>Rogue</t>
   </si>
@@ -192,33 +192,18 @@
     <t>arrowShot</t>
   </si>
   <si>
-    <t>The Woodsman.  Shoots Earth arrows, poisons 5 dps + slow 25% for 2 seconds.  Single target.</t>
-  </si>
-  <si>
     <t>The Swordsman.  Just a warrior on drugs.  Hits hard, hits fast.</t>
   </si>
   <si>
     <t>The Archer.  Everyone's favorite starting class.  If this tower could crouch and be stealth, it might crit, but it can't.</t>
   </si>
   <si>
-    <t>Likes to shout a lot of motivational things.  Nearby towers strangely reply to it. DmgUp 20% to nearby towers.</t>
-  </si>
-  <si>
     <t>Big, explodey, splash guy.  Hits more than one unit if they're close.</t>
   </si>
   <si>
-    <t>Slows all units passing through by 25% but deals no damage.</t>
-  </si>
-  <si>
-    <t>Burns the ground in a 1 block AoE (melee range) dealing 40 damage a second to anything it can.  Strong.</t>
-  </si>
-  <si>
     <t>stab</t>
   </si>
   <si>
-    <t>The Rogue.  Hits two targets at once.  Applies 1 dmg every second for 5 seconds and slows by 20%.</t>
-  </si>
-  <si>
     <t>Hits 3 people at once.  Great vs groups, weak vs low numbers.</t>
   </si>
   <si>
@@ -234,15 +219,9 @@
     <t>It's a Knight in shining armor.  Gives a debuff that increases enemy's damage taken by 10% for 2 seconds. Tips fedora a lot.</t>
   </si>
   <si>
-    <t>Icey.  Cold.  Refreshing.  Slows by 20% to small area for 2 seconds.</t>
-  </si>
-  <si>
     <t>Guns are sort of unfair against the metal armor the creeps wear.  That's why it shoots pellets.  It still hurts tho.</t>
   </si>
   <si>
-    <t>Frozen Pond.  Feel nature's tranquility.  Buffs towers within 2 blocks 15% dmg.</t>
-  </si>
-  <si>
     <t>Takes fire and throws it, like some sort of throwing flame machine.</t>
   </si>
   <si>
@@ -276,9 +255,6 @@
     <t>maxHits</t>
   </si>
   <si>
-    <t>Skilled with poisons.  30% slow + 10 dps for 2 seconds.</t>
-  </si>
-  <si>
     <t>Calls upon Elven spirits to increase nearby towers attack speed by 10%.</t>
   </si>
   <si>
@@ -294,15 +270,9 @@
     <t>The Sword Master.  Why swipe 20 times when 5 times do?</t>
   </si>
   <si>
-    <t>Death Knight.  Each hit increases enemy damage taken by 15% for 3 seconds.  xXxEdgeLordxXx</t>
-  </si>
-  <si>
     <t>Each strike will provide 5% increased attack speed to adjacent towers for 2 seconds.</t>
   </si>
   <si>
-    <t>In the shadows you'll find him.  Throwing daggers, hurting peeps.  Poisons 5 dmg every second for 5, slows for 20%.</t>
-  </si>
-  <si>
     <t>Sure to kill whoever he's aiming for.  Hits 3, poisons for 15% with 5 dmg on each for 5 seconds.</t>
   </si>
   <si>
@@ -315,7 +285,40 @@
     <t>earth</t>
   </si>
   <si>
-    <t>Shoots ice spikes.  Long range, single target.  Slows 15% and reduces armor by 1 for 2 seconds.</t>
+    <t>Skilled with poisons.  28% slow + 20 dps for 2 seconds.</t>
+  </si>
+  <si>
+    <t>Makes a big, poisonous splash when he attacks.  Slows 18% and 5 dmg for 2 seconds.</t>
+  </si>
+  <si>
+    <t>Likes to shout a lot of motivational things.  Nearby towers strangely reply to it. DmgUp 12% to nearby towers.</t>
+  </si>
+  <si>
+    <t>Icey.  Cold.  Refreshing.  Slows by 18% to small area for 2 seconds.</t>
+  </si>
+  <si>
+    <t>Shoots ice spikes.  Long range, single target.  Slows 18% and reduces armor by 1 for 2 seconds.</t>
+  </si>
+  <si>
+    <t>Frozen Pond.  Slows in a small AoE around it by 23% and does light damage</t>
+  </si>
+  <si>
+    <t>Bigger splash, still slows 18%.  Just a nice, little upgrade :)</t>
+  </si>
+  <si>
+    <t>Burns the ground in a 1 block AoE (melee range) dealing 30 damage a second to anything it can.  Strong.</t>
+  </si>
+  <si>
+    <t>Death Knight.  Each hit increases enemy damage taken by 15% for 2 seconds.  xXxEdgeLordxXx</t>
+  </si>
+  <si>
+    <t>The Woodsman.  Shoots Earth arrows, poisons 10 dps + slow 20% for 2 seconds.  Single target.</t>
+  </si>
+  <si>
+    <t>In the shadows you'll find him.  Throwing daggers, hurting peeps.  Poisons 5 dmg every second for 5, slows for 15%.</t>
+  </si>
+  <si>
+    <t>The Rogue.  Hits two targets at once.  Applies 3 dmg every second for 2 seconds and slows by 15%.</t>
   </si>
 </sst>
 </file>
@@ -949,7 +952,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection activeCell="A19" sqref="A19"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -978,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>20</v>
@@ -1041,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1091,7 +1095,7 @@
         <v>54</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1103,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1150,10 +1154,10 @@
         <v>9</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1165,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1212,10 +1216,10 @@
         <v>22</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1227,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1274,10 +1278,10 @@
         <v>23</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1289,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1339,7 +1343,7 @@
         <v>54</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1351,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1401,7 +1405,7 @@
         <v>54</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1413,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1463,7 +1467,7 @@
         <v>54</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1475,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1525,7 +1529,7 @@
         <v>54</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1537,42 +1541,42 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="I10" s="3">
         <f>SUM(H10+I9)</f>
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>107.14285714285714</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>107.14285714285714</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="O10" s="7">
         <v>5</v>
@@ -1581,60 +1585,62 @@
         <v>20</v>
       </c>
       <c r="Q10" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
       <c r="C11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="I11" s="3">
         <f>SUM(H11+I9)</f>
-        <v>121</v>
+        <v>310</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(F11*(24/G11))*B11</f>
+        <v>120</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="4"/>
-        <v>121</v>
+        <v>2.5833333333333335</v>
       </c>
       <c r="O11" s="7">
         <v>5</v>
@@ -1643,16 +1649,18 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S11" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12">
@@ -1771,7 +1779,7 @@
         <v>52</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1833,12 +1841,12 @@
         <v>52</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15">
@@ -1895,7 +1903,7 @@
         <v>52</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1913,36 +1921,36 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="G16" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I16" s="3">
         <f>SUM(H16+I12)</f>
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
-        <v>109.09090909090908</v>
+        <v>76.8</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="1"/>
-        <v>109.09090909090908</v>
+        <v>76.8</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="2"/>
-        <v>1.3750000000000002</v>
+        <v>1.8880208333333335</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="4"/>
-        <v>1.3750000000000002</v>
+        <v>1.8880208333333335</v>
       </c>
       <c r="O16" s="7">
         <v>8</v>
@@ -1957,7 +1965,7 @@
         <v>52</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1975,36 +1983,36 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="G17" s="2">
         <v>16</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I17" s="3">
         <f>SUM(H17+I16)</f>
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>195</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="2"/>
-        <v>1.0606060606060606</v>
+        <v>1.7179487179487178</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="4"/>
-        <v>1.0606060606060606</v>
+        <v>1.7179487179487178</v>
       </c>
       <c r="O17" s="7">
         <v>8</v>
@@ -2019,7 +2027,7 @@
         <v>52</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2037,7 +2045,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="G18" s="2">
         <v>16</v>
@@ -2047,26 +2055,26 @@
       </c>
       <c r="I18" s="3">
         <f>SUM(H18+I16)</f>
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="2"/>
-        <v>1.04</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="4"/>
-        <v>1.04</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="O18" s="7">
         <v>8</v>
@@ -2081,7 +2089,7 @@
         <v>52</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2143,7 +2151,7 @@
         <v>52</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2276,7 @@
     </row>
     <row r="22" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22">
@@ -2322,10 +2330,10 @@
         <v>3</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2386,15 +2394,15 @@
         <v>14</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24">
@@ -2448,10 +2456,10 @@
         <v>12</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2512,21 +2520,21 @@
         <v>13</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B26" s="7">
         <v>2</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>80</v>
@@ -2576,57 +2584,59 @@
         <v>4</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S26" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
       <c r="C27">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="I27" s="3">
         <f>SUM(H27+I26)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.714285714285712</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="5" t="e">
+        <f>SUM(F27*(24/G27))*B27</f>
+        <v>65.142857142857139</v>
+      </c>
+      <c r="M27" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="5" t="e">
+        <v>7.3684210526315796</v>
+      </c>
+      <c r="N27" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.4561403508771931</v>
       </c>
       <c r="O27" s="7">
         <v>0</v>
@@ -2638,15 +2648,15 @@
         <v>16</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28">
@@ -2700,31 +2710,33 @@
         <v>17</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0</v>
-      </c>
       <c r="G29" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>120</v>
@@ -2738,19 +2750,19 @@
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L29" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="5" t="e">
+        <f>SUM(F29*(24/G29))*B29</f>
+        <v>48</v>
+      </c>
+      <c r="M29" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="5" t="e">
+        <v>14.166666666666666</v>
+      </c>
+      <c r="N29" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.5416666666666665</v>
       </c>
       <c r="O29" s="7">
         <v>0</v>
@@ -2762,10 +2774,10 @@
         <v>15</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2826,10 +2838,10 @@
         <v>5</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2890,10 +2902,10 @@
         <v>18</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2952,10 +2964,10 @@
         <v>28</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2973,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
         <v>9</v>
-      </c>
-      <c r="G33" s="2">
-        <v>10</v>
       </c>
       <c r="H33" s="3">
         <v>65</v>
@@ -2990,19 +3002,19 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>21.599999999999998</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="1"/>
-        <v>21.599999999999998</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>3.0092592592592595</v>
+        <v>2.4375</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>3.0092592592592595</v>
+        <v>2.4375</v>
       </c>
       <c r="O33" s="7">
         <v>7</v>
@@ -3014,10 +3026,10 @@
         <v>20</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3076,10 +3088,10 @@
         <v>21</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3097,51 +3109,51 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="I35" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I33)</f>
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K35" s="4">
         <f>SUM(F35*(24/G35))</f>
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="L35" s="4">
         <f>SUM(F35*(24/G35))*E35</f>
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="M35" s="5">
         <f>SUM(I35/K35)</f>
-        <v>5.46875</v>
+        <v>1.875</v>
       </c>
       <c r="N35" s="5">
         <f>SUM(I35/L35)</f>
-        <v>5.46875</v>
+        <v>1.875</v>
       </c>
       <c r="O35" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P35" s="7">
         <v>20</v>
       </c>
       <c r="Q35" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{61BCA32A-7BE0-44D3-A3D3-E729B1FA5D72}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6721087A-98C3-4CE4-9814-2C2476D9EACB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -953,10 +953,10 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="topRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -1346,7 +1346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>70</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>40</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>43</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="S20" s="6"/>
     </row>
-    <row r="21" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>73</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>49</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>83</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>50</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>51</v>
       </c>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6721087A-98C3-4CE4-9814-2C2476D9EACB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1161D3F1-9EEE-40E7-84E5-469A07C5A2D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -950,10 +950,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+      <selection pane="topRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="7">
         <v>15</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1161D3F1-9EEE-40E7-84E5-469A07C5A2D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BD9EBD9-70F4-4B0C-A478-15EF33BDB044}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
   <si>
     <t>Rogue</t>
   </si>
@@ -319,6 +319,54 @@
   </si>
   <si>
     <t>The Rogue.  Hits two targets at once.  Applies 3 dmg every second for 2 seconds and slows by 15%.</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Triple Spout</t>
+  </si>
+  <si>
+    <t>Incinerator</t>
+  </si>
+  <si>
+    <t>Solar Flare</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>60 damage a second to anything in melee range.</t>
+  </si>
+  <si>
+    <t>Hits 3 people now.  Wow, what a unique and non-linear upgrade path this tower goes.</t>
+  </si>
+  <si>
+    <t>Hot Spot</t>
+  </si>
+  <si>
+    <t>Bigger fireball, longer range.  Burn deals 15 damage per second for 3 seconds.</t>
+  </si>
+  <si>
+    <t>Yeti</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Ice Machine</t>
+  </si>
+  <si>
+    <t>MegaZap</t>
+  </si>
+  <si>
+    <t>Death Ray</t>
+  </si>
+  <si>
+    <t>Artillery</t>
+  </si>
+  <si>
+    <t>Machine Gun</t>
   </si>
 </sst>
 </file>
@@ -590,8 +638,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:S35" tableType="xml" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:S35" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:S48" tableType="xml" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:S48" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <tableColumns count="19">
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="1" xpath="/Root/Row/Name" xmlDataType="string"/>
@@ -948,12 +996,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="O29" sqref="O29"/>
+      <selection pane="topRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,11 +1115,11 @@
         <v>28</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K34" si="0">SUM(F2*(24/G2))</f>
+        <f t="shared" ref="K2:K45" si="0">SUM(F2*(24/G2))</f>
         <v>16</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L34" si="1">SUM(F2*(24/G2))*E2</f>
+        <f t="shared" ref="L2:L45" si="1">SUM(F2*(24/G2))*E2</f>
         <v>16</v>
       </c>
       <c r="M2" s="5">
@@ -1137,7 +1185,7 @@
         <v>70</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M34" si="2">SUM(I3/K3)</f>
+        <f t="shared" ref="M3:M45" si="2">SUM(I3/K3)</f>
         <v>4.5714285714285712</v>
       </c>
       <c r="N3" s="5">
@@ -1265,7 +1313,7 @@
         <v>6.1416666666666675</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" ref="N5:N34" si="3">SUM(I5/L5)</f>
+        <f t="shared" ref="N5:N45" si="3">SUM(I5/L5)</f>
         <v>2.0472222222222225</v>
       </c>
       <c r="O5" s="7">
@@ -2359,11 +2407,11 @@
         <v>8</v>
       </c>
       <c r="H23" s="3">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I23" s="3">
         <f>SUM(H23+I22)</f>
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>16</v>
@@ -2378,11 +2426,11 @@
       </c>
       <c r="M23" s="5">
         <f t="shared" si="2"/>
-        <v>7.166666666666667</v>
+        <v>7</v>
       </c>
       <c r="N23" s="5">
         <f>SUM(I23/L23)</f>
-        <v>1.4333333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="O23" s="7">
         <v>0</v>
@@ -2402,762 +2450,1291 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="B24" s="7">
+        <v>5</v>
+      </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G24" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H24" s="3">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="I24" s="3">
-        <f>SUM(H24+I22)</f>
-        <v>175</v>
+        <f>SUM(H24+I23)</f>
+        <v>420</v>
       </c>
       <c r="J24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="K24" s="4">
-        <f t="shared" si="0"/>
+        <f>SUM(F24*(24/G24))</f>
         <v>60</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>SUM(F24*(24/G24))*B24</f>
+        <v>300</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="2"/>
-        <v>2.9166666666666665</v>
+        <f>SUM(I24/K24)</f>
+        <v>7</v>
       </c>
       <c r="N24" s="5">
         <f>SUM(I24/L24)</f>
-        <v>1.4583333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="O24" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="7">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>95</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>60</v>
-      </c>
-      <c r="G25" s="2">
-        <v>32</v>
-      </c>
-      <c r="H25" s="3">
-        <v>160</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <f>SUM(H25+I22)</f>
-        <v>215</v>
+        <f>SUM(H25+I23)</f>
+        <v>210</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="L25" s="19">
-        <f>SUM(F25*(24/G25))*B25</f>
-        <v>135</v>
-      </c>
-      <c r="M25" s="5">
-        <f t="shared" si="2"/>
-        <v>4.7777777777777777</v>
-      </c>
-      <c r="N25" s="5">
-        <f t="shared" si="3"/>
-        <v>1.5925925925925926</v>
-      </c>
-      <c r="O25" s="7">
+        <v>16</v>
+      </c>
+      <c r="K25" s="4" t="e">
+        <f>SUM(F25*(24/G25))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" s="4" t="e">
+        <f>SUM(F25*(24/G25))*E25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" s="5" t="e">
+        <f>SUM(I25/K25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="5" t="e">
+        <f>SUM(I25/L25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="P25" s="7">
-        <v>36</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>13</v>
-      </c>
-      <c r="R25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S25" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="7">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>80</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <f>SUM(H26)</f>
-        <v>50</v>
+        <f>SUM(H26+I22)</f>
+        <v>155</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L26" s="19">
-        <f>SUM(F26*(24/G26))*B26</f>
-        <v>24</v>
+        <v>48</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="M26" s="5">
         <f t="shared" si="2"/>
+        <v>3.2291666666666665</v>
+      </c>
+      <c r="N26" s="5">
+        <f>SUM(I26/L26)</f>
+        <v>1.6145833333333333</v>
+      </c>
+      <c r="O26" s="7">
+        <v>2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>12</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
+        <v>150</v>
+      </c>
+      <c r="I27" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I26)</f>
+        <v>305</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="4">
+        <f>SUM(F27*(24/G27))</f>
+        <v>64</v>
+      </c>
+      <c r="L27" s="4">
+        <f>SUM(F27*(24/G27))*E27</f>
+        <v>192</v>
+      </c>
+      <c r="M27" s="5">
+        <f>SUM(I27/K27)</f>
+        <v>4.765625</v>
+      </c>
+      <c r="N27" s="5">
+        <f>SUM(I27/L27)</f>
+        <v>1.5885416666666667</v>
+      </c>
+      <c r="O27" s="7">
+        <v>2</v>
+      </c>
+      <c r="P27" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>34</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" s="4" t="e">
+        <f>SUM(F28*(24/G28))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="4" t="e">
+        <f>SUM(F28*(24/G28))*E28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="5" t="e">
+        <f>SUM(I28/K28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="5" t="e">
+        <f>SUM(I28/L28)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>95</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>55</v>
+      </c>
+      <c r="G29" s="2">
+        <v>32</v>
+      </c>
+      <c r="H29" s="3">
+        <v>140</v>
+      </c>
+      <c r="I29" s="3">
+        <f>SUM(H29+I22)</f>
+        <v>195</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="0"/>
+        <v>41.25</v>
+      </c>
+      <c r="L29" s="19">
+        <f>SUM(F29*(24/G29))*B29</f>
+        <v>123.75</v>
+      </c>
+      <c r="M29" s="5">
+        <f t="shared" si="2"/>
+        <v>4.7272727272727275</v>
+      </c>
+      <c r="N29" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5757575757575757</v>
+      </c>
+      <c r="O29" s="7">
+        <v>2</v>
+      </c>
+      <c r="P29" s="7">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>13</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>106</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>140</v>
+      </c>
+      <c r="G30" s="2">
+        <v>36</v>
+      </c>
+      <c r="H30" s="3">
+        <v>220</v>
+      </c>
+      <c r="I30" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I29)</f>
+        <v>415</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="4">
+        <f>SUM(F30*(24/G30))</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="L30" s="19">
+        <f>SUM(F30*(24/G30))*B30</f>
+        <v>280</v>
+      </c>
+      <c r="M30" s="5">
+        <f>SUM(I30/K30)</f>
+        <v>4.4464285714285721</v>
+      </c>
+      <c r="N30" s="5">
+        <f>SUM(I30/L30)</f>
+        <v>1.4821428571428572</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2</v>
+      </c>
+      <c r="P30" s="7">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>35</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="4" t="e">
+        <f>SUM(F31*(24/G31))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="19" t="e">
+        <f>SUM(F31*(24/G31))*E31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="5" t="e">
+        <f>SUM(I31/K31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="5" t="e">
+        <f>SUM(I31/L31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>80</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>20</v>
+      </c>
+      <c r="H32" s="3">
+        <v>50</v>
+      </c>
+      <c r="I32" s="3">
+        <f>SUM(H32)</f>
+        <v>50</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L32" s="19">
+        <f>SUM(F32*(24/G32))*B32</f>
+        <v>24</v>
+      </c>
+      <c r="M32" s="5">
+        <f t="shared" si="2"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N32" s="5">
         <f t="shared" si="3"/>
         <v>2.0833333333333335</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O32" s="7">
         <v>3</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P32" s="7">
         <v>24</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q32" s="7">
         <v>4</v>
       </c>
-      <c r="R26" s="6" t="s">
+      <c r="R32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B33" s="7">
         <v>3</v>
       </c>
-      <c r="C27">
+      <c r="C33">
         <v>43</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <v>80</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
         <v>38</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G33" s="2">
         <v>42</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H33" s="3">
         <v>110</v>
       </c>
-      <c r="I27" s="3">
-        <f>SUM(H27+I26)</f>
+      <c r="I33" s="3">
+        <f>SUM(H33+I32)</f>
         <v>160</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>21.714285714285712</v>
       </c>
-      <c r="L27" s="4">
-        <f>SUM(F27*(24/G27))*B27</f>
+      <c r="L33" s="4">
+        <f>SUM(F33*(24/G33))*B33</f>
         <v>65.142857142857139</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M33" s="5">
         <f t="shared" si="2"/>
         <v>7.3684210526315796</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N33" s="5">
         <f t="shared" si="3"/>
         <v>2.4561403508771931</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O33" s="7">
         <v>0</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P33" s="7">
         <v>50</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q33" s="7">
         <v>16</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>120</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>53</v>
-      </c>
-      <c r="G28" s="2">
-        <v>22</v>
-      </c>
-      <c r="H28" s="3">
-        <v>80</v>
-      </c>
-      <c r="I28" s="3">
-        <f>SUM(H28+I26)</f>
-        <v>130</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="4">
-        <f t="shared" si="0"/>
-        <v>57.818181818181813</v>
-      </c>
-      <c r="L28" s="4">
-        <f t="shared" si="1"/>
-        <v>57.818181818181813</v>
-      </c>
-      <c r="M28" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2484276729559749</v>
-      </c>
-      <c r="N28" s="5">
-        <f t="shared" si="3"/>
-        <v>2.2484276729559749</v>
-      </c>
-      <c r="O28" s="7">
-        <v>4</v>
-      </c>
-      <c r="P28" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="7">
-        <v>17</v>
-      </c>
-      <c r="R28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S28" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="7">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>66</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>120</v>
-      </c>
-      <c r="I29" s="3">
-        <f>SUM(H29+I26)</f>
-        <v>170</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L29" s="4">
-        <f>SUM(F29*(24/G29))*B29</f>
-        <v>48</v>
-      </c>
-      <c r="M29" s="5">
-        <f t="shared" si="2"/>
-        <v>14.166666666666666</v>
-      </c>
-      <c r="N29" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5416666666666665</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>15</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S29" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="7">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>40</v>
-      </c>
-      <c r="D30">
-        <v>106</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>11</v>
-      </c>
-      <c r="G30" s="2">
-        <v>24</v>
-      </c>
-      <c r="H30" s="3">
-        <v>60</v>
-      </c>
-      <c r="I30" s="3">
-        <f>SUM(H30)</f>
-        <v>60</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="L30" s="4">
-        <f>SUM(F30*(24/G30))*B30</f>
-        <v>22</v>
-      </c>
-      <c r="M30" s="5">
-        <f t="shared" si="2"/>
-        <v>5.4545454545454541</v>
-      </c>
-      <c r="N30" s="5">
-        <f t="shared" si="3"/>
-        <v>2.7272727272727271</v>
-      </c>
-      <c r="O30" s="7">
-        <v>6</v>
-      </c>
-      <c r="P30" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>5</v>
-      </c>
-      <c r="R30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>106</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>50</v>
-      </c>
-      <c r="G31" s="2">
-        <v>28</v>
-      </c>
-      <c r="H31" s="3">
-        <v>160</v>
-      </c>
-      <c r="I31" s="3">
-        <f>SUM(H31+I30)</f>
-        <v>220</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="4">
-        <f t="shared" si="0"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="L31" s="4">
-        <f>SUM(F31*(24/G31))*B31</f>
-        <v>128.57142857142856</v>
-      </c>
-      <c r="M31" s="5">
-        <f t="shared" si="2"/>
-        <v>5.1333333333333337</v>
-      </c>
-      <c r="N31" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7111111111111112</v>
-      </c>
-      <c r="O31" s="7">
-        <v>6</v>
-      </c>
-      <c r="P31" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q31" s="7">
-        <v>18</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S31" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>106</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
-        <v>110</v>
-      </c>
-      <c r="I32" s="3">
-        <f>SUM(H32+I30)</f>
-        <v>170</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="4">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="L32" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="M32" s="5">
-        <f t="shared" si="2"/>
-        <v>1.7708333333333333</v>
-      </c>
-      <c r="N32" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7708333333333333</v>
-      </c>
-      <c r="O32" s="7">
-        <v>1</v>
-      </c>
-      <c r="P32" s="7">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>28</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>106</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>10</v>
-      </c>
-      <c r="G33" s="2">
-        <v>9</v>
-      </c>
-      <c r="H33" s="3">
-        <v>65</v>
-      </c>
-      <c r="I33" s="3">
-        <f>SUM(H33)</f>
-        <v>65</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K33" s="4">
-        <f t="shared" si="0"/>
-        <v>26.666666666666664</v>
-      </c>
-      <c r="L33" s="4">
-        <f t="shared" si="1"/>
-        <v>26.666666666666664</v>
-      </c>
-      <c r="M33" s="5">
-        <f t="shared" si="2"/>
-        <v>2.4375</v>
-      </c>
-      <c r="N33" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4375</v>
-      </c>
-      <c r="O33" s="7">
-        <v>7</v>
-      </c>
-      <c r="P33" s="7">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>20</v>
       </c>
       <c r="R33" s="6" t="s">
         <v>69</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>32</v>
+      <c r="A34" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>106</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" s="1">
-        <v>9</v>
-      </c>
-      <c r="G34" s="2">
-        <v>8</v>
-      </c>
-      <c r="H34" s="3">
-        <v>90</v>
-      </c>
-      <c r="I34" s="3">
-        <f>SUM(I33+H34)</f>
-        <v>155</v>
-      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K34" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="L34" s="4">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="M34" s="5">
-        <f t="shared" si="2"/>
-        <v>5.7407407407407405</v>
-      </c>
-      <c r="N34" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9135802469135803</v>
-      </c>
-      <c r="O34" s="7">
-        <v>7</v>
-      </c>
-      <c r="P34" s="7">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>21</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S34" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="K34" s="4" t="e">
+        <f>SUM(F34*(24/G34))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="4" t="e">
+        <f>SUM(F34*(24/G34))*E34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="5" t="e">
+        <f>SUM(I34/K34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="5" t="e">
+        <f>SUM(I34/L34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>22</v>
+      <c r="A35" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="G35" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H35" s="3">
+        <v>80</v>
+      </c>
+      <c r="I35" s="3">
+        <f>SUM(H35+I32)</f>
         <v>130</v>
       </c>
-      <c r="I35" s="3">
-        <f>SUM(Table1[[#This Row],[Cost]]+I33)</f>
-        <v>195</v>
-      </c>
       <c r="J35" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K35" s="4">
-        <f>SUM(F35*(24/G35))</f>
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>57.818181818181813</v>
       </c>
       <c r="L35" s="4">
-        <f>SUM(F35*(24/G35))*E35</f>
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>57.818181818181813</v>
       </c>
       <c r="M35" s="5">
-        <f>SUM(I35/K35)</f>
-        <v>1.875</v>
+        <f t="shared" si="2"/>
+        <v>2.2484276729559749</v>
       </c>
       <c r="N35" s="5">
-        <f>SUM(I35/L35)</f>
-        <v>1.875</v>
+        <f t="shared" si="3"/>
+        <v>2.2484276729559749</v>
       </c>
       <c r="O35" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P35" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q35" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R35" s="6" t="s">
         <v>69</v>
       </c>
       <c r="S35" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="4" t="e">
+        <f>SUM(F36*(24/G36))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="4" t="e">
+        <f>SUM(F36*(24/G36))*E36</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="5" t="e">
+        <f>SUM(I36/K36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="5" t="e">
+        <f>SUM(I36/L36)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="3">
+        <v>120</v>
+      </c>
+      <c r="I37" s="3">
+        <f>SUM(H37+I32)</f>
+        <v>170</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L37" s="4">
+        <f>SUM(F37*(24/G37))*B37</f>
+        <v>48</v>
+      </c>
+      <c r="M37" s="5">
+        <f t="shared" si="2"/>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5416666666666665</v>
+      </c>
+      <c r="O37" s="7">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>15</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="4" t="e">
+        <f>SUM(F38*(24/G38))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="4" t="e">
+        <f>SUM(F38*(24/G38))*E38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="5" t="e">
+        <f>SUM(I38/K38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="5" t="e">
+        <f>SUM(I38/L38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>106</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2">
+        <v>24</v>
+      </c>
+      <c r="H39" s="3">
+        <v>60</v>
+      </c>
+      <c r="I39" s="3">
+        <f>SUM(H39)</f>
+        <v>60</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L39" s="4">
+        <f>SUM(F39*(24/G39))*B39</f>
+        <v>22</v>
+      </c>
+      <c r="M39" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="N39" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="O39" s="7">
+        <v>6</v>
+      </c>
+      <c r="P39" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>5</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="7">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>50</v>
+      </c>
+      <c r="D40">
+        <v>106</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>50</v>
+      </c>
+      <c r="G40" s="2">
+        <v>28</v>
+      </c>
+      <c r="H40" s="3">
+        <v>160</v>
+      </c>
+      <c r="I40" s="3">
+        <f>SUM(H40+I39)</f>
+        <v>220</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="0"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="L40" s="4">
+        <f>SUM(F40*(24/G40))*B40</f>
+        <v>128.57142857142856</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="2"/>
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7111111111111112</v>
+      </c>
+      <c r="O40" s="7">
+        <v>6</v>
+      </c>
+      <c r="P40" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>18</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="4" t="e">
+        <f>SUM(F41*(24/G41))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" s="4" t="e">
+        <f>SUM(F41*(24/G41))*E41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" s="5" t="e">
+        <f>SUM(I41/K41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="5" t="e">
+        <f>SUM(I41/L41)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>106</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
+        <v>110</v>
+      </c>
+      <c r="I42" s="3">
+        <f>SUM(H42+I39)</f>
+        <v>170</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="M42" s="5">
+        <f t="shared" si="2"/>
+        <v>1.7708333333333333</v>
+      </c>
+      <c r="N42" s="5">
+        <f t="shared" si="3"/>
+        <v>1.7708333333333333</v>
+      </c>
+      <c r="O42" s="7">
+        <v>1</v>
+      </c>
+      <c r="P42" s="7">
+        <v>40</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>28</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="4" t="e">
+        <f>SUM(F43*(24/G43))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="4" t="e">
+        <f>SUM(F43*(24/G43))*E43</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="5" t="e">
+        <f>SUM(I43/K43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="5" t="e">
+        <f>SUM(I43/L43)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>106</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10</v>
+      </c>
+      <c r="G44" s="2">
+        <v>9</v>
+      </c>
+      <c r="H44" s="3">
+        <v>65</v>
+      </c>
+      <c r="I44" s="3">
+        <f>SUM(H44)</f>
+        <v>65</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="4">
+        <f t="shared" si="0"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="L44" s="4">
+        <f t="shared" si="1"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="M44" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4375</v>
+      </c>
+      <c r="N44" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4375</v>
+      </c>
+      <c r="O44" s="7">
+        <v>7</v>
+      </c>
+      <c r="P44" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>20</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>106</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
+        <v>90</v>
+      </c>
+      <c r="I45" s="3">
+        <f>SUM(I44+H45)</f>
+        <v>155</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="2"/>
+        <v>5.7407407407407405</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="3"/>
+        <v>1.9135802469135803</v>
+      </c>
+      <c r="O45" s="7">
+        <v>7</v>
+      </c>
+      <c r="P45" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>21</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="4" t="e">
+        <f>SUM(F46*(24/G46))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L46" s="4" t="e">
+        <f>SUM(F46*(24/G46))*E46</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M46" s="5" t="e">
+        <f>SUM(I46/K46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N46" s="5" t="e">
+        <f>SUM(I46/L46)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>106</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>130</v>
+      </c>
+      <c r="I47" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I44)</f>
+        <v>195</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="4">
+        <f>SUM(F47*(24/G47))</f>
+        <v>104</v>
+      </c>
+      <c r="L47" s="4">
+        <f>SUM(F47*(24/G47))*E47</f>
+        <v>104</v>
+      </c>
+      <c r="M47" s="5">
+        <f>SUM(I47/K47)</f>
+        <v>1.875</v>
+      </c>
+      <c r="N47" s="5">
+        <f>SUM(I47/L47)</f>
+        <v>1.875</v>
+      </c>
+      <c r="O47" s="7">
+        <v>9</v>
+      </c>
+      <c r="P47" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>30</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="S47" s="6" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="4" t="e">
+        <f>SUM(F48*(24/G48))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L48" s="4" t="e">
+        <f>SUM(F48*(24/G48))*E48</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M48" s="5" t="e">
+        <f>SUM(I48/K48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N48" s="5" t="e">
+        <f>SUM(I48/L48)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J36:J1048576 I1:I35">
+  <conditionalFormatting sqref="J49:J1048576 I1:I48">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1BD9EBD9-70F4-4B0C-A478-15EF33BDB044}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D8D0243-DDE1-44B2-AED6-0979A8D5BBAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -24,8 +24,22 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="TowersList" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="TowersList1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="TowersList2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="129">
   <si>
     <t>Rogue</t>
   </si>
@@ -69,12 +83,6 @@
     <t># of Targets</t>
   </si>
   <si>
-    <t xml:space="preserve"> earth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fire</t>
-  </si>
-  <si>
     <t>fire</t>
   </si>
   <si>
@@ -249,9 +257,6 @@
     <t>Fire Spout</t>
   </si>
   <si>
-    <t>Snow Machine</t>
-  </si>
-  <si>
     <t>maxHits</t>
   </si>
   <si>
@@ -354,9 +359,6 @@
     <t>Blizzard</t>
   </si>
   <si>
-    <t>Ice Machine</t>
-  </si>
-  <si>
     <t>MegaZap</t>
   </si>
   <si>
@@ -367,6 +369,63 @@
   </si>
   <si>
     <t>Machine Gun</t>
+  </si>
+  <si>
+    <t>Snow Cannon</t>
+  </si>
+  <si>
+    <t>Ice everywhere.  Same range, more slow, more damage.</t>
+  </si>
+  <si>
+    <t>Big Yeti who hits hard and does AoE splash.</t>
+  </si>
+  <si>
+    <t>upgradeOne</t>
+  </si>
+  <si>
+    <t>upgradeTwo</t>
+  </si>
+  <si>
+    <t>upgradeThree</t>
+  </si>
+  <si>
+    <t>targeting</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>ScorchedEarth</t>
+  </si>
+  <si>
+    <t>FireSpout</t>
+  </si>
+  <si>
+    <t>MagmaThrower</t>
+  </si>
+  <si>
+    <t>MasterSwordsman</t>
+  </si>
+  <si>
+    <t>RoyalBowman</t>
+  </si>
+  <si>
+    <t>TripleSpout</t>
+  </si>
+  <si>
+    <t>SnowCannon</t>
+  </si>
+  <si>
+    <t>FrozenPond</t>
+  </si>
+  <si>
+    <t>DeathKnight</t>
+  </si>
+  <si>
+    <t>Demolitionist</t>
+  </si>
+  <si>
+    <t>HotSpot</t>
   </si>
 </sst>
 </file>
@@ -597,15 +656,14 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Root">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Row" form="unqualified">
               <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ID" form="unqualified"/>
+                <xsd:all>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="AoE" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
@@ -613,19 +671,17 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Dmg" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Atk_Speed" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cost" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Total_Cost" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Type" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Projectile_Speed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Min_DPS" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Max_DPS" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Gold_per_Min_DPS" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="G_M_DPS" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bulletFrame" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bulletSpeed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="towerFrame" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="bulletFrame" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="bulletSpeed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="towerFrame" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="fireSoundString" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="tDescription" form="unqualified"/>
-                </xsd:sequence>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeOne" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeTwo" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeThree" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="targeting" form="unqualified"/>
+                </xsd:all>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -633,66 +689,80 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="Root_Map" RootElement="Root" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="3" Name="Root_Map" RootElement="Root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:S48" tableType="xml" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:S48" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:W47" tableType="xml" totalsRowShown="0" headerRowDxfId="9" connectionId="3">
+  <autoFilter ref="A1:W47" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
+  <tableColumns count="23">
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="1" name="maxHits" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/AoE" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{34A04DB4-B101-4D53-AA48-F1BAEB4D37E1}" uniqueName="Range" name="Range">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/Range" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/Range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="7">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="6">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="5">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/Cost" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="Total_Cost" name="Total Cost" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="Total Cost" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/Type" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="Min_DPS" name="Min DPS" dataDxfId="3">
+    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(F2*(24/G2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="Max_DPS" name="Max DPS" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM(F2*(24/G2))*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="Gold_per_Min_DPS" name="Gold per Min DPS" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="1">
       <calculatedColumnFormula>SUM(I2/K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="G_M_DPS" name="G/M.DPS" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="0">
       <calculatedColumnFormula>SUM(I2/L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/bulletFrame" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/bulletFrame" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{D6FE27F0-9BA9-4042-A2FB-7EB813A3CD4E}" uniqueName="bulletSpeed" name="bulletSpeed">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/bulletSpeed" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/bulletSpeed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{3D7ECFAE-69C7-4D3F-B8EF-DE3456EED59C}" uniqueName="towerFrame" name="towerFrame">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/towerFrame" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/towerFrame" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{483C72D6-B33C-452D-BE8F-E524D370C58C}" uniqueName="fireSoundString" name="fireSoundString">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{3624DC5F-C196-4453-A4C0-CB17DCE76751}" uniqueName="tDescription" name="tDescription">
-      <xmlColumnPr mapId="1" xpath="/Root/Row/tDescription" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/tDescription" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{1B12F4CC-722E-4BFB-9EA8-7BC8CB93A247}" uniqueName="upgradeOne" name="upgradeOne">
+      <xmlColumnPr mapId="3" xpath="/Root/Row/upgradeOne" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{95D68C7E-6AEC-4AC2-B5B4-1E2C3EDE848C}" uniqueName="upgradeTwo" name="upgradeTwo">
+      <xmlColumnPr mapId="3" xpath="/Root/Row/upgradeTwo" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{9DBC30FB-5F26-4DBD-945C-43FD0F36F2A8}" uniqueName="upgradeThree" name="upgradeThree">
+      <xmlColumnPr mapId="3" xpath="/Root/Row/upgradeThree" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{E256A08A-04FD-4A56-951F-6AF7E250751B}" uniqueName="targeting" name="targeting">
+      <xmlColumnPr mapId="3" xpath="/Root/Row/targeting" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -996,44 +1066,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
-  <dimension ref="A1:S48"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="K46" sqref="K46"/>
+      <selection pane="topRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14" customWidth="1"/>
-    <col min="19" max="20" width="121.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="128" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>9</v>
@@ -1045,48 +1118,60 @@
         <v>10</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2">
@@ -1112,14 +1197,14 @@
         <v>40</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K45" si="0">SUM(F2*(24/G2))</f>
+        <f t="shared" ref="K2:K44" si="0">SUM(F2*(24/G2))</f>
         <v>16</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L45" si="1">SUM(F2*(24/G2))*E2</f>
+        <f t="shared" ref="L2:L44" si="1">SUM(F2*(24/G2))*E2</f>
         <v>16</v>
       </c>
       <c r="M2" s="5">
@@ -1140,13 +1225,23 @@
         <v>2</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1269,7 @@
         <v>160</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
@@ -1185,7 +1280,7 @@
         <v>70</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M45" si="2">SUM(I3/K3)</f>
+        <f t="shared" ref="M3:M44" si="2">SUM(I3/K3)</f>
         <v>4.5714285714285712</v>
       </c>
       <c r="N3" s="5">
@@ -1202,13 +1297,21 @@
         <v>9</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1339,7 @@
         <v>345</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
@@ -1264,13 +1367,17 @@
         <v>22</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -1298,7 +1405,7 @@
         <v>335</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
@@ -1313,7 +1420,7 @@
         <v>6.1416666666666675</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" ref="N5:N45" si="3">SUM(I5/L5)</f>
+        <f t="shared" ref="N5:N44" si="3">SUM(I5/L5)</f>
         <v>2.0472222222222225</v>
       </c>
       <c r="O5" s="7">
@@ -1326,13 +1433,17 @@
         <v>23</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -1360,7 +1471,7 @@
         <v>175</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
@@ -1388,13 +1499,21 @@
         <v>10</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1541,7 @@
         <v>355</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
@@ -1450,13 +1569,17 @@
         <v>29</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="S7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1607,7 @@
         <v>365</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
@@ -1512,13 +1635,17 @@
         <v>27</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1546,7 +1673,7 @@
         <v>120</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
@@ -1574,13 +1701,21 @@
         <v>11</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1608,7 +1743,7 @@
         <v>300</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
@@ -1636,13 +1771,17 @@
         <v>32</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1811,7 @@
         <v>310</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
@@ -1700,15 +1839,19 @@
         <v>31</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12">
@@ -1734,7 +1877,7 @@
         <v>30</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
@@ -1762,15 +1905,25 @@
         <v>1</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13">
@@ -1796,7 +1949,7 @@
         <v>110</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
@@ -1824,15 +1977,23 @@
         <v>7</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14">
@@ -1858,7 +2019,7 @@
         <v>280</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
@@ -1886,15 +2047,19 @@
         <v>24</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15">
@@ -1920,7 +2085,7 @@
         <v>330</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
@@ -1948,15 +2113,19 @@
         <v>25</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16">
@@ -1982,7 +2151,7 @@
         <v>145</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" si="0"/>
@@ -2010,15 +2179,21 @@
         <v>6</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17">
@@ -2044,7 +2219,7 @@
         <v>335</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
@@ -2072,15 +2247,19 @@
         <v>26</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18">
@@ -2106,7 +2285,7 @@
         <v>385</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
@@ -2134,15 +2313,19 @@
         <v>1</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19">
@@ -2168,7 +2351,7 @@
         <v>190</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="0"/>
@@ -2196,15 +2379,19 @@
         <v>8</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20">
@@ -2230,7 +2417,7 @@
         <v>191</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="0"/>
@@ -2258,13 +2445,17 @@
         <v>1</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21">
@@ -2290,7 +2481,7 @@
         <v>191</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
@@ -2318,13 +2509,17 @@
         <v>1</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22">
@@ -2350,7 +2545,7 @@
         <v>55</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K22" s="4">
         <f t="shared" si="0"/>
@@ -2378,15 +2573,25 @@
         <v>3</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="V22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" s="7">
         <v>5</v>
@@ -2414,7 +2619,7 @@
         <v>210</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
@@ -2429,7 +2634,7 @@
         <v>7</v>
       </c>
       <c r="N23" s="5">
-        <f>SUM(I23/L23)</f>
+        <f t="shared" ref="N23:N28" si="5">SUM(I23/L23)</f>
         <v>1.4</v>
       </c>
       <c r="O23" s="7">
@@ -2442,15 +2647,23 @@
         <v>14</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="T23" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
@@ -2478,7 +2691,7 @@
         <v>420</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="4">
         <f>SUM(F24*(24/G24))</f>
@@ -2493,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="N24" s="5">
-        <f>SUM(I24/L24)</f>
+        <f t="shared" si="5"/>
         <v>1.4</v>
       </c>
       <c r="O24" s="7">
@@ -2506,15 +2719,21 @@
         <v>33</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" s="6"/>
       <c r="F25" s="1"/>
@@ -2525,7 +2744,7 @@
         <v>210</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K25" s="4" t="e">
         <f>SUM(F25*(24/G25))</f>
@@ -2540,7 +2759,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N25" s="5" t="e">
-        <f>SUM(I25/L25)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O25" s="7"/>
@@ -2548,10 +2767,16 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26">
@@ -2577,7 +2802,7 @@
         <v>155</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K26" s="4">
         <f t="shared" si="0"/>
@@ -2592,7 +2817,7 @@
         <v>3.2291666666666665</v>
       </c>
       <c r="N26" s="5">
-        <f>SUM(I26/L26)</f>
+        <f t="shared" si="5"/>
         <v>1.6145833333333333</v>
       </c>
       <c r="O26" s="7">
@@ -2605,15 +2830,21 @@
         <v>12</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="T26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27">
@@ -2639,7 +2870,7 @@
         <v>305</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K27" s="4">
         <f>SUM(F27*(24/G27))</f>
@@ -2654,7 +2885,7 @@
         <v>4.765625</v>
       </c>
       <c r="N27" s="5">
-        <f>SUM(I27/L27)</f>
+        <f t="shared" si="5"/>
         <v>1.5885416666666667</v>
       </c>
       <c r="O27" s="7">
@@ -2667,15 +2898,19 @@
         <v>34</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" s="6"/>
       <c r="F28" s="1"/>
@@ -2683,7 +2918,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K28" s="4" t="e">
         <f>SUM(F28*(24/G28))</f>
@@ -2698,7 +2933,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="5" t="e">
-        <f>SUM(I28/L28)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="7"/>
@@ -2706,10 +2941,14 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="7">
         <v>3</v>
@@ -2737,7 +2976,7 @@
         <v>195</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" s="4">
         <f t="shared" si="0"/>
@@ -2765,15 +3004,21 @@
         <v>13</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="T29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
@@ -2801,7 +3046,7 @@
         <v>415</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K30" s="4">
         <f>SUM(F30*(24/G30))</f>
@@ -2829,15 +3074,19 @@
         <v>35</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B31" s="6"/>
       <c r="F31" s="1"/>
@@ -2845,7 +3094,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K31" s="4" t="e">
         <f>SUM(F31*(24/G31))</f>
@@ -2868,10 +3117,14 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="7">
         <v>2</v>
@@ -2886,36 +3139,36 @@
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G32" s="2">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H32" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I32" s="3">
         <f>SUM(H32)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>12.571428571428571</v>
       </c>
       <c r="L32" s="19">
         <f>SUM(F32*(24/G32))*B32</f>
-        <v>24</v>
+        <v>25.142857142857142</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
+        <v>3.5795454545454546</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="3"/>
-        <v>2.0833333333333335</v>
+        <v>1.7897727272727273</v>
       </c>
       <c r="O32" s="7">
         <v>3</v>
@@ -2927,15 +3180,25 @@
         <v>4</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="T32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
@@ -2960,10 +3223,10 @@
       </c>
       <c r="I33" s="3">
         <f>SUM(H33+I32)</f>
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
@@ -2975,11 +3238,11 @@
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>7.3684210526315796</v>
+        <v>7.1381578947368434</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>2.4561403508771931</v>
+        <v>2.3793859649122808</v>
       </c>
       <c r="O33" s="7">
         <v>0</v>
@@ -2991,151 +3254,235 @@
         <v>16</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>120</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>53</v>
+      </c>
+      <c r="G34" s="2">
+        <v>22</v>
+      </c>
+      <c r="H34" s="3">
+        <v>80</v>
+      </c>
+      <c r="I34" s="3">
+        <f>SUM(H34+I32)</f>
+        <v>125</v>
+      </c>
       <c r="J34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="0"/>
+        <v>57.818181818181813</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="1"/>
+        <v>57.818181818181813</v>
+      </c>
+      <c r="M34" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1619496855345912</v>
+      </c>
+      <c r="N34" s="5">
+        <f t="shared" si="3"/>
+        <v>2.1619496855345912</v>
+      </c>
+      <c r="O34" s="7">
+        <v>4</v>
+      </c>
+      <c r="P34" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="7">
         <v>17</v>
       </c>
-      <c r="K34" s="4" t="e">
-        <f>SUM(F34*(24/G34))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L34" s="4" t="e">
-        <f>SUM(F34*(24/G34))*E34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M34" s="5" t="e">
-        <f>SUM(I34/K34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N34" s="5" t="e">
-        <f>SUM(I34/L34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
+        <v>66</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
         <v>120</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>53</v>
-      </c>
-      <c r="G35" s="2">
-        <v>22</v>
-      </c>
-      <c r="H35" s="3">
-        <v>80</v>
       </c>
       <c r="I35" s="3">
         <f>SUM(H35+I32)</f>
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
-        <v>57.818181818181813</v>
+        <v>12</v>
       </c>
       <c r="L35" s="4">
-        <f t="shared" si="1"/>
-        <v>57.818181818181813</v>
+        <f>SUM(F35*(24/G35))*B35</f>
+        <v>48</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="2"/>
-        <v>2.2484276729559749</v>
+        <v>13.75</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="3"/>
-        <v>2.2484276729559749</v>
+        <v>3.4375</v>
       </c>
       <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>15</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="7">
         <v>4</v>
       </c>
-      <c r="P35" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>17</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3">
+        <v>260</v>
+      </c>
+      <c r="I36" s="3">
+        <f>SUM(H36+I35)</f>
+        <v>425</v>
+      </c>
       <c r="J36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="4" t="e">
+        <v>15</v>
+      </c>
+      <c r="K36" s="4">
         <f>SUM(F36*(24/G36))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="4" t="e">
-        <f>SUM(F36*(24/G36))*E36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M36" s="5" t="e">
+        <v>60</v>
+      </c>
+      <c r="L36" s="4">
+        <f>SUM(F36*(24/G36))*B36</f>
+        <v>240</v>
+      </c>
+      <c r="M36" s="5">
         <f>SUM(I36/K36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N36" s="5" t="e">
+        <v>7.083333333333333</v>
+      </c>
+      <c r="N36" s="5">
         <f>SUM(I36/L36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1.7708333333333333</v>
+      </c>
+      <c r="O36" s="7">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>50</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>37</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B37" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D37">
         <v>66</v>
@@ -3144,36 +3491,36 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G37" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H37" s="3">
+        <v>280</v>
+      </c>
+      <c r="I37" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I35)</f>
+        <v>445</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="4">
+        <f>SUM(F37*(24/G37))</f>
         <v>120</v>
-      </c>
-      <c r="I37" s="3">
-        <f>SUM(H37+I32)</f>
-        <v>170</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
       </c>
       <c r="L37" s="4">
         <f>SUM(F37*(24/G37))*B37</f>
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="2"/>
-        <v>14.166666666666666</v>
+        <f>SUM(I37/K37)</f>
+        <v>3.7083333333333335</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5416666666666665</v>
+        <f>SUM(I37/L37)</f>
+        <v>1.8541666666666667</v>
       </c>
       <c r="O37" s="7">
         <v>0</v>
@@ -3182,58 +3529,100 @@
         <v>50</v>
       </c>
       <c r="Q37" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="R37" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="7">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>106</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2">
+        <v>24</v>
+      </c>
+      <c r="H38" s="3">
+        <v>60</v>
+      </c>
+      <c r="I38" s="3">
+        <f>SUM(H38)</f>
+        <v>60</v>
+      </c>
       <c r="J38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38" s="4" t="e">
-        <f>SUM(F38*(24/G38))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="4" t="e">
-        <f>SUM(F38*(24/G38))*E38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M38" s="5" t="e">
-        <f>SUM(I38/K38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N38" s="5" t="e">
-        <f>SUM(I38/L38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L38" s="4">
+        <f>SUM(F38*(24/G38))*B38</f>
+        <v>22</v>
+      </c>
+      <c r="M38" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="N38" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="O38" s="7">
+        <v>6</v>
+      </c>
+      <c r="P38" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>5</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B39" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>106</v>
@@ -3242,246 +3631,268 @@
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G39" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H39" s="3">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="I39" s="3">
-        <f>SUM(H39)</f>
-        <v>60</v>
+        <f>SUM(H39+I38)</f>
+        <v>220</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="L39" s="4">
         <f>SUM(F39*(24/G39))*B39</f>
-        <v>22</v>
+        <v>128.57142857142856</v>
       </c>
       <c r="M39" s="5">
         <f t="shared" si="2"/>
-        <v>5.4545454545454541</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="N39" s="5">
         <f t="shared" si="3"/>
-        <v>2.7272727272727271</v>
+        <v>1.7111111111111112</v>
       </c>
       <c r="O39" s="7">
         <v>6</v>
       </c>
       <c r="P39" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q39" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="7">
+        <v>108</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="4" t="e">
+        <f>SUM(F40*(24/G40))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="4" t="e">
+        <f>SUM(F40*(24/G40))*E40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="5" t="e">
+        <f>SUM(I40/K40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="5" t="e">
+        <f>SUM(I40/L40)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>106</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
         <v>3</v>
       </c>
-      <c r="C40">
-        <v>50</v>
-      </c>
-      <c r="D40">
-        <v>106</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>50</v>
-      </c>
-      <c r="G40" s="2">
-        <v>28</v>
-      </c>
-      <c r="H40" s="3">
-        <v>160</v>
-      </c>
-      <c r="I40" s="3">
-        <f>SUM(H40+I39)</f>
-        <v>220</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="0"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="L40" s="4">
-        <f>SUM(F40*(24/G40))*B40</f>
-        <v>128.57142857142856</v>
-      </c>
-      <c r="M40" s="5">
-        <f t="shared" si="2"/>
-        <v>5.1333333333333337</v>
-      </c>
-      <c r="N40" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7111111111111112</v>
-      </c>
-      <c r="O40" s="7">
-        <v>6</v>
-      </c>
-      <c r="P40" s="7">
-        <v>30</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>18</v>
-      </c>
-      <c r="R40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S40" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="4" t="e">
-        <f>SUM(F41*(24/G41))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="4" t="e">
-        <f>SUM(F41*(24/G41))*E41</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M41" s="5" t="e">
-        <f>SUM(I41/K41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="5" t="e">
-        <f>SUM(I41/L41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>106</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="1">
-        <v>12</v>
-      </c>
-      <c r="G42" s="2">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H41" s="3">
         <v>110</v>
       </c>
-      <c r="I42" s="3">
-        <f>SUM(H42+I39)</f>
+      <c r="I41" s="3">
+        <f>SUM(H41+I38)</f>
         <v>170</v>
       </c>
-      <c r="J42" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K42" s="4">
+      <c r="J41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L41" s="4">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M41" s="5">
         <f t="shared" si="2"/>
         <v>1.7708333333333333</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N41" s="5">
         <f t="shared" si="3"/>
         <v>1.7708333333333333</v>
       </c>
-      <c r="O42" s="7">
-        <v>1</v>
-      </c>
-      <c r="P42" s="7">
+      <c r="O41" s="7">
+        <v>1</v>
+      </c>
+      <c r="P41" s="7">
         <v>40</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q41" s="7">
         <v>28</v>
       </c>
-      <c r="R42" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S42" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
-        <v>113</v>
+      <c r="R41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="4" t="e">
+        <f>SUM(F42*(24/G42))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="4" t="e">
+        <f>SUM(F42*(24/G42))*E42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M42" s="5" t="e">
+        <f>SUM(I42/K42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N42" s="5" t="e">
+        <f>SUM(I42/L42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="4" t="e">
-        <f>SUM(F43*(24/G43))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="4" t="e">
-        <f>SUM(F43*(24/G43))*E43</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M43" s="5" t="e">
-        <f>SUM(I43/K43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N43" s="5" t="e">
-        <f>SUM(I43/L43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>106</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2">
+        <v>9</v>
+      </c>
+      <c r="H43" s="3">
+        <v>65</v>
+      </c>
+      <c r="I43" s="3">
+        <f>SUM(H43)</f>
+        <v>65</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="4">
+        <f t="shared" si="0"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="L43" s="4">
+        <f t="shared" si="1"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="M43" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4375</v>
+      </c>
+      <c r="N43" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4375</v>
+      </c>
+      <c r="O43" s="7">
+        <v>7</v>
+      </c>
+      <c r="P43" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>20</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44">
@@ -3491,39 +3902,39 @@
         <v>106</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" s="3">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I44" s="3">
-        <f>SUM(H44)</f>
-        <v>65</v>
+        <f>SUM(I43+H44)</f>
+        <v>155</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="0"/>
-        <v>26.666666666666664</v>
+        <v>27</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="1"/>
-        <v>26.666666666666664</v>
+        <v>81</v>
       </c>
       <c r="M44" s="5">
         <f t="shared" si="2"/>
-        <v>2.4375</v>
+        <v>5.7407407407407405</v>
       </c>
       <c r="N44" s="5">
         <f t="shared" si="3"/>
-        <v>2.4375</v>
+        <v>1.9135802469135803</v>
       </c>
       <c r="O44" s="7">
         <v>7</v>
@@ -3532,210 +3943,164 @@
         <v>20</v>
       </c>
       <c r="Q44" s="7">
+        <v>21</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4" t="e">
+        <f>SUM(F45*(24/G45))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="4" t="e">
+        <f>SUM(F45*(24/G45))*E45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="5" t="e">
+        <f>SUM(I45/K45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N45" s="5" t="e">
+        <f>SUM(I45/L45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R44" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S44" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45">
+      <c r="B46" s="6"/>
+      <c r="C46">
         <v>0</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>106</v>
       </c>
-      <c r="E45">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2">
         <v>3</v>
       </c>
-      <c r="F45" s="1">
+      <c r="H46" s="3">
+        <v>130</v>
+      </c>
+      <c r="I46" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I43)</f>
+        <v>195</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="4">
+        <f>SUM(F46*(24/G46))</f>
+        <v>104</v>
+      </c>
+      <c r="L46" s="4">
+        <f>SUM(F46*(24/G46))*E46</f>
+        <v>104</v>
+      </c>
+      <c r="M46" s="5">
+        <f>SUM(I46/K46)</f>
+        <v>1.875</v>
+      </c>
+      <c r="N46" s="5">
+        <f>SUM(I46/L46)</f>
+        <v>1.875</v>
+      </c>
+      <c r="O46" s="7">
         <v>9</v>
       </c>
-      <c r="G45" s="2">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
-        <v>90</v>
-      </c>
-      <c r="I45" s="3">
-        <f>SUM(I44+H45)</f>
-        <v>155</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="L45" s="4">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="M45" s="5">
-        <f t="shared" si="2"/>
-        <v>5.7407407407407405</v>
-      </c>
-      <c r="N45" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9135802469135803</v>
-      </c>
-      <c r="O45" s="7">
-        <v>7</v>
-      </c>
-      <c r="P45" s="7">
+      <c r="P46" s="7">
         <v>20</v>
       </c>
-      <c r="Q45" s="7">
-        <v>21</v>
-      </c>
-      <c r="R45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S45" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="4" t="e">
-        <f>SUM(F46*(24/G46))</f>
+      <c r="Q46" s="7">
+        <v>30</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="4" t="e">
+        <f>SUM(F47*(24/G47))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="4" t="e">
-        <f>SUM(F46*(24/G46))*E46</f>
+      <c r="L47" s="4" t="e">
+        <f>SUM(F47*(24/G47))*E47</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M46" s="5" t="e">
-        <f>SUM(I46/K46)</f>
+      <c r="M47" s="5" t="e">
+        <f>SUM(I47/K47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N46" s="5" t="e">
-        <f>SUM(I46/L46)</f>
+      <c r="N47" s="5" t="e">
+        <f>SUM(I47/L47)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>106</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1">
-        <v>13</v>
-      </c>
-      <c r="G47" s="2">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3">
-        <v>130</v>
-      </c>
-      <c r="I47" s="3">
-        <f>SUM(Table1[[#This Row],[Cost]]+I44)</f>
-        <v>195</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="4">
-        <f>SUM(F47*(24/G47))</f>
-        <v>104</v>
-      </c>
-      <c r="L47" s="4">
-        <f>SUM(F47*(24/G47))*E47</f>
-        <v>104</v>
-      </c>
-      <c r="M47" s="5">
-        <f>SUM(I47/K47)</f>
-        <v>1.875</v>
-      </c>
-      <c r="N47" s="5">
-        <f>SUM(I47/L47)</f>
-        <v>1.875</v>
-      </c>
-      <c r="O47" s="7">
-        <v>9</v>
-      </c>
-      <c r="P47" s="7">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>30</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K48" s="4" t="e">
-        <f>SUM(F48*(24/G48))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="4" t="e">
-        <f>SUM(F48*(24/G48))*E48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M48" s="5" t="e">
-        <f>SUM(I48/K48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N48" s="5" t="e">
-        <f>SUM(I48/L48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J49:J1048576 I1:I48">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J48:J1048576 I1:I47">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3746,6 +4111,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D8D0243-DDE1-44B2-AED6-0979A8D5BBAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FBADE9A3-D84E-4566-8787-393789D08502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
   <si>
     <t>Rogue</t>
   </si>
@@ -299,18 +299,12 @@
     <t>Likes to shout a lot of motivational things.  Nearby towers strangely reply to it. DmgUp 12% to nearby towers.</t>
   </si>
   <si>
-    <t>Icey.  Cold.  Refreshing.  Slows by 18% to small area for 2 seconds.</t>
-  </si>
-  <si>
     <t>Shoots ice spikes.  Long range, single target.  Slows 18% and reduces armor by 1 for 2 seconds.</t>
   </si>
   <si>
     <t>Frozen Pond.  Slows in a small AoE around it by 23% and does light damage</t>
   </si>
   <si>
-    <t>Bigger splash, still slows 18%.  Just a nice, little upgrade :)</t>
-  </si>
-  <si>
     <t>Burns the ground in a 1 block AoE (melee range) dealing 30 damage a second to anything it can.  Strong.</t>
   </si>
   <si>
@@ -426,6 +420,45 @@
   </si>
   <si>
     <t>HotSpot</t>
+  </si>
+  <si>
+    <t>Make way for big ar-tillery!!</t>
+  </si>
+  <si>
+    <t>Goes BRRRRRRRRRR.</t>
+  </si>
+  <si>
+    <t>MachineGun</t>
+  </si>
+  <si>
+    <t>5 people??  This is madness!  This is an outrage!</t>
+  </si>
+  <si>
+    <t>Requires a ransom of -1 mIlLiOn DoLlArS- mwuhahaha!</t>
+  </si>
+  <si>
+    <t>DeathRay</t>
+  </si>
+  <si>
+    <t>Hail</t>
+  </si>
+  <si>
+    <t>Shoots 2 spikes at once, slows by 18%, armor reduced by 1 on each target.</t>
+  </si>
+  <si>
+    <t>Ice Maker</t>
+  </si>
+  <si>
+    <t>IceMaker</t>
+  </si>
+  <si>
+    <t>Icey.  Cold.  Refreshing.  Slows by 22% to small area for 2 seconds.</t>
+  </si>
+  <si>
+    <t>Bigger splash, still slows 22%.  Just a nice, little upgrade :)</t>
+  </si>
+  <si>
+    <t>Bigger splash still, 25% slow.</t>
   </si>
 </sst>
 </file>
@@ -696,8 +729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:W47" tableType="xml" totalsRowShown="0" headerRowDxfId="9" connectionId="3">
-  <autoFilter ref="A1:W47" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:W49" tableType="xml" totalsRowShown="0" headerRowDxfId="9" connectionId="3">
+  <autoFilter ref="A1:W49" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <tableColumns count="23">
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="3" xpath="/Root/Row/Name" xmlDataType="string"/>
@@ -1067,17 +1100,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="N9" sqref="N9"/>
+      <selection pane="topRight" activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
@@ -1157,16 +1190,16 @@
         <v>36</v>
       </c>
       <c r="T1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1200,11 +1233,11 @@
         <v>26</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K44" si="0">SUM(F2*(24/G2))</f>
+        <f t="shared" ref="K2:K46" si="0">SUM(F2*(24/G2))</f>
         <v>16</v>
       </c>
       <c r="L2" s="4">
-        <f t="shared" ref="L2:L44" si="1">SUM(F2*(24/G2))*E2</f>
+        <f t="shared" ref="L2:L46" si="1">SUM(F2*(24/G2))*E2</f>
         <v>16</v>
       </c>
       <c r="M2" s="5">
@@ -1231,13 +1264,13 @@
         <v>54</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="W2" s="6"/>
     </row>
@@ -1256,36 +1289,36 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2">
         <v>24</v>
       </c>
       <c r="H3" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(H3+H2)</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="M3" s="5">
-        <f t="shared" ref="M3:M44" si="2">SUM(I3/K3)</f>
-        <v>4.5714285714285712</v>
+        <f t="shared" ref="M3:M46" si="2">SUM(I3/K3)</f>
+        <v>4.615384615384615</v>
       </c>
       <c r="N3" s="5">
         <f>SUM(I3/L3)</f>
-        <v>2.2857142857142856</v>
+        <v>2.3076923076923075</v>
       </c>
       <c r="O3" s="7">
         <v>5</v>
@@ -1300,7 +1333,7 @@
         <v>56</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>4</v>
@@ -1336,7 +1369,7 @@
       </c>
       <c r="I4" s="3">
         <f>SUM(I3+Table1[[#This Row],[Cost]])</f>
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>26</v>
@@ -1351,11 +1384,11 @@
       </c>
       <c r="M4" s="5">
         <f t="shared" si="2"/>
-        <v>4.1818181818181817</v>
+        <v>3.6969696969696968</v>
       </c>
       <c r="N4" s="5">
         <f>SUM(I4/L4)</f>
-        <v>2.0909090909090908</v>
+        <v>1.8484848484848484</v>
       </c>
       <c r="O4" s="7">
         <v>5</v>
@@ -1370,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1402,7 +1435,7 @@
       </c>
       <c r="I5" s="3">
         <f>SUM(I3+Table1[[#This Row],[Cost]])</f>
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>27</v>
@@ -1417,11 +1450,11 @@
       </c>
       <c r="M5" s="5">
         <f t="shared" si="2"/>
-        <v>6.1416666666666675</v>
+        <v>5.4083333333333341</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" ref="N5:N44" si="3">SUM(I5/L5)</f>
-        <v>2.0472222222222225</v>
+        <f t="shared" ref="N5:N46" si="3">SUM(I5/L5)</f>
+        <v>1.8027777777777778</v>
       </c>
       <c r="O5" s="7">
         <v>5</v>
@@ -1461,7 +1494,7 @@
         <v>56</v>
       </c>
       <c r="G6" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3">
         <v>135</v>
@@ -1475,19 +1508,19 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>79.058823529411768</v>
+        <v>84</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>79.058823529411768</v>
+        <v>84</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>2.2135416666666665</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ref="N6:N18" si="4">SUM(I6/L6)</f>
-        <v>2.2135416666666665</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="O6" s="7">
         <v>5</v>
@@ -1660,36 +1693,36 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2">
         <v>20</v>
       </c>
       <c r="H9" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <f>SUM(H9+I2)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>82</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>51.6</v>
+        <v>67.2</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>51.6</v>
+        <v>67.2</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>2.3255813953488373</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="4"/>
-        <v>2.3255813953488373</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="O9" s="7">
         <v>5</v>
@@ -1704,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>7</v>
@@ -1740,7 +1773,7 @@
       </c>
       <c r="I10" s="3">
         <f>SUM(H10+I9)</f>
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>82</v>
@@ -1755,11 +1788,11 @@
       </c>
       <c r="M10" s="5">
         <f t="shared" si="2"/>
-        <v>2.8000000000000003</v>
+        <v>2.9866666666666668</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="4"/>
-        <v>2.8000000000000003</v>
+        <v>2.9866666666666668</v>
       </c>
       <c r="O10" s="7">
         <v>5</v>
@@ -1808,7 +1841,7 @@
       </c>
       <c r="I11" s="3">
         <f>SUM(H11+I9)</f>
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>27</v>
@@ -1823,11 +1856,11 @@
       </c>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>10.333333333333334</v>
+        <v>11</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="4"/>
-        <v>2.5833333333333335</v>
+        <v>2.75</v>
       </c>
       <c r="O11" s="7">
         <v>5</v>
@@ -1867,7 +1900,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3">
         <v>30</v>
@@ -1881,19 +1914,19 @@
       </c>
       <c r="K12" s="4">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18.545454545454543</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18.545454545454543</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="2"/>
-        <v>1.7647058823529411</v>
+        <v>1.6176470588235297</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="4"/>
-        <v>1.7647058823529411</v>
+        <v>1.6176470588235297</v>
       </c>
       <c r="O12" s="7">
         <v>8</v>
@@ -1911,13 +1944,13 @@
         <v>51</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="W12" s="6"/>
     </row>
@@ -1986,7 +2019,7 @@
         <v>39</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -2185,7 +2218,7 @@
         <v>61</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -2250,7 +2283,7 @@
         <v>50</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -2579,13 +2612,13 @@
         <v>63</v>
       </c>
       <c r="T22" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="V22" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="V22" s="6" t="s">
-        <v>120</v>
       </c>
       <c r="W22" s="6"/>
     </row>
@@ -2650,20 +2683,20 @@
         <v>67</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
@@ -2722,18 +2755,18 @@
         <v>67</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" s="6"/>
       <c r="F25" s="1"/>
@@ -2771,7 +2804,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2836,7 +2869,7 @@
         <v>65</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
@@ -2844,7 +2877,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27">
@@ -2901,7 +2934,7 @@
         <v>64</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -2910,7 +2943,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B28" s="6"/>
       <c r="F28" s="1"/>
@@ -3010,7 +3043,7 @@
         <v>58</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3018,7 +3051,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
@@ -3077,7 +3110,7 @@
         <v>67</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -3086,7 +3119,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="6"/>
       <c r="F31" s="1"/>
@@ -3142,7 +3175,7 @@
         <v>22</v>
       </c>
       <c r="G32" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H32" s="3">
         <v>45</v>
@@ -3156,19 +3189,19 @@
       </c>
       <c r="K32" s="4">
         <f t="shared" si="0"/>
-        <v>12.571428571428571</v>
+        <v>13.894736842105262</v>
       </c>
       <c r="L32" s="19">
         <f>SUM(F32*(24/G32))*B32</f>
-        <v>25.142857142857142</v>
+        <v>27.789473684210524</v>
       </c>
       <c r="M32" s="5">
         <f t="shared" si="2"/>
-        <v>3.5795454545454546</v>
+        <v>3.2386363636363638</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="3"/>
-        <v>1.7897727272727273</v>
+        <v>1.6193181818181819</v>
       </c>
       <c r="O32" s="7">
         <v>3</v>
@@ -3183,22 +3216,22 @@
         <v>67</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>80</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W32" s="6"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
@@ -3216,7 +3249,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H33" s="3">
         <v>110</v>
@@ -3230,25 +3263,25 @@
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>21.714285714285712</v>
+        <v>24</v>
       </c>
       <c r="L33" s="4">
         <f>SUM(F33*(24/G33))*B33</f>
-        <v>65.142857142857139</v>
+        <v>72</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>7.1381578947368434</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>2.3793859649122808</v>
+        <v>2.1527777777777777</v>
       </c>
       <c r="O33" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P33" s="7">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Q33" s="7">
         <v>16</v>
@@ -3257,73 +3290,77 @@
         <v>67</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="T33" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="T33" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="7">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
         <v>80</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>120</v>
-      </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="G34" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H34" s="3">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="I34" s="3">
-        <f>SUM(H34+I32)</f>
-        <v>125</v>
+        <f>SUM(Table1[[#This Row],[Cost]]+I33)</f>
+        <v>345</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K34" s="4">
-        <f t="shared" si="0"/>
-        <v>57.818181818181813</v>
+        <f>SUM(F34*(24/G34))</f>
+        <v>60</v>
       </c>
       <c r="L34" s="4">
-        <f t="shared" si="1"/>
-        <v>57.818181818181813</v>
+        <f>SUM(F34*(24/G34))*B34</f>
+        <v>180</v>
       </c>
       <c r="M34" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1619496855345912</v>
+        <f>SUM(I34/K34)</f>
+        <v>5.75</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="3"/>
-        <v>2.1619496855345912</v>
+        <f>SUM(I34/L34)</f>
+        <v>1.9166666666666667</v>
       </c>
       <c r="O34" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P34" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q34" s="7">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="R34" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -3332,157 +3369,147 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="7">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B35" s="6"/>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="G35" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H35" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I35" s="3">
         <f>SUM(H35+I32)</f>
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>57.818181818181813</v>
       </c>
       <c r="L35" s="4">
-        <f>SUM(F35*(24/G35))*B35</f>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>57.818181818181813</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="2"/>
-        <v>13.75</v>
+        <v>2.1619496855345912</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="3"/>
-        <v>3.4375</v>
+        <v>2.1619496855345912</v>
       </c>
       <c r="O35" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P35" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q35" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R35" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="U35" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="W35" s="6"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="7">
-        <v>4</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B36" s="6"/>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="G36" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H36" s="3">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="I36" s="3">
-        <f>SUM(H36+I35)</f>
-        <v>425</v>
+        <f>SUM(Table1[[#This Row],[Cost]]+I35)</f>
+        <v>275</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="4">
         <f>SUM(F36*(24/G36))</f>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L36" s="4">
-        <f>SUM(F36*(24/G36))*B36</f>
-        <v>240</v>
+        <f>SUM(F36*(24/G36))*E36</f>
+        <v>180</v>
       </c>
       <c r="M36" s="5">
         <f>SUM(I36/K36)</f>
-        <v>7.083333333333333</v>
+        <v>3.0555555555555554</v>
       </c>
       <c r="N36" s="5">
         <f>SUM(I36/L36)</f>
-        <v>1.7708333333333333</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="O36" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P36" s="7">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Q36" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R36" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="6" t="s">
-        <v>117</v>
-      </c>
+      <c r="W36" s="6"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B37" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>66</v>
@@ -3491,36 +3518,36 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="G37" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H37" s="3">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="I37" s="3">
-        <f>SUM(Table1[[#This Row],[Cost]]+I35)</f>
-        <v>445</v>
+        <f>SUM(H37+I32)</f>
+        <v>165</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="4">
-        <f>SUM(F37*(24/G37))</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="L37" s="4">
         <f>SUM(F37*(24/G37))*B37</f>
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="M37" s="5">
-        <f>SUM(I37/K37)</f>
-        <v>3.7083333333333335</v>
+        <f t="shared" si="2"/>
+        <v>13.75</v>
       </c>
       <c r="N37" s="5">
-        <f>SUM(I37/L37)</f>
-        <v>1.8541666666666667</v>
+        <f t="shared" si="3"/>
+        <v>3.4375</v>
       </c>
       <c r="O37" s="7">
         <v>0</v>
@@ -3529,153 +3556,157 @@
         <v>50</v>
       </c>
       <c r="Q37" s="7">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R37" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="T37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
+      <c r="W37" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
-        <v>19</v>
+      <c r="A38" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="B38" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H38" s="3">
+        <v>260</v>
+      </c>
+      <c r="I38" s="3">
+        <f>SUM(H38+I37)</f>
+        <v>425</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="4">
+        <f>SUM(F38*(24/G38))</f>
         <v>60</v>
-      </c>
-      <c r="I38" s="3">
-        <f>SUM(H38)</f>
-        <v>60</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
       </c>
       <c r="L38" s="4">
         <f>SUM(F38*(24/G38))*B38</f>
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="2"/>
-        <v>5.4545454545454541</v>
+        <f>SUM(I38/K38)</f>
+        <v>7.083333333333333</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="3"/>
-        <v>2.7272727272727271</v>
+        <f>SUM(I38/L38)</f>
+        <v>1.7708333333333333</v>
       </c>
       <c r="O38" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P38" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q38" s="7">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="R38" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
+      <c r="W38" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>49</v>
+      <c r="A39" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="B39" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>50</v>
       </c>
       <c r="D39">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G39" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H39" s="3">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="I39" s="3">
-        <f>SUM(H39+I38)</f>
-        <v>220</v>
+        <f>SUM(Table1[[#This Row],[Cost]]+I37)</f>
+        <v>445</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="K39" s="4">
-        <f t="shared" si="0"/>
-        <v>42.857142857142854</v>
+        <f>SUM(F39*(24/G39))</f>
+        <v>120</v>
       </c>
       <c r="L39" s="4">
         <f>SUM(F39*(24/G39))*B39</f>
-        <v>128.57142857142856</v>
+        <v>240</v>
       </c>
       <c r="M39" s="5">
-        <f t="shared" si="2"/>
-        <v>5.1333333333333337</v>
+        <f>SUM(I39/K39)</f>
+        <v>3.7083333333333335</v>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="3"/>
-        <v>1.7111111111111112</v>
+        <f>SUM(I39/L39)</f>
+        <v>1.8541666666666667</v>
       </c>
       <c r="O39" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P39" s="7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q39" s="7">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R39" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
@@ -3684,47 +3715,85 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="4" t="e">
-        <f>SUM(F40*(24/G40))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="4" t="e">
-        <f>SUM(F40*(24/G40))*E40</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" s="5" t="e">
-        <f>SUM(I40/K40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" s="5" t="e">
-        <f>SUM(I40/L40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B40" s="7">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>106</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2">
+        <v>24</v>
+      </c>
+      <c r="H40" s="3">
+        <v>60</v>
+      </c>
+      <c r="I40" s="3">
+        <f>SUM(H40)</f>
+        <v>60</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L40" s="4">
+        <f>SUM(F40*(24/G40))*B40</f>
+        <v>22</v>
+      </c>
+      <c r="M40" s="5">
+        <f t="shared" si="2"/>
+        <v>5.4545454545454541</v>
+      </c>
+      <c r="N40" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7272727272727271</v>
+      </c>
+      <c r="O40" s="7">
+        <v>6</v>
+      </c>
+      <c r="P40" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>5</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T40" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B41" s="7">
+        <v>3</v>
+      </c>
       <c r="C41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>106</v>
@@ -3733,96 +3802,130 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G41" s="2">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H41" s="3">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="I41" s="3">
-        <f>SUM(H41+I38)</f>
-        <v>170</v>
+        <f>SUM(H41+I40)</f>
+        <v>220</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K41" s="4">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <f>SUM(F41*(24/G41))*B41</f>
+        <v>115.71428571428571</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" si="2"/>
-        <v>1.7708333333333333</v>
+        <v>5.7037037037037042</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="3"/>
-        <v>1.7708333333333333</v>
+        <v>1.9012345679012346</v>
       </c>
       <c r="O41" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P41" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q41" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="R41" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="T41" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="T41" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="4" t="e">
+        <v>106</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>50</v>
+      </c>
+      <c r="D42">
+        <v>106</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>90</v>
+      </c>
+      <c r="G42" s="2">
+        <v>24</v>
+      </c>
+      <c r="H42" s="3">
+        <v>250</v>
+      </c>
+      <c r="I42" s="3">
+        <f>SUM(H42+I41)</f>
+        <v>470</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="4">
         <f>SUM(F42*(24/G42))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="4" t="e">
-        <f>SUM(F42*(24/G42))*E42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M42" s="5" t="e">
+        <v>90</v>
+      </c>
+      <c r="L42" s="4">
+        <f>SUM(F42*(24/G42))*B42</f>
+        <v>270</v>
+      </c>
+      <c r="M42" s="5">
         <f>SUM(I42/K42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="5" t="e">
+        <v>5.2222222222222223</v>
+      </c>
+      <c r="N42" s="5">
         <f>SUM(I42/L42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
+        <v>1.7407407407407407</v>
+      </c>
+      <c r="O42" s="7">
+        <v>6</v>
+      </c>
+      <c r="P42" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>38</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>29</v>
+      <c r="A43" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43">
@@ -3835,64 +3938,62 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G43" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H43" s="3">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I43" s="3">
-        <f>SUM(H43)</f>
-        <v>65</v>
+        <f>SUM(H43+I40)</f>
+        <v>150</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="0"/>
-        <v>26.666666666666664</v>
+        <v>96</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="1"/>
-        <v>26.666666666666664</v>
+        <v>96</v>
       </c>
       <c r="M43" s="5">
         <f t="shared" si="2"/>
-        <v>2.4375</v>
+        <v>1.5625</v>
       </c>
       <c r="N43" s="5">
         <f t="shared" si="3"/>
-        <v>2.4375</v>
+        <v>1.5625</v>
       </c>
       <c r="O43" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P43" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R43" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U43" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>30</v>
+      <c r="A44" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44">
@@ -3902,54 +4003,54 @@
         <v>106</v>
       </c>
       <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>28</v>
+      </c>
+      <c r="G44" s="2">
         <v>3</v>
       </c>
-      <c r="F44" s="1">
-        <v>9</v>
-      </c>
-      <c r="G44" s="2">
-        <v>8</v>
-      </c>
       <c r="H44" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="I44" s="3">
-        <f>SUM(I43+H44)</f>
-        <v>155</v>
+        <f>SUM(H44+I43)</f>
+        <v>330</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>SUM(F44*(24/G44))</f>
+        <v>224</v>
       </c>
       <c r="L44" s="4">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <f>SUM(F44*(24/G44))*E44</f>
+        <v>224</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="2"/>
-        <v>5.7407407407407405</v>
+        <f>SUM(I44/K44)</f>
+        <v>1.4732142857142858</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="3"/>
-        <v>1.9135802469135803</v>
+        <f>SUM(I44/L44)</f>
+        <v>1.4732142857142858</v>
       </c>
       <c r="O44" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P44" s="7">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q44" s="7">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="R44" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -3958,45 +4059,77 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
         <v>106</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2">
+        <v>9</v>
+      </c>
+      <c r="H45" s="3">
+        <v>65</v>
+      </c>
+      <c r="I45" s="3">
+        <f>SUM(H45)</f>
+        <v>65</v>
+      </c>
       <c r="J45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K45" s="4" t="e">
-        <f>SUM(F45*(24/G45))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="4" t="e">
-        <f>SUM(F45*(24/G45))*E45</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="5" t="e">
-        <f>SUM(I45/K45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="5" t="e">
-        <f>SUM(I45/L45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
+      <c r="K45" s="4">
+        <f t="shared" si="0"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="1"/>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="M45" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4375</v>
+      </c>
+      <c r="N45" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4375</v>
+      </c>
+      <c r="O45" s="7">
+        <v>7</v>
+      </c>
+      <c r="P45" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>20</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46">
@@ -4006,100 +4139,264 @@
         <v>106</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H46" s="3">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="I46" s="3">
-        <f>SUM(Table1[[#This Row],[Cost]]+I43)</f>
-        <v>195</v>
+        <f>SUM(I45+H46)</f>
+        <v>155</v>
       </c>
       <c r="J46" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K46" s="4">
-        <f>SUM(F46*(24/G46))</f>
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="L46" s="4">
-        <f>SUM(F46*(24/G46))*E46</f>
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="M46" s="5">
-        <f>SUM(I46/K46)</f>
-        <v>1.875</v>
+        <f t="shared" si="2"/>
+        <v>5.166666666666667</v>
       </c>
       <c r="N46" s="5">
-        <f>SUM(I46/L46)</f>
-        <v>1.875</v>
+        <f t="shared" si="3"/>
+        <v>1.7222222222222223</v>
       </c>
       <c r="O46" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P46" s="7">
         <v>20</v>
       </c>
       <c r="Q46" s="7">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R46" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="T46" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="T46" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>106</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>14</v>
+      </c>
+      <c r="G47" s="2">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
+        <v>180</v>
+      </c>
+      <c r="I47" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I46)</f>
+        <v>335</v>
+      </c>
       <c r="J47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K47" s="4" t="e">
+      <c r="K47" s="4">
         <f>SUM(F47*(24/G47))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="4" t="e">
+        <v>42</v>
+      </c>
+      <c r="L47" s="4">
         <f>SUM(F47*(24/G47))*E47</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="5" t="e">
+        <v>210</v>
+      </c>
+      <c r="M47" s="5">
         <f>SUM(I47/K47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="5" t="e">
+        <v>7.9761904761904763</v>
+      </c>
+      <c r="N47" s="5">
         <f>SUM(I47/L47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
+        <v>1.5952380952380953</v>
+      </c>
+      <c r="O47" s="7">
+        <v>7</v>
+      </c>
+      <c r="P47" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>40</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
     </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>106</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3">
+        <v>120</v>
+      </c>
+      <c r="I48" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I45)</f>
+        <v>185</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="4">
+        <f>SUM(F48*(24/G48))</f>
+        <v>104</v>
+      </c>
+      <c r="L48" s="4">
+        <f>SUM(F48*(24/G48))*E48</f>
+        <v>104</v>
+      </c>
+      <c r="M48" s="5">
+        <f>SUM(I48/K48)</f>
+        <v>1.7788461538461537</v>
+      </c>
+      <c r="N48" s="5">
+        <f>SUM(I48/L48)</f>
+        <v>1.7788461538461537</v>
+      </c>
+      <c r="O48" s="7">
+        <v>9</v>
+      </c>
+      <c r="P48" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>30</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>106</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>28</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3">
+        <v>210</v>
+      </c>
+      <c r="I49" s="3">
+        <f>SUM(Table1[[#This Row],[Cost]]+I48)</f>
+        <v>395</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="4">
+        <f>SUM(F49*(24/G49))</f>
+        <v>224</v>
+      </c>
+      <c r="L49" s="4">
+        <f>SUM(F49*(24/G49))*E49</f>
+        <v>224</v>
+      </c>
+      <c r="M49" s="5">
+        <f>SUM(I49/K49)</f>
+        <v>1.7633928571428572</v>
+      </c>
+      <c r="N49" s="5">
+        <f>SUM(I49/L49)</f>
+        <v>1.7633928571428572</v>
+      </c>
+      <c r="O49" s="7">
+        <v>9</v>
+      </c>
+      <c r="P49" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>41</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J48:J1048576 I1:I47">
+  <conditionalFormatting sqref="J50:J1048576 I1:I49">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FBADE9A3-D84E-4566-8787-393789D08502}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D802902-BD68-4E78-9651-71B33DDC659B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -302,12 +302,6 @@
     <t>Shoots ice spikes.  Long range, single target.  Slows 18% and reduces armor by 1 for 2 seconds.</t>
   </si>
   <si>
-    <t>Frozen Pond.  Slows in a small AoE around it by 23% and does light damage</t>
-  </si>
-  <si>
-    <t>Burns the ground in a 1 block AoE (melee range) dealing 30 damage a second to anything it can.  Strong.</t>
-  </si>
-  <si>
     <t>Death Knight.  Each hit increases enemy damage taken by 15% for 2 seconds.  xXxEdgeLordxXx</t>
   </si>
   <si>
@@ -335,9 +329,6 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>60 damage a second to anything in melee range.</t>
-  </si>
-  <si>
     <t>Hits 3 people now.  Wow, what a unique and non-linear upgrade path this tower goes.</t>
   </si>
   <si>
@@ -368,12 +359,6 @@
     <t>Snow Cannon</t>
   </si>
   <si>
-    <t>Ice everywhere.  Same range, more slow, more damage.</t>
-  </si>
-  <si>
-    <t>Big Yeti who hits hard and does AoE splash.</t>
-  </si>
-  <si>
     <t>upgradeOne</t>
   </si>
   <si>
@@ -422,9 +407,6 @@
     <t>HotSpot</t>
   </si>
   <si>
-    <t>Make way for big ar-tillery!!</t>
-  </si>
-  <si>
     <t>Goes BRRRRRRRRRR.</t>
   </si>
   <si>
@@ -452,13 +434,31 @@
     <t>IceMaker</t>
   </si>
   <si>
-    <t>Icey.  Cold.  Refreshing.  Slows by 22% to small area for 2 seconds.</t>
-  </si>
-  <si>
-    <t>Bigger splash, still slows 22%.  Just a nice, little upgrade :)</t>
-  </si>
-  <si>
     <t>Bigger splash still, 25% slow.</t>
+  </si>
+  <si>
+    <t>Increased range &amp; splash.  Make way for big ar-tillery!!</t>
+  </si>
+  <si>
+    <t>Bigger splash, still slows 25%.  Just a nice, little upgrade :)</t>
+  </si>
+  <si>
+    <t>Icey.  Cold.  Refreshing.  Slows by 25% to small area for 2 seconds.</t>
+  </si>
+  <si>
+    <t>Frozen Pond.  Slows in a small AoE around it by 28% and does light damage</t>
+  </si>
+  <si>
+    <t>Burns the ground in a 1 block AoE (melee range) dealing 36 damage a second to anything it can.  Strong.</t>
+  </si>
+  <si>
+    <t>72 damage a second to anything in melee range.</t>
+  </si>
+  <si>
+    <t>Big Yeti mele hits with 28% slow for 3 seconds.</t>
+  </si>
+  <si>
+    <t>Ice everywhere.  Slows everything in area by 34%.</t>
   </si>
 </sst>
 </file>
@@ -1102,10 +1102,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="K48" sqref="K48"/>
+      <selection pane="topRight" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,16 +1190,16 @@
         <v>36</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="W1" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>54</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>3</v>
@@ -1333,7 +1333,7 @@
         <v>56</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>4</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
@@ -1737,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>7</v>
@@ -1834,7 +1834,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3">
         <v>190</v>
@@ -1848,19 +1848,19 @@
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="L11" s="4">
         <f>SUM(F11*(24/G11))*B11</f>
-        <v>120</v>
+        <v>133.33333333333331</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9.9000000000000021</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="4"/>
-        <v>2.75</v>
+        <v>2.4750000000000005</v>
       </c>
       <c r="O11" s="7">
         <v>5</v>
@@ -2019,7 +2019,7 @@
         <v>39</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -2218,7 +2218,7 @@
         <v>61</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -2283,7 +2283,7 @@
         <v>50</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
@@ -2612,13 +2612,13 @@
         <v>63</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="W22" s="6"/>
     </row>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2">
         <v>8</v>
@@ -2656,19 +2656,19 @@
       </c>
       <c r="K23" s="4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L23" s="4">
         <f>SUM(F23*(24/G23))*B23</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" ref="N23:N28" si="5">SUM(I23/L23)</f>
-        <v>1.4</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O23" s="7">
         <v>0</v>
@@ -2683,20 +2683,20 @@
         <v>67</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2">
         <v>8</v>
@@ -2728,19 +2728,19 @@
       </c>
       <c r="K24" s="4">
         <f>SUM(F24*(24/G24))</f>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L24" s="4">
         <f>SUM(F24*(24/G24))*B24</f>
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="M24" s="5">
         <f>SUM(I24/K24)</f>
-        <v>7</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" si="5"/>
-        <v>1.4</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O24" s="7">
         <v>0</v>
@@ -2755,18 +2755,18 @@
         <v>67</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B25" s="6"/>
       <c r="F25" s="1"/>
@@ -2804,7 +2804,7 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -2869,7 +2869,7 @@
         <v>65</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27">
@@ -2934,7 +2934,7 @@
         <v>64</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="6"/>
       <c r="F28" s="1"/>
@@ -3043,7 +3043,7 @@
         <v>58</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
@@ -3051,7 +3051,7 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
@@ -3110,7 +3110,7 @@
         <v>67</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B31" s="6"/>
       <c r="F31" s="1"/>
@@ -3178,11 +3178,11 @@
         <v>38</v>
       </c>
       <c r="H32" s="3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I32" s="3">
         <f>SUM(H32)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>15</v>
@@ -3197,11 +3197,11 @@
       </c>
       <c r="M32" s="5">
         <f t="shared" si="2"/>
-        <v>3.2386363636363638</v>
+        <v>2.8787878787878789</v>
       </c>
       <c r="N32" s="5">
         <f t="shared" si="3"/>
-        <v>1.6193181818181819</v>
+        <v>1.4393939393939394</v>
       </c>
       <c r="O32" s="7">
         <v>3</v>
@@ -3216,22 +3216,22 @@
         <v>67</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>80</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W32" s="6"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="I33" s="3">
         <f>SUM(H33+I32)</f>
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>15</v>
@@ -3271,11 +3271,11 @@
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>6.458333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>2.1527777777777777</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="O33" s="7">
         <v>3</v>
@@ -3290,10 +3290,10 @@
         <v>67</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B34" s="7">
         <v>3</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="I34" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I33)</f>
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>15</v>
@@ -3341,11 +3341,11 @@
       </c>
       <c r="M34" s="5">
         <f>SUM(I34/K34)</f>
-        <v>5.75</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="N34" s="5">
         <f>SUM(I34/L34)</f>
-        <v>1.9166666666666667</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="O34" s="7">
         <v>3</v>
@@ -3360,7 +3360,7 @@
         <v>67</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="I35" s="3">
         <f>SUM(H35+I32)</f>
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J35" s="6" t="s">
         <v>15</v>
@@ -3407,11 +3407,11 @@
       </c>
       <c r="M35" s="5">
         <f t="shared" si="2"/>
-        <v>2.1619496855345912</v>
+        <v>2.0754716981132075</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="3"/>
-        <v>2.1619496855345912</v>
+        <v>2.0754716981132075</v>
       </c>
       <c r="O35" s="7">
         <v>4</v>
@@ -3429,7 +3429,7 @@
         <v>86</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="I36" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I35)</f>
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>15</v>
@@ -3475,11 +3475,11 @@
       </c>
       <c r="M36" s="5">
         <f>SUM(I36/K36)</f>
-        <v>3.0555555555555554</v>
+        <v>3</v>
       </c>
       <c r="N36" s="5">
         <f>SUM(I36/L36)</f>
-        <v>1.5277777777777777</v>
+        <v>1.5</v>
       </c>
       <c r="O36" s="7">
         <v>4</v>
@@ -3494,7 +3494,7 @@
         <v>67</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="I37" s="3">
         <f>SUM(H37+I32)</f>
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J37" s="6" t="s">
         <v>15</v>
@@ -3538,16 +3538,16 @@
         <v>12</v>
       </c>
       <c r="L37" s="4">
-        <f>SUM(F37*(24/G37))*B37</f>
+        <f t="shared" ref="L37:L42" si="6">SUM(F37*(24/G37))*B37</f>
         <v>48</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="2"/>
-        <v>13.75</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="3"/>
-        <v>3.4375</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O37" s="7">
         <v>0</v>
@@ -3562,22 +3562,22 @@
         <v>67</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="V37" s="6"/>
       <c r="W37" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B38" s="7">
         <v>4</v>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I38" s="3">
         <f>SUM(H38+I37)</f>
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>15</v>
@@ -3612,16 +3612,16 @@
         <v>60</v>
       </c>
       <c r="L38" s="4">
-        <f>SUM(F38*(24/G38))*B38</f>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="M38" s="5">
         <f>SUM(I38/K38)</f>
-        <v>7.083333333333333</v>
+        <v>7</v>
       </c>
       <c r="N38" s="5">
         <f>SUM(I38/L38)</f>
-        <v>1.7708333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="O38" s="7">
         <v>0</v>
@@ -3636,18 +3636,18 @@
         <v>67</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B39" s="7">
         <v>2</v>
@@ -3672,7 +3672,7 @@
       </c>
       <c r="I39" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I37)</f>
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>15</v>
@@ -3682,16 +3682,16 @@
         <v>120</v>
       </c>
       <c r="L39" s="4">
-        <f>SUM(F39*(24/G39))*B39</f>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="M39" s="5">
         <f>SUM(I39/K39)</f>
-        <v>3.7083333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="N39" s="5">
         <f>SUM(I39/L39)</f>
-        <v>1.8541666666666667</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="O39" s="7">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>67</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
@@ -3750,7 +3750,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="4">
-        <f>SUM(F40*(24/G40))*B40</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="M40" s="5">
@@ -3777,7 +3777,7 @@
         <v>55</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="U40" s="6" t="s">
         <v>21</v>
@@ -3822,7 +3822,7 @@
         <v>38.571428571428569</v>
       </c>
       <c r="L41" s="4">
-        <f>SUM(F41*(24/G41))*B41</f>
+        <f t="shared" si="6"/>
         <v>115.71428571428571</v>
       </c>
       <c r="M41" s="5">
@@ -3849,7 +3849,7 @@
         <v>66</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
@@ -3857,16 +3857,16 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B42" s="7">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D42">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>90</v>
       </c>
       <c r="L42" s="4">
-        <f>SUM(F42*(24/G42))*B42</f>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="M42" s="5">
@@ -3916,7 +3916,7 @@
         <v>67</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
@@ -3985,7 +3985,7 @@
         <v>62</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44">
@@ -4050,7 +4050,7 @@
         <v>67</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
@@ -4189,7 +4189,7 @@
         <v>57</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47">
@@ -4254,7 +4254,7 @@
         <v>67</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
@@ -4323,7 +4323,7 @@
         <v>60</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49">
@@ -4388,7 +4388,7 @@
         <v>67</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5D802902-BD68-4E78-9651-71B33DDC659B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC76FB1D-81DC-4F23-A962-33B9F4CD0155}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -1103,9 +1103,9 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="S39" sqref="S39"/>
+      <selection pane="topRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,10 +3028,10 @@
         <v>1.5757575757575757</v>
       </c>
       <c r="O29" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P29" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="7">
         <v>13</v>
@@ -3098,10 +3098,10 @@
         <v>1.4821428571428572</v>
       </c>
       <c r="O30" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P30" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="7">
         <v>35</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC76FB1D-81DC-4F23-A962-33B9F4CD0155}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5348D605-233C-4B87-BA75-9E934986B292}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -1102,10 +1102,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="P29" sqref="P29"/>
+      <selection pane="topRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <v>18</v>
@@ -1234,19 +1234,19 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:K46" si="0">SUM(F2*(24/G2))</f>
-        <v>16</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" ref="L2:L46" si="1">SUM(F2*(24/G2))*E2</f>
-        <v>16</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="M2" s="5">
         <f>SUM(I2/K2)</f>
-        <v>2.5</v>
+        <v>2.3076923076923079</v>
       </c>
       <c r="N2" s="5">
         <f>SUM(I2/L2)</f>
-        <v>2.5</v>
+        <v>2.3076923076923079</v>
       </c>
       <c r="O2" s="7">
         <v>5</v>
@@ -1491,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>16</v>
@@ -1508,19 +1508,19 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>97.5</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>97.5</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>2.0833333333333335</v>
+        <v>1.7948717948717949</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ref="N6:N18" si="4">SUM(I6/L6)</f>
-        <v>2.0833333333333335</v>
+        <v>1.7948717948717949</v>
       </c>
       <c r="O6" s="7">
         <v>5</v>
@@ -1693,36 +1693,36 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="I9" s="3">
         <f>SUM(H9+I2)</f>
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>82</v>
       </c>
       <c r="K9" s="4">
         <f t="shared" si="0"/>
-        <v>67.2</v>
+        <v>82.5</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>67.2</v>
+        <v>82.5</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>2.083333333333333</v>
+        <v>1.8787878787878789</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="4"/>
-        <v>2.083333333333333</v>
+        <v>1.8787878787878789</v>
       </c>
       <c r="O9" s="7">
         <v>5</v>
@@ -1763,36 +1763,36 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="G10" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H10" s="3">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I10" s="3">
         <f>SUM(H10+I9)</f>
-        <v>320</v>
+        <v>395</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>82</v>
       </c>
       <c r="K10" s="4">
         <f t="shared" si="0"/>
-        <v>107.14285714285714</v>
+        <v>247.5</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="1"/>
-        <v>107.14285714285714</v>
+        <v>247.5</v>
       </c>
       <c r="M10" s="5">
         <f t="shared" si="2"/>
-        <v>2.9866666666666668</v>
+        <v>1.595959595959596</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="4"/>
-        <v>2.9866666666666668</v>
+        <v>1.595959595959596</v>
       </c>
       <c r="O10" s="7">
         <v>5</v>
@@ -1834,33 +1834,33 @@
         <v>50</v>
       </c>
       <c r="G11" s="2">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I11" s="3">
         <f>SUM(H11+I9)</f>
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="4">
         <f t="shared" si="0"/>
-        <v>33.333333333333329</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="L11" s="4">
         <f>SUM(F11*(24/G11))*B11</f>
-        <v>133.33333333333331</v>
+        <v>171.42857142857142</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>9.9000000000000021</v>
+        <v>8.2833333333333332</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="4"/>
-        <v>2.4750000000000005</v>
+        <v>2.0708333333333333</v>
       </c>
       <c r="O11" s="7">
         <v>5</v>
@@ -2890,36 +2890,36 @@
         <v>3</v>
       </c>
       <c r="F27" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G27" s="2">
         <v>6</v>
       </c>
       <c r="H27" s="3">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="I27" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I26)</f>
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K27" s="4">
         <f>SUM(F27*(24/G27))</f>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="L27" s="4">
         <f>SUM(F27*(24/G27))*E27</f>
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="M27" s="5">
         <f>SUM(I27/K27)</f>
-        <v>4.765625</v>
+        <v>4.7023809523809526</v>
       </c>
       <c r="N27" s="5">
         <f t="shared" si="5"/>
-        <v>1.5885416666666667</v>
+        <v>1.5674603174603174</v>
       </c>
       <c r="O27" s="7">
         <v>2</v>
@@ -3066,36 +3066,36 @@
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="G30" s="2">
         <v>36</v>
       </c>
       <c r="H30" s="3">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="I30" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I29)</f>
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="J30" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K30" s="4">
         <f>SUM(F30*(24/G30))</f>
-        <v>93.333333333333329</v>
+        <v>106.66666666666666</v>
       </c>
       <c r="L30" s="19">
         <f>SUM(F30*(24/G30))*B30</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="M30" s="5">
         <f>SUM(I30/K30)</f>
-        <v>4.4464285714285721</v>
+        <v>4.453125</v>
       </c>
       <c r="N30" s="5">
         <f>SUM(I30/L30)</f>
-        <v>1.4821428571428572</v>
+        <v>1.484375</v>
       </c>
       <c r="O30" s="7">
         <v>10</v>
@@ -3237,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>80</v>
@@ -3249,33 +3249,33 @@
         <v>38</v>
       </c>
       <c r="G33" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H33" s="3">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I33" s="3">
         <f>SUM(H33+I32)</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="J33" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K33" s="4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="L33" s="4">
         <f>SUM(F33*(24/G33))*B33</f>
-        <v>72</v>
+        <v>91.2</v>
       </c>
       <c r="M33" s="5">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>5.9210526315789469</v>
       </c>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>2.0833333333333335</v>
+        <v>1.9736842105263157</v>
       </c>
       <c r="O33" s="7">
         <v>3</v>
@@ -3316,36 +3316,36 @@
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G34" s="2">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H34" s="3">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="I34" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I33)</f>
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="J34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K34" s="4">
         <f>SUM(F34*(24/G34))</f>
-        <v>60</v>
+        <v>73.846153846153854</v>
       </c>
       <c r="L34" s="4">
         <f>SUM(F34*(24/G34))*B34</f>
-        <v>180</v>
+        <v>221.53846153846155</v>
       </c>
       <c r="M34" s="5">
         <f>SUM(I34/K34)</f>
-        <v>5.666666666666667</v>
+        <v>6.2291666666666661</v>
       </c>
       <c r="N34" s="5">
         <f>SUM(I34/L34)</f>
-        <v>1.8888888888888888</v>
+        <v>2.0763888888888888</v>
       </c>
       <c r="O34" s="7">
         <v>3</v>
@@ -3376,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3444,42 +3444,42 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G36" s="2">
         <v>20</v>
       </c>
       <c r="H36" s="3">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="I36" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I35)</f>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="J36" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="4">
         <f>SUM(F36*(24/G36))</f>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="L36" s="4">
         <f>SUM(F36*(24/G36))*E36</f>
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="M36" s="5">
         <f>SUM(I36/K36)</f>
-        <v>3</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="N36" s="5">
         <f>SUM(I36/L36)</f>
-        <v>1.5</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="O36" s="7">
         <v>4</v>
@@ -3518,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2">
         <v>4</v>
@@ -3535,19 +3535,19 @@
       </c>
       <c r="K37" s="4">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" ref="L37:L42" si="6">SUM(F37*(24/G37))*B37</f>
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="2"/>
-        <v>13.333333333333334</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="3"/>
-        <v>3.3333333333333335</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="O37" s="7">
         <v>0</v>
@@ -3598,11 +3598,11 @@
         <v>4</v>
       </c>
       <c r="H38" s="3">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="I38" s="3">
         <f>SUM(H38+I37)</f>
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="J38" s="6" t="s">
         <v>15</v>
@@ -3617,11 +3617,11 @@
       </c>
       <c r="M38" s="5">
         <f>SUM(I38/K38)</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N38" s="5">
         <f>SUM(I38/L38)</f>
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="O38" s="7">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D39">
         <v>66</v>
@@ -3668,11 +3668,11 @@
         <v>18</v>
       </c>
       <c r="H39" s="3">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="I39" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I37)</f>
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="J39" s="6" t="s">
         <v>15</v>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="M39" s="5">
         <f>SUM(I39/K39)</f>
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="N39" s="5">
         <f>SUM(I39/L39)</f>
-        <v>1.8333333333333333</v>
+        <v>1.75</v>
       </c>
       <c r="O39" s="7">
         <v>0</v>
@@ -4210,36 +4210,36 @@
         <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2">
         <v>8</v>
       </c>
       <c r="H47" s="3">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I47" s="3">
         <f>SUM(Table1[[#This Row],[Cost]]+I46)</f>
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="J47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="K47" s="4">
         <f>SUM(F47*(24/G47))</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L47" s="4">
         <f>SUM(F47*(24/G47))*E47</f>
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="M47" s="5">
         <f>SUM(I47/K47)</f>
-        <v>7.9761904761904763</v>
+        <v>8.2291666666666661</v>
       </c>
       <c r="N47" s="5">
         <f>SUM(I47/L47)</f>
-        <v>1.5952380952380953</v>
+        <v>1.6458333333333333</v>
       </c>
       <c r="O47" s="7">
         <v>7</v>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5348D605-233C-4B87-BA75-9E934986B292}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1457C242-C725-43C9-A59F-80B2E15AC768}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
   <si>
     <t>Rogue</t>
   </si>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t>Ice everywhere.  Slows everything in area by 34%.</t>
+  </si>
+  <si>
+    <t>Chain</t>
+  </si>
+  <si>
+    <t>MultiChain</t>
+  </si>
+  <si>
+    <t>Chains 3 additional enemies</t>
+  </si>
+  <si>
+    <t>Chains 4 additional enemies.</t>
   </si>
 </sst>
 </file>
@@ -592,7 +604,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -729,13 +751,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:W49" tableType="xml" totalsRowShown="0" headerRowDxfId="9" connectionId="3">
-  <autoFilter ref="A1:W49" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:W51" tableType="xml" totalsRowShown="0" headerRowDxfId="10" connectionId="3">
+  <autoFilter ref="A1:W51" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <tableColumns count="23">
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="3" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
       <xmlColumnPr mapId="3" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
@@ -745,29 +767,29 @@
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
       <xmlColumnPr mapId="3" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="8">
       <xmlColumnPr mapId="3" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="7">
       <xmlColumnPr mapId="3" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="6">
       <xmlColumnPr mapId="3" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="Total Cost" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="Total Cost" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
       <xmlColumnPr mapId="3" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="3">
+    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="4">
       <calculatedColumnFormula>SUM(F2*(24/G2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(F2*(24/G2))*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM(I2/K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="1">
       <calculatedColumnFormula>SUM(I2/L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
@@ -1100,12 +1122,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="H34" sqref="H34"/>
+      <selection pane="topRight" activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4124,7 +4146,9 @@
       <c r="U45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V45" s="6"/>
+      <c r="V45" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="W45" s="6"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
@@ -4390,14 +4414,151 @@
       <c r="S49" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="7">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>106</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3">
+        <v>135</v>
+      </c>
+      <c r="I50" s="3">
+        <f>SUM(I45+Table1[[#This Row],[Cost]])</f>
+        <v>200</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="4">
+        <f>SUM(F50*(24/G50))</f>
+        <v>45</v>
+      </c>
+      <c r="L50" s="4">
+        <f>SUM(F50*(24/G50))*B50</f>
+        <v>135</v>
+      </c>
+      <c r="M50" s="5">
+        <f>SUM(I50/K50)</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="N50" s="5">
+        <f>SUM(I50/L50)</f>
+        <v>1.4814814814814814</v>
+      </c>
+      <c r="O50" s="7">
+        <v>9</v>
+      </c>
+      <c r="P50" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>44</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S50" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="T50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>106</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>40</v>
+      </c>
+      <c r="G51" s="2">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3">
+        <v>280</v>
+      </c>
+      <c r="I51" s="3">
+        <f>SUM(I50+Table1[[#This Row],[Cost]])</f>
+        <v>480</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="4">
+        <f>SUM(F51*(24/G51))</f>
+        <v>120</v>
+      </c>
+      <c r="L51" s="4">
+        <f>SUM(F51*(24/G51))*B51</f>
+        <v>480</v>
+      </c>
+      <c r="M51" s="5">
+        <f>SUM(I51/K51)</f>
+        <v>4</v>
+      </c>
+      <c r="N51" s="5">
+        <f>SUM(I51/L51)</f>
+        <v>1</v>
+      </c>
+      <c r="O51" s="7">
+        <v>9</v>
+      </c>
+      <c r="P51" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>45</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S51" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J50:J1048576 I1:I49">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="J52:J1048576 I1:I51">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4409,16 +4570,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1457C242-C725-43C9-A59F-80B2E15AC768}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3D81C-805D-4623-ACAF-1A6A4DAB8C90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23220" windowHeight="9495" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
+    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,11 +41,14 @@
   <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" name="TowersList2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\m3\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="4" xr16:uid="{A691AC1E-105E-4818-9B56-80960F8968BC}" name="TowersList3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
   <si>
     <t>Rogue</t>
   </si>
@@ -290,9 +299,6 @@
     <t>earth</t>
   </si>
   <si>
-    <t>Skilled with poisons.  28% slow + 20 dps for 2 seconds.</t>
-  </si>
-  <si>
     <t>Makes a big, poisonous splash when he attacks.  Slows 18% and 5 dmg for 2 seconds.</t>
   </si>
   <si>
@@ -416,9 +422,6 @@
     <t>5 people??  This is madness!  This is an outrage!</t>
   </si>
   <si>
-    <t>Requires a ransom of -1 mIlLiOn DoLlArS- mwuhahaha!</t>
-  </si>
-  <si>
     <t>DeathRay</t>
   </si>
   <si>
@@ -471,6 +474,93 @@
   </si>
   <si>
     <t>Chains 4 additional enemies.</t>
+  </si>
+  <si>
+    <t>Requires a ransom of 1 million dollars.  Thinks that's a lot.</t>
+  </si>
+  <si>
+    <t>skillOne</t>
+  </si>
+  <si>
+    <t>skillTwo</t>
+  </si>
+  <si>
+    <t>skillThree</t>
+  </si>
+  <si>
+    <t>skillFour</t>
+  </si>
+  <si>
+    <t>slow,.25,2</t>
+  </si>
+  <si>
+    <t>hit,poison,.15,3,2</t>
+  </si>
+  <si>
+    <t>hit,poison,.2,5,5</t>
+  </si>
+  <si>
+    <t>hit,poison,.15,5,5</t>
+  </si>
+  <si>
+    <t>hit,brittle,1,3</t>
+  </si>
+  <si>
+    <t>hit,brittle,2,3</t>
+  </si>
+  <si>
+    <t>hit,poison,.20,10,2</t>
+  </si>
+  <si>
+    <t>hit,poison,.18,5,2</t>
+  </si>
+  <si>
+    <t>hit,penitence,.1,2</t>
+  </si>
+  <si>
+    <t>hit,penitence,.15,2</t>
+  </si>
+  <si>
+    <t>hit,burn,5,3</t>
+  </si>
+  <si>
+    <t>hit,burn,15,3</t>
+  </si>
+  <si>
+    <t>hit,slow,.25,2</t>
+  </si>
+  <si>
+    <t>hit,slow,.18,2</t>
+  </si>
+  <si>
+    <t>hit,slow,.28,.5</t>
+  </si>
+  <si>
+    <t>hit,slow,.34,.5</t>
+  </si>
+  <si>
+    <t>hit,slow,.28,3</t>
+  </si>
+  <si>
+    <t>hit,brittle,1,2</t>
+  </si>
+  <si>
+    <t>Skilled with poisons.  28% slow + 20 dps for 5 seconds.</t>
+  </si>
+  <si>
+    <t>hit,poison,.28,20,5</t>
+  </si>
+  <si>
+    <t>hit,chain,3,6,.1,75,fire</t>
+  </si>
+  <si>
+    <t>hit,chain,4,6,.1,75,fire</t>
+  </si>
+  <si>
+    <t>time,atkSpdBuff,.10,2,4,2</t>
+  </si>
+  <si>
+    <t>time,dmgBuff,.12,2,4,2</t>
   </si>
 </sst>
 </file>
@@ -579,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -600,21 +690,12 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -696,6 +777,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -711,7 +802,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Root">
         <xsd:complexType>
@@ -735,6 +826,10 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeOne" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeTwo" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeThree" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillOne" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillTwo" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillThree" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillFour" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="targeting" form="unqualified"/>
                 </xsd:all>
               </xsd:complexType>
@@ -744,80 +839,92 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="3" Name="Root_Map" RootElement="Root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  <Map ID="4" Name="TowerList" RootElement="Root" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:W51" tableType="xml" totalsRowShown="0" headerRowDxfId="10" connectionId="3">
-  <autoFilter ref="A1:W51" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AA51" tableType="xml" totalsRowShown="0" headerRowDxfId="9" connectionId="4">
+  <autoFilter ref="A1:AA51" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
+  <tableColumns count="27">
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/AoE" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{34A04DB4-B101-4D53-AA48-F1BAEB4D37E1}" uniqueName="Range" name="Range">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/Range" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/Range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="8">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="7">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="7">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="6">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="6">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/Cost" xmlDataType="integer"/>
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="5">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="Total Cost" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="Total Cost" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/Type" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(F2*(24/G2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="3">
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM(F2*(24/G2))*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="1">
       <calculatedColumnFormula>SUM(I2/K2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="1">
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="0">
       <calculatedColumnFormula>SUM(I2/L2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/bulletFrame" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/bulletFrame" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{D6FE27F0-9BA9-4042-A2FB-7EB813A3CD4E}" uniqueName="bulletSpeed" name="bulletSpeed">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/bulletSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/bulletSpeed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{3D7ECFAE-69C7-4D3F-B8EF-DE3456EED59C}" uniqueName="towerFrame" name="towerFrame">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/towerFrame" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/towerFrame" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{483C72D6-B33C-452D-BE8F-E524D370C58C}" uniqueName="fireSoundString" name="fireSoundString">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{3624DC5F-C196-4453-A4C0-CB17DCE76751}" uniqueName="tDescription" name="tDescription">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/tDescription" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/tDescription" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{1B12F4CC-722E-4BFB-9EA8-7BC8CB93A247}" uniqueName="upgradeOne" name="upgradeOne">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/upgradeOne" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/upgradeOne" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{95D68C7E-6AEC-4AC2-B5B4-1E2C3EDE848C}" uniqueName="upgradeTwo" name="upgradeTwo">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/upgradeTwo" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/upgradeTwo" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{9DBC30FB-5F26-4DBD-945C-43FD0F36F2A8}" uniqueName="upgradeThree" name="upgradeThree">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/upgradeThree" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/upgradeThree" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="23" xr3:uid="{E256A08A-04FD-4A56-951F-6AF7E250751B}" uniqueName="targeting" name="targeting">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/targeting" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/targeting" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="24" xr3:uid="{14F20794-1BBA-4281-97D1-1B39B6A60726}" uniqueName="skillOne" name="skillOne">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/skillOne" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{FAF0774D-00DD-4CE6-B71C-583ACCEF47B3}" uniqueName="skillTwo" name="skillTwo">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/skillTwo" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{7333556A-ED46-4116-BAE2-72C5F5C79C7D}" uniqueName="skillThree" name="skillThree">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/skillThree" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="27" xr3:uid="{3E110F20-4559-4331-BCD4-B34F6EF3F7B2}" uniqueName="skillFour" name="skillFour">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/skillFour" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1122,12 +1229,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="Q50" sqref="Q50"/>
+      <selection pane="topRight" activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,24 +1243,29 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="128" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="107" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -1212,19 +1324,31 @@
         <v>36</v>
       </c>
       <c r="T1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
@@ -1286,7 +1410,7 @@
         <v>54</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U2" s="6" t="s">
         <v>3</v>
@@ -1295,8 +1419,12 @@
         <v>0</v>
       </c>
       <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1483,7 @@
         <v>56</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T3" s="6" t="s">
         <v>4</v>
@@ -1365,8 +1493,14 @@
       </c>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -1425,14 +1559,20 @@
         <v>56</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
@@ -1497,8 +1637,14 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
@@ -1567,8 +1713,14 @@
       </c>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1633,8 +1785,14 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
@@ -1699,8 +1857,14 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>3</v>
       </c>
@@ -1759,7 +1923,7 @@
         <v>52</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>7</v>
@@ -1769,8 +1933,14 @@
       </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
@@ -1829,14 +1999,20 @@
         <v>52</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -1897,14 +2073,20 @@
         <v>67</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
@@ -1975,8 +2157,12 @@
         <v>38</v>
       </c>
       <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
@@ -2041,12 +2227,16 @@
         <v>39</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -2111,8 +2301,12 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>81</v>
       </c>
@@ -2177,8 +2371,12 @@
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
@@ -2240,13 +2438,19 @@
         <v>61</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -2305,14 +2509,20 @@
         <v>50</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>42</v>
       </c>
@@ -2377,8 +2587,12 @@
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
@@ -2437,14 +2651,20 @@
         <v>50</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>44</v>
       </c>
@@ -2507,8 +2727,12 @@
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -2571,8 +2795,12 @@
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+    </row>
+    <row r="22" spans="1:27" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
@@ -2634,17 +2862,21 @@
         <v>63</v>
       </c>
       <c r="T22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="U22" s="6" t="s">
+      <c r="V22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="V22" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>46</v>
       </c>
@@ -2705,20 +2937,24 @@
         <v>67</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="7">
         <v>5</v>
@@ -2777,18 +3013,22 @@
         <v>67</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="6"/>
       <c r="F25" s="1"/>
@@ -2826,10 +3066,14 @@
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>71</v>
       </c>
@@ -2891,15 +3135,19 @@
         <v>65</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27">
@@ -2956,16 +3204,20 @@
         <v>64</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="6"/>
       <c r="F28" s="1"/>
@@ -3000,8 +3252,12 @@
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>47</v>
       </c>
@@ -3065,15 +3321,21 @@
         <v>58</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
@@ -3132,16 +3394,22 @@
         <v>67</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="6"/>
       <c r="F31" s="1"/>
@@ -3176,8 +3444,12 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>70</v>
       </c>
@@ -3238,22 +3510,28 @@
         <v>67</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>80</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="W32" s="6"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
@@ -3312,18 +3590,24 @@
         <v>67</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B34" s="7">
         <v>3</v>
@@ -3382,14 +3666,20 @@
         <v>67</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>80</v>
       </c>
@@ -3448,18 +3738,26 @@
         <v>67</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36">
@@ -3516,14 +3814,22 @@
         <v>67</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y36" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>48</v>
       </c>
@@ -3584,22 +3890,28 @@
         <v>67</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V37" s="6"/>
       <c r="W37" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="X37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="7">
         <v>4</v>
@@ -3658,18 +3970,24 @@
         <v>67</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="7">
         <v>2</v>
@@ -3728,14 +4046,20 @@
         <v>67</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>19</v>
       </c>
@@ -3799,15 +4123,19 @@
         <v>55</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U40" s="6" t="s">
         <v>21</v>
       </c>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>49</v>
       </c>
@@ -3871,15 +4199,19 @@
         <v>66</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="7">
         <v>3</v>
@@ -3938,14 +4270,18 @@
         <v>67</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>21</v>
       </c>
@@ -4007,15 +4343,19 @@
         <v>62</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44">
@@ -4072,14 +4412,18 @@
         <v>67</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>29</v>
       </c>
@@ -4147,11 +4491,15 @@
         <v>20</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W45" s="6"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>30</v>
       </c>
@@ -4213,15 +4561,19 @@
         <v>57</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47">
@@ -4278,14 +4630,18 @@
         <v>67</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>20</v>
       </c>
@@ -4347,15 +4703,19 @@
         <v>60</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49">
@@ -4412,15 +4772,20 @@
         <v>67</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>125</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B50" s="7">
         <v>3</v>
@@ -4479,18 +4844,24 @@
         <v>67</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B51" s="7">
         <v>4</v>
@@ -4542,19 +4913,25 @@
       <c r="P51" s="7">
         <v>20</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="20">
         <v>45</v>
       </c>
       <c r="R51" s="6" t="s">
         <v>67</v>
       </c>
       <c r="S51" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
+      <c r="X51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J52:J1048576 I1:I51">
@@ -4570,7 +4947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="2"/>
+    <cfRule type="top10" dxfId="10" priority="1" percent="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF511DF-9788-47AD-AE66-7C6E7146B10D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302E9137-A6DA-4C68-A52D-D6A97482A61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -844,25 +844,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -943,6 +924,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -955,6 +945,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,18 +1020,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC58" tableType="xml" totalsRowShown="0" headerRowDxfId="12" connectionId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC58" tableType="xml" totalsRowShown="0" headerRowDxfId="11" connectionId="4">
   <autoFilter ref="A1:AC58" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC58">
-    <sortCondition ref="B2:B58"/>
+    <sortCondition ref="A2:A58"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="1"/>
+    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
       <xmlColumnPr mapId="4" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
@@ -1041,29 +1041,29 @@
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
       <xmlColumnPr mapId="4" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="9">
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="7">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="6">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="5">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="Total Cost" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="Total Cost" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="3">
       <calculatedColumnFormula>SUM(H2*(24/I2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM(H2*(24/I2))*G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="3">
+    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="1">
       <calculatedColumnFormula>SUM(K2/M2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="2">
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="0">
       <calculatedColumnFormula>SUM(K2/N2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
@@ -1413,7 +1413,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1436,7 @@
     <col min="16" max="16" width="11.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="128" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" customWidth="1"/>
     <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1618,245 +1618,234 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="1">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2">
         <v>17</v>
       </c>
-      <c r="I3" s="2">
-        <v>22</v>
-      </c>
       <c r="J3" s="3">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="K3" s="3">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="22">
         <f>SUM(H3*(24/I3))</f>
-        <v>18.545454545454543</v>
+        <v>62.117647058823536</v>
       </c>
       <c r="N3" s="22">
         <f>SUM(H3*(24/I3))*G3</f>
-        <v>18.545454545454543</v>
+        <v>62.117647058823536</v>
       </c>
       <c r="O3" s="20">
         <f>SUM(K3/M3)</f>
-        <v>1.6176470588235297</v>
+        <v>2.4952651515151514</v>
       </c>
       <c r="P3" s="20">
         <f>SUM(K3/N3)</f>
-        <v>1.6176470588235297</v>
+        <v>2.4952651515151514</v>
       </c>
       <c r="Q3" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R3" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="4"/>
+      <c r="Z3" t="s">
+        <v>196</v>
+      </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J4" s="3">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="K4" s="3">
-        <v>55</v>
+        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
+        <v>340</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M4" s="22">
         <f>SUM(H4*(24/I4))</f>
-        <v>24</v>
+        <v>70.5</v>
       </c>
       <c r="N4" s="22">
         <f>SUM(H4*(24/I4))*G4</f>
-        <v>24</v>
+        <v>211.5</v>
       </c>
       <c r="O4" s="20">
         <f>SUM(K4/M4)</f>
-        <v>2.2916666666666665</v>
+        <v>4.8226950354609928</v>
       </c>
       <c r="P4" s="20">
         <f>SUM(K4/N4)</f>
-        <v>2.2916666666666665</v>
+        <v>1.6075650118203311</v>
       </c>
       <c r="Q4" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4" s="5">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="S4" s="5">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
+      <c r="Z4" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
+        <v>70</v>
+      </c>
+      <c r="I5" s="2">
         <v>22</v>
       </c>
-      <c r="I5" s="2">
-        <v>38</v>
-      </c>
       <c r="J5" s="3">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="K5" s="3">
-        <v>40</v>
+        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
+        <v>330</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M5" s="22">
         <f>SUM(H5*(24/I5))</f>
-        <v>13.894736842105262</v>
+        <v>76.36363636363636</v>
       </c>
       <c r="N5" s="22">
-        <f>SUM(H5*(24/I5))*D5</f>
-        <v>27.789473684210524</v>
+        <f>SUM(H5*(24/I5))*G5</f>
+        <v>229.09090909090907</v>
       </c>
       <c r="O5" s="20">
         <f>SUM(K5/M5)</f>
-        <v>2.8787878787878789</v>
+        <v>4.3214285714285721</v>
       </c>
       <c r="P5" s="20">
         <f>SUM(K5/N5)</f>
-        <v>1.4393939393939394</v>
+        <v>1.4404761904761907</v>
       </c>
       <c r="Q5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S5" s="5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
@@ -1864,77 +1853,75 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5">
         <v>2</v>
       </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="K6" s="3">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="22">
         <f>SUM(H6*(24/I6))</f>
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N6" s="22">
-        <f>SUM(H6*(24/I6))*D6</f>
-        <v>22</v>
+        <f>SUM(H6*(24/I6))*G6</f>
+        <v>90</v>
       </c>
       <c r="O6" s="20">
         <f>SUM(K6/M6)</f>
-        <v>5.4545454545454541</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="P6" s="20">
         <f>SUM(K6/N6)</f>
-        <v>2.7272727272727271</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="Q6" s="5">
+        <v>5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>20</v>
+      </c>
+      <c r="S6" s="5">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="R6" s="5">
-        <v>10</v>
-      </c>
-      <c r="S6" s="5">
-        <v>5</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -1945,170 +1932,169 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="I7" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J7" s="3">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="K7" s="3">
-        <v>65</v>
+        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
+        <v>355</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M7" s="22">
         <f>SUM(H7*(24/I7))</f>
-        <v>26.666666666666664</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="N7" s="22">
         <f>SUM(H7*(24/I7))*G7</f>
-        <v>26.666666666666664</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="O7" s="20">
         <f>SUM(K7/M7)</f>
-        <v>2.4375</v>
+        <v>2.4204545454545454</v>
       </c>
       <c r="P7" s="20">
         <f>SUM(K7/N7)</f>
-        <v>2.4375</v>
+        <v>2.4204545454545454</v>
       </c>
       <c r="Q7" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R7" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S7" s="5">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="Z7" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>150</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="I8" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J8" s="3">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="K8" s="3">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
+        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
+        <v>365</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="M8" s="22">
         <f>SUM(H8*(24/I8))</f>
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="N8" s="22">
         <f>SUM(H8*(24/I8))*G8</f>
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="O8" s="20">
         <f>SUM(K8/M8)</f>
-        <v>2.5</v>
+        <v>2.0277777777777777</v>
       </c>
       <c r="P8" s="20">
         <f>SUM(K8/N8)</f>
-        <v>2.5</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>20</v>
-      </c>
-      <c r="S8">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U8" t="s">
-        <v>173</v>
-      </c>
-      <c r="V8" t="s">
-        <v>151</v>
-      </c>
-      <c r="W8" t="s">
-        <v>152</v>
-      </c>
-      <c r="X8" t="s">
-        <v>154</v>
-      </c>
+        <v>2.0277777777777777</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>30</v>
+      </c>
+      <c r="S8" s="5">
+        <v>27</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="17">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9">
@@ -2118,38 +2104,38 @@
         <v>108</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K9" s="3">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M9" s="22">
         <f>SUM(H9*(24/I9))</f>
-        <v>62.117647058823536</v>
+        <v>26.4</v>
       </c>
       <c r="N9" s="22">
         <f>SUM(H9*(24/I9))*G9</f>
-        <v>62.117647058823536</v>
+        <v>52.8</v>
       </c>
       <c r="O9" s="20">
         <f>SUM(K9/M9)</f>
-        <v>2.4952651515151514</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="P9" s="20">
         <f>SUM(K9/N9)</f>
-        <v>2.4952651515151514</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="Q9" s="5">
         <v>5</v>
@@ -2158,23 +2144,24 @@
         <v>30</v>
       </c>
       <c r="S9" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>52</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" t="s">
-        <v>196</v>
+      <c r="Z9" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -2182,133 +2169,135 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="I10" s="2">
         <v>16</v>
       </c>
       <c r="J10" s="3">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="K10" s="3">
-        <v>175</v>
+        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
+        <v>360</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="22">
         <f>SUM(H10*(24/I10))</f>
-        <v>90</v>
+        <v>247.5</v>
       </c>
       <c r="N10" s="22">
         <f>SUM(H10*(24/I10))*G10</f>
-        <v>90</v>
+        <v>247.5</v>
       </c>
       <c r="O10" s="20">
         <f>SUM(K10/M10)</f>
-        <v>1.9444444444444444</v>
+        <v>1.4545454545454546</v>
       </c>
       <c r="P10" s="20">
         <f>SUM(K10/N10)</f>
-        <v>1.9444444444444444</v>
+        <v>1.4545454545454546</v>
       </c>
       <c r="Q10" s="5">
         <v>5</v>
       </c>
       <c r="R10" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S10" s="5">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Z10" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="17">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
       <c r="E11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I11" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J11" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K11" s="3">
-        <v>120</v>
+        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
+        <v>320</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" s="22">
         <f>SUM(H11*(24/I11))</f>
-        <v>26.4</v>
+        <v>48.857142857142854</v>
       </c>
       <c r="N11" s="22">
-        <f>SUM(H11*(24/I11))*G11</f>
-        <v>52.8</v>
+        <f>SUM(H11*(24/I11))*D11</f>
+        <v>244.28571428571428</v>
       </c>
       <c r="O11" s="20">
         <f>SUM(K11/M11)</f>
-        <v>4.5454545454545459</v>
+        <v>6.5497076023391818</v>
       </c>
       <c r="P11" s="20">
         <f>SUM(K11/N11)</f>
-        <v>2.2727272727272729</v>
+        <v>1.3099415204678364</v>
       </c>
       <c r="Q11" s="5">
         <v>5</v>
@@ -2317,24 +2306,20 @@
         <v>30</v>
       </c>
       <c r="S11" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
@@ -2342,13 +2327,13 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12">
@@ -2361,35 +2346,35 @@
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J12" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K12" s="3">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="22">
         <f>SUM(H12*(24/I12))</f>
-        <v>72</v>
+        <v>18.545454545454543</v>
       </c>
       <c r="N12" s="22">
         <f>SUM(H12*(24/I12))*G12</f>
-        <v>72</v>
+        <v>18.545454545454543</v>
       </c>
       <c r="O12" s="20">
         <f>SUM(K12/M12)</f>
-        <v>1.5277777777777777</v>
+        <v>1.6176470588235297</v>
       </c>
       <c r="P12" s="20">
         <f>SUM(K12/N12)</f>
-        <v>1.5277777777777777</v>
+        <v>1.6176470588235297</v>
       </c>
       <c r="Q12" s="5">
         <v>8</v>
@@ -2398,37 +2383,37 @@
         <v>50</v>
       </c>
       <c r="S12" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>50</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>101</v>
+        <v>41</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13">
@@ -2441,35 +2426,35 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2">
         <v>20</v>
       </c>
       <c r="J13" s="3">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="K13" s="3">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" s="22">
         <f>SUM(H13*(24/I13))</f>
-        <v>79.2</v>
+        <v>72</v>
       </c>
       <c r="N13" s="22">
         <f>SUM(H13*(24/I13))*G13</f>
-        <v>79.2</v>
+        <v>72</v>
       </c>
       <c r="O13" s="20">
         <f>SUM(K13/M13)</f>
-        <v>1.8308080808080807</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="P13" s="20">
         <f>SUM(K13/N13)</f>
-        <v>1.8308080808080807</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="Q13" s="5">
         <v>8</v>
@@ -2478,22 +2463,23 @@
         <v>50</v>
       </c>
       <c r="S13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
@@ -2501,13 +2487,13 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14">
@@ -2520,35 +2506,35 @@
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="I14" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J14" s="3">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="K14" s="3">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M14" s="22">
         <f>SUM(H14*(24/I14))</f>
-        <v>93.333333333333329</v>
+        <v>240</v>
       </c>
       <c r="N14" s="22">
         <f>SUM(H14*(24/I14))*G14</f>
-        <v>93.333333333333329</v>
+        <v>240</v>
       </c>
       <c r="O14" s="20">
         <f>SUM(K14/M14)</f>
-        <v>2.035714285714286</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="P14" s="20">
         <f>SUM(K14/N14)</f>
-        <v>2.035714285714286</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="Q14" s="5">
         <v>8</v>
@@ -2557,40 +2543,34 @@
         <v>50</v>
       </c>
       <c r="S14" s="5">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>50</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15">
         <v>0</v>
       </c>
@@ -2601,217 +2581,214 @@
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I15" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J15" s="3">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="K15" s="3">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M15" s="22">
         <f>SUM(H15*(24/I15))</f>
-        <v>36</v>
+        <v>254.11764705882354</v>
       </c>
       <c r="N15" s="22">
-        <f>SUM(H15*(24/I15))*D15</f>
-        <v>180</v>
+        <f>SUM(H15*(24/I15))*G15</f>
+        <v>254.11764705882354</v>
       </c>
       <c r="O15" s="20">
         <f>SUM(K15/M15)</f>
-        <v>5.833333333333333</v>
+        <v>1.2986111111111112</v>
       </c>
       <c r="P15" s="20">
         <f>SUM(K15/N15)</f>
-        <v>1.1666666666666667</v>
+        <v>1.2986111111111112</v>
       </c>
       <c r="Q15" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R15" s="5">
         <v>50</v>
       </c>
       <c r="S15" s="5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>68</v>
+      <c r="C16" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="K16" s="3">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M16" s="22">
         <f>SUM(H16*(24/I16))</f>
-        <v>48</v>
+        <v>79.2</v>
       </c>
       <c r="N16" s="22">
         <f>SUM(H16*(24/I16))*G16</f>
-        <v>96</v>
+        <v>79.2</v>
       </c>
       <c r="O16" s="20">
         <f>SUM(K16/M16)</f>
-        <v>3.2291666666666665</v>
+        <v>1.8308080808080807</v>
       </c>
       <c r="P16" s="20">
         <f>SUM(K16/N16)</f>
-        <v>1.6145833333333333</v>
+        <v>1.8308080808080807</v>
       </c>
       <c r="Q16" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R16" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S16" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="Z16" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B17" s="17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5">
         <v>3</v>
       </c>
+      <c r="C17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="I17" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J17" s="3">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="K17" s="3">
-        <v>195</v>
+        <f>SUM(145+Table1[[#This Row],[Cost]])</f>
+        <v>335</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M17" s="22">
         <f>SUM(H17*(24/I17))</f>
-        <v>41.25</v>
+        <v>225</v>
       </c>
       <c r="N17" s="22">
-        <f>SUM(H17*(24/I17))*D17</f>
-        <v>123.75</v>
+        <f>SUM(H17*(24/I17))*G17</f>
+        <v>225</v>
       </c>
       <c r="O17" s="20">
         <f>SUM(K17/M17)</f>
-        <v>4.7272727272727275</v>
+        <v>1.4888888888888889</v>
       </c>
       <c r="P17" s="20">
         <f>SUM(K17/N17)</f>
-        <v>1.5757575757575757</v>
+        <v>1.4888888888888889</v>
       </c>
       <c r="Q17" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R17" s="5">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="S17" s="5">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
@@ -2819,401 +2796,384 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" s="17">
-        <v>2</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="5">
         <v>3</v>
       </c>
+      <c r="C18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="I18" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J18" s="3">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="K18" s="3">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M18" s="22">
         <f>SUM(H18*(24/I18))</f>
-        <v>30.400000000000002</v>
+        <v>180</v>
       </c>
       <c r="N18" s="22">
-        <f>SUM(H18*(24/I18))*D18</f>
-        <v>91.2</v>
+        <f>SUM(H18*(24/I18))*G18</f>
+        <v>180</v>
       </c>
       <c r="O18" s="20">
         <f>SUM(K18/M18)</f>
-        <v>5.9210526315789469</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="P18" s="20">
         <f>SUM(K18/N18)</f>
-        <v>1.9736842105263157</v>
+        <v>2.1388888888888888</v>
       </c>
       <c r="Q18" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R18" s="5">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="S18" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19" s="17">
         <v>2</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>74</v>
+      <c r="C19" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K19" s="3">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M19" s="22">
         <f>SUM(H19*(24/I19))</f>
-        <v>57.818181818181813</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="N19" s="22">
         <f>SUM(H19*(24/I19))*G19</f>
-        <v>57.818181818181813</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="O19" s="20">
         <f>SUM(K19/M19)</f>
-        <v>2.0754716981132075</v>
+        <v>2.035714285714286</v>
       </c>
       <c r="P19" s="20">
         <f>SUM(K19/N19)</f>
-        <v>2.0754716981132075</v>
+        <v>2.035714285714286</v>
       </c>
       <c r="Q19" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R19" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S19" s="5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>142</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B20" s="17">
-        <v>2</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J20" s="3">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M20" s="22">
         <f>SUM(H20*(24/I20))</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N20" s="22">
-        <f>SUM(H20*(24/I20))*D20</f>
-        <v>72</v>
+        <f>SUM(H20*(24/I20))*G20</f>
+        <v>1</v>
       </c>
       <c r="O20" s="20">
         <f>SUM(K20/M20)</f>
-        <v>8.8888888888888893</v>
+        <v>191</v>
       </c>
       <c r="P20" s="20">
         <f>SUM(K20/N20)</f>
-        <v>2.2222222222222223</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="5">
         <v>50</v>
       </c>
       <c r="S20" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="5">
         <v>3</v>
       </c>
+      <c r="C21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>50</v>
       </c>
-      <c r="F21">
-        <v>106</v>
-      </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="I21" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J21" s="3">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="K21" s="3">
-        <v>220</v>
+        <f>SUM(190+Table1[[#This Row],[Cost]])</f>
+        <v>470</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M21" s="22">
         <f>SUM(H21*(24/I21))</f>
-        <v>38.571428571428569</v>
+        <v>232</v>
       </c>
       <c r="N21" s="22">
-        <f>SUM(H21*(24/I21))*D21</f>
-        <v>115.71428571428571</v>
+        <f>SUM(H21*(24/I21))*G21</f>
+        <v>232</v>
       </c>
       <c r="O21" s="20">
         <f>SUM(K21/M21)</f>
-        <v>5.7037037037037042</v>
+        <v>2.0258620689655173</v>
       </c>
       <c r="P21" s="20">
         <f>SUM(K21/N21)</f>
-        <v>1.9012345679012346</v>
+        <v>2.0258620689655173</v>
       </c>
       <c r="Q21" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R21" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S21" s="5">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
+      <c r="Z21" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
     <row r="22" spans="1:29" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B22" s="17">
-        <v>2</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J22" s="3">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K22" s="3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M22" s="22">
         <f>SUM(H22*(24/I22))</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N22" s="22">
         <f>SUM(H22*(24/I22))*G22</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="O22" s="20">
         <f>SUM(K22/M22)</f>
-        <v>1.5625</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="P22" s="20">
         <f>SUM(K22/N22)</f>
-        <v>1.5625</v>
+        <v>2.2916666666666665</v>
       </c>
       <c r="Q22" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" s="5">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="S22" s="5">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
@@ -3222,76 +3182,80 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="4"/>
+      <c r="C23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I23" s="2">
         <v>8</v>
       </c>
       <c r="J23" s="3">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K23" s="3">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="22">
         <f>SUM(H23*(24/I23))</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N23" s="22">
-        <f>SUM(H23*(24/I23))*G23</f>
-        <v>90</v>
+        <f>SUM(H23*(24/I23))*D23</f>
+        <v>180</v>
       </c>
       <c r="O23" s="20">
         <f>SUM(K23/M23)</f>
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="P23" s="20">
         <f>SUM(K23/N23)</f>
-        <v>1.7222222222222223</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="Q23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S23" s="5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="Y23" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
@@ -3299,76 +3263,78 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B24" s="17">
-        <v>2</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5</v>
+      </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I24" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J24" s="3">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="K24" s="3">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="22">
         <f>SUM(H24*(24/I24))</f>
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="N24" s="22">
-        <f>SUM(H24*(24/I24))*G24</f>
-        <v>104</v>
+        <f>SUM(H24*(24/I24))*D24</f>
+        <v>360</v>
       </c>
       <c r="O24" s="20">
         <f>SUM(K24/M24)</f>
-        <v>1.7788461538461537</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="P24" s="20">
         <f>SUM(K24/N24)</f>
-        <v>1.7788461538461537</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="Q24" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R24" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S24" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="Y24" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
@@ -3376,371 +3342,332 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B25" s="17">
-        <v>2</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>106</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1">
-        <v>10</v>
-      </c>
-      <c r="I25" s="2">
-        <v>8</v>
-      </c>
-      <c r="J25" s="3">
-        <v>135</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="22" t="e">
         <f>SUM(H25*(24/I25))</f>
-        <v>30</v>
-      </c>
-      <c r="N25" s="22">
-        <f>SUM(H25*(24/I25))*D25</f>
-        <v>120</v>
-      </c>
-      <c r="O25" s="20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" s="22" t="e">
+        <f>SUM(H25*(24/I25))*G25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" s="20" t="e">
         <f>SUM(K25/M25)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="P25" s="20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="20" t="e">
         <f>SUM(K25/N25)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>9</v>
-      </c>
-      <c r="R25" s="5">
-        <v>20</v>
-      </c>
-      <c r="S25" s="5">
-        <v>44</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="Y25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B26" s="17">
         <v>2</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>151</v>
+      <c r="C26" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I26" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>150</v>
-      </c>
-      <c r="L26" t="s">
-        <v>28</v>
+        <v>155</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="M26" s="22">
         <f>SUM(H26*(24/I26))</f>
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="N26" s="22">
         <f>SUM(H26*(24/I26))*G26</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O26" s="20">
         <f>SUM(K26/M26)</f>
-        <v>1.6666666666666667</v>
+        <v>3.2291666666666665</v>
       </c>
       <c r="P26" s="20">
         <f>SUM(K26/N26)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>20</v>
-      </c>
-      <c r="S26">
-        <v>47</v>
-      </c>
-      <c r="T26" t="s">
-        <v>64</v>
-      </c>
-      <c r="U26" t="s">
-        <v>177</v>
-      </c>
-      <c r="V26" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z26" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>1.6145833333333333</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>2</v>
+      </c>
+      <c r="R26" s="5">
+        <v>10</v>
+      </c>
+      <c r="S26" s="5">
+        <v>12</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B27" s="17">
-        <v>2</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>152</v>
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I27" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J27" s="3">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K27" s="3">
-        <v>165</v>
-      </c>
-      <c r="L27" t="s">
-        <v>28</v>
+        <v>395</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="M27" s="22">
         <f>SUM(H27*(24/I27))</f>
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="N27" s="22">
         <f>SUM(H27*(24/I27))*G27</f>
-        <v>105</v>
+        <v>252</v>
       </c>
       <c r="O27" s="20">
         <f>SUM(K27/M27)</f>
-        <v>1.5714285714285714</v>
+        <v>4.7023809523809526</v>
       </c>
       <c r="P27" s="20">
         <f>SUM(K27/N27)</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>20</v>
-      </c>
-      <c r="S27">
-        <v>48</v>
-      </c>
-      <c r="T27" t="s">
-        <v>64</v>
-      </c>
-      <c r="U27" t="s">
-        <v>153</v>
-      </c>
-      <c r="V27" t="s">
-        <v>159</v>
-      </c>
+        <v>1.5674603174603174</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>2</v>
+      </c>
+      <c r="R27" s="5">
+        <v>10</v>
+      </c>
+      <c r="S27" s="5">
+        <v>34</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B28" s="17">
-        <v>2</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>154</v>
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>72</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
-        <v>90</v>
-      </c>
-      <c r="I28" s="2">
-        <v>16</v>
-      </c>
-      <c r="J28" s="3">
-        <v>140</v>
-      </c>
-      <c r="K28" s="3">
-        <v>190</v>
-      </c>
-      <c r="L28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="22">
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M28" s="22" t="e">
         <f>SUM(H28*(24/I28))</f>
-        <v>135</v>
-      </c>
-      <c r="N28" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="22" t="e">
         <f>SUM(H28*(24/I28))*G28</f>
-        <v>135</v>
-      </c>
-      <c r="O28" s="20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="20" t="e">
         <f>SUM(K28/M28)</f>
-        <v>1.4074074074074074</v>
-      </c>
-      <c r="P28" s="20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="20" t="e">
         <f>SUM(K28/N28)</f>
-        <v>1.4074074074074074</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>20</v>
-      </c>
-      <c r="S28">
-        <v>49</v>
-      </c>
-      <c r="T28" t="s">
-        <v>64</v>
-      </c>
-      <c r="U28" t="s">
-        <v>155</v>
-      </c>
-      <c r="V28" t="s">
-        <v>158</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="17">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="4"/>
       <c r="E29">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F29">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H29" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="I29" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J29" s="3">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="K29" s="3">
-        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M29" s="22">
         <f>SUM(H29*(24/I29))</f>
-        <v>70.5</v>
+        <v>41.25</v>
       </c>
       <c r="N29" s="22">
-        <f>SUM(H29*(24/I29))*G29</f>
-        <v>211.5</v>
+        <f>SUM(H29*(24/I29))*D29</f>
+        <v>123.75</v>
       </c>
       <c r="O29" s="20">
         <f>SUM(K29/M29)</f>
-        <v>4.8226950354609928</v>
+        <v>4.7272727272727275</v>
       </c>
       <c r="P29" s="20">
         <f>SUM(K29/N29)</f>
-        <v>1.6075650118203311</v>
+        <v>1.5757575757575757</v>
       </c>
       <c r="Q29" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R29" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S29" s="5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="V29" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
@@ -3748,76 +3675,78 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B30" s="17">
         <v>3</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4"/>
+      <c r="C30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3</v>
+      </c>
       <c r="E30">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F30">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" s="1">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="I30" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J30" s="3">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="K30" s="3">
-        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
-        <v>330</v>
+        <v>475</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M30" s="22">
         <f>SUM(H30*(24/I30))</f>
-        <v>76.36363636363636</v>
+        <v>106.66666666666666</v>
       </c>
       <c r="N30" s="22">
-        <f>SUM(H30*(24/I30))*G30</f>
-        <v>229.09090909090907</v>
+        <f>SUM(H30*(24/I30))*D30</f>
+        <v>320</v>
       </c>
       <c r="O30" s="20">
         <f>SUM(K30/M30)</f>
-        <v>4.3214285714285721</v>
+        <v>4.453125</v>
       </c>
       <c r="P30" s="20">
         <f>SUM(K30/N30)</f>
-        <v>1.4404761904761907</v>
+        <v>1.484375</v>
       </c>
       <c r="Q30" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R30" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S30" s="5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>200</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="s">
-        <v>201</v>
+        <v>136</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
@@ -3825,155 +3754,132 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B31" s="17">
         <v>3</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>5</v>
+      <c r="C31" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>120</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1">
-        <v>110</v>
-      </c>
-      <c r="I31" s="2">
-        <v>18</v>
-      </c>
-      <c r="J31" s="3">
-        <v>180</v>
-      </c>
-      <c r="K31" s="3">
-        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
-        <v>355</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="22">
+        <v>14</v>
+      </c>
+      <c r="M31" s="22" t="e">
         <f>SUM(H31*(24/I31))</f>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="N31" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="22" t="e">
         <f>SUM(H31*(24/I31))*G31</f>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="O31" s="20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="20" t="e">
         <f>SUM(K31/M31)</f>
-        <v>2.4204545454545454</v>
-      </c>
-      <c r="P31" s="20">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="20" t="e">
         <f>SUM(K31/N31)</f>
-        <v>2.4204545454545454</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>5</v>
-      </c>
-      <c r="R31" s="5">
-        <v>30</v>
-      </c>
-      <c r="S31" s="5">
-        <v>29</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17">
-        <v>3</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2</v>
+      </c>
       <c r="E32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F32">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="I32" s="2">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J32" s="3">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="K32" s="3">
-        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M32" s="22">
         <f>SUM(H32*(24/I32))</f>
-        <v>180</v>
+        <v>13.894736842105262</v>
       </c>
       <c r="N32" s="22">
-        <f>SUM(H32*(24/I32))*G32</f>
-        <v>180</v>
+        <f>SUM(H32*(24/I32))*D32</f>
+        <v>27.789473684210524</v>
       </c>
       <c r="O32" s="20">
         <f>SUM(K32/M32)</f>
-        <v>2.0277777777777777</v>
+        <v>2.8787878787878789</v>
       </c>
       <c r="P32" s="20">
         <f>SUM(K32/N32)</f>
-        <v>2.0277777777777777</v>
+        <v>1.4393939393939394</v>
       </c>
       <c r="Q32" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S32" s="5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X32" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
@@ -3981,77 +3887,80 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17">
+        <v>2</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="5">
         <v>3</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="4"/>
       <c r="E33">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F33">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="I33" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="J33" s="3">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="K33" s="3">
-        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M33" s="22">
         <f>SUM(H33*(24/I33))</f>
-        <v>247.5</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="N33" s="22">
-        <f>SUM(H33*(24/I33))*G33</f>
-        <v>247.5</v>
+        <f>SUM(H33*(24/I33))*D33</f>
+        <v>91.2</v>
       </c>
       <c r="O33" s="20">
         <f>SUM(K33/M33)</f>
-        <v>1.4545454545454546</v>
+        <v>5.9210526315789469</v>
       </c>
       <c r="P33" s="20">
         <f>SUM(K33/N33)</f>
-        <v>1.4545454545454546</v>
+        <v>1.9736842105263157</v>
       </c>
       <c r="Q33" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" s="5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S33" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V33" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
@@ -4059,79 +3968,79 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>8</v>
+      <c r="C34" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="D34" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I34" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J34" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K34" s="3">
-        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
-        <v>320</v>
+        <f>SUM(180+Table1[[#This Row],[Cost]])</f>
+        <v>400</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M34" s="22">
         <f>SUM(H34*(24/I34))</f>
-        <v>48.857142857142854</v>
+        <v>73.846153846153854</v>
       </c>
       <c r="N34" s="22">
         <f>SUM(H34*(24/I34))*D34</f>
-        <v>244.28571428571428</v>
+        <v>221.53846153846155</v>
       </c>
       <c r="O34" s="20">
         <f>SUM(K34/M34)</f>
-        <v>6.5497076023391818</v>
+        <v>5.4166666666666661</v>
       </c>
       <c r="P34" s="20">
         <f>SUM(K34/N34)</f>
-        <v>1.3099415204678364</v>
+        <v>1.8055555555555556</v>
       </c>
       <c r="Q34" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S34" s="5">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
@@ -4139,229 +4048,244 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B35" s="17">
-        <v>3</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35" s="1">
+        <v>53</v>
+      </c>
+      <c r="I35" s="2">
+        <v>22</v>
+      </c>
+      <c r="J35" s="3">
+        <v>80</v>
+      </c>
+      <c r="K35" s="3">
         <v>120</v>
       </c>
-      <c r="I35" s="2">
-        <v>12</v>
-      </c>
-      <c r="J35" s="3">
-        <v>170</v>
-      </c>
-      <c r="K35" s="3">
-        <v>280</v>
-      </c>
       <c r="L35" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M35" s="22">
         <f>SUM(H35*(24/I35))</f>
-        <v>240</v>
+        <v>57.818181818181813</v>
       </c>
       <c r="N35" s="22">
         <f>SUM(H35*(24/I35))*G35</f>
-        <v>240</v>
+        <v>57.818181818181813</v>
       </c>
       <c r="O35" s="20">
         <f>SUM(K35/M35)</f>
-        <v>1.1666666666666667</v>
+        <v>2.0754716981132075</v>
       </c>
       <c r="P35" s="20">
         <f>SUM(K35/N35)</f>
-        <v>1.1666666666666667</v>
+        <v>2.0754716981132075</v>
       </c>
       <c r="Q35" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R35" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S35" s="5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V35" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
+      <c r="Z35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA35" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B36" s="17">
         <v>3</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>75</v>
+      <c r="C36" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="I36" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J36" s="3">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K36" s="3">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M36" s="22">
         <f>SUM(H36*(24/I36))</f>
-        <v>254.11764705882354</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="N36" s="22">
         <f>SUM(H36*(24/I36))*G36</f>
-        <v>254.11764705882354</v>
+        <v>172.79999999999998</v>
       </c>
       <c r="O36" s="20">
         <f>SUM(K36/M36)</f>
-        <v>1.2986111111111112</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="P36" s="20">
         <f>SUM(K36/N36)</f>
-        <v>1.2986111111111112</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="Q36" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R36" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S36" s="5">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="U36" s="4" t="s">
-        <v>205</v>
+        <v>114</v>
       </c>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA36" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="AA36" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B37" s="17">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4</v>
+      </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I37" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J37" s="3">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="K37" s="3">
-        <f>SUM(145+Table1[[#This Row],[Cost]])</f>
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M37" s="22">
         <f>SUM(H37*(24/I37))</f>
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="N37" s="22">
-        <f>SUM(H37*(24/I37))*G37</f>
-        <v>225</v>
+        <f>SUM(H37*(24/I37))*D37</f>
+        <v>72</v>
       </c>
       <c r="O37" s="20">
         <f>SUM(K37/M37)</f>
-        <v>1.4888888888888889</v>
+        <v>8.8888888888888893</v>
       </c>
       <c r="P37" s="20">
         <f>SUM(K37/N37)</f>
-        <v>1.4888888888888889</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="Q37" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R37" s="5">
         <v>50</v>
       </c>
       <c r="S37" s="5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
+      <c r="Y37" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="Z37" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
@@ -4369,304 +4293,319 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="4"/>
+      <c r="C38" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4</v>
+      </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="I38" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J38" s="3">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K38" s="3">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M38" s="22">
         <f>SUM(H38*(24/I38))</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="N38" s="22">
-        <f>SUM(H38*(24/I38))*G38</f>
-        <v>180</v>
+        <f>SUM(H38*(24/I38))*D38</f>
+        <v>240</v>
       </c>
       <c r="O38" s="20">
         <f>SUM(K38/M38)</f>
-        <v>2.1388888888888888</v>
+        <v>6.5</v>
       </c>
       <c r="P38" s="20">
         <f>SUM(K38/N38)</f>
-        <v>2.1388888888888888</v>
+        <v>1.625</v>
       </c>
       <c r="Q38" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R38" s="5">
         <v>50</v>
       </c>
       <c r="S38" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
+      <c r="Y38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z38" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="4"/>
+      <c r="C39" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
       <c r="E39">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="I39" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J39" s="3">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="K39" s="3">
-        <v>191</v>
+        <v>420</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M39" s="22">
         <f>SUM(H39*(24/I39))</f>
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="N39" s="22">
-        <f>SUM(H39*(24/I39))*G39</f>
-        <v>1</v>
+        <f>SUM(H39*(24/I39))*D39</f>
+        <v>400</v>
       </c>
       <c r="O39" s="20">
         <f>SUM(K39/M39)</f>
-        <v>191</v>
+        <v>2.1</v>
       </c>
       <c r="P39" s="20">
         <f>SUM(K39/N39)</f>
-        <v>191</v>
+        <v>1.05</v>
       </c>
       <c r="Q39" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R39" s="5">
         <v>50</v>
       </c>
       <c r="S39" s="5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U39" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
+      <c r="Z39" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B40" s="17">
-        <v>3</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2</v>
+      </c>
       <c r="E40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="1">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="I40" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J40" s="3">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="K40" s="3">
-        <f>SUM(190+Table1[[#This Row],[Cost]])</f>
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="M40" s="22">
         <f>SUM(H40*(24/I40))</f>
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="N40" s="22">
-        <f>SUM(H40*(24/I40))*G40</f>
-        <v>232</v>
+        <f>SUM(H40*(24/I40))*D40</f>
+        <v>22</v>
       </c>
       <c r="O40" s="20">
         <f>SUM(K40/M40)</f>
-        <v>2.0258620689655173</v>
+        <v>5.4545454545454541</v>
       </c>
       <c r="P40" s="20">
         <f>SUM(K40/N40)</f>
-        <v>2.0258620689655173</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="Q40" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R40" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="S40" s="5">
+        <v>5</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="T40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
+      <c r="V40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B41" s="17">
+        <v>2</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="5">
         <v>3</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="5">
-        <v>5</v>
-      </c>
       <c r="E41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F41">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I41" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J41" s="3">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="K41" s="3">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M41" s="22">
         <f>SUM(H41*(24/I41))</f>
-        <v>72</v>
+        <v>38.571428571428569</v>
       </c>
       <c r="N41" s="22">
         <f>SUM(H41*(24/I41))*D41</f>
-        <v>360</v>
+        <v>115.71428571428571</v>
       </c>
       <c r="O41" s="20">
         <f>SUM(K41/M41)</f>
-        <v>5.833333333333333</v>
+        <v>5.7037037037037042</v>
       </c>
       <c r="P41" s="20">
         <f>SUM(K41/N41)</f>
-        <v>1.1666666666666667</v>
+        <v>1.9012345679012346</v>
       </c>
       <c r="Q41" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R41" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S41" s="5">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="V41" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
@@ -4674,51 +4613,76 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="3"/>
+      <c r="C42" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>55</v>
+      </c>
+      <c r="F42">
+        <v>112</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>90</v>
+      </c>
+      <c r="I42" s="2">
+        <v>24</v>
+      </c>
+      <c r="J42" s="3">
+        <v>250</v>
+      </c>
       <c r="K42" s="3">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="22" t="e">
+        <v>28</v>
+      </c>
+      <c r="M42" s="22">
         <f>SUM(H42*(24/I42))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N42" s="22" t="e">
-        <f>SUM(H42*(24/I42))*G42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O42" s="20" t="e">
+        <v>90</v>
+      </c>
+      <c r="N42" s="22">
+        <f>SUM(H42*(24/I42))*D42</f>
+        <v>270</v>
+      </c>
+      <c r="O42" s="20">
         <f>SUM(K42/M42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P42" s="20" t="e">
+        <v>5.2222222222222223</v>
+      </c>
+      <c r="P42" s="20">
         <f>SUM(K42/N42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
+        <v>1.7407407407407407</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>6</v>
+      </c>
+      <c r="R42" s="5">
+        <v>30</v>
+      </c>
+      <c r="S42" s="5">
+        <v>38</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
-      <c r="Y42" s="4" t="s">
-        <v>97</v>
-      </c>
+      <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
@@ -4726,71 +4690,73 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B43" s="17">
-        <v>3</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>79</v>
+        <v>2</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2">
         <v>3</v>
       </c>
-      <c r="H43" s="1">
-        <v>21</v>
-      </c>
-      <c r="I43" s="2">
-        <v>6</v>
-      </c>
       <c r="J43" s="3">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="K43" s="3">
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M43" s="22">
         <f>SUM(H43*(24/I43))</f>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="N43" s="22">
         <f>SUM(H43*(24/I43))*G43</f>
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="O43" s="20">
         <f>SUM(K43/M43)</f>
-        <v>4.7023809523809526</v>
+        <v>1.5625</v>
       </c>
       <c r="P43" s="20">
         <f>SUM(K43/N43)</f>
-        <v>1.5674603174603174</v>
+        <v>1.5625</v>
       </c>
       <c r="Q43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="S43" s="5">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="V43" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
@@ -4801,43 +4767,70 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>80</v>
+      <c r="C44" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>106</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>28</v>
+      </c>
+      <c r="I44" s="2">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>180</v>
+      </c>
+      <c r="K44" s="3">
+        <v>330</v>
+      </c>
       <c r="L44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M44" s="22" t="e">
+        <v>26</v>
+      </c>
+      <c r="M44" s="22">
         <f>SUM(H44*(24/I44))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="22" t="e">
+        <v>224</v>
+      </c>
+      <c r="N44" s="22">
         <f>SUM(H44*(24/I44))*G44</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O44" s="20" t="e">
+        <v>224</v>
+      </c>
+      <c r="O44" s="20">
         <f>SUM(K44/M44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="20" t="e">
+        <v>1.4732142857142858</v>
+      </c>
+      <c r="P44" s="20">
         <f>SUM(K44/N44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
+        <v>1.4732142857142858</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1</v>
+      </c>
+      <c r="R44" s="5">
+        <v>40</v>
+      </c>
+      <c r="S44" s="5">
+        <v>39</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
@@ -4849,19 +4842,17 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17">
+        <v>1</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="17">
-        <v>3</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3</v>
-      </c>
+      <c r="D45" s="4"/>
       <c r="E45">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>106</v>
@@ -4870,102 +4861,135 @@
         <v>1</v>
       </c>
       <c r="H45" s="1">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="I45" s="2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J45" s="3">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="K45" s="3">
-        <v>475</v>
+        <v>65</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M45" s="22">
         <f>SUM(H45*(24/I45))</f>
-        <v>106.66666666666666</v>
+        <v>26.666666666666664</v>
       </c>
       <c r="N45" s="22">
-        <f>SUM(H45*(24/I45))*D45</f>
-        <v>320</v>
+        <f>SUM(H45*(24/I45))*G45</f>
+        <v>26.666666666666664</v>
       </c>
       <c r="O45" s="20">
         <f>SUM(K45/M45)</f>
-        <v>4.453125</v>
+        <v>2.4375</v>
       </c>
       <c r="P45" s="20">
         <f>SUM(K45/N45)</f>
-        <v>1.484375</v>
+        <v>2.4375</v>
       </c>
       <c r="Q45" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R45" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="S45" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17">
+        <v>2</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="17">
+      <c r="D46" s="4"/>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>106</v>
+      </c>
+      <c r="G46">
         <v>3</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="H46" s="1">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3">
+        <v>90</v>
+      </c>
+      <c r="K46" s="3">
+        <v>155</v>
+      </c>
       <c r="L46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M46" s="22" t="e">
+      <c r="M46" s="22">
         <f>SUM(H46*(24/I46))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N46" s="22" t="e">
+        <v>30</v>
+      </c>
+      <c r="N46" s="22">
         <f>SUM(H46*(24/I46))*G46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O46" s="20" t="e">
+        <v>90</v>
+      </c>
+      <c r="O46" s="20">
         <f>SUM(K46/M46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" s="20" t="e">
+        <v>5.166666666666667</v>
+      </c>
+      <c r="P46" s="20">
         <f>SUM(K46/N46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>7</v>
+      </c>
+      <c r="R46" s="5">
+        <v>20</v>
+      </c>
+      <c r="S46" s="5">
+        <v>21</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
@@ -4976,93 +5000,88 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3</v>
-      </c>
+      <c r="C47" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="4"/>
       <c r="E47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H47" s="1">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I47" s="2">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J47" s="3">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K47" s="3">
-        <f>SUM(180+Table1[[#This Row],[Cost]])</f>
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M47" s="22">
         <f>SUM(H47*(24/I47))</f>
-        <v>73.846153846153854</v>
+        <v>48</v>
       </c>
       <c r="N47" s="22">
-        <f>SUM(H47*(24/I47))*D47</f>
-        <v>221.53846153846155</v>
+        <f>SUM(H47*(24/I47))*G47</f>
+        <v>240</v>
       </c>
       <c r="O47" s="20">
         <f>SUM(K47/M47)</f>
-        <v>5.4166666666666661</v>
+        <v>8.2291666666666661</v>
       </c>
       <c r="P47" s="20">
         <f>SUM(K47/N47)</f>
-        <v>1.8055555555555556</v>
+        <v>1.6458333333333333</v>
       </c>
       <c r="Q47" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R47" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S47" s="5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48" s="17">
-        <v>3</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48">
@@ -5072,222 +5091,216 @@
         <v>106</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="I48" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J48" s="3">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="K48" s="3">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M48" s="22">
         <f>SUM(H48*(24/I48))</f>
-        <v>86.399999999999991</v>
+        <v>104</v>
       </c>
       <c r="N48" s="22">
         <f>SUM(H48*(24/I48))*G48</f>
-        <v>172.79999999999998</v>
+        <v>104</v>
       </c>
       <c r="O48" s="20">
         <f>SUM(K48/M48)</f>
-        <v>4.166666666666667</v>
+        <v>1.7788461538461537</v>
       </c>
       <c r="P48" s="20">
         <f>SUM(K48/N48)</f>
-        <v>2.0833333333333335</v>
+        <v>1.7788461538461537</v>
       </c>
       <c r="Q48" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R48" s="5">
+        <v>20</v>
+      </c>
+      <c r="S48" s="5">
         <v>30</v>
-      </c>
-      <c r="S48" s="5">
-        <v>42</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="V48" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA48" s="4" t="s">
-        <v>142</v>
-      </c>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" s="5">
-        <v>4</v>
-      </c>
+      <c r="C49" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="4"/>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49" s="3">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K49" s="3">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M49" s="22">
         <f>SUM(H49*(24/I49))</f>
-        <v>60</v>
+        <v>224</v>
       </c>
       <c r="N49" s="22">
-        <f>SUM(H49*(24/I49))*D49</f>
-        <v>240</v>
+        <f>SUM(H49*(24/I49))*G49</f>
+        <v>224</v>
       </c>
       <c r="O49" s="20">
         <f>SUM(K49/M49)</f>
-        <v>6.5</v>
+        <v>1.7633928571428572</v>
       </c>
       <c r="P49" s="20">
         <f>SUM(K49/N49)</f>
-        <v>1.625</v>
+        <v>1.7633928571428572</v>
       </c>
       <c r="Q49" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R49" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="S49" s="5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z49" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B50" s="17">
-        <v>3</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>86</v>
+        <v>2</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="D50" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" s="1">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I50" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J50" s="3">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="K50" s="3">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M50" s="22">
         <f>SUM(H50*(24/I50))</f>
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="N50" s="22">
         <f>SUM(H50*(24/I50))*D50</f>
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="O50" s="20">
         <f>SUM(K50/M50)</f>
-        <v>2.1</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="P50" s="20">
         <f>SUM(K50/N50)</f>
-        <v>1.05</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="Q50" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R50" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="S50" s="5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="V50" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
@@ -5295,384 +5308,371 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>90</v>
+      <c r="C51" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="D51" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I51" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J51" s="3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K51" s="3">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M51" s="22">
         <f>SUM(H51*(24/I51))</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="N51" s="22">
         <f>SUM(H51*(24/I51))*D51</f>
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="O51" s="20">
         <f>SUM(K51/M51)</f>
-        <v>5.2222222222222223</v>
+        <v>6.4</v>
       </c>
       <c r="P51" s="20">
         <f>SUM(K51/N51)</f>
-        <v>1.7407407407407407</v>
+        <v>1.28</v>
       </c>
       <c r="Q51" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R51" s="5">
-        <v>30</v>
-      </c>
-      <c r="S51" s="5">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="S51" s="18">
+        <v>45</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
+      <c r="Z51" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B52" s="17">
-        <v>3</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>150</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" s="1">
+        <v>10</v>
+      </c>
+      <c r="I52" s="2">
+        <v>12</v>
+      </c>
+      <c r="J52" s="3">
+        <v>50</v>
+      </c>
+      <c r="K52" s="3">
+        <v>50</v>
+      </c>
+      <c r="L52" t="s">
         <v>28</v>
-      </c>
-      <c r="I52" s="2">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3">
-        <v>180</v>
-      </c>
-      <c r="K52" s="3">
-        <v>330</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="M52" s="22">
         <f>SUM(H52*(24/I52))</f>
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="N52" s="22">
         <f>SUM(H52*(24/I52))*G52</f>
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="O52" s="20">
         <f>SUM(K52/M52)</f>
-        <v>1.4732142857142858</v>
+        <v>2.5</v>
       </c>
       <c r="P52" s="20">
         <f>SUM(K52/N52)</f>
-        <v>1.4732142857142858</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>1</v>
-      </c>
-      <c r="R52" s="5">
-        <v>40</v>
-      </c>
-      <c r="S52" s="5">
-        <v>39</v>
-      </c>
-      <c r="T52" s="4" t="s">
+        <v>2.5</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>20</v>
+      </c>
+      <c r="S52">
+        <v>46</v>
+      </c>
+      <c r="T52" t="s">
         <v>64</v>
       </c>
-      <c r="U52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
+      <c r="U52" t="s">
+        <v>173</v>
+      </c>
+      <c r="V52" t="s">
+        <v>151</v>
+      </c>
+      <c r="W52" t="s">
+        <v>152</v>
+      </c>
+      <c r="X52" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B53" s="17">
-        <v>3</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I53" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J53" s="3">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="K53" s="3">
-        <v>395</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>14</v>
+        <v>150</v>
+      </c>
+      <c r="L53" t="s">
+        <v>28</v>
       </c>
       <c r="M53" s="22">
         <f>SUM(H53*(24/I53))</f>
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="N53" s="22">
         <f>SUM(H53*(24/I53))*G53</f>
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="O53" s="20">
         <f>SUM(K53/M53)</f>
-        <v>8.2291666666666661</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="P53" s="20">
         <f>SUM(K53/N53)</f>
-        <v>1.6458333333333333</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>7</v>
-      </c>
-      <c r="R53" s="5">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>20</v>
       </c>
-      <c r="S53" s="5">
-        <v>40</v>
-      </c>
-      <c r="T53" s="4" t="s">
+      <c r="S53">
+        <v>47</v>
+      </c>
+      <c r="T53" t="s">
         <v>64</v>
       </c>
-      <c r="U53" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
+      <c r="U53" t="s">
+        <v>177</v>
+      </c>
+      <c r="V53" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B54" s="17">
-        <v>3</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" s="1">
+        <v>70</v>
+      </c>
+      <c r="I54" s="2">
+        <v>16</v>
+      </c>
+      <c r="J54" s="3">
+        <v>115</v>
+      </c>
+      <c r="K54" s="3">
+        <v>165</v>
+      </c>
+      <c r="L54" t="s">
         <v>28</v>
-      </c>
-      <c r="I54" s="2">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3">
-        <v>210</v>
-      </c>
-      <c r="K54" s="3">
-        <v>395</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="M54" s="22">
         <f>SUM(H54*(24/I54))</f>
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="N54" s="22">
         <f>SUM(H54*(24/I54))*G54</f>
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="O54" s="20">
         <f>SUM(K54/M54)</f>
-        <v>1.7633928571428572</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="P54" s="20">
         <f>SUM(K54/N54)</f>
-        <v>1.7633928571428572</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>9</v>
-      </c>
-      <c r="R54" s="5">
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
         <v>20</v>
       </c>
-      <c r="S54" s="5">
-        <v>41</v>
-      </c>
-      <c r="T54" s="4" t="s">
+      <c r="S54">
+        <v>48</v>
+      </c>
+      <c r="T54" t="s">
         <v>64</v>
       </c>
-      <c r="U54" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
+      <c r="U54" t="s">
+        <v>153</v>
+      </c>
+      <c r="V54" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B55" s="17">
-        <v>3</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="5">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="4"/>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I55" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J55" s="3">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="K55" s="3">
-        <v>480</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="L55" t="s">
+        <v>28</v>
       </c>
       <c r="M55" s="22">
         <f>SUM(H55*(24/I55))</f>
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="N55" s="22">
-        <f>SUM(H55*(24/I55))*D55</f>
-        <v>375</v>
+        <f>SUM(H55*(24/I55))*G55</f>
+        <v>135</v>
       </c>
       <c r="O55" s="20">
         <f>SUM(K55/M55)</f>
-        <v>6.4</v>
+        <v>1.4074074074074074</v>
       </c>
       <c r="P55" s="20">
         <f>SUM(K55/N55)</f>
-        <v>1.28</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>9</v>
-      </c>
-      <c r="R55" s="5">
+        <v>1.4074074074074074</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <v>20</v>
       </c>
-      <c r="S55" s="18">
-        <v>45</v>
-      </c>
-      <c r="T55" s="4" t="s">
+      <c r="S55">
+        <v>49</v>
+      </c>
+      <c r="T55" t="s">
         <v>64</v>
       </c>
-      <c r="U55" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
+      <c r="U55" t="s">
+        <v>155</v>
+      </c>
+      <c r="V55" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
@@ -5908,7 +5908,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52:T1048576 S1:S58">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="1" percent="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312D66BA-35D5-43A5-B97D-9C14A14DD4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577DADD9-7857-4D03-A3DE-FB530D5ED481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="217">
   <si>
     <t>Rogue</t>
   </si>
@@ -258,9 +258,6 @@
     <t>maxHits</t>
   </si>
   <si>
-    <t>Calls upon Elven spirits to increase nearby towers attack speed by 10%.</t>
-  </si>
-  <si>
     <t>Our hero.  Applies -2 armor for 3 seconds on hit.</t>
   </si>
   <si>
@@ -408,12 +405,6 @@
     <t>Frozen Pond.  Slows in a small AoE around it by 28% and does light damage</t>
   </si>
   <si>
-    <t>Burns the ground in a 1 block AoE (melee range) dealing 36 damage a second to anything it can.  Strong.</t>
-  </si>
-  <si>
-    <t>72 damage a second to anything in melee range.</t>
-  </si>
-  <si>
     <t>Ice everywhere.  Slows everything in area by 34%.</t>
   </si>
   <si>
@@ -423,12 +414,6 @@
     <t>MultiChain</t>
   </si>
   <si>
-    <t>Chains 3 additional enemies</t>
-  </si>
-  <si>
-    <t>Chains 4 additional enemies.</t>
-  </si>
-  <si>
     <t>Requires a ransom of 1 million dollars.  Thinks that's a lot.</t>
   </si>
   <si>
@@ -483,21 +468,9 @@
     <t>hit,poison,.28,20,5</t>
   </si>
   <si>
-    <t>time,atkSpdBuff,.10,2,4,2</t>
-  </si>
-  <si>
-    <t>time,dmgBuff,.12,2,4,2</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>hit,chain,3,6,.2,75,fire</t>
-  </si>
-  <si>
-    <t>hit,chain,4,6,.2,75,fire</t>
-  </si>
-  <si>
     <t>Demonologist</t>
   </si>
   <si>
@@ -579,9 +552,6 @@
     <t>hit,burn,20,3</t>
   </si>
   <si>
-    <t>Low-range.  Like it's hot.  But not too hot.</t>
-  </si>
-  <si>
     <t>hit,burn,8,3</t>
   </si>
   <si>
@@ -621,9 +591,6 @@
     <t>Let loose the hounds of war with a 20% damage boost on nearby towers (range 2).</t>
   </si>
   <si>
-    <t>time,dmgBuff,.20,2,4,2</t>
-  </si>
-  <si>
     <t>The Archer.  Everyone's favorite starting class.  If this tower could crouch and be stealth, it might crit, but it can't, so it doesn't.</t>
   </si>
   <si>
@@ -688,6 +655,51 @@
   </si>
   <si>
     <t>T.Cost</t>
+  </si>
+  <si>
+    <t>Tinkerer</t>
+  </si>
+  <si>
+    <t>Like it's hot.  But not too hot.</t>
+  </si>
+  <si>
+    <t>Burns the ground around it in a hot, fiery, fire flame.</t>
+  </si>
+  <si>
+    <t>Makes your enemies nice and crispy.</t>
+  </si>
+  <si>
+    <t>hit,chain,3,6,.15,75,fire</t>
+  </si>
+  <si>
+    <t>Chains 2 additional enemies</t>
+  </si>
+  <si>
+    <t>Chains 3 additional enemies.</t>
+  </si>
+  <si>
+    <t>hit,chain,2,6,.15,75,fire</t>
+  </si>
+  <si>
+    <t>Calls upon Elven spirits to increase nearby towers attack speed by 12%.</t>
+  </si>
+  <si>
+    <t>Little tinkerer.  Gives adjacent towers 5% attack speed &amp; dmg boosts.</t>
+  </si>
+  <si>
+    <t>time,dmgBuff,.05,1</t>
+  </si>
+  <si>
+    <t>time,atkSpdBuff,.05,1</t>
+  </si>
+  <si>
+    <t>time,atkSpdBuff,.12,2</t>
+  </si>
+  <si>
+    <t>time,dmgBuff,.12,2</t>
+  </si>
+  <si>
+    <t>time,dmgBuff,.20,2</t>
   </si>
 </sst>
 </file>
@@ -811,7 +823,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -839,6 +851,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -846,39 +859,12 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -926,6 +912,33 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1023,10 +1036,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC58" tableType="xml" totalsRowShown="0" headerRowDxfId="12" connectionId="4">
-  <autoFilter ref="A1:AC58" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC58">
-    <sortCondition ref="B2:B58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="12" connectionId="4">
+  <autoFilter ref="A1:AC59" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB58">
+    <sortCondition ref="A2:A58"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="11"/>
@@ -1034,14 +1047,14 @@
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="0">
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="9">
       <calculatedColumnFormula>SUM(E2/F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="7">
       <calculatedColumnFormula>SUM(K2*(24/L2))*J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
       <xmlColumnPr mapId="4" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
@@ -1051,22 +1064,22 @@
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
       <xmlColumnPr mapId="4" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="5">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="4">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="3">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="5">
+    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="2">
       <calculatedColumnFormula>SUM(K2*(24/L2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="4">
+    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="1">
       <calculatedColumnFormula>SUM(E2/O2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
@@ -1080,9 +1093,6 @@
     </tableColumn>
     <tableColumn id="19" xr3:uid="{483C72D6-B33C-452D-BE8F-E524D370C58C}" uniqueName="fireSoundString" name="fireSoundString">
       <xmlColumnPr mapId="4" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{3624DC5F-C196-4453-A4C0-CB17DCE76751}" uniqueName="tDescription" name="tDescription">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/tDescription" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{1B12F4CC-722E-4BFB-9EA8-7BC8CB93A247}" uniqueName="upgradeOne" name="upgradeOne">
       <xmlColumnPr mapId="4" xpath="/Root/Row/upgradeOne" xmlDataType="string"/>
@@ -1107,6 +1117,9 @@
     </tableColumn>
     <tableColumn id="27" xr3:uid="{3E110F20-4559-4331-BCD4-B34F6EF3F7B2}" uniqueName="skillFour" name="skillFour">
       <xmlColumnPr mapId="4" xpath="/Root/Row/skillFour" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{3624DC5F-C196-4453-A4C0-CB17DCE76751}" uniqueName="tDescription" name="tDescription">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/tDescription" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1411,12 +1424,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CA67B-E2EB-42AB-840C-E4EC35DF9DA8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,35 +1440,39 @@
     <col min="4" max="4" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.85546875" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" style="21" customWidth="1"/>
+    <col min="18" max="18" width="7" style="21" customWidth="1"/>
+    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="124.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>24</v>
@@ -1464,7 +1481,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>22</v>
@@ -1511,8 +1528,8 @@
       <c r="T1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="6" t="s">
-        <v>35</v>
+      <c r="U1" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>92</v>
@@ -1524,19 +1541,19 @@
         <v>94</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1565,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1603,294 +1620,281 @@
         <v>51</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="AC2" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="D3" s="25">
         <f>SUM(E3/F3)</f>
-        <v>1.6176470588235297</v>
+        <v>2.4952651515151514</v>
       </c>
       <c r="E3" s="3">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="F3" s="22">
         <f>SUM(K3*(24/L3))*J3</f>
-        <v>18.545454545454543</v>
+        <v>62.117647058823536</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="1">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2">
         <v>17</v>
       </c>
-      <c r="L3" s="2">
-        <v>22</v>
-      </c>
       <c r="M3" s="3">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="22">
         <f>SUM(K3*(24/L3))</f>
-        <v>18.545454545454543</v>
+        <v>62.117647058823536</v>
       </c>
       <c r="P3" s="20">
         <f>SUM(E3/O3)</f>
-        <v>1.6176470588235297</v>
+        <v>2.4952651515151514</v>
       </c>
       <c r="Q3" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R3" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S3" s="5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="X3" s="4"/>
+      <c r="Y3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
+      <c r="AC3" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>65</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="D4" s="25">
         <f>SUM(E4/F4)</f>
-        <v>1.8333333333333333</v>
+        <v>1.6075650118203311</v>
       </c>
       <c r="E4" s="3">
-        <v>55</v>
+        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
+        <v>340</v>
       </c>
       <c r="F4" s="22">
         <f>SUM(K4*(24/L4))*J4</f>
-        <v>30</v>
+        <v>211.5</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M4" s="3">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O4" s="22">
         <f>SUM(K4*(24/L4))</f>
+        <v>70.5</v>
+      </c>
+      <c r="P4" s="20">
+        <f t="shared" ref="P4:P59" si="0">SUM(E4/O4)</f>
+        <v>4.8226950354609928</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5</v>
+      </c>
+      <c r="R4" s="5">
         <v>30</v>
       </c>
-      <c r="P4" s="20">
-        <f>SUM(E4/O4)</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>2</v>
-      </c>
-      <c r="R4" s="5">
-        <v>12</v>
-      </c>
       <c r="S4" s="5">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="AC4" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="25">
         <f>SUM(E5/F5)</f>
-        <v>2.083333333333333</v>
+        <v>1.4404761904761907</v>
       </c>
       <c r="E5" s="3">
-        <v>40</v>
+        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
+        <v>330</v>
       </c>
       <c r="F5" s="22">
-        <f>SUM(K5*(24/L5))*G5</f>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
+        <f>SUM(K5*(24/L5))*J5</f>
+        <v>229.09090909090907</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M5" s="3">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O5" s="22">
         <f>SUM(K5*(24/L5))</f>
-        <v>9.6000000000000014</v>
+        <v>76.36363636363636</v>
       </c>
       <c r="P5" s="20">
-        <f>SUM(E5/O5)</f>
-        <v>4.1666666666666661</v>
+        <f t="shared" si="0"/>
+        <v>4.3214285714285721</v>
       </c>
       <c r="Q5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S5" s="5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
+      <c r="AC5" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="D6" s="25">
         <f>SUM(E6/F6)</f>
-        <v>2.7272727272727271</v>
+        <v>1.9444444444444444</v>
       </c>
       <c r="E6" s="3">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="F6" s="22">
-        <f>SUM(K6*(24/L6))*G6</f>
-        <v>22</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
+        <f>SUM(K6*(24/L6))*J6</f>
+        <v>90</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="H6">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>106</v>
@@ -1899,73 +1903,74 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L6" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M6" s="3">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O6" s="22">
         <f>SUM(K6*(24/L6))</f>
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="P6" s="20">
-        <f>SUM(E6/O6)</f>
-        <v>5.4545454545454541</v>
+        <f t="shared" si="0"/>
+        <v>1.9444444444444444</v>
       </c>
       <c r="Q6" s="5">
+        <v>5</v>
+      </c>
+      <c r="R6" s="5">
+        <v>20</v>
+      </c>
+      <c r="S6" s="5">
+        <v>10</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="5">
-        <v>11</v>
-      </c>
-      <c r="S6" s="5">
-        <v>5</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
+      <c r="AC6" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="25">
         <f>SUM(E7/F7)</f>
-        <v>2.4375</v>
+        <v>2.4204545454545454</v>
       </c>
       <c r="E7" s="3">
-        <v>65</v>
+        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
+        <v>355</v>
       </c>
       <c r="F7" s="22">
         <f>SUM(K7*(24/L7))*J7</f>
-        <v>26.666666666666664</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7">
@@ -1978,181 +1983,179 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="L7" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M7" s="3">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O7" s="22">
         <f>SUM(K7*(24/L7))</f>
-        <v>26.666666666666664</v>
+        <v>146.66666666666666</v>
       </c>
       <c r="P7" s="20">
-        <f>SUM(E7/O7)</f>
-        <v>2.4375</v>
+        <f t="shared" si="0"/>
+        <v>2.4204545454545454</v>
       </c>
       <c r="Q7" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R7" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S7" s="5">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y7" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4" t="s">
+        <v>214</v>
+      </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
+      <c r="AC7" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>149</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="25">
         <f>SUM(E8/F8)</f>
-        <v>2.2727272727272729</v>
+        <v>2.0277777777777777</v>
       </c>
       <c r="E8" s="3">
-        <v>50</v>
+        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
+        <v>365</v>
       </c>
       <c r="F8" s="22">
         <f>SUM(K8*(24/L8))*J8</f>
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="L8" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M8" s="3">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
+        <v>190</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="O8" s="22">
         <f>SUM(K8*(24/L8))</f>
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="P8" s="20">
-        <f>SUM(E8/O8)</f>
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>20</v>
-      </c>
-      <c r="S8">
-        <v>46</v>
-      </c>
-      <c r="T8" t="s">
-        <v>63</v>
-      </c>
-      <c r="U8" t="s">
-        <v>172</v>
-      </c>
-      <c r="V8" t="s">
-        <v>150</v>
-      </c>
-      <c r="W8" t="s">
-        <v>151</v>
-      </c>
-      <c r="X8" t="s">
-        <v>153</v>
+        <f t="shared" si="0"/>
+        <v>2.0277777777777777</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>30</v>
+      </c>
+      <c r="S8" s="5">
+        <v>27</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" s="17">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="25">
         <f>SUM(E9/F9)</f>
-        <v>2.4952651515151514</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="E9" s="3">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F9" s="22">
         <f>SUM(K9*(24/L9))*J9</f>
-        <v>62.117647058823536</v>
+        <v>52.8</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M9" s="3">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="N9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O9" s="22">
         <f>SUM(K9*(24/L9))</f>
-        <v>62.117647058823536</v>
+        <v>26.4</v>
       </c>
       <c r="P9" s="20">
-        <f>SUM(E9/O9)</f>
-        <v>2.4952651515151514</v>
+        <f t="shared" si="0"/>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Q9" s="5">
         <v>5</v>
@@ -2161,157 +2164,160 @@
         <v>30</v>
       </c>
       <c r="S9" s="5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" t="s">
-        <v>195</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
+      <c r="AC9" s="4" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" s="25">
         <f>SUM(E10/F10)</f>
-        <v>1.9444444444444444</v>
+        <v>1.4545454545454546</v>
       </c>
       <c r="E10" s="3">
-        <v>175</v>
+        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
+        <v>360</v>
       </c>
       <c r="F10" s="22">
         <f>SUM(K10*(24/L10))*J10</f>
-        <v>90</v>
+        <v>247.5</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="L10" s="2">
         <v>16</v>
       </c>
       <c r="M10" s="3">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O10" s="22">
         <f>SUM(K10*(24/L10))</f>
-        <v>90</v>
+        <v>247.5</v>
       </c>
       <c r="P10" s="20">
-        <f>SUM(E10/O10)</f>
-        <v>1.9444444444444444</v>
+        <f t="shared" si="0"/>
+        <v>1.4545454545454546</v>
       </c>
       <c r="Q10" s="5">
         <v>5</v>
       </c>
       <c r="R10" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S10" s="5">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="Y10" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
+      <c r="AC10" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17">
+        <v>3</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="B11" s="17">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>3</v>
       </c>
       <c r="D11" s="25">
         <f>SUM(E11/F11)</f>
-        <v>2.2727272727272729</v>
+        <v>1.3099415204678364</v>
       </c>
       <c r="E11" s="3">
-        <v>120</v>
+        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
+        <v>320</v>
       </c>
       <c r="F11" s="22">
-        <f>SUM(K11*(24/L11))*J11</f>
-        <v>52.8</v>
-      </c>
-      <c r="G11" s="4"/>
+        <f>SUM(K11*(24/L11))*G11</f>
+        <v>244.28571428571428</v>
+      </c>
+      <c r="G11" s="5">
+        <v>5</v>
+      </c>
       <c r="H11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="L11" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M11" s="3">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O11" s="22">
         <f>SUM(K11*(24/L11))</f>
-        <v>26.4</v>
+        <v>48.857142857142854</v>
       </c>
       <c r="P11" s="20">
         <f>SUM(E11/O11)</f>
-        <v>4.5454545454545459</v>
+        <v>6.5497076023391818</v>
       </c>
       <c r="Q11" s="5">
         <v>5</v>
@@ -2320,49 +2326,45 @@
         <v>30</v>
       </c>
       <c r="S11" s="5">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="Y11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
+      <c r="AC11" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D12" s="25">
         <f>SUM(E12/F12)</f>
-        <v>1.5277777777777777</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="E12" s="3">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="F12" s="22">
         <f>SUM(K12*(24/L12))*J12</f>
-        <v>72</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12">
@@ -2375,24 +2377,24 @@
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="L12" s="2">
         <v>20</v>
       </c>
       <c r="M12" s="3">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O12" s="22">
         <f>SUM(K12*(24/L12))</f>
-        <v>72</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="P12" s="20">
-        <f>SUM(E12/O12)</f>
-        <v>1.5277777777777777</v>
+        <f t="shared" si="0"/>
+        <v>1.4705882352941178</v>
       </c>
       <c r="Q12" s="5">
         <v>8</v>
@@ -2401,48 +2403,48 @@
         <v>50</v>
       </c>
       <c r="S12" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>49</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
+      <c r="AC12" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17">
         <v>2</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="25">
         <f>SUM(E13/F13)</f>
-        <v>1.8308080808080807</v>
+        <v>1.7333333333333334</v>
       </c>
       <c r="E13" s="3">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F13" s="22">
         <f>SUM(K13*(24/L13))*J13</f>
-        <v>79.2</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13">
@@ -2455,24 +2457,24 @@
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="L13" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M13" s="3">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O13" s="22">
         <f>SUM(K13*(24/L13))</f>
-        <v>79.2</v>
+        <v>75</v>
       </c>
       <c r="P13" s="20">
-        <f>SUM(E13/O13)</f>
-        <v>1.8308080808080807</v>
+        <f t="shared" si="0"/>
+        <v>1.7333333333333334</v>
       </c>
       <c r="Q13" s="5">
         <v>8</v>
@@ -2481,47 +2483,48 @@
         <v>50</v>
       </c>
       <c r="S13" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>49</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="W13" s="4"/>
+        <v>99</v>
+      </c>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4" t="s">
-        <v>132</v>
-      </c>
+      <c r="Y13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
+      <c r="AC13" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" s="25">
         <f>SUM(E14/F14)</f>
-        <v>2.035714285714286</v>
+        <v>1.171875</v>
       </c>
       <c r="E14" s="3">
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="F14" s="22">
         <f>SUM(K14*(24/L14))*J14</f>
-        <v>93.333333333333329</v>
+        <v>256</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14">
@@ -2534,24 +2537,24 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="L14" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M14" s="3">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O14" s="22">
         <f>SUM(K14*(24/L14))</f>
-        <v>93.333333333333329</v>
+        <v>256</v>
       </c>
       <c r="P14" s="20">
-        <f>SUM(E14/O14)</f>
-        <v>2.035714285714286</v>
+        <f t="shared" si="0"/>
+        <v>1.171875</v>
       </c>
       <c r="Q14" s="5">
         <v>8</v>
@@ -2560,51 +2563,45 @@
         <v>50</v>
       </c>
       <c r="S14" s="5">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
+      <c r="AC14" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="D15" s="25">
         <f>SUM(E15/F15)</f>
-        <v>1.1666666666666667</v>
+        <v>1.3048245614035088</v>
       </c>
       <c r="E15" s="3">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="F15" s="22">
-        <f>SUM(K15*(24/L15))*G15</f>
-        <v>180</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5</v>
-      </c>
+        <f>SUM(K15*(24/L15))*J15</f>
+        <v>268.23529411764707</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15">
         <v>0</v>
       </c>
@@ -2615,942 +2612,902 @@
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="L15" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M15" s="3">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O15" s="22">
         <f>SUM(K15*(24/L15))</f>
-        <v>36</v>
+        <v>268.23529411764707</v>
       </c>
       <c r="P15" s="20">
-        <f>SUM(E15/O15)</f>
-        <v>5.833333333333333</v>
+        <f t="shared" si="0"/>
+        <v>1.3048245614035088</v>
       </c>
       <c r="Q15" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R15" s="5">
         <v>50</v>
       </c>
       <c r="S15" s="5">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="V15" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
+      <c r="AC15" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>67</v>
+      <c r="C16" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="25">
         <f>SUM(E16/F16)</f>
-        <v>1.6145833333333333</v>
+        <v>1.5535714285714286</v>
       </c>
       <c r="E16" s="3">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F16" s="22">
         <f>SUM(K16*(24/L16))*J16</f>
-        <v>96</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="L16" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M16" s="3">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O16" s="22">
         <f>SUM(K16*(24/L16))</f>
-        <v>48</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="P16" s="20">
-        <f>SUM(E16/O16)</f>
-        <v>3.2291666666666665</v>
+        <f t="shared" si="0"/>
+        <v>1.5535714285714286</v>
       </c>
       <c r="Q16" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R16" s="5">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="S16" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="Y16" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
+      <c r="AC16" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B17" s="17">
-        <v>2</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D17" s="25">
         <f>SUM(E17/F17)</f>
-        <v>1.5757575757575757</v>
+        <v>1.4888888888888889</v>
       </c>
       <c r="E17" s="3">
-        <v>195</v>
+        <f>SUM(145+Table1[[#This Row],[Cost]])</f>
+        <v>335</v>
       </c>
       <c r="F17" s="22">
-        <f>SUM(K17*(24/L17))*G17</f>
-        <v>123.75</v>
-      </c>
-      <c r="G17" s="5">
-        <v>3</v>
-      </c>
+        <f>SUM(K17*(24/L17))*J17</f>
+        <v>225</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M17" s="3">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O17" s="22">
         <f>SUM(K17*(24/L17))</f>
-        <v>41.25</v>
+        <v>225</v>
       </c>
       <c r="P17" s="20">
-        <f>SUM(E17/O17)</f>
-        <v>4.7272727272727275</v>
+        <f t="shared" si="0"/>
+        <v>1.4888888888888889</v>
       </c>
       <c r="Q17" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R17" s="5">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="S17" s="5">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="Y17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
+      <c r="AC17" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18" s="17">
-        <v>2</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="25">
         <f>SUM(E18/F18)</f>
-        <v>2.9605263157894735</v>
+        <v>1.3368055555555556</v>
       </c>
       <c r="E18" s="3">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="F18" s="22">
-        <f>SUM(K18*(24/L18))*G18</f>
-        <v>60.800000000000004</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
+        <f>SUM(K18*(24/L18))*J18</f>
+        <v>288</v>
+      </c>
+      <c r="G18" s="4"/>
       <c r="H18">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="L18" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M18" s="3">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O18" s="22">
         <f>SUM(K18*(24/L18))</f>
-        <v>30.400000000000002</v>
+        <v>288</v>
       </c>
       <c r="P18" s="20">
-        <f>SUM(E18/O18)</f>
-        <v>5.9210526315789469</v>
+        <f t="shared" si="0"/>
+        <v>1.3368055555555556</v>
       </c>
       <c r="Q18" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R18" s="5">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="S18" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
+      <c r="AC18" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19" s="17">
         <v>2</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>73</v>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="25">
         <f>SUM(E19/F19)</f>
-        <v>2.0754716981132075</v>
+        <v>1.6875000000000002</v>
       </c>
       <c r="E19" s="3">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F19" s="22">
         <f>SUM(K19*(24/L19))*J19</f>
-        <v>57.818181818181813</v>
+        <v>106.66666666666666</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="L19" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M19" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O19" s="22">
         <f>SUM(K19*(24/L19))</f>
-        <v>57.818181818181813</v>
+        <v>106.66666666666666</v>
       </c>
       <c r="P19" s="20">
-        <f>SUM(E19/O19)</f>
-        <v>2.0754716981132075</v>
+        <f t="shared" si="0"/>
+        <v>1.6875000000000002</v>
       </c>
       <c r="Q19" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R19" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S19" s="5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>112</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="Y19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
+      <c r="AC19" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B20" s="17">
-        <v>2</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="25">
         <f>SUM(E20/F20)</f>
-        <v>2.2222222222222223</v>
+        <v>181</v>
       </c>
       <c r="E20" s="3">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="F20" s="22">
-        <f>SUM(K20*(24/L20))*G20</f>
-        <v>72</v>
-      </c>
-      <c r="G20" s="5">
-        <v>4</v>
-      </c>
+        <f>SUM(K20*(24/L20))*J20</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M20" s="3">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="O20" s="22">
         <f>SUM(K20*(24/L20))</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P20" s="20">
-        <f>SUM(E20/O20)</f>
-        <v>8.8888888888888893</v>
+        <f t="shared" si="0"/>
+        <v>181</v>
       </c>
       <c r="Q20" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R20" s="5">
         <v>50</v>
       </c>
       <c r="S20" s="5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W20" s="4" t="s">
-        <v>85</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>138</v>
-      </c>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17">
-        <v>2</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="25">
         <f>SUM(E21/F21)</f>
-        <v>1.9012345679012346</v>
+        <v>1.7037037037037037</v>
       </c>
       <c r="E21" s="3">
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="F21" s="22">
-        <f>SUM(K21*(24/L21))*G21</f>
-        <v>115.71428571428571</v>
-      </c>
-      <c r="G21" s="5">
-        <v>3</v>
-      </c>
+        <f>SUM(K21*(24/L21))*J21</f>
+        <v>270</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>50</v>
       </c>
-      <c r="I21">
-        <v>106</v>
-      </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" s="1">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="L21" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M21" s="3">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O21" s="22">
         <f>SUM(K21*(24/L21))</f>
-        <v>38.571428571428569</v>
+        <v>270</v>
       </c>
       <c r="P21" s="20">
-        <f>SUM(E21/O21)</f>
-        <v>5.7037037037037042</v>
+        <f t="shared" si="0"/>
+        <v>1.7037037037037037</v>
       </c>
       <c r="Q21" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R21" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S21" s="5">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="Y21" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
+      <c r="AC21" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="22" spans="1:29" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B22" s="17">
-        <v>2</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="D22" s="25">
         <f>SUM(E22/F22)</f>
-        <v>1.5625</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="E22" s="3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="F22" s="22">
         <f>SUM(K22*(24/L22))*J22</f>
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L22" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O22" s="22">
         <f>SUM(K22*(24/L22))</f>
+        <v>30</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="0"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>2</v>
+      </c>
+      <c r="R22" s="5">
+        <v>12</v>
+      </c>
+      <c r="S22" s="5">
+        <v>3</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P22" s="20">
-        <f>SUM(E22/O22)</f>
-        <v>1.5625</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>1</v>
-      </c>
-      <c r="R22" s="5">
-        <v>40</v>
-      </c>
-      <c r="S22" s="5">
-        <v>28</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U22" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="V22" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="W22" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
+      <c r="AC22" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>29</v>
+      <c r="C23" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="D23" s="25">
         <f>SUM(E23/F23)</f>
-        <v>1.7222222222222223</v>
+        <v>1.5705128205128205</v>
       </c>
       <c r="E23" s="3">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="F23" s="22">
-        <f>SUM(K23*(24/L23))*J23</f>
-        <v>90</v>
-      </c>
-      <c r="G23" s="4"/>
+        <f>SUM(K23*(24/L23))*G23</f>
+        <v>133.71428571428572</v>
+      </c>
+      <c r="G23" s="5">
+        <v>3</v>
+      </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L23" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M23" s="3">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O23" s="22">
         <f>SUM(K23*(24/L23))</f>
-        <v>30</v>
+        <v>44.571428571428569</v>
       </c>
       <c r="P23" s="20">
-        <f>SUM(E23/O23)</f>
-        <v>5.166666666666667</v>
+        <f t="shared" si="0"/>
+        <v>4.7115384615384617</v>
       </c>
       <c r="Q23" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R23" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S23" s="5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="V23" s="4"/>
       <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="X23" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
+      <c r="AC23" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B24" s="17">
-        <v>2</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D24" s="25">
         <f>SUM(E24/F24)</f>
-        <v>1.7788461538461537</v>
+        <v>1.2152777777777779</v>
       </c>
       <c r="E24" s="3">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="F24" s="22">
-        <f>SUM(K24*(24/L24))*J24</f>
-        <v>104</v>
-      </c>
-      <c r="G24" s="4"/>
+        <f>SUM(K24*(24/L24))*G24</f>
+        <v>345.59999999999997</v>
+      </c>
+      <c r="G24" s="5">
+        <v>3</v>
+      </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="L24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" s="3">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O24" s="22">
         <f>SUM(K24*(24/L24))</f>
-        <v>104</v>
+        <v>115.19999999999999</v>
       </c>
       <c r="P24" s="20">
-        <f>SUM(E24/O24)</f>
-        <v>1.7788461538461537</v>
+        <f t="shared" si="0"/>
+        <v>3.6458333333333335</v>
       </c>
       <c r="Q24" s="5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R24" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S24" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="X24" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
+      <c r="AC24" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B25" s="17">
-        <v>2</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="25" t="e">
         <f>SUM(E25/F25)</f>
-        <v>1.6666666666666667</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E25" s="3">
-        <v>200</v>
-      </c>
-      <c r="F25" s="22">
-        <f>SUM(K25*(24/L25))*G25</f>
-        <v>120</v>
-      </c>
-      <c r="G25" s="5">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>106</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>10</v>
-      </c>
-      <c r="L25" s="2">
-        <v>8</v>
-      </c>
-      <c r="M25" s="3">
-        <v>135</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F25" s="22" t="e">
+        <f>SUM(K25*(24/L25))*J25</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="22">
+      <c r="O25" s="22" t="e">
         <f>SUM(K25*(24/L25))</f>
-        <v>30</v>
-      </c>
-      <c r="P25" s="20">
-        <f>SUM(E25/O25)</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>9</v>
-      </c>
-      <c r="R25" s="5">
-        <v>20</v>
-      </c>
-      <c r="S25" s="5">
-        <v>44</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
+      <c r="X25" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="4" t="s">
-        <v>147</v>
-      </c>
+      <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="B26" s="17">
         <v>2</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>150</v>
+      <c r="C26" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="D26" s="25">
         <f>SUM(E26/F26)</f>
-        <v>1.6666666666666667</v>
+        <v>1.3839285714285714</v>
       </c>
       <c r="E26" s="3">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F26" s="22">
         <f>SUM(K26*(24/L26))*J26</f>
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" s="1">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="L26" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" t="s">
-        <v>27</v>
+      <c r="N26" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="O26" s="22">
         <f>SUM(K26*(24/L26))</f>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="P26" s="20">
-        <f>SUM(E26/O26)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>20</v>
-      </c>
-      <c r="S26">
-        <v>47</v>
-      </c>
-      <c r="T26" t="s">
-        <v>63</v>
-      </c>
-      <c r="U26" t="s">
-        <v>176</v>
-      </c>
-      <c r="V26" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z26" s="4" t="s">
-        <v>177</v>
+        <f t="shared" si="0"/>
+        <v>2.7678571428571428</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>2</v>
+      </c>
+      <c r="R26" s="5">
+        <v>12</v>
+      </c>
+      <c r="S26" s="5">
+        <v>12</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B27" s="17">
-        <v>2</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>151</v>
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D27" s="25">
         <f>SUM(E27/F27)</f>
-        <v>1.5714285714285714</v>
+        <v>1.1755952380952381</v>
       </c>
       <c r="E27" s="3">
-        <v>165</v>
+        <v>395</v>
       </c>
       <c r="F27" s="22">
         <f>SUM(K27*(24/L27))*J27</f>
-        <v>105</v>
+        <v>336</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27">
@@ -3560,1238 +3517,1261 @@
         <v>72</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="1">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="L27" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M27" s="3">
-        <v>115</v>
-      </c>
-      <c r="N27" t="s">
-        <v>27</v>
+        <v>240</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="O27" s="22">
         <f>SUM(K27*(24/L27))</f>
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P27" s="20">
-        <f>SUM(E27/O27)</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>20</v>
-      </c>
-      <c r="S27">
-        <v>48</v>
-      </c>
-      <c r="T27" t="s">
-        <v>63</v>
-      </c>
-      <c r="U27" t="s">
-        <v>152</v>
-      </c>
-      <c r="V27" t="s">
-        <v>158</v>
+        <f t="shared" si="0"/>
+        <v>3.5267857142857144</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>2</v>
+      </c>
+      <c r="R27" s="5">
+        <v>12</v>
+      </c>
+      <c r="S27" s="5">
+        <v>34</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B28" s="17">
-        <v>2</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="25">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="25" t="e">
         <f>SUM(E28/F28)</f>
-        <v>1.4074074074074074</v>
-      </c>
-      <c r="E28" s="3">
-        <v>190</v>
-      </c>
-      <c r="F28" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="22" t="e">
         <f>SUM(K28*(24/L28))*J28</f>
-        <v>135</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>72</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>90</v>
-      </c>
-      <c r="L28" s="2">
-        <v>16</v>
-      </c>
-      <c r="M28" s="3">
-        <v>140</v>
-      </c>
-      <c r="N28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="22">
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28" s="22" t="e">
         <f>SUM(K28*(24/L28))</f>
-        <v>135</v>
-      </c>
-      <c r="P28" s="20">
-        <f>SUM(E28/O28)</f>
-        <v>1.4074074074074074</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>20</v>
-      </c>
-      <c r="S28">
-        <v>49</v>
-      </c>
-      <c r="T28" t="s">
-        <v>63</v>
-      </c>
-      <c r="U28" t="s">
-        <v>154</v>
-      </c>
-      <c r="V28" t="s">
-        <v>157</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B29" s="17">
-        <v>3</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="D29" s="25">
         <f>SUM(E29/F29)</f>
-        <v>1.6075650118203311</v>
+        <v>1.5757575757575757</v>
       </c>
       <c r="E29" s="3">
-        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
-        <v>340</v>
+        <v>195</v>
       </c>
       <c r="F29" s="22">
-        <f>SUM(K29*(24/L29))*J29</f>
-        <v>211.5</v>
-      </c>
-      <c r="G29" s="4"/>
+        <f>SUM(K29*(24/L29))*G29</f>
+        <v>123.75</v>
+      </c>
+      <c r="G29" s="5">
+        <v>3</v>
+      </c>
       <c r="H29">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I29">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="L29" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M29" s="3">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O29" s="22">
         <f>SUM(K29*(24/L29))</f>
-        <v>70.5</v>
+        <v>41.25</v>
       </c>
       <c r="P29" s="20">
-        <f>SUM(E29/O29)</f>
-        <v>4.8226950354609928</v>
+        <f t="shared" si="0"/>
+        <v>4.7272727272727275</v>
       </c>
       <c r="Q29" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R29" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S29" s="5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4" t="s">
-        <v>195</v>
-      </c>
+      <c r="Y29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
+      <c r="AC29" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B30" s="17">
         <v>3</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>1</v>
+      <c r="C30" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="D30" s="25">
         <f>SUM(E30/F30)</f>
-        <v>1.4404761904761907</v>
+        <v>1.484375</v>
       </c>
       <c r="E30" s="3">
-        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
-        <v>330</v>
+        <v>475</v>
       </c>
       <c r="F30" s="22">
-        <f>SUM(K30*(24/L30))*J30</f>
-        <v>229.09090909090907</v>
-      </c>
-      <c r="G30" s="4"/>
+        <f>SUM(K30*(24/L30))*G30</f>
+        <v>320</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3</v>
+      </c>
       <c r="H30">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I30">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="L30" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="M30" s="3">
-        <v>175</v>
+        <v>280</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="O30" s="22">
         <f>SUM(K30*(24/L30))</f>
-        <v>76.36363636363636</v>
+        <v>106.66666666666666</v>
       </c>
       <c r="P30" s="20">
-        <f>SUM(E30/O30)</f>
-        <v>4.3214285714285721</v>
+        <f t="shared" si="0"/>
+        <v>4.453125</v>
       </c>
       <c r="Q30" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R30" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="S30" s="5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U30" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="Y30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="AC30" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B31" s="17">
         <v>3</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="25">
+      <c r="C31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="25" t="e">
         <f>SUM(E31/F31)</f>
-        <v>2.4204545454545454</v>
-      </c>
-      <c r="E31" s="3">
-        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
-        <v>355</v>
-      </c>
-      <c r="F31" s="22">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="22" t="e">
         <f>SUM(K31*(24/L31))*J31</f>
-        <v>146.66666666666666</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>120</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1">
-        <v>110</v>
-      </c>
-      <c r="L31" s="2">
-        <v>18</v>
-      </c>
-      <c r="M31" s="3">
-        <v>180</v>
-      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O31" s="22">
+        <v>14</v>
+      </c>
+      <c r="O31" s="22" t="e">
         <f>SUM(K31*(24/L31))</f>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="P31" s="20">
-        <f>SUM(E31/O31)</f>
-        <v>2.4204545454545454</v>
-      </c>
-      <c r="Q31" s="5">
-        <v>5</v>
-      </c>
-      <c r="R31" s="5">
-        <v>30</v>
-      </c>
-      <c r="S31" s="5">
-        <v>29</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17">
-        <v>3</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="D32" s="25">
         <f>SUM(E32/F32)</f>
-        <v>2.0277777777777777</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="E32" s="3">
-        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="F32" s="22">
-        <f>SUM(K32*(24/L32))*J32</f>
-        <v>180</v>
-      </c>
-      <c r="G32" s="4"/>
+        <f>SUM(K32*(24/L32))*G32</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
       <c r="H32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="L32" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M32" s="3">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O32" s="22">
         <f>SUM(K32*(24/L32))</f>
-        <v>180</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="P32" s="20">
-        <f>SUM(E32/O32)</f>
-        <v>2.0277777777777777</v>
+        <f t="shared" si="0"/>
+        <v>4.1666666666666661</v>
       </c>
       <c r="Q32" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" s="5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="S32" s="5">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4" t="s">
+      <c r="Y32" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
+      <c r="AC32" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17">
-        <v>3</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="D33" s="25">
         <f>SUM(E33/F33)</f>
-        <v>1.4545454545454546</v>
+        <v>2.9605263157894735</v>
       </c>
       <c r="E33" s="3">
-        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="F33" s="22">
-        <f>SUM(K33*(24/L33))*J33</f>
-        <v>247.5</v>
-      </c>
-      <c r="G33" s="4"/>
+        <f>SUM(K33*(24/L33))*G33</f>
+        <v>60.800000000000004</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2</v>
+      </c>
       <c r="H33">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I33">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="L33" s="2">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M33" s="3">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O33" s="22">
         <f>SUM(K33*(24/L33))</f>
-        <v>247.5</v>
+        <v>30.400000000000002</v>
       </c>
       <c r="P33" s="20">
-        <f>SUM(E33/O33)</f>
-        <v>1.4545454545454546</v>
+        <f t="shared" si="0"/>
+        <v>5.9210526315789469</v>
       </c>
       <c r="Q33" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" s="5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S33" s="5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="Y33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
+      <c r="AC33" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17">
         <v>3</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>8</v>
+      <c r="C34" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D34" s="25">
         <f>SUM(E34/F34)</f>
-        <v>1.3099415204678364</v>
+        <v>1.8055555555555556</v>
       </c>
       <c r="E34" s="3">
-        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
-        <v>320</v>
+        <f>SUM(180+Table1[[#This Row],[Cost]])</f>
+        <v>400</v>
       </c>
       <c r="F34" s="22">
         <f>SUM(K34*(24/L34))*G34</f>
-        <v>244.28571428571428</v>
+        <v>221.53846153846155</v>
       </c>
       <c r="G34" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="L34" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M34" s="3">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O34" s="22">
         <f>SUM(K34*(24/L34))</f>
-        <v>48.857142857142854</v>
+        <v>73.846153846153854</v>
       </c>
       <c r="P34" s="20">
-        <f>SUM(E34/O34)</f>
-        <v>6.5497076023391818</v>
+        <f t="shared" si="0"/>
+        <v>5.4166666666666661</v>
       </c>
       <c r="Q34" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" s="5">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="S34" s="5">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4" t="s">
-        <v>200</v>
-      </c>
+      <c r="Y34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
+      <c r="AC34" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B35" s="17">
-        <v>3</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="D35" s="25">
         <f>SUM(E35/F35)</f>
-        <v>1.1666666666666667</v>
+        <v>2.0754716981132075</v>
       </c>
       <c r="E35" s="3">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="F35" s="22">
         <f>SUM(K35*(24/L35))*J35</f>
-        <v>240</v>
+        <v>57.818181818181813</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J35">
         <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="L35" s="2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M35" s="3">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="O35" s="22">
         <f>SUM(K35*(24/L35))</f>
-        <v>240</v>
+        <v>57.818181818181813</v>
       </c>
       <c r="P35" s="20">
-        <f>SUM(E35/O35)</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="0"/>
+        <v>2.0754716981132075</v>
       </c>
       <c r="Q35" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R35" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S35" s="5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
+      <c r="Y35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
+      <c r="AC35" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B36" s="17">
         <v>3</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>74</v>
+      <c r="C36" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="D36" s="25">
         <f>SUM(E36/F36)</f>
-        <v>1.2986111111111112</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="E36" s="3">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="F36" s="22">
         <f>SUM(K36*(24/L36))*J36</f>
-        <v>254.11764705882354</v>
+        <v>172.79999999999998</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="L36" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M36" s="3">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O36" s="22">
         <f>SUM(K36*(24/L36))</f>
-        <v>254.11764705882354</v>
+        <v>86.399999999999991</v>
       </c>
       <c r="P36" s="20">
-        <f>SUM(E36/O36)</f>
-        <v>1.2986111111111112</v>
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
       </c>
       <c r="Q36" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R36" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S36" s="5">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
+      <c r="Y36" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="Z36" s="4" t="s">
-        <v>204</v>
+        <v>136</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
+      <c r="AC36" s="4" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B37" s="17">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="D37" s="25">
         <f>SUM(E37/F37)</f>
-        <v>1.4888888888888889</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="E37" s="3">
-        <f>SUM(145+Table1[[#This Row],[Cost]])</f>
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="F37" s="22">
-        <f>SUM(K37*(24/L37))*J37</f>
-        <v>225</v>
-      </c>
-      <c r="G37" s="4"/>
+        <f>SUM(K37*(24/L37))*G37</f>
+        <v>72</v>
+      </c>
+      <c r="G37" s="5">
+        <v>4</v>
+      </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="L37" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M37" s="3">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O37" s="22">
         <f>SUM(K37*(24/L37))</f>
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="P37" s="20">
-        <f>SUM(E37/O37)</f>
-        <v>1.4888888888888889</v>
+        <f t="shared" si="0"/>
+        <v>8.8888888888888893</v>
       </c>
       <c r="Q37" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R37" s="5">
         <v>50</v>
       </c>
       <c r="S37" s="5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="V37" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4" t="s">
+      <c r="X37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y37" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
+      <c r="AC37" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>41</v>
+      <c r="C38" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D38" s="25">
         <f>SUM(E38/F38)</f>
-        <v>2.1388888888888888</v>
+        <v>1.625</v>
       </c>
       <c r="E38" s="3">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F38" s="22">
-        <f>SUM(K38*(24/L38))*J38</f>
-        <v>180</v>
-      </c>
-      <c r="G38" s="4"/>
+        <f>SUM(K38*(24/L38))*G38</f>
+        <v>240</v>
+      </c>
+      <c r="G38" s="5">
+        <v>4</v>
+      </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="L38" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M38" s="3">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O38" s="22">
         <f>SUM(K38*(24/L38))</f>
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="P38" s="20">
-        <f>SUM(E38/O38)</f>
-        <v>2.1388888888888888</v>
+        <f t="shared" si="0"/>
+        <v>6.5</v>
       </c>
       <c r="Q38" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R38" s="5">
         <v>50</v>
       </c>
       <c r="S38" s="5">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
+      <c r="X38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
+      <c r="AC38" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>43</v>
+      <c r="C39" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="D39" s="25">
         <f>SUM(E39/F39)</f>
-        <v>191</v>
+        <v>1.05</v>
       </c>
       <c r="E39" s="3">
-        <v>191</v>
+        <v>420</v>
       </c>
       <c r="F39" s="22">
-        <f>SUM(K39*(24/L39))*J39</f>
-        <v>1</v>
-      </c>
-      <c r="G39" s="4"/>
+        <f>SUM(K39*(24/L39))*G39</f>
+        <v>400</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2</v>
+      </c>
       <c r="H39">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I39">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L39" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M39" s="3">
-        <v>1</v>
+        <v>260</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="O39" s="22">
         <f>SUM(K39*(24/L39))</f>
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="P39" s="20">
-        <f>SUM(E39/O39)</f>
-        <v>191</v>
+        <f t="shared" si="0"/>
+        <v>2.1</v>
       </c>
       <c r="Q39" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R39" s="5">
         <v>50</v>
       </c>
       <c r="S39" s="5">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
+      <c r="Y39" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
+      <c r="AC39" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B40" s="17">
-        <v>3</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="D40" s="25">
         <f>SUM(E40/F40)</f>
-        <v>2.0258620689655173</v>
+        <v>1.5</v>
       </c>
       <c r="E40" s="3">
-        <f>SUM(190+Table1[[#This Row],[Cost]])</f>
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="F40" s="22">
-        <f>SUM(K40*(24/L40))*J40</f>
-        <v>232</v>
-      </c>
-      <c r="G40" s="4"/>
+        <f>SUM(K40*(24/L40))*G40</f>
+        <v>40</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
       <c r="H40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I40">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="L40" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M40" s="3">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>27</v>
       </c>
       <c r="O40" s="22">
         <f>SUM(K40*(24/L40))</f>
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="P40" s="20">
-        <f>SUM(E40/O40)</f>
-        <v>2.0258620689655173</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="Q40" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R40" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="S40" s="5">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="V40" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
+      <c r="AC40" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B41" s="17">
-        <v>3</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>77</v>
+        <v>2</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D41" s="25">
         <f>SUM(E41/F41)</f>
-        <v>1.1666666666666667</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="E41" s="3">
-        <v>420</v>
+        <v>220</v>
       </c>
       <c r="F41" s="22">
         <f>SUM(K41*(24/L41))*G41</f>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="G41" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I41">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="L41" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M41" s="3">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O41" s="22">
         <f>SUM(K41*(24/L41))</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P41" s="20">
-        <f>SUM(E41/O41)</f>
-        <v>5.833333333333333</v>
+        <f t="shared" si="0"/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="Q41" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R41" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="S41" s="5">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>63</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
+      <c r="AC41" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B42" s="17">
         <v>3</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="25" t="e">
+      <c r="C42" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="25">
         <f>SUM(E42/F42)</f>
-        <v>#DIV/0!</v>
+        <v>1.0444444444444445</v>
       </c>
       <c r="E42" s="3">
-        <v>210</v>
-      </c>
-      <c r="F42" s="22" t="e">
-        <f>SUM(K42*(24/L42))*J42</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="3"/>
+        <v>470</v>
+      </c>
+      <c r="F42" s="22">
+        <f>SUM(K42*(24/L42))*G42</f>
+        <v>450</v>
+      </c>
+      <c r="G42" s="5">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>55</v>
+      </c>
+      <c r="I42">
+        <v>122</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>150</v>
+      </c>
+      <c r="L42" s="2">
+        <v>24</v>
+      </c>
+      <c r="M42" s="3">
+        <v>250</v>
+      </c>
       <c r="N42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" s="22" t="e">
+        <v>27</v>
+      </c>
+      <c r="O42" s="22">
         <f>SUM(K42*(24/L42))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P42" s="20" t="e">
-        <f>SUM(E42/O42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="P42" s="20">
+        <f t="shared" si="0"/>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>6</v>
+      </c>
+      <c r="R42" s="5">
+        <v>30</v>
+      </c>
+      <c r="S42" s="5">
+        <v>38</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
-      <c r="Y42" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
+      <c r="AC42" s="4" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B43" s="17">
-        <v>3</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>78</v>
+        <v>2</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="D43" s="25">
         <f>SUM(E43/F43)</f>
-        <v>1.5674603174603174</v>
+        <v>1.5625</v>
       </c>
       <c r="E43" s="3">
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="F43" s="22">
         <f>SUM(K43*(24/L43))*J43</f>
-        <v>252</v>
+        <v>96</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>12</v>
+      </c>
+      <c r="L43" s="2">
         <v>3</v>
       </c>
-      <c r="K43" s="1">
-        <v>21</v>
-      </c>
-      <c r="L43" s="2">
-        <v>6</v>
-      </c>
       <c r="M43" s="3">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O43" s="22">
         <f>SUM(K43*(24/L43))</f>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="P43" s="20">
-        <f>SUM(E43/O43)</f>
-        <v>4.7023809523809526</v>
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
       </c>
       <c r="Q43" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" s="5">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="S43" s="5">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -4800,46 +4780,73 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
+      <c r="AC43" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B44" s="17">
         <v>3</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="25" t="e">
+      <c r="C44" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="25">
         <f>SUM(E44/F44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="22" t="e">
+        <v>1.25</v>
+      </c>
+      <c r="E44" s="3">
+        <v>330</v>
+      </c>
+      <c r="F44" s="22">
         <f>SUM(K44*(24/L44))*J44</f>
-        <v>#DIV/0!</v>
+        <v>264</v>
       </c>
       <c r="G44" s="4"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="3"/>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>106</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1">
+        <v>33</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>180</v>
+      </c>
       <c r="N44" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" s="22" t="e">
+        <v>25</v>
+      </c>
+      <c r="O44" s="22">
         <f>SUM(K44*(24/L44))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="20" t="e">
-        <f>SUM(E44/O44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="P44" s="20">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1</v>
+      </c>
+      <c r="R44" s="5">
+        <v>40</v>
+      </c>
+      <c r="S44" s="5">
+        <v>39</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -4848,126 +4855,157 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
+      <c r="AC44" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B45" s="17">
-        <v>3</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D45" s="25">
         <f>SUM(E45/F45)</f>
-        <v>1.484375</v>
+        <v>2.2159090909090908</v>
       </c>
       <c r="E45" s="3">
-        <v>475</v>
+        <v>65</v>
       </c>
       <c r="F45" s="22">
-        <f>SUM(K45*(24/L45))*G45</f>
-        <v>320</v>
-      </c>
-      <c r="G45" s="5">
-        <v>3</v>
-      </c>
+        <f>SUM(K45*(24/L45))*J45</f>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="G45" s="4"/>
       <c r="H45">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="L45" s="2">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="M45" s="3">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="N45" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O45" s="22">
         <f>SUM(K45*(24/L45))</f>
-        <v>106.66666666666666</v>
+        <v>29.333333333333332</v>
       </c>
       <c r="P45" s="20">
-        <f>SUM(E45/O45)</f>
-        <v>4.453125</v>
+        <f t="shared" si="0"/>
+        <v>2.2159090909090908</v>
       </c>
       <c r="Q45" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R45" s="5">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="S45" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>63</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="4" t="s">
-        <v>135</v>
-      </c>
+      <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
+      <c r="AC45" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B46" s="17">
+        <v>2</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="25">
+        <f>SUM(E46/F46)</f>
+        <v>1.4351851851851851</v>
+      </c>
+      <c r="E46" s="3">
+        <v>155</v>
+      </c>
+      <c r="F46" s="22">
+        <f>SUM(K46*(24/L46))*J46</f>
+        <v>108</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>122</v>
+      </c>
+      <c r="J46">
         <v>3</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="25" t="e">
-        <f>SUM(E46/F46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="22" t="e">
-        <f>SUM(K46*(24/L46))*J46</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="3"/>
+      <c r="K46" s="1">
+        <v>12</v>
+      </c>
+      <c r="L46" s="2">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
+        <v>90</v>
+      </c>
       <c r="N46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="22" t="e">
+      <c r="O46" s="22">
         <f>SUM(K46*(24/L46))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" s="20" t="e">
-        <f>SUM(E46/O46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="P46" s="20">
+        <f t="shared" si="0"/>
+        <v>4.3055555555555554</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>7</v>
+      </c>
+      <c r="R46" s="5">
+        <v>20</v>
+      </c>
+      <c r="S46" s="5">
+        <v>21</v>
+      </c>
+      <c r="T46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U46" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
@@ -4975,707 +5013,688 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
+      <c r="AC46" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B47" s="17">
         <v>3</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>114</v>
+      <c r="C47" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="D47" s="25">
         <f>SUM(E47/F47)</f>
-        <v>1.8055555555555556</v>
+        <v>1.0533333333333332</v>
       </c>
       <c r="E47" s="3">
-        <f>SUM(180+Table1[[#This Row],[Cost]])</f>
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F47" s="22">
-        <f>SUM(K47*(24/L47))*G47</f>
-        <v>221.53846153846155</v>
-      </c>
-      <c r="G47" s="5">
-        <v>3</v>
-      </c>
+        <f>SUM(K47*(24/L47))*J47</f>
+        <v>375</v>
+      </c>
+      <c r="G47" s="4"/>
       <c r="H47">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K47" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="L47" s="2">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M47" s="3">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O47" s="22">
         <f>SUM(K47*(24/L47))</f>
-        <v>73.846153846153854</v>
+        <v>75</v>
       </c>
       <c r="P47" s="20">
-        <f>SUM(E47/O47)</f>
-        <v>5.4166666666666661</v>
+        <f t="shared" si="0"/>
+        <v>5.2666666666666666</v>
       </c>
       <c r="Q47" s="5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R47" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S47" s="5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U47" s="4" t="s">
-        <v>209</v>
-      </c>
+      <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
+      <c r="AC47" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B48" s="17">
-        <v>3</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>112</v>
+        <v>2</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D48" s="25">
         <f>SUM(E48/F48)</f>
-        <v>2.0833333333333335</v>
+        <v>1.7788461538461537</v>
       </c>
       <c r="E48" s="3">
-        <v>360</v>
+        <v>185</v>
       </c>
       <c r="F48" s="22">
         <f>SUM(K48*(24/L48))*J48</f>
-        <v>172.79999999999998</v>
+        <v>104</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="L48" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M48" s="3">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O48" s="22">
         <f>SUM(K48*(24/L48))</f>
-        <v>86.399999999999991</v>
+        <v>104</v>
       </c>
       <c r="P48" s="20">
-        <f>SUM(E48/O48)</f>
-        <v>4.166666666666667</v>
+        <f t="shared" si="0"/>
+        <v>1.7788461538461537</v>
       </c>
       <c r="Q48" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R48" s="5">
+        <v>20</v>
+      </c>
+      <c r="S48" s="5">
         <v>30</v>
-      </c>
-      <c r="S48" s="5">
-        <v>42</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>63</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-      <c r="Z48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA48" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
+      <c r="AC48" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B49" s="17">
         <v>3</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>86</v>
+      <c r="C49" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="D49" s="25">
         <f>SUM(E49/F49)</f>
-        <v>1.625</v>
+        <v>1.4107142857142858</v>
       </c>
       <c r="E49" s="3">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F49" s="22">
-        <f>SUM(K49*(24/L49))*G49</f>
-        <v>240</v>
-      </c>
-      <c r="G49" s="5">
-        <v>4</v>
-      </c>
+        <f>SUM(K49*(24/L49))*J49</f>
+        <v>280</v>
+      </c>
+      <c r="G49" s="4"/>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L49" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M49" s="3">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O49" s="22">
         <f>SUM(K49*(24/L49))</f>
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="P49" s="20">
-        <f>SUM(E49/O49)</f>
-        <v>6.5</v>
+        <f t="shared" si="0"/>
+        <v>1.4107142857142858</v>
       </c>
       <c r="Q49" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R49" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="S49" s="5">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T49" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U49" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z49" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
+      <c r="AC49" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B50" s="17">
-        <v>3</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>85</v>
+        <v>2</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="D50" s="25">
         <f>SUM(E50/F50)</f>
-        <v>1.05</v>
+        <v>1.5873015873015872</v>
       </c>
       <c r="E50" s="3">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="F50" s="22">
         <f>SUM(K50*(24/L50))*G50</f>
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="G50" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="L50" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M50" s="3">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O50" s="22">
         <f>SUM(K50*(24/L50))</f>
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="P50" s="20">
-        <f>SUM(E50/O50)</f>
-        <v>2.1</v>
+        <f t="shared" si="0"/>
+        <v>4.7619047619047619</v>
       </c>
       <c r="Q50" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R50" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="S50" s="5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>63</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="Y50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
+      <c r="AC50" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B51" s="17">
         <v>3</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>89</v>
+      <c r="C51" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="D51" s="25">
         <f>SUM(E51/F51)</f>
-        <v>1.7407407407407407</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E51" s="3">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="F51" s="22">
         <f>SUM(K51*(24/L51))*G51</f>
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G51" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="L51" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M51" s="3">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O51" s="22">
         <f>SUM(K51*(24/L51))</f>
         <v>90</v>
       </c>
       <c r="P51" s="20">
-        <f>SUM(E51/O51)</f>
-        <v>5.2222222222222223</v>
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
       </c>
       <c r="Q51" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R51" s="5">
-        <v>30</v>
-      </c>
-      <c r="S51" s="5">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="S51" s="18">
+        <v>45</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="U51" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
+      <c r="Y51" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
+      <c r="AC51" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B52" s="17">
-        <v>3</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="D52" s="25">
         <f>SUM(E52/F52)</f>
-        <v>1.4732142857142858</v>
+        <v>1.7857142857142858</v>
       </c>
       <c r="E52" s="3">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="F52" s="22">
         <f>SUM(K52*(24/L52))*J52</f>
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L52" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="M52" s="3">
-        <v>180</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="N52" t="s">
+        <v>27</v>
       </c>
       <c r="O52" s="22">
         <f>SUM(K52*(24/L52))</f>
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="P52" s="20">
-        <f>SUM(E52/O52)</f>
-        <v>1.4732142857142858</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>1</v>
-      </c>
-      <c r="R52" s="5">
-        <v>40</v>
-      </c>
-      <c r="S52" s="5">
-        <v>39</v>
-      </c>
-      <c r="T52" s="4" t="s">
+        <f t="shared" si="0"/>
+        <v>1.7857142857142858</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>20</v>
+      </c>
+      <c r="S52">
+        <v>46</v>
+      </c>
+      <c r="T52" t="s">
         <v>63</v>
       </c>
-      <c r="U52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
+      <c r="U52" t="s">
+        <v>141</v>
+      </c>
+      <c r="V52" t="s">
+        <v>142</v>
+      </c>
+      <c r="W52" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B53" s="17">
-        <v>3</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>87</v>
+        <v>2</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="D53" s="25">
         <f>SUM(E53/F53)</f>
-        <v>1.6458333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="E53" s="3">
-        <v>395</v>
+        <v>150</v>
       </c>
       <c r="F53" s="22">
         <f>SUM(K53*(24/L53))*J53</f>
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="L53" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M53" s="3">
-        <v>240</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="N53" t="s">
+        <v>27</v>
       </c>
       <c r="O53" s="22">
         <f>SUM(K53*(24/L53))</f>
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="P53" s="20">
-        <f>SUM(E53/O53)</f>
-        <v>8.2291666666666661</v>
-      </c>
-      <c r="Q53" s="5">
-        <v>7</v>
-      </c>
-      <c r="R53" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>20</v>
       </c>
-      <c r="S53" s="5">
-        <v>40</v>
-      </c>
-      <c r="T53" s="4" t="s">
+      <c r="S53">
+        <v>47</v>
+      </c>
+      <c r="T53" t="s">
         <v>63</v>
       </c>
-      <c r="U53" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
+      <c r="U53" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y53" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B54" s="17">
-        <v>3</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>88</v>
+        <v>2</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="D54" s="25">
         <f>SUM(E54/F54)</f>
-        <v>1.7633928571428572</v>
+        <v>1.1956521739130435</v>
       </c>
       <c r="E54" s="3">
-        <v>395</v>
+        <v>165</v>
       </c>
       <c r="F54" s="22">
         <f>SUM(K54*(24/L54))*J54</f>
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="L54" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M54" s="3">
-        <v>210</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>14</v>
+        <v>115</v>
+      </c>
+      <c r="N54" t="s">
+        <v>27</v>
       </c>
       <c r="O54" s="22">
         <f>SUM(K54*(24/L54))</f>
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="P54" s="20">
-        <f>SUM(E54/O54)</f>
-        <v>1.7633928571428572</v>
-      </c>
-      <c r="Q54" s="5">
-        <v>9</v>
-      </c>
-      <c r="R54" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1956521739130435</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
         <v>20</v>
       </c>
-      <c r="S54" s="5">
-        <v>41</v>
-      </c>
-      <c r="T54" s="4" t="s">
+      <c r="S54">
+        <v>48</v>
+      </c>
+      <c r="T54" t="s">
         <v>63</v>
       </c>
-      <c r="U54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
+      <c r="U54" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y54" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B55" s="17">
-        <v>3</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>123</v>
+        <v>2</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="D55" s="25">
         <f>SUM(E55/F55)</f>
-        <v>1.28</v>
+        <v>1.4074074074074074</v>
       </c>
       <c r="E55" s="3">
-        <v>480</v>
+        <v>190</v>
       </c>
       <c r="F55" s="22">
-        <f>SUM(K55*(24/L55))*G55</f>
-        <v>375</v>
-      </c>
-      <c r="G55" s="5">
-        <v>5</v>
-      </c>
+        <f>SUM(K55*(24/L55))*J55</f>
+        <v>135</v>
+      </c>
+      <c r="G55" s="4"/>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="L55" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M55" s="3">
-        <v>280</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>14</v>
+        <v>140</v>
+      </c>
+      <c r="N55" t="s">
+        <v>27</v>
       </c>
       <c r="O55" s="22">
         <f>SUM(K55*(24/L55))</f>
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="P55" s="20">
-        <f>SUM(E55/O55)</f>
-        <v>6.4</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>9</v>
-      </c>
-      <c r="R55" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4074074074074074</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
         <v>20</v>
       </c>
-      <c r="S55" s="18">
-        <v>45</v>
-      </c>
-      <c r="T55" s="4" t="s">
+      <c r="S55">
+        <v>49</v>
+      </c>
+      <c r="T55" t="s">
         <v>63</v>
       </c>
-      <c r="U55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4" t="s">
+      <c r="U55" t="s">
         <v>148</v>
       </c>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
+      <c r="AC55" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
@@ -5685,7 +5704,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D56" s="25">
         <f>SUM(E56/F56)</f>
@@ -5703,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -5725,7 +5744,7 @@
         <v>34.285714285714285</v>
       </c>
       <c r="P56" s="20">
-        <f>SUM(E56/O56)</f>
+        <f t="shared" si="0"/>
         <v>11.8125</v>
       </c>
       <c r="Q56">
@@ -5740,11 +5759,11 @@
       <c r="T56" t="s">
         <v>63</v>
       </c>
-      <c r="U56" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z56" s="4" t="s">
-        <v>173</v>
+      <c r="Y56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -5755,27 +5774,27 @@
         <v>3</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D57" s="25">
         <f>SUM(E57/F57)</f>
-        <v>2.4722222222222223</v>
+        <v>1.6481481481481481</v>
       </c>
       <c r="E57" s="3">
         <v>445</v>
       </c>
       <c r="F57" s="22">
         <f>SUM(K57*(24/L57))*G57</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -5784,21 +5803,21 @@
         <v>45</v>
       </c>
       <c r="L57" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M57" s="3">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="N57" t="s">
         <v>27</v>
       </c>
       <c r="O57" s="22">
         <f>SUM(K57*(24/L57))</f>
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="P57" s="20">
-        <f>SUM(E57/O57)</f>
-        <v>9.8888888888888893</v>
+        <f t="shared" si="0"/>
+        <v>6.5925925925925926</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5812,14 +5831,14 @@
       <c r="T57" t="s">
         <v>63</v>
       </c>
-      <c r="U57" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z57" s="4" t="s">
-        <v>132</v>
+      <c r="X57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -5830,7 +5849,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D58" s="25">
         <f>SUM(E58/F58)</f>
@@ -5844,13 +5863,13 @@
         <v>218.18181818181816</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -5872,7 +5891,7 @@
         <v>54.54545454545454</v>
       </c>
       <c r="P58" s="20">
-        <f>SUM(E58/O58)</f>
+        <f t="shared" si="0"/>
         <v>8.8916666666666675</v>
       </c>
       <c r="Q58">
@@ -5887,18 +5906,91 @@
       <c r="T58" t="s">
         <v>63</v>
       </c>
-      <c r="U58" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z58" s="4" t="s">
-        <v>175</v>
+      <c r="X58" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="25">
+        <f>SUM(E59/F59)</f>
+        <v>1.875</v>
+      </c>
+      <c r="E59" s="27">
+        <v>40</v>
+      </c>
+      <c r="F59" s="22">
+        <f>SUM(K59*(24/L59))*J59</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>66</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1">
+        <v>16</v>
+      </c>
+      <c r="L59" s="2">
+        <v>18</v>
+      </c>
+      <c r="M59" s="3">
+        <v>40</v>
+      </c>
+      <c r="N59" t="s">
+        <v>27</v>
+      </c>
+      <c r="O59" s="22">
+        <f>SUM(K59*(24/L59))</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="P59" s="20">
+        <f t="shared" si="0"/>
+        <v>1.875</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>50</v>
+      </c>
+      <c r="S59">
+        <v>54</v>
+      </c>
+      <c r="T59" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y59" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F59:F1048576 E1:E58 O52:O58">
+  <conditionalFormatting sqref="F59:F1048576 E1:E59 O52:O58">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5910,8 +6002,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S58 W59:W1048576 T52:T58">
-    <cfRule type="top10" dxfId="1" priority="1" percent="1" rank="2"/>
+  <conditionalFormatting sqref="S1:S59 W60:W1048576 V59 T52:T58">
+    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5938,29 +6030,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -5968,16 +6060,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E9">
         <v>535353</v>
@@ -5985,21 +6077,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -6007,33 +6099,33 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577DADD9-7857-4D03-A3DE-FB530D5ED481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F621A8CA-E2DE-4953-9E7F-003AC2D52427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
   <si>
     <t>Rogue</t>
   </si>
@@ -402,12 +402,6 @@
     <t>Icey.  Cold.  Refreshing.  Slows by 25% to small area for 2 seconds.</t>
   </si>
   <si>
-    <t>Frozen Pond.  Slows in a small AoE around it by 28% and does light damage</t>
-  </si>
-  <si>
-    <t>Ice everywhere.  Slows everything in area by 34%.</t>
-  </si>
-  <si>
     <t>Chain</t>
   </si>
   <si>
@@ -450,12 +444,6 @@
     <t>hit,slow,.18,2</t>
   </si>
   <si>
-    <t>hit,slow,.28,.5</t>
-  </si>
-  <si>
-    <t>hit,slow,.34,.5</t>
-  </si>
-  <si>
     <t>hit,slow,.28,3</t>
   </si>
   <si>
@@ -700,6 +688,24 @@
   </si>
   <si>
     <t>time,dmgBuff,.20,2</t>
+  </si>
+  <si>
+    <t>https://game-icons.net/1x1/delapouite/road.html</t>
+  </si>
+  <si>
+    <t>IcedRoad</t>
+  </si>
+  <si>
+    <t>diagGrid,icedRoad,.28,1</t>
+  </si>
+  <si>
+    <t>diagGrid,icedRoad,.34,1</t>
+  </si>
+  <si>
+    <t>Literally freezes the roads surrounding it, slowing enemy movement speed.  Hits every tower in its' range.</t>
+  </si>
+  <si>
+    <t>Ice everywhere.  Increased slow, same effect.</t>
   </si>
 </sst>
 </file>
@@ -1426,10 +1432,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="AA46" sqref="AA46"/>
+      <selection pane="topRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,10 +1475,10 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>24</v>
@@ -1481,7 +1487,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>22</v>
@@ -1541,16 +1547,16 @@
         <v>94</v>
       </c>
       <c r="Y1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>35</v>
@@ -1567,14 +1573,14 @@
         <v>36</v>
       </c>
       <c r="D2" s="25">
-        <f>SUM(E2/F2)</f>
+        <f t="shared" ref="D2:D33" si="0">SUM(E2/F2)</f>
         <v>2.3076923076923079</v>
       </c>
       <c r="E2" s="3">
         <v>40</v>
       </c>
       <c r="F2" s="22">
-        <f>SUM(K2*(24/L2))*J2</f>
+        <f t="shared" ref="F2:F10" si="1">SUM(K2*(24/L2))*J2</f>
         <v>17.333333333333332</v>
       </c>
       <c r="G2" s="4"/>
@@ -1600,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="O2" s="22">
-        <f>SUM(K2*(24/L2))</f>
+        <f t="shared" ref="O2:O33" si="2">SUM(K2*(24/L2))</f>
         <v>17.333333333333332</v>
       </c>
       <c r="P2" s="20">
@@ -1633,7 +1639,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1647,14 +1653,14 @@
         <v>0</v>
       </c>
       <c r="D3" s="25">
-        <f>SUM(E3/F3)</f>
-        <v>2.4952651515151514</v>
+        <f t="shared" si="0"/>
+        <v>2.0928030303030303</v>
       </c>
       <c r="E3" s="3">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F3" s="22">
-        <f>SUM(K3*(24/L3))*J3</f>
+        <f t="shared" si="1"/>
         <v>62.117647058823536</v>
       </c>
       <c r="G3" s="4"/>
@@ -1674,18 +1680,18 @@
         <v>17</v>
       </c>
       <c r="M3" s="3">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O3" s="22">
-        <f>SUM(K3*(24/L3))</f>
+        <f t="shared" si="2"/>
         <v>62.117647058823536</v>
       </c>
       <c r="P3" s="20">
         <f>SUM(E3/O3)</f>
-        <v>2.4952651515151514</v>
+        <v>2.0928030303030303</v>
       </c>
       <c r="Q3" s="5">
         <v>5</v>
@@ -1707,13 +1713,13 @@
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1727,16 +1733,15 @@
         <v>4</v>
       </c>
       <c r="D4" s="25">
-        <f>SUM(E4/F4)</f>
-        <v>1.6075650118203311</v>
+        <f t="shared" si="0"/>
+        <v>0.98412698412698407</v>
       </c>
       <c r="E4" s="3">
-        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="F4" s="22">
-        <f>SUM(K4*(24/L4))*J4</f>
-        <v>211.5</v>
+        <f t="shared" si="1"/>
+        <v>315</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4">
@@ -1749,24 +1754,24 @@
         <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2">
         <v>16</v>
       </c>
       <c r="M4" s="3">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O4" s="22">
-        <f>SUM(K4*(24/L4))</f>
-        <v>70.5</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="P4" s="20">
-        <f t="shared" ref="P4:P59" si="0">SUM(E4/O4)</f>
-        <v>4.8226950354609928</v>
+        <f t="shared" ref="P4:P59" si="3">SUM(E4/O4)</f>
+        <v>2.9523809523809526</v>
       </c>
       <c r="Q4" s="5">
         <v>5</v>
@@ -1785,13 +1790,13 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1805,16 +1810,15 @@
         <v>1</v>
       </c>
       <c r="D5" s="25">
-        <f>SUM(E5/F5)</f>
-        <v>1.4404761904761907</v>
+        <f t="shared" si="0"/>
+        <v>1.1481481481481481</v>
       </c>
       <c r="E5" s="3">
-        <f>SUM(155+Table1[[#This Row],[Cost]])</f>
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F5" s="22">
-        <f>SUM(K5*(24/L5))*J5</f>
-        <v>229.09090909090907</v>
+        <f t="shared" si="1"/>
+        <v>270</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5">
@@ -1824,27 +1828,27 @@
         <v>106</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="L5" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M5" s="3">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O5" s="22">
-        <f>SUM(K5*(24/L5))</f>
-        <v>76.36363636363636</v>
+        <f t="shared" si="2"/>
+        <v>270</v>
       </c>
       <c r="P5" s="20">
-        <f t="shared" si="0"/>
-        <v>4.3214285714285721</v>
+        <f t="shared" si="3"/>
+        <v>1.1481481481481481</v>
       </c>
       <c r="Q5" s="5">
         <v>5</v>
@@ -1862,13 +1866,13 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1882,14 +1886,14 @@
         <v>2</v>
       </c>
       <c r="D6" s="25">
-        <f>SUM(E6/F6)</f>
+        <f t="shared" si="0"/>
         <v>1.9444444444444444</v>
       </c>
       <c r="E6" s="3">
         <v>175</v>
       </c>
       <c r="F6" s="22">
-        <f>SUM(K6*(24/L6))*J6</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G6" s="4"/>
@@ -1915,11 +1919,11 @@
         <v>25</v>
       </c>
       <c r="O6" s="22">
-        <f>SUM(K6*(24/L6))</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="P6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.9444444444444444</v>
       </c>
       <c r="Q6" s="5">
@@ -1947,7 +1951,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1961,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="25">
-        <f>SUM(E7/F7)</f>
+        <f t="shared" si="0"/>
         <v>2.4204545454545454</v>
       </c>
       <c r="E7" s="3">
@@ -1969,7 +1973,7 @@
         <v>355</v>
       </c>
       <c r="F7" s="22">
-        <f>SUM(K7*(24/L7))*J7</f>
+        <f t="shared" si="1"/>
         <v>146.66666666666666</v>
       </c>
       <c r="G7" s="4"/>
@@ -1995,11 +1999,11 @@
         <v>26</v>
       </c>
       <c r="O7" s="22">
-        <f>SUM(K7*(24/L7))</f>
+        <f t="shared" si="2"/>
         <v>146.66666666666666</v>
       </c>
       <c r="P7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.4204545454545454</v>
       </c>
       <c r="Q7" s="5">
@@ -2019,13 +2023,13 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -2039,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="25">
-        <f>SUM(E8/F8)</f>
+        <f t="shared" si="0"/>
         <v>2.0277777777777777</v>
       </c>
       <c r="E8" s="3">
@@ -2047,7 +2051,7 @@
         <v>365</v>
       </c>
       <c r="F8" s="22">
-        <f>SUM(K8*(24/L8))*J8</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="G8" s="4"/>
@@ -2073,11 +2077,11 @@
         <v>26</v>
       </c>
       <c r="O8" s="22">
-        <f>SUM(K8*(24/L8))</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="P8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.0277777777777777</v>
       </c>
       <c r="Q8" s="5">
@@ -2097,7 +2101,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
@@ -2117,14 +2121,14 @@
         <v>3</v>
       </c>
       <c r="D9" s="25">
-        <f>SUM(E9/F9)</f>
+        <f t="shared" si="0"/>
         <v>2.2727272727272729</v>
       </c>
       <c r="E9" s="3">
         <v>120</v>
       </c>
       <c r="F9" s="22">
-        <f>SUM(K9*(24/L9))*J9</f>
+        <f t="shared" si="1"/>
         <v>52.8</v>
       </c>
       <c r="G9" s="4"/>
@@ -2150,11 +2154,11 @@
         <v>25</v>
       </c>
       <c r="O9" s="22">
-        <f>SUM(K9*(24/L9))</f>
+        <f t="shared" si="2"/>
         <v>26.4</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5454545454545459</v>
       </c>
       <c r="Q9" s="5">
@@ -2178,13 +2182,13 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -2198,7 +2202,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25">
-        <f>SUM(E10/F10)</f>
+        <f t="shared" si="0"/>
         <v>1.4545454545454546</v>
       </c>
       <c r="E10" s="3">
@@ -2206,7 +2210,7 @@
         <v>360</v>
       </c>
       <c r="F10" s="22">
-        <f>SUM(K10*(24/L10))*J10</f>
+        <f t="shared" si="1"/>
         <v>247.5</v>
       </c>
       <c r="G10" s="4"/>
@@ -2232,11 +2236,11 @@
         <v>25</v>
       </c>
       <c r="O10" s="22">
-        <f>SUM(K10*(24/L10))</f>
+        <f t="shared" si="2"/>
         <v>247.5</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4545454545454546</v>
       </c>
       <c r="Q10" s="5">
@@ -2256,13 +2260,13 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -2276,7 +2280,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25">
-        <f>SUM(E11/F11)</f>
+        <f t="shared" si="0"/>
         <v>1.3099415204678364</v>
       </c>
       <c r="E11" s="3">
@@ -2312,7 +2316,7 @@
         <v>26</v>
       </c>
       <c r="O11" s="22">
-        <f>SUM(K11*(24/L11))</f>
+        <f t="shared" si="2"/>
         <v>48.857142857142854</v>
       </c>
       <c r="P11" s="20">
@@ -2336,13 +2340,13 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2356,14 +2360,14 @@
         <v>64</v>
       </c>
       <c r="D12" s="25">
-        <f>SUM(E12/F12)</f>
+        <f t="shared" si="0"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="E12" s="3">
         <v>30</v>
       </c>
       <c r="F12" s="22">
-        <f>SUM(K12*(24/L12))*J12</f>
+        <f t="shared" ref="F12:F22" si="4">SUM(K12*(24/L12))*J12</f>
         <v>20.399999999999999</v>
       </c>
       <c r="G12" s="4"/>
@@ -2389,11 +2393,11 @@
         <v>26</v>
       </c>
       <c r="O12" s="22">
-        <f>SUM(K12*(24/L12))</f>
+        <f t="shared" si="2"/>
         <v>20.399999999999999</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4705882352941178</v>
       </c>
       <c r="Q12" s="5">
@@ -2436,14 +2440,14 @@
         <v>37</v>
       </c>
       <c r="D13" s="25">
-        <f>SUM(E13/F13)</f>
+        <f t="shared" si="0"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="E13" s="3">
         <v>130</v>
       </c>
       <c r="F13" s="22">
-        <f>SUM(K13*(24/L13))*J13</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="G13" s="4"/>
@@ -2469,11 +2473,11 @@
         <v>27</v>
       </c>
       <c r="O13" s="22">
-        <f>SUM(K13*(24/L13))</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7333333333333334</v>
       </c>
       <c r="Q13" s="5">
@@ -2496,13 +2500,13 @@
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2516,14 +2520,14 @@
         <v>38</v>
       </c>
       <c r="D14" s="25">
-        <f>SUM(E14/F14)</f>
+        <f t="shared" si="0"/>
         <v>1.171875</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="22">
-        <f>SUM(K14*(24/L14))*J14</f>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="G14" s="4"/>
@@ -2549,11 +2553,11 @@
         <v>27</v>
       </c>
       <c r="O14" s="22">
-        <f>SUM(K14*(24/L14))</f>
+        <f t="shared" si="2"/>
         <v>256</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.171875</v>
       </c>
       <c r="Q14" s="5">
@@ -2591,14 +2595,14 @@
         <v>73</v>
       </c>
       <c r="D15" s="25">
-        <f>SUM(E15/F15)</f>
+        <f t="shared" si="0"/>
         <v>1.3048245614035088</v>
       </c>
       <c r="E15" s="3">
         <v>350</v>
       </c>
       <c r="F15" s="22">
-        <f>SUM(K15*(24/L15))*J15</f>
+        <f t="shared" si="4"/>
         <v>268.23529411764707</v>
       </c>
       <c r="G15" s="4"/>
@@ -2624,11 +2628,11 @@
         <v>26</v>
       </c>
       <c r="O15" s="22">
-        <f>SUM(K15*(24/L15))</f>
+        <f t="shared" si="2"/>
         <v>268.23529411764707</v>
       </c>
       <c r="P15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3048245614035088</v>
       </c>
       <c r="Q15" s="5">
@@ -2648,13 +2652,13 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2668,14 +2672,14 @@
         <v>40</v>
       </c>
       <c r="D16" s="25">
-        <f>SUM(E16/F16)</f>
+        <f t="shared" si="0"/>
         <v>1.5535714285714286</v>
       </c>
       <c r="E16" s="3">
         <v>145</v>
       </c>
       <c r="F16" s="22">
-        <f>SUM(K16*(24/L16))*J16</f>
+        <f t="shared" si="4"/>
         <v>93.333333333333329</v>
       </c>
       <c r="G16" s="4"/>
@@ -2701,11 +2705,11 @@
         <v>26</v>
       </c>
       <c r="O16" s="22">
-        <f>SUM(K16*(24/L16))</f>
+        <f t="shared" si="2"/>
         <v>93.333333333333329</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5535714285714286</v>
       </c>
       <c r="Q16" s="5">
@@ -2727,7 +2731,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
@@ -2747,7 +2751,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="25">
-        <f>SUM(E17/F17)</f>
+        <f t="shared" si="0"/>
         <v>1.4888888888888889</v>
       </c>
       <c r="E17" s="3">
@@ -2755,7 +2759,7 @@
         <v>335</v>
       </c>
       <c r="F17" s="22">
-        <f>SUM(K17*(24/L17))*J17</f>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="G17" s="4"/>
@@ -2781,11 +2785,11 @@
         <v>26</v>
       </c>
       <c r="O17" s="22">
-        <f>SUM(K17*(24/L17))</f>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4888888888888889</v>
       </c>
       <c r="Q17" s="5">
@@ -2805,7 +2809,7 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
@@ -2825,14 +2829,14 @@
         <v>41</v>
       </c>
       <c r="D18" s="25">
-        <f>SUM(E18/F18)</f>
+        <f t="shared" si="0"/>
         <v>1.3368055555555556</v>
       </c>
       <c r="E18" s="3">
         <v>385</v>
       </c>
       <c r="F18" s="22">
-        <f>SUM(K18*(24/L18))*J18</f>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="G18" s="4"/>
@@ -2858,11 +2862,11 @@
         <v>26</v>
       </c>
       <c r="O18" s="22">
-        <f>SUM(K18*(24/L18))</f>
+        <f t="shared" si="2"/>
         <v>288</v>
       </c>
       <c r="P18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3368055555555556</v>
       </c>
       <c r="Q18" s="5">
@@ -2900,14 +2904,14 @@
         <v>42</v>
       </c>
       <c r="D19" s="25">
-        <f>SUM(E19/F19)</f>
+        <f t="shared" si="0"/>
         <v>1.6875000000000002</v>
       </c>
       <c r="E19" s="3">
         <v>180</v>
       </c>
       <c r="F19" s="22">
-        <f>SUM(K19*(24/L19))*J19</f>
+        <f t="shared" si="4"/>
         <v>106.66666666666666</v>
       </c>
       <c r="G19" s="4"/>
@@ -2933,11 +2937,11 @@
         <v>26</v>
       </c>
       <c r="O19" s="22">
-        <f>SUM(K19*(24/L19))</f>
+        <f t="shared" si="2"/>
         <v>106.66666666666666</v>
       </c>
       <c r="P19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6875000000000002</v>
       </c>
       <c r="Q19" s="5">
@@ -2959,13 +2963,13 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2979,14 +2983,14 @@
         <v>43</v>
       </c>
       <c r="D20" s="25">
-        <f>SUM(E20/F20)</f>
+        <f t="shared" si="0"/>
         <v>181</v>
       </c>
       <c r="E20" s="3">
         <v>181</v>
       </c>
       <c r="F20" s="22">
-        <f>SUM(K20*(24/L20))*J20</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G20" s="4"/>
@@ -3012,11 +3016,11 @@
         <v>26</v>
       </c>
       <c r="O20" s="22">
-        <f>SUM(K20*(24/L20))</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="P20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
       <c r="Q20" s="5">
@@ -3052,14 +3056,14 @@
         <v>44</v>
       </c>
       <c r="D21" s="25">
-        <f>SUM(E21/F21)</f>
+        <f t="shared" si="0"/>
         <v>1.7037037037037037</v>
       </c>
       <c r="E21" s="3">
         <v>460</v>
       </c>
       <c r="F21" s="22">
-        <f>SUM(K21*(24/L21))*J21</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="G21" s="4"/>
@@ -3085,11 +3089,11 @@
         <v>27</v>
       </c>
       <c r="O21" s="22">
-        <f>SUM(K21*(24/L21))</f>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7037037037037037</v>
       </c>
       <c r="Q21" s="5">
@@ -3109,13 +3113,13 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:29" collapsed="1" x14ac:dyDescent="0.25">
@@ -3129,14 +3133,14 @@
         <v>65</v>
       </c>
       <c r="D22" s="25">
-        <f>SUM(E22/F22)</f>
+        <f t="shared" si="0"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="E22" s="3">
         <v>55</v>
       </c>
       <c r="F22" s="22">
-        <f>SUM(K22*(24/L22))*J22</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="G22" s="4"/>
@@ -3144,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3162,11 +3166,11 @@
         <v>14</v>
       </c>
       <c r="O22" s="22">
-        <f>SUM(K22*(24/L22))</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="Q22" s="5">
@@ -3210,7 +3214,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="25">
-        <f>SUM(E23/F23)</f>
+        <f t="shared" si="0"/>
         <v>1.5705128205128205</v>
       </c>
       <c r="E23" s="3">
@@ -3245,11 +3249,11 @@
         <v>14</v>
       </c>
       <c r="O23" s="22">
-        <f>SUM(K23*(24/L23))</f>
+        <f t="shared" si="2"/>
         <v>44.571428571428569</v>
       </c>
       <c r="P23" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7115384615384617</v>
       </c>
       <c r="Q23" s="5">
@@ -3277,7 +3281,7 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3291,7 +3295,7 @@
         <v>76</v>
       </c>
       <c r="D24" s="25">
-        <f>SUM(E24/F24)</f>
+        <f t="shared" si="0"/>
         <v>1.2152777777777779</v>
       </c>
       <c r="E24" s="3">
@@ -3326,11 +3330,11 @@
         <v>14</v>
       </c>
       <c r="O24" s="22">
-        <f>SUM(K24*(24/L24))</f>
+        <f t="shared" si="2"/>
         <v>115.19999999999999</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6458333333333335</v>
       </c>
       <c r="Q24" s="5">
@@ -3356,7 +3360,7 @@
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3370,7 +3374,7 @@
         <v>79</v>
       </c>
       <c r="D25" s="25" t="e">
-        <f>SUM(E25/F25)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E25" s="3">
@@ -3388,11 +3392,11 @@
         <v>14</v>
       </c>
       <c r="O25" s="22" t="e">
-        <f>SUM(K25*(24/L25))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P25" s="20" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q25" s="5"/>
@@ -3422,7 +3426,7 @@
         <v>67</v>
       </c>
       <c r="D26" s="25">
-        <f>SUM(E26/F26)</f>
+        <f t="shared" si="0"/>
         <v>1.3839285714285714</v>
       </c>
       <c r="E26" s="3">
@@ -3437,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -3455,11 +3459,11 @@
         <v>14</v>
       </c>
       <c r="O26" s="22">
-        <f>SUM(K26*(24/L26))</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.7678571428571428</v>
       </c>
       <c r="Q26" s="5">
@@ -3499,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="D27" s="25">
-        <f>SUM(E27/F27)</f>
+        <f t="shared" si="0"/>
         <v>1.1755952380952381</v>
       </c>
       <c r="E27" s="3">
@@ -3514,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -3532,11 +3536,11 @@
         <v>14</v>
       </c>
       <c r="O27" s="22">
-        <f>SUM(K27*(24/L27))</f>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.5267857142857144</v>
       </c>
       <c r="Q27" s="5">
@@ -3574,7 +3578,7 @@
         <v>78</v>
       </c>
       <c r="D28" s="25" t="e">
-        <f>SUM(E28/F28)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="3"/>
@@ -3590,11 +3594,11 @@
         <v>14</v>
       </c>
       <c r="O28" s="22" t="e">
-        <f>SUM(K28*(24/L28))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="20" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q28" s="5"/>
@@ -3622,7 +3626,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="25">
-        <f>SUM(E29/F29)</f>
+        <f t="shared" si="0"/>
         <v>1.5757575757575757</v>
       </c>
       <c r="E29" s="3">
@@ -3639,7 +3643,7 @@
         <v>45</v>
       </c>
       <c r="I29">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -3657,11 +3661,11 @@
         <v>14</v>
       </c>
       <c r="O29" s="22">
-        <f>SUM(K29*(24/L29))</f>
+        <f t="shared" si="2"/>
         <v>41.25</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7272727272727275</v>
       </c>
       <c r="Q29" s="5">
@@ -3683,7 +3687,7 @@
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
@@ -3703,7 +3707,7 @@
         <v>82</v>
       </c>
       <c r="D30" s="25">
-        <f>SUM(E30/F30)</f>
+        <f t="shared" si="0"/>
         <v>1.484375</v>
       </c>
       <c r="E30" s="3">
@@ -3738,11 +3742,11 @@
         <v>14</v>
       </c>
       <c r="O30" s="22">
-        <f>SUM(K30*(24/L30))</f>
+        <f t="shared" si="2"/>
         <v>106.66666666666666</v>
       </c>
       <c r="P30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.453125</v>
       </c>
       <c r="Q30" s="5">
@@ -3762,7 +3766,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
@@ -3782,7 +3786,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="25" t="e">
-        <f>SUM(E31/F31)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E31" s="3"/>
@@ -3798,11 +3802,11 @@
         <v>14</v>
       </c>
       <c r="O31" s="22" t="e">
-        <f>SUM(K31*(24/L31))</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="20" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q31" s="5"/>
@@ -3830,7 +3834,7 @@
         <v>66</v>
       </c>
       <c r="D32" s="25">
-        <f>SUM(E32/F32)</f>
+        <f t="shared" si="0"/>
         <v>2.083333333333333</v>
       </c>
       <c r="E32" s="3">
@@ -3865,11 +3869,11 @@
         <v>15</v>
       </c>
       <c r="O32" s="22">
-        <f>SUM(K32*(24/L32))</f>
+        <f t="shared" si="2"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.1666666666666661</v>
       </c>
       <c r="Q32" s="5">
@@ -3895,7 +3899,7 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
@@ -3915,7 +3919,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="25">
-        <f>SUM(E33/F33)</f>
+        <f t="shared" si="0"/>
         <v>2.9605263157894735</v>
       </c>
       <c r="E33" s="3">
@@ -3950,11 +3954,11 @@
         <v>15</v>
       </c>
       <c r="O33" s="22">
-        <f>SUM(K33*(24/L33))</f>
+        <f t="shared" si="2"/>
         <v>30.400000000000002</v>
       </c>
       <c r="P33" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.9210526315789469</v>
       </c>
       <c r="Q33" s="5">
@@ -3976,13 +3980,13 @@
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3996,7 +4000,7 @@
         <v>113</v>
       </c>
       <c r="D34" s="25">
-        <f>SUM(E34/F34)</f>
+        <f t="shared" ref="D34:D65" si="5">SUM(E34/F34)</f>
         <v>1.8055555555555556</v>
       </c>
       <c r="E34" s="3">
@@ -4032,11 +4036,11 @@
         <v>15</v>
       </c>
       <c r="O34" s="22">
-        <f>SUM(K34*(24/L34))</f>
+        <f t="shared" ref="O34:O59" si="6">SUM(K34*(24/L34))</f>
         <v>73.846153846153854</v>
       </c>
       <c r="P34" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.4166666666666661</v>
       </c>
       <c r="Q34" s="5">
@@ -4056,13 +4060,13 @@
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4076,7 +4080,7 @@
         <v>72</v>
       </c>
       <c r="D35" s="25">
-        <f>SUM(E35/F35)</f>
+        <f t="shared" si="5"/>
         <v>2.0754716981132075</v>
       </c>
       <c r="E35" s="3">
@@ -4109,11 +4113,11 @@
         <v>15</v>
       </c>
       <c r="O35" s="22">
-        <f>SUM(K35*(24/L35))</f>
+        <f t="shared" si="6"/>
         <v>57.818181818181813</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.0754716981132075</v>
       </c>
       <c r="Q35" s="5">
@@ -4135,10 +4139,10 @@
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z35" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="Z35" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
@@ -4157,7 +4161,7 @@
         <v>111</v>
       </c>
       <c r="D36" s="25">
-        <f>SUM(E36/F36)</f>
+        <f t="shared" si="5"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="E36" s="3">
@@ -4190,11 +4194,11 @@
         <v>15</v>
       </c>
       <c r="O36" s="22">
-        <f>SUM(K36*(24/L36))</f>
+        <f t="shared" si="6"/>
         <v>86.399999999999991</v>
       </c>
       <c r="P36" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.166666666666667</v>
       </c>
       <c r="Q36" s="5">
@@ -4214,10 +4218,10 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z36" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="Z36" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
@@ -4236,14 +4240,14 @@
         <v>47</v>
       </c>
       <c r="D37" s="25">
-        <f>SUM(E37/F37)</f>
+        <f t="shared" si="5"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="E37" s="3">
         <v>160</v>
       </c>
       <c r="F37" s="22">
-        <f>SUM(K37*(24/L37))*G37</f>
+        <f t="shared" ref="F37:F42" si="7">SUM(K37*(24/L37))*G37</f>
         <v>72</v>
       </c>
       <c r="G37" s="5">
@@ -4253,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -4271,11 +4275,11 @@
         <v>15</v>
       </c>
       <c r="O37" s="22">
-        <f>SUM(K37*(24/L37))</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="P37" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.8888888888888893</v>
       </c>
       <c r="Q37" s="5">
@@ -4300,14 +4304,14 @@
       <c r="X37" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Y37" s="4" t="s">
-        <v>133</v>
+      <c r="Y37" t="s">
+        <v>215</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4" t="s">
-        <v>117</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4321,14 +4325,14 @@
         <v>85</v>
       </c>
       <c r="D38" s="25">
-        <f>SUM(E38/F38)</f>
+        <f t="shared" si="5"/>
         <v>1.625</v>
       </c>
       <c r="E38" s="3">
         <v>390</v>
       </c>
       <c r="F38" s="22">
-        <f>SUM(K38*(24/L38))*G38</f>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="G38" s="5">
@@ -4338,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -4356,11 +4360,11 @@
         <v>15</v>
       </c>
       <c r="O38" s="22">
-        <f>SUM(K38*(24/L38))</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="P38" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="Q38" s="5">
@@ -4381,14 +4385,14 @@
       <c r="X38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Y38" s="4" t="s">
-        <v>134</v>
+      <c r="Y38" t="s">
+        <v>216</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4402,14 +4406,14 @@
         <v>84</v>
       </c>
       <c r="D39" s="25">
-        <f>SUM(E39/F39)</f>
+        <f t="shared" si="5"/>
         <v>1.05</v>
       </c>
       <c r="E39" s="3">
         <v>420</v>
       </c>
       <c r="F39" s="22">
-        <f>SUM(K39*(24/L39))*G39</f>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="G39" s="5">
@@ -4437,11 +4441,11 @@
         <v>15</v>
       </c>
       <c r="O39" s="22">
-        <f>SUM(K39*(24/L39))</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
       <c r="Q39" s="5">
@@ -4461,13 +4465,13 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4481,14 +4485,14 @@
         <v>19</v>
       </c>
       <c r="D40" s="25">
-        <f>SUM(E40/F40)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E40" s="3">
         <v>60</v>
       </c>
       <c r="F40" s="22">
-        <f>SUM(K40*(24/L40))*G40</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="G40" s="5">
@@ -4516,11 +4520,11 @@
         <v>27</v>
       </c>
       <c r="O40" s="22">
-        <f>SUM(K40*(24/L40))</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="P40" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="Q40" s="5">
@@ -4562,14 +4566,14 @@
         <v>48</v>
       </c>
       <c r="D41" s="25">
-        <f>SUM(E41/F41)</f>
+        <f t="shared" si="5"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="E41" s="3">
         <v>220</v>
       </c>
       <c r="F41" s="22">
-        <f>SUM(K41*(24/L41))*G41</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="G41" s="5">
@@ -4597,11 +4601,11 @@
         <v>27</v>
       </c>
       <c r="O41" s="22">
-        <f>SUM(K41*(24/L41))</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="P41" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="Q41" s="5">
@@ -4641,14 +4645,14 @@
         <v>88</v>
       </c>
       <c r="D42" s="25">
-        <f>SUM(E42/F42)</f>
+        <f t="shared" si="5"/>
         <v>1.0444444444444445</v>
       </c>
       <c r="E42" s="3">
         <v>470</v>
       </c>
       <c r="F42" s="22">
-        <f>SUM(K42*(24/L42))*G42</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="G42" s="5">
@@ -4676,11 +4680,11 @@
         <v>27</v>
       </c>
       <c r="O42" s="22">
-        <f>SUM(K42*(24/L42))</f>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="P42" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.1333333333333333</v>
       </c>
       <c r="Q42" s="5">
@@ -4718,14 +4722,14 @@
         <v>21</v>
       </c>
       <c r="D43" s="25">
-        <f>SUM(E43/F43)</f>
+        <f t="shared" si="5"/>
         <v>1.5625</v>
       </c>
       <c r="E43" s="3">
         <v>150</v>
       </c>
       <c r="F43" s="22">
-        <f>SUM(K43*(24/L43))*J43</f>
+        <f t="shared" ref="F43:F49" si="8">SUM(K43*(24/L43))*J43</f>
         <v>96</v>
       </c>
       <c r="G43" s="4"/>
@@ -4751,11 +4755,11 @@
         <v>25</v>
       </c>
       <c r="O43" s="22">
-        <f>SUM(K43*(24/L43))</f>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="P43" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5625</v>
       </c>
       <c r="Q43" s="5">
@@ -4795,14 +4799,14 @@
         <v>89</v>
       </c>
       <c r="D44" s="25">
-        <f>SUM(E44/F44)</f>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
       <c r="E44" s="3">
         <v>330</v>
       </c>
       <c r="F44" s="22">
-        <f>SUM(K44*(24/L44))*J44</f>
+        <f t="shared" si="8"/>
         <v>264</v>
       </c>
       <c r="G44" s="4"/>
@@ -4828,11 +4832,11 @@
         <v>25</v>
       </c>
       <c r="O44" s="22">
-        <f>SUM(K44*(24/L44))</f>
+        <f t="shared" si="6"/>
         <v>264</v>
       </c>
       <c r="P44" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="Q44" s="5">
@@ -4870,14 +4874,14 @@
         <v>28</v>
       </c>
       <c r="D45" s="25">
-        <f>SUM(E45/F45)</f>
+        <f t="shared" si="5"/>
         <v>2.2159090909090908</v>
       </c>
       <c r="E45" s="3">
         <v>65</v>
       </c>
       <c r="F45" s="22">
-        <f>SUM(K45*(24/L45))*J45</f>
+        <f t="shared" si="8"/>
         <v>29.333333333333332</v>
       </c>
       <c r="G45" s="4"/>
@@ -4903,11 +4907,11 @@
         <v>14</v>
       </c>
       <c r="O45" s="22">
-        <f>SUM(K45*(24/L45))</f>
+        <f t="shared" si="6"/>
         <v>29.333333333333332</v>
       </c>
       <c r="P45" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.2159090909090908</v>
       </c>
       <c r="Q45" s="5">
@@ -4929,7 +4933,7 @@
         <v>20</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
@@ -4951,14 +4955,14 @@
         <v>29</v>
       </c>
       <c r="D46" s="25">
-        <f>SUM(E46/F46)</f>
+        <f t="shared" si="5"/>
         <v>1.4351851851851851</v>
       </c>
       <c r="E46" s="3">
         <v>155</v>
       </c>
       <c r="F46" s="22">
-        <f>SUM(K46*(24/L46))*J46</f>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="G46" s="4"/>
@@ -4984,11 +4988,11 @@
         <v>14</v>
       </c>
       <c r="O46" s="22">
-        <f>SUM(K46*(24/L46))</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="P46" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3055555555555554</v>
       </c>
       <c r="Q46" s="5">
@@ -5028,14 +5032,14 @@
         <v>86</v>
       </c>
       <c r="D47" s="25">
-        <f>SUM(E47/F47)</f>
+        <f t="shared" si="5"/>
         <v>1.0533333333333332</v>
       </c>
       <c r="E47" s="3">
         <v>395</v>
       </c>
       <c r="F47" s="22">
-        <f>SUM(K47*(24/L47))*J47</f>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="G47" s="4"/>
@@ -5061,11 +5065,11 @@
         <v>14</v>
       </c>
       <c r="O47" s="22">
-        <f>SUM(K47*(24/L47))</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="P47" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.2666666666666666</v>
       </c>
       <c r="Q47" s="5">
@@ -5103,14 +5107,14 @@
         <v>20</v>
       </c>
       <c r="D48" s="25">
-        <f>SUM(E48/F48)</f>
+        <f t="shared" si="5"/>
         <v>1.7788461538461537</v>
       </c>
       <c r="E48" s="3">
         <v>185</v>
       </c>
       <c r="F48" s="22">
-        <f>SUM(K48*(24/L48))*J48</f>
+        <f t="shared" si="8"/>
         <v>104</v>
       </c>
       <c r="G48" s="4"/>
@@ -5136,11 +5140,11 @@
         <v>14</v>
       </c>
       <c r="O48" s="22">
-        <f>SUM(K48*(24/L48))</f>
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
       <c r="P48" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7788461538461537</v>
       </c>
       <c r="Q48" s="5">
@@ -5180,14 +5184,14 @@
         <v>87</v>
       </c>
       <c r="D49" s="25">
-        <f>SUM(E49/F49)</f>
+        <f t="shared" si="5"/>
         <v>1.4107142857142858</v>
       </c>
       <c r="E49" s="3">
         <v>395</v>
       </c>
       <c r="F49" s="22">
-        <f>SUM(K49*(24/L49))*J49</f>
+        <f t="shared" si="8"/>
         <v>280</v>
       </c>
       <c r="G49" s="4"/>
@@ -5213,11 +5217,11 @@
         <v>14</v>
       </c>
       <c r="O49" s="22">
-        <f>SUM(K49*(24/L49))</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="P49" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4107142857142858</v>
       </c>
       <c r="Q49" s="5">
@@ -5241,7 +5245,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -5252,10 +5256,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D50" s="25">
-        <f>SUM(E50/F50)</f>
+        <f t="shared" si="5"/>
         <v>1.5873015873015872</v>
       </c>
       <c r="E50" s="3">
@@ -5290,11 +5294,11 @@
         <v>14</v>
       </c>
       <c r="O50" s="22">
-        <f>SUM(K50*(24/L50))</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="P50" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="Q50" s="5">
@@ -5310,19 +5314,19 @@
         <v>63</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -5333,10 +5337,10 @@
         <v>3</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D51" s="25">
-        <f>SUM(E51/F51)</f>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="E51" s="3">
@@ -5371,11 +5375,11 @@
         <v>14</v>
       </c>
       <c r="O51" s="22">
-        <f>SUM(K51*(24/L51))</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="P51" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
       <c r="Q51" s="5">
@@ -5395,13 +5399,13 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -5412,10 +5416,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D52" s="25">
-        <f>SUM(E52/F52)</f>
+        <f t="shared" si="5"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="E52" s="3">
@@ -5448,11 +5452,11 @@
         <v>27</v>
       </c>
       <c r="O52" s="22">
-        <f>SUM(K52*(24/L52))</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="P52" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.7857142857142858</v>
       </c>
       <c r="Q52">
@@ -5468,16 +5472,16 @@
         <v>63</v>
       </c>
       <c r="U52" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="V52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="W52" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AC52" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -5488,10 +5492,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D53" s="25">
-        <f>SUM(E53/F53)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="E53" s="3">
@@ -5524,11 +5528,11 @@
         <v>27</v>
       </c>
       <c r="O53" s="22">
-        <f>SUM(K53*(24/L53))</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="P53" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="Q53">
@@ -5544,13 +5548,13 @@
         <v>63</v>
       </c>
       <c r="U53" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AC53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -5561,10 +5565,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D54" s="25">
-        <f>SUM(E54/F54)</f>
+        <f t="shared" si="5"/>
         <v>1.1956521739130435</v>
       </c>
       <c r="E54" s="3">
@@ -5597,11 +5601,11 @@
         <v>27</v>
       </c>
       <c r="O54" s="22">
-        <f>SUM(K54*(24/L54))</f>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="P54" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.1956521739130435</v>
       </c>
       <c r="Q54">
@@ -5617,13 +5621,13 @@
         <v>63</v>
       </c>
       <c r="U54" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AC54" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -5634,10 +5638,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D55" s="25">
-        <f>SUM(E55/F55)</f>
+        <f t="shared" si="5"/>
         <v>1.4074074074074074</v>
       </c>
       <c r="E55" s="3">
@@ -5670,11 +5674,11 @@
         <v>27</v>
       </c>
       <c r="O55" s="22">
-        <f>SUM(K55*(24/L55))</f>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="P55" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.4074074074074074</v>
       </c>
       <c r="Q55">
@@ -5690,10 +5694,10 @@
         <v>63</v>
       </c>
       <c r="U55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AC55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -5704,10 +5708,10 @@
         <v>3</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D56" s="25">
-        <f>SUM(E56/F56)</f>
+        <f t="shared" si="5"/>
         <v>11.8125</v>
       </c>
       <c r="E56" s="3">
@@ -5740,11 +5744,11 @@
         <v>27</v>
       </c>
       <c r="O56" s="22">
-        <f>SUM(K56*(24/L56))</f>
+        <f t="shared" si="6"/>
         <v>34.285714285714285</v>
       </c>
       <c r="P56" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11.8125</v>
       </c>
       <c r="Q56">
@@ -5760,10 +5764,10 @@
         <v>63</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AC56" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -5774,10 +5778,10 @@
         <v>3</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D57" s="25">
-        <f>SUM(E57/F57)</f>
+        <f t="shared" si="5"/>
         <v>1.6481481481481481</v>
       </c>
       <c r="E57" s="3">
@@ -5788,7 +5792,7 @@
         <v>270</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5812,11 +5816,11 @@
         <v>27</v>
       </c>
       <c r="O57" s="22">
-        <f>SUM(K57*(24/L57))</f>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="P57" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.5925925925925926</v>
       </c>
       <c r="Q57">
@@ -5835,10 +5839,10 @@
         <v>95</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AC57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -5849,10 +5853,10 @@
         <v>3</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D58" s="25">
-        <f>SUM(E58/F58)</f>
+        <f t="shared" si="5"/>
         <v>2.2229166666666669</v>
       </c>
       <c r="E58" s="3">
@@ -5863,7 +5867,7 @@
         <v>218.18181818181816</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5887,11 +5891,11 @@
         <v>27</v>
       </c>
       <c r="O58" s="22">
-        <f>SUM(K58*(24/L58))</f>
+        <f t="shared" si="6"/>
         <v>54.54545454545454</v>
       </c>
       <c r="P58" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.8916666666666675</v>
       </c>
       <c r="Q58">
@@ -5910,10 +5914,10 @@
         <v>95</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AC58" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -5924,10 +5928,10 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D59" s="25">
-        <f>SUM(E59/F59)</f>
+        <f t="shared" si="5"/>
         <v>1.875</v>
       </c>
       <c r="E59" s="27">
@@ -5960,11 +5964,11 @@
         <v>27</v>
       </c>
       <c r="O59" s="22">
-        <f>SUM(K59*(24/L59))</f>
+        <f t="shared" si="6"/>
         <v>21.333333333333332</v>
       </c>
       <c r="P59" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
       <c r="Q59">
@@ -5980,13 +5984,13 @@
         <v>63</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AC59" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6018,7 +6022,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6030,46 +6034,54 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>535353</v>
@@ -6077,21 +6089,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -6099,33 +6111,33 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6141,6 +6153,7 @@
     <hyperlink ref="B9" r:id="rId9" xr:uid="{30B96002-C472-4D34-B415-6B765E806C5D}"/>
     <hyperlink ref="B34" r:id="rId10" xr:uid="{D31A7C5E-F80D-43F1-B916-5FFD301F56C0}"/>
     <hyperlink ref="B35" r:id="rId11" xr:uid="{1ED708A2-B7EB-4B5F-B7E3-EB5A30E24FB9}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{886742FD-310D-49B2-9293-8E0E591171E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F621A8CA-E2DE-4953-9E7F-003AC2D52427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FED39E-73E7-44C5-88CB-F349456A9D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
   <si>
     <t>Rogue</t>
   </si>
@@ -706,6 +706,18 @@
   </si>
   <si>
     <t>Ice everywhere.  Increased slow, same effect.</t>
+  </si>
+  <si>
+    <t>https://opengameart.org/content/dungeon-crawl-32x32-tiles-supplemental</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>https://game-icons.net/1x1/delapouite/locked-box.html</t>
+  </si>
+  <si>
+    <t>LockIcon</t>
   </si>
 </sst>
 </file>
@@ -865,16 +877,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -978,6 +980,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1042,25 +1054,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="12" connectionId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="11" connectionId="4">
   <autoFilter ref="A1:AC59" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB58">
     <sortCondition ref="A2:A58"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="10"/>
+    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="9">
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="8">
       <calculatedColumnFormula>SUM(E2/F2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="6">
       <calculatedColumnFormula>SUM(K2*(24/L2))*J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
       <xmlColumnPr mapId="4" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
@@ -1070,22 +1082,22 @@
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
       <xmlColumnPr mapId="4" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="4">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="3">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="2">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
       <xmlColumnPr mapId="4" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="1">
       <calculatedColumnFormula>SUM(K2*(24/L2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="0">
       <calculatedColumnFormula>SUM(E2/O2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
@@ -4000,7 +4012,7 @@
         <v>113</v>
       </c>
       <c r="D34" s="25">
-        <f t="shared" ref="D34:D65" si="5">SUM(E34/F34)</f>
+        <f t="shared" ref="D34:D59" si="5">SUM(E34/F34)</f>
         <v>1.8055555555555556</v>
       </c>
       <c r="E34" s="3">
@@ -6007,7 +6019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1:S59 W60:W1048576 V59 T52:T58">
-    <cfRule type="top10" dxfId="0" priority="1" percent="1" rank="2"/>
+    <cfRule type="top10" dxfId="12" priority="1" percent="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6019,16 +6031,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE09F64A-DC11-4CAE-88CF-3AF0D1B981A9}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6070,6 +6082,14 @@
         <v>214</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
@@ -6119,12 +6139,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
         <v>169</v>
       </c>
@@ -6132,12 +6152,20 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
         <v>171</v>
       </c>
       <c r="C35" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6154,6 +6182,8 @@
     <hyperlink ref="B34" r:id="rId10" xr:uid="{D31A7C5E-F80D-43F1-B916-5FFD301F56C0}"/>
     <hyperlink ref="B35" r:id="rId11" xr:uid="{1ED708A2-B7EB-4B5F-B7E3-EB5A30E24FB9}"/>
     <hyperlink ref="B4" r:id="rId12" xr:uid="{886742FD-310D-49B2-9293-8E0E591171E1}"/>
+    <hyperlink ref="B37" r:id="rId13" xr:uid="{55BBA61B-E677-4560-A5EF-2C662A7678F0}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{E02FE0EE-1C80-4B24-A265-D4F89CE00BD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FED39E-73E7-44C5-88CB-F349456A9D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4332546-946E-473E-9F98-C5D5803DC2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="237">
   <si>
     <t>Rogue</t>
   </si>
@@ -234,9 +236,6 @@
     <t>flame</t>
   </si>
   <si>
-    <t>Bigger, badder, and hits 2 guys now.  This tower likes fire.</t>
-  </si>
-  <si>
     <t>Demolitionist.  More damage, more explosions.  What'd you expect?</t>
   </si>
   <si>
@@ -264,9 +263,6 @@
     <t>Samurai.  Hits fast and heavy.</t>
   </si>
   <si>
-    <t>Each strike will provide 5% increased attack speed to adjacent towers for 2 seconds.</t>
-  </si>
-  <si>
     <t>Icicle</t>
   </si>
   <si>
@@ -618,9 +614,6 @@
     <t>This master of swordsmanship has the ability to bash an enemy and stun them for 2 seconds.</t>
   </si>
   <si>
-    <t>hit,stun,.15,2</t>
-  </si>
-  <si>
     <t>A sweet serenade for those unknowing participants to death's song.</t>
   </si>
   <si>
@@ -669,39 +662,15 @@
     <t>hit,chain,2,6,.15,75,fire</t>
   </si>
   <si>
-    <t>Calls upon Elven spirits to increase nearby towers attack speed by 12%.</t>
-  </si>
-  <si>
     <t>Little tinkerer.  Gives adjacent towers 5% attack speed &amp; dmg boosts.</t>
   </si>
   <si>
-    <t>time,dmgBuff,.05,1</t>
-  </si>
-  <si>
-    <t>time,atkSpdBuff,.05,1</t>
-  </si>
-  <si>
-    <t>time,atkSpdBuff,.12,2</t>
-  </si>
-  <si>
-    <t>time,dmgBuff,.12,2</t>
-  </si>
-  <si>
-    <t>time,dmgBuff,.20,2</t>
-  </si>
-  <si>
     <t>https://game-icons.net/1x1/delapouite/road.html</t>
   </si>
   <si>
     <t>IcedRoad</t>
   </si>
   <si>
-    <t>diagGrid,icedRoad,.28,1</t>
-  </si>
-  <si>
-    <t>diagGrid,icedRoad,.34,1</t>
-  </si>
-  <si>
     <t>Literally freezes the roads surrounding it, slowing enemy movement speed.  Hits every tower in its' range.</t>
   </si>
   <si>
@@ -718,6 +687,81 @@
   </si>
   <si>
     <t>LockIcon</t>
+  </si>
+  <si>
+    <t>RedSlash</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>IceShot</t>
+  </si>
+  <si>
+    <t>DemonShot</t>
+  </si>
+  <si>
+    <t>CannonShot</t>
+  </si>
+  <si>
+    <t>BulletShot</t>
+  </si>
+  <si>
+    <t>LightningShot</t>
+  </si>
+  <si>
+    <t>ArrowShot</t>
+  </si>
+  <si>
+    <t>timer,dmgBuff,.12,2</t>
+  </si>
+  <si>
+    <t>timer,dmgBuff,.20,2</t>
+  </si>
+  <si>
+    <t>timer,icedRoad,.28,1</t>
+  </si>
+  <si>
+    <t>timer,icedRoad,.34,1</t>
+  </si>
+  <si>
+    <t>timer,atkSpdBuff,.05,1</t>
+  </si>
+  <si>
+    <t>timer,dmgBuff,.05,1</t>
+  </si>
+  <si>
+    <t>hit,henchant,.05,1,2</t>
+  </si>
+  <si>
+    <t>Each strike will provide 5% increased attack speed to adjacent towers for 2 seconds (stacks)</t>
+  </si>
+  <si>
+    <t>hit,stun,.15,.5</t>
+  </si>
+  <si>
+    <t>hit,penitence,.25,2</t>
+  </si>
+  <si>
+    <t>timer,atkSpdBuff,.15,2</t>
+  </si>
+  <si>
+    <t>Calls upon Elven spirits to increase nearby towers attack speed by 15%.</t>
+  </si>
+  <si>
+    <t>timer,dmgBuff,.12,3</t>
+  </si>
+  <si>
+    <t>Same aura, but now it extends +1 range.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burn, burn, burn, my darling.  </t>
+  </si>
+  <si>
+    <t>timer,fireRoad,52,1</t>
+  </si>
+  <si>
+    <t>timer,fireRoad,200,1</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1488,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="K7" sqref="K7"/>
+      <selection pane="topRight" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,9 +1510,10 @@
     <col min="12" max="12" width="6.140625" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="21" customWidth="1"/>
-    <col min="18" max="18" width="7" style="21" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="21" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="21" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -1487,10 +1532,10 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>24</v>
@@ -1499,13 +1544,13 @@
         <v>32</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>18</v>
@@ -1547,28 +1592,28 @@
         <v>34</v>
       </c>
       <c r="U1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Y1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>35</v>
@@ -1625,8 +1670,8 @@
         <f>SUM(E2/O2)</f>
         <v>2.3076923076923079</v>
       </c>
-      <c r="Q2" s="5">
-        <v>5</v>
+      <c r="Q2" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R2" s="5">
         <v>20</v>
@@ -1644,14 +1689,14 @@
         <v>3</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1705,8 +1750,8 @@
         <f>SUM(E3/O3)</f>
         <v>2.0928030303030303</v>
       </c>
-      <c r="Q3" s="5">
-        <v>5</v>
+      <c r="Q3" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R3" s="5">
         <v>30</v>
@@ -1725,13 +1770,13 @@
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1746,14 +1791,14 @@
       </c>
       <c r="D4" s="25">
         <f t="shared" si="0"/>
-        <v>0.98412698412698407</v>
+        <v>1.1481481481481481</v>
       </c>
       <c r="E4" s="3">
         <v>310</v>
       </c>
       <c r="F4" s="22">
         <f t="shared" si="1"/>
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4">
@@ -1763,10 +1808,10 @@
         <v>106</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="L4" s="2">
         <v>16</v>
@@ -1775,18 +1820,18 @@
         <v>180</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O4" s="22">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="P4" s="20">
         <f t="shared" ref="P4:P59" si="3">SUM(E4/O4)</f>
-        <v>2.9523809523809526</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>5</v>
+        <v>1.1481481481481481</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R4" s="5">
         <v>30</v>
@@ -1802,13 +1847,13 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1823,14 +1868,14 @@
       </c>
       <c r="D5" s="25">
         <f t="shared" si="0"/>
-        <v>1.1481481481481481</v>
+        <v>0.98412698412698407</v>
       </c>
       <c r="E5" s="3">
         <v>310</v>
       </c>
       <c r="F5" s="22">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5">
@@ -1840,10 +1885,10 @@
         <v>106</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2">
         <v>16</v>
@@ -1852,18 +1897,18 @@
         <v>180</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>105</v>
       </c>
       <c r="P5" s="20">
         <f t="shared" si="3"/>
-        <v>1.1481481481481481</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>5</v>
+        <v>2.9523809523809526</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R5" s="5">
         <v>30</v>
@@ -1878,13 +1923,13 @@
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1938,8 +1983,8 @@
         <f t="shared" si="3"/>
         <v>1.9444444444444444</v>
       </c>
-      <c r="Q6" s="5">
-        <v>5</v>
+      <c r="Q6" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R6" s="5">
         <v>20</v>
@@ -1963,7 +2008,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2018,8 +2063,8 @@
         <f t="shared" si="3"/>
         <v>2.4204545454545454</v>
       </c>
-      <c r="Q7" s="5">
-        <v>5</v>
+      <c r="Q7" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R7" s="5">
         <v>30</v>
@@ -2035,13 +2080,13 @@
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -2096,8 +2141,8 @@
         <f t="shared" si="3"/>
         <v>2.0277777777777777</v>
       </c>
-      <c r="Q8" s="5">
-        <v>5</v>
+      <c r="Q8" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R8" s="5">
         <v>30</v>
@@ -2113,13 +2158,13 @@
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2173,8 +2218,8 @@
         <f t="shared" si="3"/>
         <v>4.5454545454545459</v>
       </c>
-      <c r="Q9" s="5">
-        <v>5</v>
+      <c r="Q9" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R9" s="5">
         <v>30</v>
@@ -2194,13 +2239,13 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -2255,8 +2300,8 @@
         <f t="shared" si="3"/>
         <v>1.4545454545454546</v>
       </c>
-      <c r="Q10" s="5">
-        <v>5</v>
+      <c r="Q10" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R10" s="5">
         <v>30</v>
@@ -2272,13 +2317,13 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -2335,8 +2380,8 @@
         <f>SUM(E11/O11)</f>
         <v>6.5497076023391818</v>
       </c>
-      <c r="Q11" s="5">
-        <v>5</v>
+      <c r="Q11" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R11" s="5">
         <v>30</v>
@@ -2352,13 +2397,13 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2369,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="0"/>
@@ -2412,8 +2457,8 @@
         <f t="shared" si="3"/>
         <v>1.4705882352941178</v>
       </c>
-      <c r="Q12" s="5">
-        <v>8</v>
+      <c r="Q12" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R12" s="5">
         <v>50</v>
@@ -2482,7 +2527,7 @@
         <v>100</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="2"/>
@@ -2492,8 +2537,8 @@
         <f t="shared" si="3"/>
         <v>1.7333333333333334</v>
       </c>
-      <c r="Q13" s="5">
-        <v>8</v>
+      <c r="Q13" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R13" s="5">
         <v>50</v>
@@ -2508,17 +2553,17 @@
         <v>38</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2533,14 +2578,14 @@
       </c>
       <c r="D14" s="25">
         <f t="shared" si="0"/>
-        <v>1.171875</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="E14" s="3">
         <v>300</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14">
@@ -2553,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="L14" s="2">
         <v>12</v>
@@ -2562,18 +2607,18 @@
         <v>170</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="3"/>
-        <v>1.171875</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>8</v>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R14" s="5">
         <v>50</v>
@@ -2593,7 +2638,7 @@
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2604,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
@@ -2637,7 +2682,7 @@
         <v>220</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="2"/>
@@ -2647,8 +2692,8 @@
         <f t="shared" si="3"/>
         <v>1.3048245614035088</v>
       </c>
-      <c r="Q15" s="5">
-        <v>8</v>
+      <c r="Q15" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R15" s="5">
         <v>50</v>
@@ -2664,13 +2709,13 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2714,7 +2759,7 @@
         <v>115</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O16" s="22">
         <f t="shared" si="2"/>
@@ -2724,8 +2769,8 @@
         <f t="shared" si="3"/>
         <v>1.5535714285714286</v>
       </c>
-      <c r="Q16" s="5">
-        <v>8</v>
+      <c r="Q16" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R16" s="5">
         <v>50</v>
@@ -2737,13 +2782,15 @@
         <v>49</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V16" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
@@ -2794,7 +2841,7 @@
         <v>190</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="2"/>
@@ -2804,8 +2851,8 @@
         <f t="shared" si="3"/>
         <v>1.4888888888888889</v>
       </c>
-      <c r="Q17" s="5">
-        <v>8</v>
+      <c r="Q17" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R17" s="5">
         <v>50</v>
@@ -2821,13 +2868,13 @@
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2842,14 +2889,14 @@
       </c>
       <c r="D18" s="25">
         <f t="shared" si="0"/>
-        <v>1.3368055555555556</v>
+        <v>1.925</v>
       </c>
       <c r="E18" s="3">
         <v>385</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" si="4"/>
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18">
@@ -2862,33 +2909,33 @@
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="L18" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M18" s="3">
         <v>240</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="P18" s="20">
         <f t="shared" si="3"/>
-        <v>1.3368055555555556</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>8</v>
+        <v>1.925</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R18" s="5">
         <v>50</v>
       </c>
       <c r="S18" s="5">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>49</v>
@@ -2897,12 +2944,14 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="Y18" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2956,8 +3005,8 @@
         <f t="shared" si="3"/>
         <v>1.6875000000000002</v>
       </c>
-      <c r="Q19" s="5">
-        <v>8</v>
+      <c r="Q19" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R19" s="5">
         <v>50</v>
@@ -2971,17 +3020,19 @@
       <c r="U19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V19" s="4"/>
+      <c r="V19" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2996,14 +3047,15 @@
       </c>
       <c r="D20" s="25">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>2.4166666666666665</v>
       </c>
       <c r="E20" s="3">
-        <v>181</v>
+        <f>SUM(Table1[[#This Row],[Cost]]+E19)</f>
+        <v>580</v>
       </c>
       <c r="F20" s="22">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20">
@@ -3016,33 +3068,33 @@
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="L20" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M20" s="3">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="O20" s="22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="P20" s="20">
         <f t="shared" si="3"/>
-        <v>181</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>8</v>
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R20" s="5">
         <v>50</v>
       </c>
       <c r="S20" s="5">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>49</v>
@@ -3051,11 +3103,15 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="Y20" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
+      <c r="AC20" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
@@ -3108,8 +3164,8 @@
         <f t="shared" si="3"/>
         <v>1.7037037037037037</v>
       </c>
-      <c r="Q21" s="5">
-        <v>8</v>
+      <c r="Q21" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="R21" s="5">
         <v>50</v>
@@ -3125,13 +3181,13 @@
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:29" collapsed="1" x14ac:dyDescent="0.25">
@@ -3142,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="0"/>
@@ -3185,8 +3241,8 @@
         <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
-      <c r="Q22" s="5">
-        <v>2</v>
+      <c r="Q22" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="R22" s="5">
         <v>12</v>
@@ -3198,13 +3254,13 @@
         <v>60</v>
       </c>
       <c r="U22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="W22" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W22" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -3225,16 +3281,16 @@
       <c r="C23" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>1.5705128205128205</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E23" s="3">
         <v>210</v>
       </c>
       <c r="F23" s="22">
         <f>SUM(K23*(24/L23))*G23</f>
-        <v>133.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5">
         <v>3</v>
@@ -3249,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="M23" s="3">
         <v>155</v>
@@ -3262,14 +3318,14 @@
       </c>
       <c r="O23" s="22">
         <f t="shared" si="2"/>
-        <v>44.571428571428569</v>
-      </c>
-      <c r="P23" s="20">
+        <v>0</v>
+      </c>
+      <c r="P23" s="20" t="e">
         <f t="shared" si="3"/>
-        <v>4.7115384615384617</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="R23" s="5">
         <v>50</v>
@@ -3278,22 +3334,24 @@
         <v>14</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y23" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3304,18 +3362,18 @@
         <v>3</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" s="25">
+        <v>74</v>
+      </c>
+      <c r="D24" s="25" t="e">
         <f t="shared" si="0"/>
-        <v>1.2152777777777779</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E24" s="3">
         <v>420</v>
       </c>
       <c r="F24" s="22">
         <f>SUM(K24*(24/L24))*G24</f>
-        <v>345.59999999999997</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5">
         <v>3</v>
@@ -3330,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
         <v>24</v>
-      </c>
-      <c r="L24" s="2">
-        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>210</v>
@@ -3343,14 +3401,14 @@
       </c>
       <c r="O24" s="22">
         <f t="shared" si="2"/>
-        <v>115.19999999999999</v>
-      </c>
-      <c r="P24" s="20">
+        <v>0</v>
+      </c>
+      <c r="P24" s="20" t="e">
         <f t="shared" si="3"/>
-        <v>3.6458333333333335</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="R24" s="5">
         <v>50</v>
@@ -3359,20 +3417,22 @@
         <v>33</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y24" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3383,7 +3443,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="25" t="e">
         <f t="shared" si="0"/>
@@ -3419,7 +3479,7 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -3435,18 +3495,19 @@
         <v>2</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" si="0"/>
-        <v>1.3839285714285714</v>
+        <v>1.7222222222222223</v>
       </c>
       <c r="E26" s="3">
+        <f>SUM(E22+Table1[[#This Row],[Cost]])</f>
         <v>155</v>
       </c>
       <c r="F26" s="22">
         <f>SUM(K26*(24/L26))*J26</f>
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26">
@@ -3456,13 +3517,13 @@
         <v>82</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
@@ -3472,14 +3533,14 @@
       </c>
       <c r="O26" s="22">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="3"/>
-        <v>2.7678571428571428</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>2</v>
+        <f>SUM(E26/O26)</f>
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="R26" s="5">
         <v>12</v>
@@ -3491,7 +3552,7 @@
         <v>60</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
@@ -3501,7 +3562,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4" t="s">
-        <v>61</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3512,7 +3573,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="0"/>
@@ -3555,8 +3616,8 @@
         <f t="shared" si="3"/>
         <v>3.5267857142857144</v>
       </c>
-      <c r="Q27" s="5">
-        <v>2</v>
+      <c r="Q27" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="R27" s="5">
         <v>12</v>
@@ -3576,7 +3637,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3587,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="25" t="e">
         <f t="shared" si="0"/>
@@ -3680,8 +3741,8 @@
         <f t="shared" si="3"/>
         <v>4.7272727272727275</v>
       </c>
-      <c r="Q29" s="5">
-        <v>10</v>
+      <c r="Q29" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="R29" s="5">
         <v>12</v>
@@ -3690,16 +3751,16 @@
         <v>13</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
@@ -3716,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" s="25">
         <f t="shared" si="0"/>
@@ -3761,8 +3822,8 @@
         <f t="shared" si="3"/>
         <v>4.453125</v>
       </c>
-      <c r="Q30" s="5">
-        <v>10</v>
+      <c r="Q30" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="R30" s="5">
         <v>12</v>
@@ -3771,20 +3832,20 @@
         <v>35</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3795,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="25" t="e">
         <f t="shared" si="0"/>
@@ -3843,7 +3904,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="25">
         <f t="shared" si="0"/>
@@ -3888,8 +3949,8 @@
         <f t="shared" si="3"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="Q32" s="5">
-        <v>3</v>
+      <c r="Q32" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R32" s="5">
         <v>24</v>
@@ -3898,26 +3959,26 @@
         <v>4</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -3928,7 +3989,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="25">
         <f t="shared" si="0"/>
@@ -3973,8 +4034,8 @@
         <f t="shared" si="3"/>
         <v>5.9210526315789469</v>
       </c>
-      <c r="Q33" s="5">
-        <v>3</v>
+      <c r="Q33" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R33" s="5">
         <v>26</v>
@@ -3983,22 +4044,22 @@
         <v>16</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -4009,7 +4070,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" s="25">
         <f t="shared" ref="D34:D59" si="5">SUM(E34/F34)</f>
@@ -4055,8 +4116,8 @@
         <f t="shared" si="3"/>
         <v>5.4166666666666661</v>
       </c>
-      <c r="Q34" s="5">
-        <v>3</v>
+      <c r="Q34" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R34" s="5">
         <v>28</v>
@@ -4065,20 +4126,20 @@
         <v>43</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4089,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="25">
         <f t="shared" si="5"/>
@@ -4132,8 +4193,8 @@
         <f t="shared" si="3"/>
         <v>2.0754716981132075</v>
       </c>
-      <c r="Q35" s="5">
-        <v>4</v>
+      <c r="Q35" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R35" s="5">
         <v>30</v>
@@ -4142,24 +4203,24 @@
         <v>17</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z35" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="Z35" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4170,7 +4231,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="25">
         <f t="shared" si="5"/>
@@ -4213,8 +4274,8 @@
         <f t="shared" si="3"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="Q36" s="5">
-        <v>4</v>
+      <c r="Q36" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R36" s="5">
         <v>30</v>
@@ -4223,22 +4284,22 @@
         <v>42</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z36" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="Z36" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4253,14 +4314,14 @@
       </c>
       <c r="D37" s="25">
         <f t="shared" si="5"/>
-        <v>2.2222222222222223</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E37" s="3">
         <v>160</v>
       </c>
       <c r="F37" s="22">
         <f t="shared" ref="F37:F42" si="7">SUM(K37*(24/L37))*G37</f>
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="G37" s="5">
         <v>4</v>
@@ -4275,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="K37" s="1">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="L37" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M37" s="3">
         <v>120</v>
@@ -4288,14 +4349,14 @@
       </c>
       <c r="O37" s="22">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="P37" s="20">
         <f t="shared" si="3"/>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>0</v>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R37" s="5">
         <v>50</v>
@@ -4304,26 +4365,26 @@
         <v>15</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y37" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4334,18 +4395,18 @@
         <v>3</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38" s="25">
         <f t="shared" si="5"/>
-        <v>1.625</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="E38" s="3">
         <v>390</v>
       </c>
       <c r="F38" s="22">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>560</v>
       </c>
       <c r="G38" s="5">
         <v>4</v>
@@ -4360,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="L38" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M38" s="3">
         <v>230</v>
@@ -4373,14 +4434,14 @@
       </c>
       <c r="O38" s="22">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="P38" s="20">
         <f t="shared" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="Q38" s="5">
-        <v>0</v>
+        <v>2.7857142857142856</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R38" s="5">
         <v>50</v>
@@ -4389,22 +4450,22 @@
         <v>37</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y38" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4415,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="25">
         <f t="shared" si="5"/>
@@ -4460,8 +4521,8 @@
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
-      <c r="Q39" s="5">
-        <v>0</v>
+      <c r="Q39" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="R39" s="5">
         <v>50</v>
@@ -4470,20 +4531,20 @@
         <v>36</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4539,20 +4600,20 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="Q40" s="5">
-        <v>6</v>
+      <c r="Q40" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="R40" s="5">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="S40" s="5">
         <v>5</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>21</v>
@@ -4620,8 +4681,8 @@
         <f t="shared" si="3"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="Q41" s="5">
-        <v>6</v>
+      <c r="Q41" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="R41" s="5">
         <v>30</v>
@@ -4630,10 +4691,10 @@
         <v>18</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -4643,7 +4704,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -4654,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="25">
         <f t="shared" si="5"/>
@@ -4699,8 +4760,8 @@
         <f t="shared" si="3"/>
         <v>3.1333333333333333</v>
       </c>
-      <c r="Q42" s="5">
-        <v>6</v>
+      <c r="Q42" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="R42" s="5">
         <v>30</v>
@@ -4709,7 +4770,7 @@
         <v>38</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -4720,7 +4781,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -4774,8 +4835,8 @@
         <f t="shared" si="3"/>
         <v>1.5625</v>
       </c>
-      <c r="Q43" s="5">
-        <v>1</v>
+      <c r="Q43" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="R43" s="5">
         <v>40</v>
@@ -4784,10 +4845,10 @@
         <v>28</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -4808,7 +4869,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="25">
         <f t="shared" si="5"/>
@@ -4851,8 +4912,8 @@
         <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
-      <c r="Q44" s="5">
-        <v>1</v>
+      <c r="Q44" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="R44" s="5">
         <v>40</v>
@@ -4861,7 +4922,7 @@
         <v>39</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -4872,7 +4933,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -4926,8 +4987,8 @@
         <f t="shared" si="3"/>
         <v>2.2159090909090908</v>
       </c>
-      <c r="Q45" s="5">
-        <v>7</v>
+      <c r="Q45" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="R45" s="5">
         <v>20</v>
@@ -4936,7 +4997,7 @@
         <v>20</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U45" s="4" t="s">
         <v>29</v>
@@ -4945,7 +5006,7 @@
         <v>20</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
@@ -5007,8 +5068,8 @@
         <f t="shared" si="3"/>
         <v>4.3055555555555554</v>
       </c>
-      <c r="Q46" s="5">
-        <v>7</v>
+      <c r="Q46" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="R46" s="5">
         <v>20</v>
@@ -5017,10 +5078,10 @@
         <v>21</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -5041,7 +5102,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D47" s="25">
         <f t="shared" si="5"/>
@@ -5084,8 +5145,8 @@
         <f t="shared" si="3"/>
         <v>5.2666666666666666</v>
       </c>
-      <c r="Q47" s="5">
-        <v>7</v>
+      <c r="Q47" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="R47" s="5">
         <v>20</v>
@@ -5094,7 +5155,7 @@
         <v>40</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -5105,7 +5166,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -5159,8 +5220,8 @@
         <f t="shared" si="3"/>
         <v>1.7788461538461537</v>
       </c>
-      <c r="Q48" s="5">
-        <v>9</v>
+      <c r="Q48" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="R48" s="5">
         <v>20</v>
@@ -5169,10 +5230,10 @@
         <v>30</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
@@ -5193,7 +5254,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" s="25">
         <f t="shared" si="5"/>
@@ -5236,8 +5297,8 @@
         <f t="shared" si="3"/>
         <v>1.4107142857142858</v>
       </c>
-      <c r="Q49" s="5">
-        <v>9</v>
+      <c r="Q49" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="R49" s="5">
         <v>20</v>
@@ -5246,7 +5307,7 @@
         <v>41</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -5257,7 +5318,7 @@
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -5268,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" s="25">
         <f t="shared" si="5"/>
@@ -5313,8 +5374,8 @@
         <f t="shared" si="3"/>
         <v>4.7619047619047619</v>
       </c>
-      <c r="Q50" s="5">
-        <v>9</v>
+      <c r="Q50" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="R50" s="5">
         <v>20</v>
@@ -5323,22 +5384,22 @@
         <v>44</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -5349,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" s="25">
         <f t="shared" si="5"/>
@@ -5394,8 +5455,8 @@
         <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
-      <c r="Q51" s="5">
-        <v>9</v>
+      <c r="Q51" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="R51" s="5">
         <v>20</v>
@@ -5404,20 +5465,20 @@
         <v>45</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -5428,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="25">
         <f t="shared" si="5"/>
@@ -5446,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -5471,8 +5532,8 @@
         <f t="shared" si="3"/>
         <v>1.7857142857142858</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
+      <c r="Q52" t="s">
+        <v>215</v>
       </c>
       <c r="R52">
         <v>20</v>
@@ -5481,19 +5542,19 @@
         <v>46</v>
       </c>
       <c r="T52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V52" t="s">
+        <v>136</v>
+      </c>
+      <c r="W52" t="s">
         <v>138</v>
       </c>
-      <c r="W52" t="s">
-        <v>140</v>
-      </c>
       <c r="AC52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -5504,7 +5565,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D53" s="25">
         <f t="shared" si="5"/>
@@ -5522,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -5547,8 +5608,8 @@
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
+      <c r="Q53" t="s">
+        <v>215</v>
       </c>
       <c r="R53">
         <v>20</v>
@@ -5557,16 +5618,16 @@
         <v>47</v>
       </c>
       <c r="T53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Y53" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC53" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -5577,7 +5638,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" s="25">
         <f t="shared" si="5"/>
@@ -5595,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -5620,8 +5681,8 @@
         <f t="shared" si="3"/>
         <v>1.1956521739130435</v>
       </c>
-      <c r="Q54">
-        <v>0</v>
+      <c r="Q54" t="s">
+        <v>215</v>
       </c>
       <c r="R54">
         <v>20</v>
@@ -5630,16 +5691,16 @@
         <v>48</v>
       </c>
       <c r="T54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U54" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Y54" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AC54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -5650,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="25">
         <f t="shared" si="5"/>
@@ -5693,8 +5754,8 @@
         <f t="shared" si="3"/>
         <v>1.4074074074074074</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
+      <c r="Q55" t="s">
+        <v>215</v>
       </c>
       <c r="R55">
         <v>20</v>
@@ -5703,13 +5764,13 @@
         <v>49</v>
       </c>
       <c r="T55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -5720,7 +5781,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" s="25">
         <f t="shared" si="5"/>
@@ -5763,8 +5824,8 @@
         <f t="shared" si="3"/>
         <v>11.8125</v>
       </c>
-      <c r="Q56">
-        <v>0</v>
+      <c r="Q56" t="s">
+        <v>215</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -5773,13 +5834,13 @@
         <v>50</v>
       </c>
       <c r="T56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y56" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC56" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -5790,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D57" s="25">
         <f t="shared" si="5"/>
@@ -5804,7 +5865,7 @@
         <v>270</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5835,8 +5896,8 @@
         <f t="shared" si="3"/>
         <v>6.5925925925925926</v>
       </c>
-      <c r="Q57">
-        <v>0</v>
+      <c r="Q57" t="s">
+        <v>215</v>
       </c>
       <c r="R57">
         <v>50</v>
@@ -5845,16 +5906,16 @@
         <v>51</v>
       </c>
       <c r="T57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AC57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -5865,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D58" s="25">
         <f t="shared" si="5"/>
@@ -5879,7 +5940,7 @@
         <v>218.18181818181816</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5910,8 +5971,8 @@
         <f t="shared" si="3"/>
         <v>8.8916666666666675</v>
       </c>
-      <c r="Q58">
-        <v>0</v>
+      <c r="Q58" t="s">
+        <v>215</v>
       </c>
       <c r="R58">
         <v>50</v>
@@ -5920,16 +5981,16 @@
         <v>52</v>
       </c>
       <c r="T58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AC58" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -5940,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D59" s="25">
         <f t="shared" si="5"/>
@@ -5983,8 +6044,8 @@
         <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
+      <c r="Q59" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="R59">
         <v>50</v>
@@ -5993,16 +6054,16 @@
         <v>54</v>
       </c>
       <c r="T59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y59" s="4" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="AC59" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6046,29 +6107,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -6076,32 +6137,32 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="D9" t="s">
         <v>165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
       </c>
       <c r="E9">
         <v>535353</v>
@@ -6109,21 +6170,21 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -6131,41 +6192,41 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4332546-946E-473E-9F98-C5D5803DC2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F5C27-F6CA-4404-9246-F7D8D63DDDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
+    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,11 +47,20 @@
   <connection id="4" xr16:uid="{A691AC1E-105E-4818-9B56-80960F8968BC}" name="TowersList3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="5" xr16:uid="{092BD904-80E6-4F4D-A613-E21AE015FAB3}" name="TowersList4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" xr16:uid="{F856831E-13AF-4218-AA7E-F825C419D3E2}" name="TowersList5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="7" xr16:uid="{65ADF824-5BA0-452B-BE15-19A8D2A25A6D}" name="TowersList6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\TowersList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="258">
   <si>
     <t>Rogue</t>
   </si>
@@ -101,9 +110,6 @@
     <t>ice</t>
   </si>
   <si>
-    <t>Min DPS</t>
-  </si>
-  <si>
     <t>Atk Speed</t>
   </si>
   <si>
@@ -122,9 +128,6 @@
     <t>Max DPS</t>
   </si>
   <si>
-    <t>Gold per Min DPS</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -149,9 +152,6 @@
     <t>bulletFrame</t>
   </si>
   <si>
-    <t>G/M.DPS</t>
-  </si>
-  <si>
     <t>towerFrame</t>
   </si>
   <si>
@@ -221,9 +221,6 @@
     <t>I dare you to touch it.  Electricity travels fast and far.  Hey, what's this knob do?</t>
   </si>
   <si>
-    <t>Goes *Pew* *Pew* *Pew*.  Enemies think it's too hot.  We think it's justtt right.</t>
-  </si>
-  <si>
     <t>It's a Knight in shining armor.  Gives a debuff that increases enemy's damage taken by 10% for 2 seconds. Tips fedora a lot.</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>Hits 3 people now.  Wow, what a unique and non-linear upgrade path this tower goes.</t>
-  </si>
-  <si>
     <t>Hot Spot</t>
   </si>
   <si>
@@ -527,9 +521,6 @@
     <t>The Demonologist.  Carries around a funny looking book.  Really likes dead things.</t>
   </si>
   <si>
-    <t>hit,poison,0,40,5</t>
-  </si>
-  <si>
     <t>Applies a 10% dmg taken increase to all enemies it hits.  Hits everyone, does medium damage.</t>
   </si>
   <si>
@@ -620,9 +611,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>Hunts down his prey and.. well, this game is kid friendly, so let's just say it's not good.  Poisons 40dps for 5 seconds, but has low damage.</t>
-  </si>
-  <si>
     <t>Bigger splash &amp; range, still slows 25%.</t>
   </si>
   <si>
@@ -644,12 +632,6 @@
     <t>Like it's hot.  But not too hot.</t>
   </si>
   <si>
-    <t>Burns the ground around it in a hot, fiery, fire flame.</t>
-  </si>
-  <si>
-    <t>Makes your enemies nice and crispy.</t>
-  </si>
-  <si>
     <t>hit,chain,3,6,.15,75,fire</t>
   </si>
   <si>
@@ -725,21 +707,12 @@
     <t>timer,icedRoad,.34,1</t>
   </si>
   <si>
-    <t>timer,atkSpdBuff,.05,1</t>
-  </si>
-  <si>
-    <t>timer,dmgBuff,.05,1</t>
-  </si>
-  <si>
     <t>hit,henchant,.05,1,2</t>
   </si>
   <si>
     <t>Each strike will provide 5% increased attack speed to adjacent towers for 2 seconds (stacks)</t>
   </si>
   <si>
-    <t>hit,stun,.15,.5</t>
-  </si>
-  <si>
     <t>hit,penitence,.25,2</t>
   </si>
   <si>
@@ -755,13 +728,112 @@
     <t>Same aura, but now it extends +1 range.</t>
   </si>
   <si>
-    <t xml:space="preserve">Burn, burn, burn, my darling.  </t>
-  </si>
-  <si>
     <t>timer,fireRoad,52,1</t>
   </si>
   <si>
-    <t>timer,fireRoad,200,1</t>
+    <t>timer,fireRoad,120,2</t>
+  </si>
+  <si>
+    <t>timer,fireRoad,230,1</t>
+  </si>
+  <si>
+    <t>Burn range increased by 1 &amp; does more damage.</t>
+  </si>
+  <si>
+    <t>SolarFlare</t>
+  </si>
+  <si>
+    <t>A strong tower on its own, it has a very small AoE which takes this from okay to OP.  Why am I telling you this!?</t>
+  </si>
+  <si>
+    <t>These upgrade of towers eliminate tower attack, instead opting to set the road directly surrounding it on fire, dealing damage per second.</t>
+  </si>
+  <si>
+    <t>Makes your enemies nice and crispy by increasing the heat.</t>
+  </si>
+  <si>
+    <t>Hits 3 people now.  How cool now?  3?!</t>
+  </si>
+  <si>
+    <t>Shoots far, hits hard.  No burn or AoE, but I mean, why not just kill the guy you were aiming at?</t>
+  </si>
+  <si>
+    <t>hit,shock,8,.05,.2</t>
+  </si>
+  <si>
+    <t>Burn, burn, burn, my darling.</t>
+  </si>
+  <si>
+    <t>hit,shock,32,.1,.2</t>
+  </si>
+  <si>
+    <t>Goes *Pew* *Pew* *Pew*.  Can shock enemies, which gives a slow stun and damage.</t>
+  </si>
+  <si>
+    <t>Gold/MaxDPS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>hit,poison,0,80,2</t>
+  </si>
+  <si>
+    <t>Hunts down his prey and.. well, this game is kid friendly, so let's just say it's not good.  Does lots of poison.</t>
+  </si>
+  <si>
+    <t>timer,atkSpdBuff,.05,2</t>
+  </si>
+  <si>
+    <t>timer,dmgBuff,.05,2</t>
+  </si>
+  <si>
+    <t>hit,slow,.33,2</t>
+  </si>
+  <si>
+    <t>hitSoundString</t>
+  </si>
+  <si>
+    <t>lavasplash</t>
+  </si>
+  <si>
+    <t>cannonfire</t>
+  </si>
+  <si>
+    <t>hit,stun,.1,.5</t>
+  </si>
+  <si>
+    <t>hit,crit,.1,1</t>
+  </si>
+  <si>
+    <t>zapsound</t>
+  </si>
+  <si>
+    <t>icehit</t>
+  </si>
+  <si>
+    <t>BlankShot</t>
+  </si>
+  <si>
+    <t>bulletshot</t>
+  </si>
+  <si>
+    <t>bulletHit</t>
+  </si>
+  <si>
+    <t>BlankHit</t>
+  </si>
+  <si>
+    <t>BulletHit</t>
   </si>
 </sst>
 </file>
@@ -909,34 +981,32 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <fill>
@@ -964,6 +1034,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF2DFF1D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -980,15 +1068,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1024,16 +1103,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1061,7 +1130,7 @@
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Row" form="unqualified">
               <xsd:complexType>
-                <xsd:all>
+                <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="AoE" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Range" form="unqualified"/>
@@ -1070,20 +1139,22 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Atk_Speed" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Cost" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Type" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="bulletFrame" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bulletFrame" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bulletHit" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="bulletSpeed" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="towerFrame" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="fireSoundString" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="tDescription" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="hitSoundString" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeOne" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeTwo" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="upgradeThree" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="targeting" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillOne" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillTwo" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillThree" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="skillFour" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="targeting" form="unqualified"/>
-                </xsd:all>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="tDescription" form="unqualified"/>
+                </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -1091,97 +1162,95 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="4" Name="TowerList" RootElement="Root" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+  <Map ID="9" Name="Root_Map" RootElement="Root" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="11" connectionId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="13" connectionId="7">
   <autoFilter ref="A1:AC59" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB58">
     <sortCondition ref="A2:A58"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="G/M.DPS" dataDxfId="8">
-      <calculatedColumnFormula>SUM(E2/F2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="6">
+    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="12"/>
+    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="9">
       <calculatedColumnFormula>SUM(K2*(24/L2))*J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="Gold/MaxDPS" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name" dataDxfId="6">
+      <xmlColumnPr mapId="9" xpath="/Root/Row/Name" xmlDataType="string"/>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/AoE" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/AoE" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{34A04DB4-B101-4D53-AA48-F1BAEB4D37E1}" uniqueName="Range" name="Range">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/Range" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/Range" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="4">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="5">
+      <xmlColumnPr mapId="9" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="3">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="4">
+      <xmlColumnPr mapId="9" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="2">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/Cost" xmlDataType="integer"/>
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="3">
+      <xmlColumnPr mapId="9" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/Type" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{F406916D-AC1F-4D7C-91E2-3C08BF8F9390}" uniqueName="towerFrame" name="Min DPS" dataDxfId="1">
-      <calculatedColumnFormula>SUM(K2*(24/L2))</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{79A19EDE-9D24-4FD1-BD5F-613A5DE27DA6}" uniqueName="tDescription" name="Gold per Min DPS" dataDxfId="0">
-      <calculatedColumnFormula>SUM(E2/O2)</calculatedColumnFormula>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/Type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/bulletFrame" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/bulletFrame" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{D8011812-4E3C-4FF1-80E9-B55E15FBC05C}" uniqueName="bulletHit" name="bulletHit" dataDxfId="2">
+      <xmlColumnPr mapId="9" xpath="/Root/Row/bulletHit" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{D6FE27F0-9BA9-4042-A2FB-7EB813A3CD4E}" uniqueName="bulletSpeed" name="bulletSpeed">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/bulletSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/bulletSpeed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{3D7ECFAE-69C7-4D3F-B8EF-DE3456EED59C}" uniqueName="towerFrame" name="towerFrame">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/towerFrame" xmlDataType="integer"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/towerFrame" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="19" xr3:uid="{483C72D6-B33C-452D-BE8F-E524D370C58C}" uniqueName="fireSoundString" name="fireSoundString">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B96E635B-FFE7-484F-A6BD-839BE5FD13B6}" uniqueName="hitSoundString" name="hitSoundString" dataDxfId="1">
+      <xmlColumnPr mapId="9" xpath="/Root/Row/hitSoundString" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{1B12F4CC-722E-4BFB-9EA8-7BC8CB93A247}" uniqueName="upgradeOne" name="upgradeOne">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/upgradeOne" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/upgradeOne" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{95D68C7E-6AEC-4AC2-B5B4-1E2C3EDE848C}" uniqueName="upgradeTwo" name="upgradeTwo">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/upgradeTwo" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/upgradeTwo" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{9DBC30FB-5F26-4DBD-945C-43FD0F36F2A8}" uniqueName="upgradeThree" name="upgradeThree">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/upgradeThree" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/upgradeThree" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="23" xr3:uid="{E256A08A-04FD-4A56-951F-6AF7E250751B}" uniqueName="targeting" name="targeting">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/targeting" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/targeting" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="24" xr3:uid="{14F20794-1BBA-4281-97D1-1B39B6A60726}" uniqueName="skillOne" name="skillOne">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/skillOne" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/skillOne" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="25" xr3:uid="{FAF0774D-00DD-4CE6-B71C-583ACCEF47B3}" uniqueName="skillTwo" name="skillTwo">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/skillTwo" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/skillTwo" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="26" xr3:uid="{7333556A-ED46-4116-BAE2-72C5F5C79C7D}" uniqueName="skillThree" name="skillThree">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/skillThree" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/skillThree" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="27" xr3:uid="{3E110F20-4559-4331-BCD4-B34F6EF3F7B2}" uniqueName="skillFour" name="skillFour">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/skillFour" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/skillFour" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="20" xr3:uid="{3624DC5F-C196-4453-A4C0-CB17DCE76751}" uniqueName="tDescription" name="tDescription">
-      <xmlColumnPr mapId="4" xpath="/Root/Row/tDescription" xmlDataType="string"/>
+      <xmlColumnPr mapId="9" xpath="/Root/Row/tDescription" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1488,72 +1557,76 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="V25" sqref="V25"/>
+      <selection pane="topRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="21" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="21" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="124.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="132.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="124.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>24</v>
+        <v>169</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>194</v>
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="F1" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>9</v>
@@ -1565,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M1" s="10" t="s">
         <v>11</v>
@@ -1573,50 +1646,50 @@
       <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>23</v>
+      <c r="O1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>34</v>
+        <v>246</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1626,26 +1699,28 @@
       <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="25">
-        <f t="shared" ref="D2:D33" si="0">SUM(E2/F2)</f>
+      <c r="C2" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>40</v>
+      </c>
+      <c r="D2" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="20">
         <v>2.3076923076923079</v>
       </c>
-      <c r="E2" s="3">
-        <v>40</v>
-      </c>
-      <c r="F2" s="22">
-        <f t="shared" ref="F2:F10" si="1">SUM(K2*(24/L2))*J2</f>
-        <v>17.333333333333332</v>
-      </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1660,27 +1735,25 @@
         <v>40</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="22">
-        <f t="shared" ref="O2:O33" si="2">SUM(K2*(24/L2))</f>
-        <v>17.333333333333332</v>
-      </c>
-      <c r="P2" s="20">
-        <f>SUM(E2/O2)</f>
-        <v>2.3076923076923079</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>20</v>
       </c>
       <c r="R2" s="5">
-        <v>20</v>
-      </c>
-      <c r="S2" s="5">
         <v>2</v>
       </c>
+      <c r="S2" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T2" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>0</v>
@@ -1689,14 +1762,15 @@
         <v>3</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1706,21 +1780,23 @@
       <c r="B3" s="17">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3">
+        <f>C2+Table1[[#This Row],[Cost]]</f>
+        <v>130</v>
+      </c>
+      <c r="D3" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>62.117647058823536</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="20">
+        <v>2.0928030303030303</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="25">
-        <f t="shared" si="0"/>
-        <v>2.0928030303030303</v>
-      </c>
-      <c r="E3" s="3">
-        <v>130</v>
-      </c>
-      <c r="F3" s="22">
-        <f t="shared" si="1"/>
-        <v>62.117647058823536</v>
-      </c>
-      <c r="G3" s="4"/>
       <c r="H3">
         <v>0</v>
       </c>
@@ -1740,27 +1816,25 @@
         <v>90</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="22">
-        <f t="shared" si="2"/>
-        <v>62.117647058823536</v>
-      </c>
-      <c r="P3" s="20">
-        <f>SUM(E3/O3)</f>
-        <v>2.0928030303030303</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>30</v>
       </c>
       <c r="R3" s="5">
-        <v>30</v>
-      </c>
-      <c r="S3" s="5">
         <v>9</v>
       </c>
+      <c r="S3" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T3" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>4</v>
@@ -1768,15 +1842,16 @@
       <c r="V3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" t="s">
-        <v>178</v>
+      <c r="Y3" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1786,21 +1861,23 @@
       <c r="B4" s="17">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3">
+        <f>C3+Table1[[#This Row],[Cost]]</f>
+        <v>310</v>
+      </c>
+      <c r="D4" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>270</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.1481481481481481</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="25">
-        <f t="shared" si="0"/>
-        <v>1.1481481481481481</v>
-      </c>
-      <c r="E4" s="3">
-        <v>310</v>
-      </c>
-      <c r="F4" s="22">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="G4" s="4"/>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1820,40 +1897,38 @@
         <v>180</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="22">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="P4" s="20">
-        <f t="shared" ref="P4:P59" si="3">SUM(E4/O4)</f>
-        <v>1.1481481481481481</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>219</v>
+        <v>24</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>30</v>
       </c>
       <c r="R4" s="5">
-        <v>30</v>
-      </c>
-      <c r="S4" s="5">
         <v>22</v>
       </c>
+      <c r="S4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T4" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1863,21 +1938,23 @@
       <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3">
+        <f>C3+Table1[[#This Row],[Cost]]</f>
+        <v>310</v>
+      </c>
+      <c r="D5" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>315</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.98412698412698407</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="25">
-        <f t="shared" si="0"/>
-        <v>0.98412698412698407</v>
-      </c>
-      <c r="E5" s="3">
-        <v>310</v>
-      </c>
-      <c r="F5" s="22">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-      <c r="G5" s="4"/>
       <c r="H5">
         <v>0</v>
       </c>
@@ -1897,39 +1974,38 @@
         <v>180</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="22">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="P5" s="20">
-        <f t="shared" si="3"/>
-        <v>2.9523809523809526</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>30</v>
       </c>
       <c r="R5" s="5">
-        <v>30</v>
-      </c>
-      <c r="S5" s="5">
         <v>23</v>
       </c>
+      <c r="S5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T5" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1939,21 +2015,23 @@
       <c r="B6" s="17">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3">
+        <f>C2+Table1[[#This Row],[Cost]]</f>
+        <v>175</v>
+      </c>
+      <c r="D6" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>90</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="25">
-        <f t="shared" si="0"/>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="E6" s="3">
-        <v>175</v>
-      </c>
-      <c r="F6" s="22">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="G6" s="4"/>
       <c r="H6">
         <v>0</v>
       </c>
@@ -1973,27 +2051,25 @@
         <v>135</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="22">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="P6" s="20">
-        <f t="shared" si="3"/>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>20</v>
       </c>
       <c r="R6" s="5">
-        <v>20</v>
-      </c>
-      <c r="S6" s="5">
         <v>10</v>
       </c>
+      <c r="S6" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T6" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>5</v>
@@ -2008,7 +2084,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2018,22 +2094,23 @@
       <c r="B7" s="17">
         <v>3</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3">
+        <f>C6+Table1[[#This Row],[Cost]]</f>
+        <v>355</v>
+      </c>
+      <c r="D7" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2.4204545454545454</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="25">
-        <f t="shared" si="0"/>
-        <v>2.4204545454545454</v>
-      </c>
-      <c r="E7" s="3">
-        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
-        <v>355</v>
-      </c>
-      <c r="F7" s="22">
-        <f t="shared" si="1"/>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="G7" s="4"/>
       <c r="H7">
         <v>0</v>
       </c>
@@ -2053,40 +2130,38 @@
         <v>180</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="22">
-        <f t="shared" si="2"/>
-        <v>146.66666666666666</v>
-      </c>
-      <c r="P7" s="20">
-        <f t="shared" si="3"/>
-        <v>2.4204545454545454</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>219</v>
+        <v>24</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>30</v>
       </c>
       <c r="R7" s="5">
-        <v>30</v>
-      </c>
-      <c r="S7" s="5">
         <v>29</v>
       </c>
+      <c r="S7" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T7" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -2096,22 +2171,23 @@
       <c r="B8" s="17">
         <v>3</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="3">
+        <f>C6+Table1[[#This Row],[Cost]]</f>
+        <v>365</v>
+      </c>
+      <c r="D8" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>180</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2.0277777777777777</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="25">
-        <f t="shared" si="0"/>
-        <v>2.0277777777777777</v>
-      </c>
-      <c r="E8" s="3">
-        <f>SUM(175+Table1[[#This Row],[Cost]])</f>
-        <v>365</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="G8" s="4"/>
       <c r="H8">
         <v>0</v>
       </c>
@@ -2131,40 +2207,38 @@
         <v>190</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="22">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" si="3"/>
-        <v>2.0277777777777777</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>219</v>
+        <v>24</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>30</v>
       </c>
       <c r="R8" s="5">
-        <v>30</v>
-      </c>
-      <c r="S8" s="5">
         <v>27</v>
       </c>
+      <c r="S8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T8" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2174,21 +2248,23 @@
       <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="3">
+        <f>C2+Table1[[#This Row],[Cost]]</f>
+        <v>120</v>
+      </c>
+      <c r="D9" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>52.8</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2.2727272727272729</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="25">
-        <f t="shared" si="0"/>
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="E9" s="3">
-        <v>120</v>
-      </c>
-      <c r="F9" s="22">
-        <f t="shared" si="1"/>
-        <v>52.8</v>
-      </c>
-      <c r="G9" s="4"/>
       <c r="H9">
         <v>0</v>
       </c>
@@ -2208,27 +2284,25 @@
         <v>80</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="22">
-        <f t="shared" si="2"/>
-        <v>26.4</v>
-      </c>
-      <c r="P9" s="20">
-        <f t="shared" si="3"/>
-        <v>4.5454545454545459</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>30</v>
       </c>
       <c r="R9" s="5">
-        <v>30</v>
-      </c>
-      <c r="S9" s="5">
         <v>11</v>
       </c>
+      <c r="S9" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>7</v>
@@ -2239,13 +2313,13 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -2255,22 +2329,23 @@
       <c r="B10" s="17">
         <v>3</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3">
+        <f>C9+Table1[[#This Row],[Cost]]</f>
+        <v>360</v>
+      </c>
+      <c r="D10" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>247.5</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1.4545454545454546</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="25">
-        <f t="shared" si="0"/>
-        <v>1.4545454545454546</v>
-      </c>
-      <c r="E10" s="3">
-        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
-        <v>360</v>
-      </c>
-      <c r="F10" s="22">
-        <f t="shared" si="1"/>
-        <v>247.5</v>
-      </c>
-      <c r="G10" s="4"/>
       <c r="H10">
         <v>0</v>
       </c>
@@ -2290,40 +2365,38 @@
         <v>240</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="22">
-        <f t="shared" si="2"/>
-        <v>247.5</v>
-      </c>
-      <c r="P10" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4545454545454546</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>30</v>
       </c>
       <c r="R10" s="5">
-        <v>30</v>
-      </c>
-      <c r="S10" s="5">
         <v>32</v>
       </c>
+      <c r="S10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T10" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -2333,23 +2406,22 @@
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="3">
+        <f>C9+Table1[[#This Row],[Cost]]</f>
+        <v>320</v>
+      </c>
+      <c r="D11" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>243.42857142857142</v>
+      </c>
+      <c r="E11" s="27">
+        <v>4</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1.3099415204678364</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="D11" s="25">
-        <f t="shared" si="0"/>
-        <v>1.3099415204678364</v>
-      </c>
-      <c r="E11" s="3">
-        <f>SUM(120+Table1[[#This Row],[Cost]])</f>
-        <v>320</v>
-      </c>
-      <c r="F11" s="22">
-        <f>SUM(K11*(24/L11))*G11</f>
-        <v>244.28571428571428</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
       </c>
       <c r="H11">
         <v>40</v>
@@ -2361,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L11" s="2">
         <v>28</v>
@@ -2370,40 +2442,38 @@
         <v>200</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O11" s="22">
-        <f t="shared" si="2"/>
-        <v>48.857142857142854</v>
-      </c>
-      <c r="P11" s="20">
-        <f>SUM(E11/O11)</f>
-        <v>6.5497076023391818</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>219</v>
+        <v>24</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>30</v>
       </c>
       <c r="R11" s="5">
-        <v>30</v>
-      </c>
-      <c r="S11" s="5">
         <v>31</v>
       </c>
+      <c r="S11" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="T11" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2413,21 +2483,23 @@
       <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="25">
-        <f t="shared" si="0"/>
+      <c r="C12" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>30</v>
+      </c>
+      <c r="D12" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="20">
         <v>1.4705882352941178</v>
       </c>
-      <c r="E12" s="3">
-        <v>30</v>
-      </c>
-      <c r="F12" s="22">
-        <f t="shared" ref="F12:F22" si="4">SUM(K12*(24/L12))*J12</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -2447,43 +2519,42 @@
         <v>30</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="P12" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4705882352941178</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>212</v>
+        <v>24</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>50</v>
       </c>
       <c r="R12" s="5">
-        <v>50</v>
-      </c>
-      <c r="S12" s="5">
         <v>1</v>
       </c>
+      <c r="S12" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T12" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="W12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -2493,21 +2564,23 @@
       <c r="B13" s="17">
         <v>2</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="25">
-        <f t="shared" si="0"/>
+      <c r="C13" s="3">
+        <f>C12+Table1[[#This Row],[Cost]]</f>
+        <v>130</v>
+      </c>
+      <c r="D13" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>75</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="20">
         <v>1.7333333333333334</v>
       </c>
-      <c r="E13" s="3">
-        <v>130</v>
-      </c>
-      <c r="F13" s="22">
-        <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="H13">
         <v>0</v>
       </c>
@@ -2527,43 +2600,42 @@
         <v>100</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-      <c r="P13" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>212</v>
+        <v>24</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>50</v>
       </c>
       <c r="R13" s="5">
-        <v>50</v>
-      </c>
-      <c r="S13" s="5">
         <v>7</v>
       </c>
+      <c r="S13" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T13" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2573,21 +2645,23 @@
       <c r="B14" s="17">
         <v>3</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="25">
-        <f t="shared" si="0"/>
+      <c r="C14" s="3">
+        <f>C13+Table1[[#This Row],[Cost]]</f>
+        <v>300</v>
+      </c>
+      <c r="D14" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>310</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F14" s="20">
         <v>0.967741935483871</v>
       </c>
-      <c r="E14" s="3">
-        <v>300</v>
-      </c>
-      <c r="F14" s="22">
-        <f t="shared" si="4"/>
-        <v>310</v>
-      </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="H14">
         <v>0</v>
       </c>
@@ -2607,38 +2681,40 @@
         <v>170</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O14" s="22">
-        <f t="shared" si="2"/>
-        <v>310</v>
-      </c>
-      <c r="P14" s="20">
-        <f t="shared" si="3"/>
-        <v>0.967741935483871</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>212</v>
+        <v>24</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>50</v>
       </c>
       <c r="R14" s="5">
-        <v>50</v>
-      </c>
-      <c r="S14" s="5">
         <v>24</v>
       </c>
+      <c r="S14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T14" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="Y14" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2648,21 +2724,23 @@
       <c r="B15" s="17">
         <v>3</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="25">
-        <f t="shared" si="0"/>
+      <c r="C15" s="3">
+        <f>C13+Table1[[#This Row],[Cost]]</f>
+        <v>350</v>
+      </c>
+      <c r="D15" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>268.23529411764707</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="20">
         <v>1.3048245614035088</v>
       </c>
-      <c r="E15" s="3">
-        <v>350</v>
-      </c>
-      <c r="F15" s="22">
-        <f t="shared" si="4"/>
-        <v>268.23529411764707</v>
-      </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="H15">
         <v>0</v>
       </c>
@@ -2682,40 +2760,38 @@
         <v>220</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="22">
-        <f t="shared" si="2"/>
-        <v>268.23529411764707</v>
-      </c>
-      <c r="P15" s="20">
-        <f t="shared" si="3"/>
-        <v>1.3048245614035088</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>212</v>
+        <v>25</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>50</v>
       </c>
       <c r="R15" s="5">
-        <v>50</v>
-      </c>
-      <c r="S15" s="5">
         <v>25</v>
       </c>
+      <c r="S15" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T15" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2725,21 +2801,23 @@
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="25">
-        <f t="shared" si="0"/>
+      <c r="C16" s="3">
+        <f>C12+Table1[[#This Row],[Cost]]</f>
+        <v>145</v>
+      </c>
+      <c r="D16" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="20">
         <v>1.5535714285714286</v>
       </c>
-      <c r="E16" s="3">
-        <v>145</v>
-      </c>
-      <c r="F16" s="22">
-        <f t="shared" si="4"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="H16">
         <v>0</v>
       </c>
@@ -2759,44 +2837,42 @@
         <v>115</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="22">
-        <f t="shared" si="2"/>
-        <v>93.333333333333329</v>
-      </c>
-      <c r="P16" s="20">
-        <f t="shared" si="3"/>
-        <v>1.5535714285714286</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>212</v>
+        <v>25</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>50</v>
       </c>
       <c r="R16" s="5">
-        <v>50</v>
-      </c>
-      <c r="S16" s="5">
         <v>6</v>
       </c>
+      <c r="S16" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T16" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2806,22 +2882,23 @@
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="25">
-        <f t="shared" si="0"/>
+      <c r="C17" s="3">
+        <f>C16+Table1[[#This Row],[Cost]]</f>
+        <v>335</v>
+      </c>
+      <c r="D17" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>225</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="20">
         <v>1.4888888888888889</v>
       </c>
-      <c r="E17" s="3">
-        <f>SUM(145+Table1[[#This Row],[Cost]])</f>
-        <v>335</v>
-      </c>
-      <c r="F17" s="22">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="H17">
         <v>0</v>
       </c>
@@ -2841,40 +2918,38 @@
         <v>190</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="22">
-        <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-      <c r="P17" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4888888888888889</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>212</v>
+        <v>25</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>50</v>
       </c>
       <c r="R17" s="5">
-        <v>50</v>
-      </c>
-      <c r="S17" s="5">
         <v>26</v>
       </c>
+      <c r="S17" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T17" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2884,21 +2959,23 @@
       <c r="B18" s="17">
         <v>3</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="25">
-        <f t="shared" si="0"/>
+      <c r="C18" s="3">
+        <f>C16+Table1[[#This Row],[Cost]]</f>
+        <v>385</v>
+      </c>
+      <c r="D18" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>200</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="20">
         <v>1.925</v>
       </c>
-      <c r="E18" s="3">
-        <v>385</v>
-      </c>
-      <c r="F18" s="22">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="H18">
         <v>0</v>
       </c>
@@ -2918,40 +2995,38 @@
         <v>240</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="22">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="P18" s="20">
-        <f t="shared" si="3"/>
-        <v>1.925</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>212</v>
+        <v>25</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>50</v>
       </c>
       <c r="R18" s="5">
-        <v>50</v>
-      </c>
-      <c r="S18" s="5">
         <v>55</v>
       </c>
+      <c r="S18" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T18" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2961,21 +3036,23 @@
       <c r="B19" s="17">
         <v>2</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="25">
-        <f t="shared" si="0"/>
+      <c r="C19" s="3">
+        <f>C12+Table1[[#This Row],[Cost]]</f>
+        <v>180</v>
+      </c>
+      <c r="D19" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>106.66666666666666</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="20">
         <v>1.6875000000000002</v>
       </c>
-      <c r="E19" s="3">
-        <v>180</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" si="4"/>
-        <v>106.66666666666666</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="H19">
         <v>0</v>
       </c>
@@ -2995,44 +3072,42 @@
         <v>150</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="22">
-        <f t="shared" si="2"/>
-        <v>106.66666666666666</v>
-      </c>
-      <c r="P19" s="20">
-        <f t="shared" si="3"/>
-        <v>1.6875000000000002</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>212</v>
+        <v>24</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>50</v>
       </c>
       <c r="R19" s="5">
-        <v>50</v>
-      </c>
-      <c r="S19" s="5">
         <v>8</v>
       </c>
+      <c r="S19" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T19" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -3042,22 +3117,23 @@
       <c r="B20" s="17">
         <v>3</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="25">
-        <f t="shared" si="0"/>
+      <c r="C20" s="3">
+        <f>C19+Table1[[#This Row],[Cost]]</f>
+        <v>580</v>
+      </c>
+      <c r="D20" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>240</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20" s="20">
         <v>2.4166666666666665</v>
       </c>
-      <c r="E20" s="3">
-        <f>SUM(Table1[[#This Row],[Cost]]+E19)</f>
-        <v>580</v>
-      </c>
-      <c r="F20" s="22">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="H20">
         <v>0</v>
       </c>
@@ -3077,40 +3153,38 @@
         <v>400</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O20" s="22">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="P20" s="20">
-        <f t="shared" si="3"/>
-        <v>2.4166666666666665</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>212</v>
+        <v>24</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>50</v>
       </c>
       <c r="R20" s="5">
-        <v>50</v>
-      </c>
-      <c r="S20" s="5">
         <v>56</v>
       </c>
+      <c r="S20" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T20" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -3120,21 +3194,23 @@
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="25">
-        <f t="shared" si="0"/>
+      <c r="C21" s="3">
+        <f>C19+Table1[[#This Row],[Cost]]</f>
+        <v>460</v>
+      </c>
+      <c r="D21" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>270</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F21" s="20">
         <v>1.7037037037037037</v>
       </c>
-      <c r="E21" s="3">
-        <v>460</v>
-      </c>
-      <c r="F21" s="22">
-        <f t="shared" si="4"/>
-        <v>270</v>
-      </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="H21">
         <v>0</v>
       </c>
@@ -3154,40 +3230,38 @@
         <v>280</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="22">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="P21" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7037037037037037</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>212</v>
+        <v>25</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>50</v>
       </c>
       <c r="R21" s="5">
-        <v>50</v>
-      </c>
-      <c r="S21" s="5">
         <v>53</v>
       </c>
+      <c r="S21" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="T21" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:29" collapsed="1" x14ac:dyDescent="0.25">
@@ -3197,21 +3271,23 @@
       <c r="B22" s="17">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="25">
-        <f t="shared" si="0"/>
+      <c r="C22" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>50</v>
+      </c>
+      <c r="D22" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>24</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="20">
         <v>1.8333333333333333</v>
       </c>
-      <c r="E22" s="3">
-        <v>55</v>
-      </c>
-      <c r="F22" s="22">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="H22">
         <v>0</v>
       </c>
@@ -3222,45 +3298,43 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22" s="2">
         <v>4</v>
       </c>
       <c r="M22" s="3">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O22" s="22">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="P22" s="20">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>213</v>
+      <c r="O22" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>12</v>
       </c>
       <c r="R22" s="5">
-        <v>12</v>
-      </c>
-      <c r="S22" s="5">
         <v>3</v>
       </c>
+      <c r="S22" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="T22" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -3268,7 +3342,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -3278,80 +3352,78 @@
       <c r="B23" s="17">
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="3">
-        <v>210</v>
-      </c>
-      <c r="F23" s="22">
-        <f>SUM(K23*(24/L23))*G23</f>
+      <c r="C23" s="3">
+        <f>C22+Table1[[#This Row],[Cost]]</f>
+        <v>170</v>
+      </c>
+      <c r="D23" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="E23" s="27">
         <v>3</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
         <v>0</v>
       </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="2">
         <v>24</v>
       </c>
       <c r="M23" s="3">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="N23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>213</v>
+      <c r="O23" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>50</v>
       </c>
       <c r="R23" s="5">
-        <v>50</v>
-      </c>
-      <c r="S23" s="5">
         <v>14</v>
       </c>
+      <c r="S23" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T23" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="V23" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3361,35 +3433,33 @@
       <c r="B24" s="17">
         <v>3</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="3">
-        <v>420</v>
-      </c>
-      <c r="F24" s="22">
-        <f>SUM(K24*(24/L24))*G24</f>
+      <c r="C24" s="3">
+        <f>C23+Table1[[#This Row],[Cost]]</f>
+        <v>380</v>
+      </c>
+      <c r="D24" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="E24" s="27">
         <v>3</v>
+      </c>
+      <c r="F24" s="20">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
         <v>0</v>
       </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="2">
         <v>24</v>
       </c>
@@ -3399,40 +3469,38 @@
       <c r="N24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>213</v>
+      <c r="O24" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>50</v>
       </c>
       <c r="R24" s="5">
-        <v>50</v>
-      </c>
-      <c r="S24" s="5">
         <v>33</v>
       </c>
+      <c r="S24" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T24" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3442,50 +3510,75 @@
       <c r="B25" s="17">
         <v>3</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="3">
-        <v>210</v>
-      </c>
-      <c r="F25" s="22" t="e">
-        <f>SUM(K25*(24/L25))*J25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="4"/>
+      <c r="C25" s="3">
+        <f>C23+Table1[[#This Row],[Cost]]</f>
+        <v>410</v>
+      </c>
+      <c r="D25" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="20">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
       <c r="K25" s="1"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="2">
+        <v>24</v>
+      </c>
+      <c r="M25" s="3">
+        <v>240</v>
+      </c>
       <c r="N25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O25" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>50</v>
+      </c>
+      <c r="R25" s="5">
+        <v>57</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y25" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
+      <c r="AC25" s="4" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
@@ -3494,22 +3587,23 @@
       <c r="B26" s="17">
         <v>2</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="25">
-        <f t="shared" si="0"/>
+      <c r="C26" s="3">
+        <f>C22+Table1[[#This Row],[Cost]]</f>
+        <v>150</v>
+      </c>
+      <c r="D26" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>84</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" s="20">
         <v>1.7222222222222223</v>
       </c>
-      <c r="E26" s="3">
-        <f>SUM(E22+Table1[[#This Row],[Cost]])</f>
-        <v>155</v>
-      </c>
-      <c r="F26" s="22">
-        <f>SUM(K26*(24/L26))*J26</f>
-        <v>90</v>
-      </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="H26">
         <v>0</v>
       </c>
@@ -3520,7 +3614,7 @@
         <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L26" s="2">
         <v>4</v>
@@ -3531,30 +3625,30 @@
       <c r="N26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O26" s="22">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="P26" s="20">
-        <f>SUM(E26/O26)</f>
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>213</v>
+      <c r="O26" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>12</v>
       </c>
       <c r="R26" s="5">
         <v>12</v>
       </c>
-      <c r="S26" s="5">
-        <v>12</v>
+      <c r="S26" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="V26" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
@@ -3562,7 +3656,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3572,21 +3666,23 @@
       <c r="B27" s="17">
         <v>3</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="25">
-        <f t="shared" si="0"/>
-        <v>1.1755952380952381</v>
-      </c>
-      <c r="E27" s="3">
-        <v>395</v>
-      </c>
-      <c r="F27" s="22">
-        <f>SUM(K27*(24/L27))*J27</f>
-        <v>336</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="C27" s="3">
+        <f>C26+Table1[[#This Row],[Cost]]</f>
+        <v>390</v>
+      </c>
+      <c r="D27" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>300</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1.266025641025641</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="H27">
         <v>0</v>
       </c>
@@ -3597,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L27" s="2">
         <v>6</v>
@@ -3608,25 +3704,23 @@
       <c r="N27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="22">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="P27" s="20">
-        <f t="shared" si="3"/>
-        <v>3.5267857142857144</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>213</v>
+      <c r="O27" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>12</v>
       </c>
       <c r="R27" s="5">
-        <v>12</v>
-      </c>
-      <c r="S27" s="5">
         <v>34</v>
       </c>
+      <c r="S27" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="T27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -3637,7 +3731,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3647,37 +3741,62 @@
       <c r="B28" s="17">
         <v>3</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="22" t="e">
-        <f>SUM(K28*(24/L28))*J28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="3"/>
+      <c r="C28" s="3">
+        <f>C26+Table1[[#This Row],[Cost]]</f>
+        <v>430</v>
+      </c>
+      <c r="D28" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>234</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F28" s="20">
+        <v>1.8125</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <v>82</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>39</v>
+      </c>
+      <c r="L28" s="2">
+        <v>4</v>
+      </c>
+      <c r="M28" s="3">
+        <v>280</v>
+      </c>
       <c r="N28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O28" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>12</v>
+      </c>
+      <c r="R28" s="5">
+        <v>58</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
@@ -3686,7 +3805,9 @@
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
+      <c r="AC28" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
@@ -3695,22 +3816,22 @@
       <c r="B29" s="17">
         <v>2</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="25">
-        <f t="shared" si="0"/>
+      <c r="C29" s="3">
+        <f>C22+Table1[[#This Row],[Cost]]</f>
+        <v>190</v>
+      </c>
+      <c r="D29" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>119.25</v>
+      </c>
+      <c r="E29" s="27">
+        <v>3</v>
+      </c>
+      <c r="F29" s="20">
         <v>1.5757575757575757</v>
       </c>
-      <c r="E29" s="3">
-        <v>195</v>
-      </c>
-      <c r="F29" s="22">
-        <f>SUM(K29*(24/L29))*G29</f>
-        <v>123.75</v>
-      </c>
-      <c r="G29" s="5">
-        <v>3</v>
+      <c r="G29" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="H29">
         <v>45</v>
@@ -3722,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L29" s="2">
         <v>32</v>
@@ -3733,40 +3854,40 @@
       <c r="N29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O29" s="22">
-        <f t="shared" si="2"/>
-        <v>41.25</v>
-      </c>
-      <c r="P29" s="20">
-        <f t="shared" si="3"/>
-        <v>4.7272727272727275</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>213</v>
+      <c r="O29" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>12</v>
       </c>
       <c r="R29" s="5">
-        <v>12</v>
-      </c>
-      <c r="S29" s="5">
         <v>13</v>
       </c>
+      <c r="S29" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T29" s="4" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="V29" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -3776,22 +3897,22 @@
       <c r="B30" s="17">
         <v>3</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="25">
-        <f t="shared" si="0"/>
+      <c r="C30" s="3">
+        <f>C29+Table1[[#This Row],[Cost]]</f>
+        <v>470</v>
+      </c>
+      <c r="D30" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>316</v>
+      </c>
+      <c r="E30" s="27">
+        <v>3</v>
+      </c>
+      <c r="F30" s="20">
         <v>1.484375</v>
       </c>
-      <c r="E30" s="3">
-        <v>475</v>
-      </c>
-      <c r="F30" s="22">
-        <f>SUM(K30*(24/L30))*G30</f>
-        <v>320</v>
-      </c>
-      <c r="G30" s="5">
-        <v>3</v>
+      <c r="G30" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="H30">
         <v>45</v>
@@ -3803,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L30" s="2">
         <v>36</v>
@@ -3814,38 +3935,36 @@
       <c r="N30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="22">
-        <f t="shared" si="2"/>
-        <v>106.66666666666666</v>
-      </c>
-      <c r="P30" s="20">
-        <f t="shared" si="3"/>
-        <v>4.453125</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>213</v>
+      <c r="O30" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>12</v>
       </c>
       <c r="R30" s="5">
-        <v>12</v>
-      </c>
-      <c r="S30" s="5">
         <v>35</v>
       </c>
+      <c r="S30" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T30" s="4" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3855,37 +3974,62 @@
       <c r="B31" s="17">
         <v>3</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="22" t="e">
-        <f>SUM(K31*(24/L31))*J31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="3"/>
+      <c r="C31" s="25">
+        <f>C29+Table1[[#This Row],[Cost]]</f>
+        <v>470</v>
+      </c>
+      <c r="D31" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>316</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F31" s="20">
+        <v>1.484375</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>106</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>474</v>
+      </c>
+      <c r="L31" s="2">
+        <v>36</v>
+      </c>
+      <c r="M31" s="3">
+        <v>280</v>
+      </c>
       <c r="N31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O31" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="4"/>
+      <c r="O31" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>12</v>
+      </c>
+      <c r="R31" s="5">
+        <v>59</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
@@ -3894,7 +4038,9 @@
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="AC31" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
@@ -3903,22 +4049,22 @@
       <c r="B32" s="17">
         <v>1</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="25">
-        <f t="shared" si="0"/>
+      <c r="C32" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>40</v>
+      </c>
+      <c r="D32" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="E32" s="27">
+        <v>2</v>
+      </c>
+      <c r="F32" s="20">
         <v>2.083333333333333</v>
       </c>
-      <c r="E32" s="3">
-        <v>40</v>
-      </c>
-      <c r="F32" s="22">
-        <f>SUM(K32*(24/L32))*G32</f>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="G32" s="5">
-        <v>2</v>
+      <c r="G32" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="H32">
         <v>30</v>
@@ -3941,44 +4087,42 @@
       <c r="N32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="22">
-        <f t="shared" si="2"/>
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="P32" s="20">
-        <f t="shared" si="3"/>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>214</v>
+      <c r="O32" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>24</v>
       </c>
       <c r="R32" s="5">
-        <v>24</v>
-      </c>
-      <c r="S32" s="5">
         <v>4</v>
       </c>
+      <c r="S32" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T32" s="4" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -3988,22 +4132,22 @@
       <c r="B33" s="17">
         <v>2</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="25">
-        <f t="shared" si="0"/>
+      <c r="C33" s="3">
+        <f>C32+Table1[[#This Row],[Cost]]</f>
+        <v>180</v>
+      </c>
+      <c r="D33" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>60</v>
+      </c>
+      <c r="E33" s="27">
+        <v>3</v>
+      </c>
+      <c r="F33" s="20">
         <v>2.9605263157894735</v>
       </c>
-      <c r="E33" s="3">
-        <v>180</v>
-      </c>
-      <c r="F33" s="22">
-        <f>SUM(K33*(24/L33))*G33</f>
-        <v>60.800000000000004</v>
-      </c>
-      <c r="G33" s="5">
-        <v>2</v>
+      <c r="G33" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="H33">
         <v>45</v>
@@ -4015,7 +4159,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L33" s="2">
         <v>30</v>
@@ -4026,40 +4170,38 @@
       <c r="N33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="22">
-        <f t="shared" si="2"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="P33" s="20">
-        <f t="shared" si="3"/>
-        <v>5.9210526315789469</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>214</v>
+      <c r="O33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>26</v>
       </c>
       <c r="R33" s="5">
-        <v>26</v>
-      </c>
-      <c r="S33" s="5">
         <v>16</v>
       </c>
+      <c r="S33" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T33" s="4" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -4069,23 +4211,22 @@
       <c r="B34" s="17">
         <v>3</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="25">
-        <f t="shared" ref="D34:D59" si="5">SUM(E34/F34)</f>
+      <c r="C34" s="3">
+        <f>C33+Table1[[#This Row],[Cost]]</f>
+        <v>400</v>
+      </c>
+      <c r="D34" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>221.53846153846155</v>
+      </c>
+      <c r="E34" s="27">
+        <v>3</v>
+      </c>
+      <c r="F34" s="20">
         <v>1.8055555555555556</v>
       </c>
-      <c r="E34" s="3">
-        <f>SUM(180+Table1[[#This Row],[Cost]])</f>
-        <v>400</v>
-      </c>
-      <c r="F34" s="22">
-        <f>SUM(K34*(24/L34))*G34</f>
-        <v>221.53846153846155</v>
-      </c>
-      <c r="G34" s="5">
-        <v>3</v>
+      <c r="G34" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="H34">
         <v>50</v>
@@ -4108,38 +4249,36 @@
       <c r="N34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O34" s="22">
-        <f t="shared" ref="O34:O59" si="6">SUM(K34*(24/L34))</f>
-        <v>73.846153846153854</v>
-      </c>
-      <c r="P34" s="20">
-        <f t="shared" si="3"/>
-        <v>5.4166666666666661</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>214</v>
+      <c r="O34" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>28</v>
       </c>
       <c r="R34" s="5">
-        <v>28</v>
-      </c>
-      <c r="S34" s="5">
         <v>43</v>
       </c>
+      <c r="S34" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T34" s="4" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="s">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4149,21 +4288,23 @@
       <c r="B35" s="17">
         <v>2</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="25">
-        <f t="shared" si="5"/>
+      <c r="C35" s="3">
+        <f>C32+Table1[[#This Row],[Cost]]</f>
+        <v>120</v>
+      </c>
+      <c r="D35" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>57.818181818181813</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F35" s="20">
         <v>2.0754716981132075</v>
       </c>
-      <c r="E35" s="3">
-        <v>120</v>
-      </c>
-      <c r="F35" s="22">
-        <f>SUM(K35*(24/L35))*J35</f>
-        <v>57.818181818181813</v>
-      </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="H35">
         <v>0</v>
       </c>
@@ -4185,42 +4326,40 @@
       <c r="N35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O35" s="22">
-        <f t="shared" si="6"/>
-        <v>57.818181818181813</v>
-      </c>
-      <c r="P35" s="20">
-        <f t="shared" si="3"/>
-        <v>2.0754716981132075</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>214</v>
+      <c r="O35" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>30</v>
       </c>
       <c r="R35" s="5">
-        <v>30</v>
-      </c>
-      <c r="S35" s="5">
         <v>17</v>
       </c>
+      <c r="S35" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T35" s="4" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4230,21 +4369,23 @@
       <c r="B36" s="17">
         <v>3</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="25">
-        <f t="shared" si="5"/>
+      <c r="C36" s="3">
+        <f>C35+Table1[[#This Row],[Cost]]</f>
+        <v>360</v>
+      </c>
+      <c r="D36" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="20">
         <v>2.0833333333333335</v>
       </c>
-      <c r="E36" s="3">
-        <v>360</v>
-      </c>
-      <c r="F36" s="22">
-        <f>SUM(K36*(24/L36))*J36</f>
-        <v>172.79999999999998</v>
-      </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="H36">
         <v>0</v>
       </c>
@@ -4266,40 +4407,38 @@
       <c r="N36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O36" s="22">
-        <f t="shared" si="6"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="P36" s="20">
-        <f t="shared" si="3"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>214</v>
+      <c r="O36" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>30</v>
       </c>
       <c r="R36" s="5">
-        <v>30</v>
-      </c>
-      <c r="S36" s="5">
         <v>42</v>
       </c>
+      <c r="S36" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T36" s="4" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4309,22 +4448,22 @@
       <c r="B37" s="17">
         <v>2</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="25">
-        <f t="shared" si="5"/>
+      <c r="C37" s="3">
+        <f>C32+Table1[[#This Row],[Cost]]</f>
+        <v>160</v>
+      </c>
+      <c r="D37" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>240</v>
+      </c>
+      <c r="E37" s="27">
+        <v>4</v>
+      </c>
+      <c r="F37" s="20">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E37" s="3">
-        <v>160</v>
-      </c>
-      <c r="F37" s="22">
-        <f t="shared" ref="F37:F42" si="7">SUM(K37*(24/L37))*G37</f>
-        <v>240</v>
-      </c>
-      <c r="G37" s="5">
-        <v>4</v>
+      <c r="G37" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4347,44 +4486,42 @@
       <c r="N37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="22">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="P37" s="20">
-        <f t="shared" si="3"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>214</v>
+      <c r="O37" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>50</v>
       </c>
       <c r="R37" s="5">
-        <v>50</v>
-      </c>
-      <c r="S37" s="5">
         <v>15</v>
       </c>
+      <c r="S37" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T37" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>222</v>
+        <v>88</v>
+      </c>
+      <c r="Y37" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4394,22 +4531,22 @@
       <c r="B38" s="17">
         <v>3</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="25">
-        <f t="shared" si="5"/>
+      <c r="C38" s="3">
+        <f>C37+Table1[[#This Row],[Cost]]</f>
+        <v>390</v>
+      </c>
+      <c r="D38" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>560</v>
+      </c>
+      <c r="E38" s="27">
+        <v>4</v>
+      </c>
+      <c r="F38" s="20">
         <v>0.6964285714285714</v>
       </c>
-      <c r="E38" s="3">
-        <v>390</v>
-      </c>
-      <c r="F38" s="22">
-        <f t="shared" si="7"/>
-        <v>560</v>
-      </c>
-      <c r="G38" s="5">
-        <v>4</v>
+      <c r="G38" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4432,40 +4569,38 @@
       <c r="N38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O38" s="22">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="P38" s="20">
-        <f t="shared" si="3"/>
-        <v>2.7857142857142856</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>214</v>
+      <c r="O38" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>50</v>
       </c>
       <c r="R38" s="5">
-        <v>50</v>
-      </c>
-      <c r="S38" s="5">
         <v>37</v>
       </c>
+      <c r="S38" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T38" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>223</v>
+        <v>88</v>
+      </c>
+      <c r="Y38" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4475,22 +4610,22 @@
       <c r="B39" s="17">
         <v>3</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="25">
-        <f t="shared" si="5"/>
+      <c r="C39" s="3">
+        <f>C37+Table1[[#This Row],[Cost]]</f>
+        <v>420</v>
+      </c>
+      <c r="D39" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>400</v>
+      </c>
+      <c r="E39" s="27">
+        <v>3</v>
+      </c>
+      <c r="F39" s="20">
         <v>1.05</v>
       </c>
-      <c r="E39" s="3">
-        <v>420</v>
-      </c>
-      <c r="F39" s="22">
-        <f t="shared" si="7"/>
-        <v>400</v>
-      </c>
-      <c r="G39" s="5">
-        <v>2</v>
+      <c r="G39" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="H39">
         <v>47</v>
@@ -4502,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="L39" s="2">
         <v>18</v>
@@ -4513,38 +4648,36 @@
       <c r="N39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O39" s="22">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="P39" s="20">
-        <f t="shared" si="3"/>
-        <v>2.1</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>214</v>
+      <c r="O39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>50</v>
       </c>
       <c r="R39" s="5">
-        <v>50</v>
-      </c>
-      <c r="S39" s="5">
         <v>36</v>
       </c>
+      <c r="S39" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="T39" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4554,22 +4687,22 @@
       <c r="B40" s="17">
         <v>1</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="25">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="C40" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
         <v>60</v>
       </c>
-      <c r="F40" s="22">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="D40" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>29.714285714285712</v>
+      </c>
+      <c r="E40" s="27">
         <v>2</v>
+      </c>
+      <c r="F40" s="20">
+        <v>2</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H40">
         <v>40</v>
@@ -4581,42 +4714,40 @@
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L40" s="2">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M40" s="3">
         <v>60</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="22">
-        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>30</v>
+      </c>
+      <c r="R40" s="5">
+        <v>5</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="V40" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="P40" s="20">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="R40" s="5">
-        <v>30</v>
-      </c>
-      <c r="S40" s="5">
-        <v>5</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -4625,7 +4756,7 @@
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -4635,22 +4766,22 @@
       <c r="B41" s="17">
         <v>2</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D41" s="25">
-        <f t="shared" si="5"/>
-        <v>1.2222222222222223</v>
-      </c>
-      <c r="E41" s="3">
-        <v>220</v>
-      </c>
-      <c r="F41" s="22">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="C41" s="3">
+        <f>Table1[[#This Row],[Cost]]+C40</f>
+        <v>190</v>
+      </c>
+      <c r="D41" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>104</v>
+      </c>
+      <c r="E41" s="27">
         <v>3</v>
+      </c>
+      <c r="F41" s="20">
+        <v>1.8</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="H41">
         <v>50</v>
@@ -4662,39 +4793,37 @@
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="L41" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M41" s="3">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="22">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="P41" s="20">
-        <f t="shared" si="3"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>216</v>
+        <v>25</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>30</v>
       </c>
       <c r="R41" s="5">
-        <v>30</v>
-      </c>
-      <c r="S41" s="5">
         <v>18</v>
       </c>
+      <c r="S41" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="T41" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -4704,7 +4833,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -4714,22 +4843,22 @@
       <c r="B42" s="17">
         <v>3</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="25">
-        <f t="shared" si="5"/>
+      <c r="C42" s="3">
+        <f>C41+Table1[[#This Row],[Cost]]</f>
+        <v>440</v>
+      </c>
+      <c r="D42" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>420.92307692307696</v>
+      </c>
+      <c r="E42" s="27">
+        <v>3</v>
+      </c>
+      <c r="F42" s="20">
         <v>1.0444444444444445</v>
       </c>
-      <c r="E42" s="3">
-        <v>470</v>
-      </c>
-      <c r="F42" s="22">
-        <f t="shared" si="7"/>
-        <v>450</v>
-      </c>
-      <c r="G42" s="5">
-        <v>3</v>
+      <c r="G42" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="H42">
         <v>55</v>
@@ -4741,36 +4870,34 @@
         <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L42" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M42" s="3">
         <v>250</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="22">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="P42" s="20">
-        <f t="shared" si="3"/>
-        <v>3.1333333333333333</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>216</v>
+        <v>25</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>30</v>
       </c>
       <c r="R42" s="5">
-        <v>30</v>
-      </c>
-      <c r="S42" s="5">
         <v>38</v>
       </c>
+      <c r="S42" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="T42" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -4781,7 +4908,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -4791,21 +4918,23 @@
       <c r="B43" s="17">
         <v>2</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="25">
-        <f t="shared" si="5"/>
+      <c r="C43" s="3">
+        <f>C40+Table1[[#This Row],[Cost]]</f>
+        <v>150</v>
+      </c>
+      <c r="D43" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>96</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="20">
         <v>1.5625</v>
       </c>
-      <c r="E43" s="3">
-        <v>150</v>
-      </c>
-      <c r="F43" s="22">
-        <f t="shared" ref="F43:F49" si="8">SUM(K43*(24/L43))*J43</f>
-        <v>96</v>
-      </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -4816,39 +4945,37 @@
         <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>90</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" s="22">
-        <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="P43" s="20">
-        <f t="shared" si="3"/>
-        <v>1.5625</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>217</v>
+        <v>23</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>106</v>
       </c>
       <c r="R43" s="5">
-        <v>40</v>
-      </c>
-      <c r="S43" s="5">
         <v>28</v>
       </c>
+      <c r="S43" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="T43" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -4858,7 +4985,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -4868,21 +4995,23 @@
       <c r="B44" s="17">
         <v>3</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="25">
-        <f t="shared" si="5"/>
+      <c r="C44" s="3">
+        <f>C43+Table1[[#This Row],[Cost]]</f>
+        <v>330</v>
+      </c>
+      <c r="D44" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>264</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" s="20">
         <v>1.25</v>
       </c>
-      <c r="E44" s="3">
-        <v>330</v>
-      </c>
-      <c r="F44" s="22">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -4893,36 +5022,34 @@
         <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="L44" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>180</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="22">
-        <f t="shared" si="6"/>
-        <v>264</v>
-      </c>
-      <c r="P44" s="20">
-        <f t="shared" si="3"/>
-        <v>1.25</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>217</v>
+        <v>23</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>106</v>
       </c>
       <c r="R44" s="5">
-        <v>40</v>
-      </c>
-      <c r="S44" s="5">
         <v>39</v>
       </c>
+      <c r="S44" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="T44" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -4933,7 +5060,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -4943,21 +5070,23 @@
       <c r="B45" s="17">
         <v>1</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="25">
-        <f t="shared" si="5"/>
+      <c r="C45" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>65</v>
+      </c>
+      <c r="D45" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>27</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F45" s="20">
         <v>2.2159090909090908</v>
       </c>
-      <c r="E45" s="3">
-        <v>65</v>
-      </c>
-      <c r="F45" s="22">
-        <f t="shared" si="8"/>
-        <v>29.333333333333332</v>
-      </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -4968,10 +5097,10 @@
         <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L45" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>65</v>
@@ -4979,34 +5108,32 @@
       <c r="N45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O45" s="22">
-        <f t="shared" si="6"/>
-        <v>29.333333333333332</v>
-      </c>
-      <c r="P45" s="20">
-        <f t="shared" si="3"/>
-        <v>2.2159090909090908</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>218</v>
+      <c r="O45" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>20</v>
       </c>
       <c r="R45" s="5">
         <v>20</v>
       </c>
-      <c r="S45" s="5">
-        <v>20</v>
+      <c r="S45" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
@@ -5014,7 +5141,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -5024,21 +5151,23 @@
       <c r="B46" s="17">
         <v>2</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="25">
-        <f t="shared" si="5"/>
+      <c r="C46" s="3">
+        <f>C45+Table1[[#This Row],[Cost]]</f>
+        <v>155</v>
+      </c>
+      <c r="D46" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>108</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" s="20">
         <v>1.4351851851851851</v>
       </c>
-      <c r="E46" s="3">
-        <v>155</v>
-      </c>
-      <c r="F46" s="22">
-        <f t="shared" si="8"/>
-        <v>108</v>
-      </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -5060,28 +5189,26 @@
       <c r="N46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="22">
-        <f t="shared" si="6"/>
-        <v>36</v>
-      </c>
-      <c r="P46" s="20">
-        <f t="shared" si="3"/>
-        <v>4.3055555555555554</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>218</v>
+      <c r="O46" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>20</v>
       </c>
       <c r="R46" s="5">
-        <v>20</v>
-      </c>
-      <c r="S46" s="5">
         <v>21</v>
       </c>
+      <c r="S46" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="T46" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -5091,7 +5218,7 @@
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -5101,21 +5228,23 @@
       <c r="B47" s="17">
         <v>3</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="25">
-        <f t="shared" si="5"/>
+      <c r="C47" s="3">
+        <f>C46+Table1[[#This Row],[Cost]]</f>
+        <v>395</v>
+      </c>
+      <c r="D47" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>375</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="20">
         <v>1.0533333333333332</v>
       </c>
-      <c r="E47" s="3">
-        <v>395</v>
-      </c>
-      <c r="F47" s="22">
-        <f t="shared" si="8"/>
-        <v>375</v>
-      </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="H47">
         <v>0</v>
       </c>
@@ -5137,25 +5266,23 @@
       <c r="N47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O47" s="22">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-      <c r="P47" s="20">
-        <f t="shared" si="3"/>
-        <v>5.2666666666666666</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>218</v>
+      <c r="O47" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>20</v>
       </c>
       <c r="R47" s="5">
-        <v>20</v>
-      </c>
-      <c r="S47" s="5">
         <v>40</v>
       </c>
+      <c r="S47" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="T47" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -5166,7 +5293,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -5176,21 +5303,23 @@
       <c r="B48" s="17">
         <v>2</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="25">
-        <f t="shared" si="5"/>
+      <c r="C48" s="3">
+        <f>C45+Table1[[#This Row],[Cost]]</f>
+        <v>185</v>
+      </c>
+      <c r="D48" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>102</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F48" s="20">
         <v>1.7788461538461537</v>
       </c>
-      <c r="E48" s="3">
-        <v>185</v>
-      </c>
-      <c r="F48" s="22">
-        <f t="shared" si="8"/>
-        <v>104</v>
-      </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="H48">
         <v>0</v>
       </c>
@@ -5201,10 +5330,10 @@
         <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>120</v>
@@ -5212,38 +5341,38 @@
       <c r="N48" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O48" s="22">
-        <f t="shared" si="6"/>
-        <v>104</v>
-      </c>
-      <c r="P48" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7788461538461537</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>218</v>
+      <c r="O48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>20</v>
       </c>
       <c r="R48" s="5">
-        <v>20</v>
-      </c>
-      <c r="S48" s="5">
         <v>30</v>
       </c>
+      <c r="S48" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="T48" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
+      <c r="Y48" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -5253,21 +5382,23 @@
       <c r="B49" s="17">
         <v>3</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="25">
-        <f t="shared" si="5"/>
+      <c r="C49" s="3">
+        <f>C48+Table1[[#This Row],[Cost]]</f>
+        <v>395</v>
+      </c>
+      <c r="D49" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>276</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F49" s="20">
         <v>1.4107142857142858</v>
       </c>
-      <c r="E49" s="3">
-        <v>395</v>
-      </c>
-      <c r="F49" s="22">
-        <f t="shared" si="8"/>
-        <v>280</v>
-      </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="H49">
         <v>0</v>
       </c>
@@ -5278,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L49" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>210</v>
@@ -5289,36 +5420,36 @@
       <c r="N49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O49" s="22">
-        <f t="shared" si="6"/>
-        <v>280</v>
-      </c>
-      <c r="P49" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4107142857142858</v>
-      </c>
-      <c r="Q49" s="5" t="s">
-        <v>218</v>
+      <c r="O49" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>20</v>
       </c>
       <c r="R49" s="5">
-        <v>20</v>
-      </c>
-      <c r="S49" s="5">
         <v>41</v>
       </c>
+      <c r="S49" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="T49" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
+      <c r="Y49" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -5328,22 +5459,22 @@
       <c r="B50" s="17">
         <v>2</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="25">
-        <f t="shared" si="5"/>
+      <c r="C50" s="3">
+        <f>C45+Table1[[#This Row],[Cost]]</f>
+        <v>200</v>
+      </c>
+      <c r="D50" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>126</v>
+      </c>
+      <c r="E50" s="27">
+        <v>2</v>
+      </c>
+      <c r="F50" s="20">
         <v>1.5873015873015872</v>
       </c>
-      <c r="E50" s="3">
-        <v>200</v>
-      </c>
-      <c r="F50" s="22">
-        <f>SUM(K50*(24/L50))*G50</f>
-        <v>126</v>
-      </c>
-      <c r="G50" s="5">
-        <v>3</v>
+      <c r="G50" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5355,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L50" s="2">
         <v>8</v>
@@ -5366,40 +5497,38 @@
       <c r="N50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O50" s="22">
-        <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="P50" s="20">
-        <f t="shared" si="3"/>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>218</v>
+      <c r="O50" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>20</v>
       </c>
       <c r="R50" s="5">
-        <v>20</v>
-      </c>
-      <c r="S50" s="5">
         <v>44</v>
       </c>
+      <c r="S50" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="T50" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -5409,22 +5538,22 @@
       <c r="B51" s="17">
         <v>3</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="25">
-        <f t="shared" si="5"/>
+      <c r="C51" s="3">
+        <f>C50+Table1[[#This Row],[Cost]]</f>
+        <v>480</v>
+      </c>
+      <c r="D51" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>360</v>
+      </c>
+      <c r="E51" s="27">
+        <v>3</v>
+      </c>
+      <c r="F51" s="20">
         <v>1.3333333333333333</v>
       </c>
-      <c r="E51" s="3">
-        <v>480</v>
-      </c>
-      <c r="F51" s="22">
-        <f>SUM(K51*(24/L51))*G51</f>
-        <v>360</v>
-      </c>
-      <c r="G51" s="5">
-        <v>4</v>
+      <c r="G51" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5436,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L51" s="2">
         <v>8</v>
@@ -5447,38 +5576,36 @@
       <c r="N51" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O51" s="22">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="P51" s="20">
-        <f t="shared" si="3"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="Q51" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="R51" s="5">
+      <c r="O51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q51" s="5">
         <v>20</v>
       </c>
-      <c r="S51" s="18">
+      <c r="R51" s="18">
         <v>45</v>
       </c>
+      <c r="S51" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="T51" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -5488,21 +5615,23 @@
       <c r="B52" s="17">
         <v>1</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="25">
-        <f t="shared" si="5"/>
+      <c r="C52" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>50</v>
+      </c>
+      <c r="D52" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>28</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F52" s="20">
         <v>1.7857142857142858</v>
       </c>
-      <c r="E52" s="3">
-        <v>50</v>
-      </c>
-      <c r="F52" s="22">
-        <f>SUM(K52*(24/L52))*J52</f>
-        <v>28</v>
-      </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="26" t="s">
+        <v>129</v>
+      </c>
       <c r="H52">
         <v>0</v>
       </c>
@@ -5521,40 +5650,43 @@
       <c r="M52" s="3">
         <v>50</v>
       </c>
-      <c r="N52" t="s">
-        <v>27</v>
-      </c>
-      <c r="O52" s="22">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="P52" s="20">
-        <f t="shared" si="3"/>
-        <v>1.7857142857142858</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>215</v>
+      <c r="N52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
       </c>
       <c r="R52">
-        <v>20</v>
-      </c>
-      <c r="S52">
         <v>46</v>
       </c>
-      <c r="T52" t="s">
-        <v>62</v>
-      </c>
-      <c r="U52" t="s">
-        <v>135</v>
-      </c>
-      <c r="V52" t="s">
-        <v>136</v>
-      </c>
-      <c r="W52" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>157</v>
+      <c r="S52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -5564,21 +5696,23 @@
       <c r="B53" s="17">
         <v>2</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="25">
-        <f t="shared" si="5"/>
+      <c r="C53" s="3">
+        <f>C52+Table1[[#This Row],[Cost]]</f>
+        <v>150</v>
+      </c>
+      <c r="D53" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>100</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" s="20">
         <v>1.5</v>
       </c>
-      <c r="E53" s="3">
-        <v>150</v>
-      </c>
-      <c r="F53" s="22">
-        <f>SUM(K53*(24/L53))*J53</f>
-        <v>100</v>
-      </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="26" t="s">
+        <v>130</v>
+      </c>
       <c r="H53">
         <v>0</v>
       </c>
@@ -5597,37 +5731,41 @@
       <c r="M53" s="3">
         <v>100</v>
       </c>
-      <c r="N53" t="s">
-        <v>27</v>
-      </c>
-      <c r="O53" s="22">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="P53" s="20">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>215</v>
+      <c r="N53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q53">
+        <v>20</v>
       </c>
       <c r="R53">
-        <v>20</v>
-      </c>
-      <c r="S53">
         <v>47</v>
       </c>
-      <c r="T53" t="s">
-        <v>62</v>
-      </c>
-      <c r="U53" t="s">
-        <v>156</v>
-      </c>
+      <c r="S53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
       <c r="Y53" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>196</v>
+        <v>155</v>
+      </c>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -5637,21 +5775,23 @@
       <c r="B54" s="17">
         <v>2</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D54" s="25">
-        <f t="shared" si="5"/>
+      <c r="C54" s="3">
+        <f>C52+Table1[[#This Row],[Cost]]</f>
+        <v>165</v>
+      </c>
+      <c r="D54" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>138</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="20">
         <v>1.1956521739130435</v>
       </c>
-      <c r="E54" s="3">
-        <v>165</v>
-      </c>
-      <c r="F54" s="22">
-        <f>SUM(K54*(24/L54))*J54</f>
-        <v>138</v>
-      </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="26" t="s">
+        <v>131</v>
+      </c>
       <c r="H54">
         <v>0</v>
       </c>
@@ -5670,37 +5810,41 @@
       <c r="M54" s="3">
         <v>115</v>
       </c>
-      <c r="N54" t="s">
-        <v>27</v>
-      </c>
-      <c r="O54" s="22">
-        <f t="shared" si="6"/>
+      <c r="N54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>48</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="P54" s="20">
-        <f t="shared" si="3"/>
-        <v>1.1956521739130435</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>215</v>
-      </c>
-      <c r="R54">
-        <v>20</v>
-      </c>
-      <c r="S54">
-        <v>48</v>
-      </c>
-      <c r="T54" t="s">
-        <v>62</v>
-      </c>
-      <c r="U54" t="s">
-        <v>143</v>
-      </c>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
       <c r="Y54" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>137</v>
+        <v>172</v>
+      </c>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -5710,21 +5854,23 @@
       <c r="B55" s="17">
         <v>2</v>
       </c>
-      <c r="C55" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="25">
-        <f t="shared" si="5"/>
+      <c r="C55" s="3">
+        <f>C52+Table1[[#This Row],[Cost]]</f>
+        <v>190</v>
+      </c>
+      <c r="D55" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>135</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F55" s="20">
         <v>1.4074074074074074</v>
       </c>
-      <c r="E55" s="3">
-        <v>190</v>
-      </c>
-      <c r="F55" s="22">
-        <f>SUM(K55*(24/L55))*J55</f>
-        <v>135</v>
-      </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="26" t="s">
+        <v>133</v>
+      </c>
       <c r="H55">
         <v>0</v>
       </c>
@@ -5743,34 +5889,39 @@
       <c r="M55" s="3">
         <v>140</v>
       </c>
-      <c r="N55" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" s="22">
-        <f t="shared" si="6"/>
-        <v>135</v>
-      </c>
-      <c r="P55" s="20">
-        <f t="shared" si="3"/>
-        <v>1.4074074074074074</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>215</v>
+      <c r="N55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
       </c>
       <c r="R55">
-        <v>20</v>
-      </c>
-      <c r="S55">
         <v>49</v>
       </c>
-      <c r="T55" t="s">
-        <v>62</v>
-      </c>
-      <c r="U55" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>139</v>
+      <c r="S55" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -5780,21 +5931,23 @@
       <c r="B56" s="17">
         <v>3</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="25">
-        <f t="shared" si="5"/>
-        <v>11.8125</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="C56" s="3">
+        <f>C54+Table1[[#This Row],[Cost]]</f>
         <v>405</v>
       </c>
-      <c r="F56" s="22">
-        <f>SUM(K56*(24/L56))*J56</f>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="G56" s="4"/>
+      <c r="D56" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>133.71428571428569</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="20">
+        <v>3</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="H56">
         <v>0</v>
       </c>
@@ -5805,7 +5958,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="L56" s="2">
         <v>14</v>
@@ -5813,34 +5966,39 @@
       <c r="M56" s="3">
         <v>240</v>
       </c>
-      <c r="N56" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" s="22">
-        <f t="shared" si="6"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="P56" s="20">
-        <f t="shared" si="3"/>
-        <v>11.8125</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>215</v>
+      <c r="N56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q56">
+        <v>20</v>
       </c>
       <c r="R56">
-        <v>20</v>
-      </c>
-      <c r="S56">
         <v>50</v>
       </c>
-      <c r="T56" t="s">
-        <v>62</v>
-      </c>
+      <c r="S56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
       <c r="Y56" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>189</v>
+        <v>241</v>
+      </c>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -5850,22 +6008,22 @@
       <c r="B57" s="17">
         <v>3</v>
       </c>
-      <c r="C57" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="25">
-        <f t="shared" si="5"/>
+      <c r="C57" s="3">
+        <f>C55+Table1[[#This Row],[Cost]]</f>
+        <v>380</v>
+      </c>
+      <c r="D57" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>228</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F57" s="20">
         <v>1.6481481481481481</v>
       </c>
-      <c r="E57" s="3">
-        <v>445</v>
-      </c>
-      <c r="F57" s="22">
-        <f>SUM(K57*(24/L57))*G57</f>
-        <v>270</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>188</v>
+      <c r="G57" s="26" t="s">
+        <v>136</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5877,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L57" s="2">
         <v>16</v>
@@ -5885,37 +6043,41 @@
       <c r="M57" s="3">
         <v>190</v>
       </c>
-      <c r="N57" t="s">
-        <v>27</v>
-      </c>
-      <c r="O57" s="22">
-        <f t="shared" si="6"/>
-        <v>67.5</v>
-      </c>
-      <c r="P57" s="20">
-        <f t="shared" si="3"/>
-        <v>6.5925925925925926</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>215</v>
+      <c r="N57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q57">
+        <v>50</v>
       </c>
       <c r="R57">
-        <v>50</v>
-      </c>
-      <c r="S57">
         <v>51</v>
       </c>
-      <c r="T57" t="s">
-        <v>62</v>
-      </c>
-      <c r="X57" t="s">
-        <v>93</v>
+      <c r="S57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>159</v>
+        <v>118</v>
+      </c>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -5925,22 +6087,22 @@
       <c r="B58" s="17">
         <v>3</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" s="25">
-        <f t="shared" si="5"/>
+      <c r="C58" s="3">
+        <f>C53+Table1[[#This Row],[Cost]]</f>
+        <v>440</v>
+      </c>
+      <c r="D58" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>196.36363636363635</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F58" s="20">
         <v>2.2229166666666669</v>
       </c>
-      <c r="E58" s="3">
-        <v>485</v>
-      </c>
-      <c r="F58" s="22">
-        <f>SUM(K58*(24/L58))*G58</f>
-        <v>218.18181818181816</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>188</v>
+      <c r="G58" s="26" t="s">
+        <v>149</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5952,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L58" s="2">
         <v>22</v>
@@ -5960,37 +6122,41 @@
       <c r="M58" s="3">
         <v>290</v>
       </c>
-      <c r="N58" t="s">
-        <v>27</v>
-      </c>
-      <c r="O58" s="22">
-        <f t="shared" si="6"/>
-        <v>54.54545454545454</v>
-      </c>
-      <c r="P58" s="20">
-        <f t="shared" si="3"/>
-        <v>8.8916666666666675</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>215</v>
+      <c r="N58" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q58">
+        <v>50</v>
       </c>
       <c r="R58">
-        <v>50</v>
-      </c>
-      <c r="S58">
         <v>52</v>
       </c>
-      <c r="T58" t="s">
-        <v>62</v>
-      </c>
-      <c r="X58" t="s">
-        <v>93</v>
+      <c r="S58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>187</v>
+        <v>154</v>
+      </c>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -6000,21 +6166,23 @@
       <c r="B59" s="17">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="25">
-        <f t="shared" si="5"/>
+      <c r="C59" s="25">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>40</v>
+      </c>
+      <c r="D59" s="22">
+        <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F59" s="20">
         <v>1.875</v>
       </c>
-      <c r="E59" s="27">
-        <v>40</v>
-      </c>
-      <c r="F59" s="22">
-        <f>SUM(K59*(24/L59))*J59</f>
-        <v>21.333333333333332</v>
-      </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="H59">
         <v>0</v>
       </c>
@@ -6033,42 +6201,46 @@
       <c r="M59" s="3">
         <v>40</v>
       </c>
-      <c r="N59" t="s">
-        <v>27</v>
-      </c>
-      <c r="O59" s="22">
-        <f t="shared" si="6"/>
-        <v>21.333333333333332</v>
-      </c>
-      <c r="P59" s="20">
-        <f t="shared" si="3"/>
-        <v>1.875</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>219</v>
+      <c r="N59" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q59">
+        <v>50</v>
       </c>
       <c r="R59">
-        <v>50</v>
-      </c>
-      <c r="S59">
         <v>54</v>
       </c>
-      <c r="T59" t="s">
-        <v>62</v>
-      </c>
+      <c r="S59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
       <c r="Y59" s="4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>203</v>
+        <v>244</v>
+      </c>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F59:F1048576 E1:E59 O52:O58">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="C1:C59 G60:G1048576">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6079,8 +6251,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S59 W60:W1048576 V59 T52:T58">
-    <cfRule type="top10" dxfId="12" priority="1" percent="1" rank="2"/>
+  <conditionalFormatting sqref="T1 R1:R59 AA60:AA1048576 V59 S52:S58 T29:T31">
+    <cfRule type="top10" dxfId="0" priority="6" percent="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6107,62 +6279,62 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>151</v>
+      <c r="B2" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>150</v>
+      <c r="B3" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
-        <v>204</v>
+      <c r="B4" s="23" t="s">
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>210</v>
+      <c r="B5" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>163</v>
+        <v>156</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E9">
         <v>535353</v>
@@ -6170,63 +6342,63 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>145</v>
+      <c r="B31" s="23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
-        <v>144</v>
+      <c r="B32" s="23" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
-        <v>155</v>
+      <c r="B33" s="23" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="24" t="s">
-        <v>167</v>
+      <c r="B34" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
-        <v>169</v>
+      <c r="B35" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F5C27-F6CA-4404-9246-F7D8D63DDDAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA4E812-B7D4-4D92-8F82-7B6DE9525A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="259">
   <si>
     <t>Rogue</t>
   </si>
@@ -218,12 +218,6 @@
     <t>Throws large fireballs that explode in an AoE and deal 5 burning damage to all caught for 3 seconds.  Slow attack speed. Might be OP.</t>
   </si>
   <si>
-    <t>I dare you to touch it.  Electricity travels fast and far.  Hey, what's this knob do?</t>
-  </si>
-  <si>
-    <t>It's a Knight in shining armor.  Gives a debuff that increases enemy's damage taken by 10% for 2 seconds. Tips fedora a lot.</t>
-  </si>
-  <si>
     <t>Guns are sort of unfair against the metal armor the creeps wear.  That's why it shoots pellets.  It still hurts tho.</t>
   </si>
   <si>
@@ -254,12 +248,6 @@
     <t>maxHits</t>
   </si>
   <si>
-    <t>Our hero.  Applies -2 armor for 3 seconds on hit.</t>
-  </si>
-  <si>
-    <t>Samurai.  Hits fast and heavy.</t>
-  </si>
-  <si>
     <t>Icicle</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
     <t>Shoots ice spikes.  Long range, single target.  Slows 18% and reduces armor by 1 for 2 seconds.</t>
   </si>
   <si>
-    <t>Death Knight.  Each hit increases enemy damage taken by 15% for 2 seconds.  xXxEdgeLordxXx</t>
-  </si>
-  <si>
     <t>Mars</t>
   </si>
   <si>
@@ -377,9 +362,6 @@
     <t>Hail</t>
   </si>
   <si>
-    <t>Shoots 2 spikes at once, slows by 18%, armor reduced by 1 on each target.</t>
-  </si>
-  <si>
     <t>Ice Maker</t>
   </si>
   <si>
@@ -389,9 +371,6 @@
     <t>Increased range &amp; splash.  Make way for big ar-tillery!!</t>
   </si>
   <si>
-    <t>Icey.  Cold.  Refreshing.  Slows by 25% to small area for 2 seconds.</t>
-  </si>
-  <si>
     <t>Chain</t>
   </si>
   <si>
@@ -413,9 +392,6 @@
     <t>skillFour</t>
   </si>
   <si>
-    <t>hit,brittle,2,3</t>
-  </si>
-  <si>
     <t>hit,penitence,.1,2</t>
   </si>
   <si>
@@ -440,9 +416,6 @@
     <t>hit,brittle,1,2</t>
   </si>
   <si>
-    <t>Skilled with poisons.  28% slow + 20 dps for 5 seconds.</t>
-  </si>
-  <si>
     <t>hit,poison,.28,20,5</t>
   </si>
   <si>
@@ -464,9 +437,6 @@
     <t>Gooey</t>
   </si>
   <si>
-    <t>Yuckkkkkkkkkkk</t>
-  </si>
-  <si>
     <t>Feral Beast</t>
   </si>
   <si>
@@ -560,12 +530,6 @@
     <t>hit,stun,.15,1</t>
   </si>
   <si>
-    <t>A warrior on drugs.  Hits hard, and fast, and has a 15% chance to stun for 1 second.</t>
-  </si>
-  <si>
-    <t>Let loose the hounds of war with a 20% damage boost on nearby towers (range 2).</t>
-  </si>
-  <si>
     <t>The Archer.  Everyone's favorite starting class.  If this tower could crouch and be stealth, it might crit, but it can't, so it doesn't.</t>
   </si>
   <si>
@@ -575,48 +539,24 @@
     <t>The Royal Bowman.  A larger range, stronger archer.</t>
   </si>
   <si>
-    <t>Shots have a 20% chance to crit, dealing a second attack for 100% weapon damage.</t>
-  </si>
-  <si>
     <t>hit,crit,.2,1</t>
   </si>
   <si>
-    <t>Hits two targets at once.  Applies 5 dmg every second for 3 seconds and slows by 8%.</t>
-  </si>
-  <si>
     <t>In the shadows you'll find him.  Throwing daggers, hurting people.  Triple shot, same crit.</t>
   </si>
   <si>
-    <t>Sure to kill whoever he's aiming for.  20% chance for 3x crit.</t>
-  </si>
-  <si>
     <t>hit,crit,.2,2</t>
   </si>
   <si>
     <t>hit,poison,.13,10,2</t>
   </si>
   <si>
-    <t>Makes a big, poisonous splash when he attacks.  Slows 13% and 10 dmg for 2 seconds.</t>
-  </si>
-  <si>
-    <t>Likes to shout a lot of motivational things.  Nearby towers strangely reply to it. DmgUp 12% to nearby towers (range 2)</t>
-  </si>
-  <si>
-    <t>This master of swordsmanship has the ability to bash an enemy and stun them for 2 seconds.</t>
-  </si>
-  <si>
     <t>A sweet serenade for those unknowing participants to death's song.</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Bigger splash &amp; range, still slows 25%.</t>
-  </si>
-  <si>
-    <t>Splash range &amp; range slightly bigger still.</t>
-  </si>
-  <si>
     <t>Big Yeti mele hits with 28% slow for 3 seconds.  Low-ranged!</t>
   </si>
   <si>
@@ -653,9 +593,6 @@
     <t>IcedRoad</t>
   </si>
   <si>
-    <t>Literally freezes the roads surrounding it, slowing enemy movement speed.  Hits every tower in its' range.</t>
-  </si>
-  <si>
     <t>Ice everywhere.  Increased slow, same effect.</t>
   </si>
   <si>
@@ -707,21 +644,12 @@
     <t>timer,icedRoad,.34,1</t>
   </si>
   <si>
-    <t>hit,henchant,.05,1,2</t>
-  </si>
-  <si>
-    <t>Each strike will provide 5% increased attack speed to adjacent towers for 2 seconds (stacks)</t>
-  </si>
-  <si>
     <t>hit,penitence,.25,2</t>
   </si>
   <si>
     <t>timer,atkSpdBuff,.15,2</t>
   </si>
   <si>
-    <t>Calls upon Elven spirits to increase nearby towers attack speed by 15%.</t>
-  </si>
-  <si>
     <t>timer,dmgBuff,.12,3</t>
   </si>
   <si>
@@ -746,9 +674,6 @@
     <t>A strong tower on its own, it has a very small AoE which takes this from okay to OP.  Why am I telling you this!?</t>
   </si>
   <si>
-    <t>These upgrade of towers eliminate tower attack, instead opting to set the road directly surrounding it on fire, dealing damage per second.</t>
-  </si>
-  <si>
     <t>Makes your enemies nice and crispy by increasing the heat.</t>
   </si>
   <si>
@@ -788,9 +713,6 @@
     <t>hit,poison,0,80,2</t>
   </si>
   <si>
-    <t>Hunts down his prey and.. well, this game is kid friendly, so let's just say it's not good.  Does lots of poison.</t>
-  </si>
-  <si>
     <t>timer,atkSpdBuff,.05,2</t>
   </si>
   <si>
@@ -834,6 +756,87 @@
   </si>
   <si>
     <t>BulletHit</t>
+  </si>
+  <si>
+    <t>Shots have a chance to crit, dealing a second attack for 100% weapon damage.</t>
+  </si>
+  <si>
+    <t>Sure to kill whoever he's aiming for.  Chance for 3x crit.</t>
+  </si>
+  <si>
+    <t>Calls upon Elven spirits to increase nearby towers attack speed.</t>
+  </si>
+  <si>
+    <t>Hits two targets at once.  Applies poison which hurts over time &amp; slows.</t>
+  </si>
+  <si>
+    <t>Makes a big, poisonous splash when he attacks.</t>
+  </si>
+  <si>
+    <t>Skilled with poisons.  Hits one guys, but really ruins that guys day.</t>
+  </si>
+  <si>
+    <t>A warrior on drugs.  Hits hard, and fast, and has a chance to stun..</t>
+  </si>
+  <si>
+    <t>Hits hard and fast.  Crits and stuns.  Attacs and protecs.</t>
+  </si>
+  <si>
+    <t>This master of swordsmanship has the ability to bash an enemy and stun them for longer.</t>
+  </si>
+  <si>
+    <t>It's a Knight in shining armor.  Gives a debuff that increases enemy's damage taken.  Tips fedora a lot for some reason.</t>
+  </si>
+  <si>
+    <t>He's kind of sad, but he does increase that debuff some more.  xXxEdgeLordxXx</t>
+  </si>
+  <si>
+    <t>Each strike will provide increased attack speed to adjacent towers (stacks).</t>
+  </si>
+  <si>
+    <t>hit,henchant,.08,1,3</t>
+  </si>
+  <si>
+    <t>Likes to shout a lot of motivational things.  Nearby towers strangely reply to it. DmgUp to nearby towers (range 2)</t>
+  </si>
+  <si>
+    <t>Let loose the hounds of war with a bigger damage boost on nearby towers (range 2).</t>
+  </si>
+  <si>
+    <t>These line of tower upgrades eliminate tower attack, instead opting to set the road directly on fire, dealing damage over those walking on it.</t>
+  </si>
+  <si>
+    <t>Icey.  Cold.  Refreshing.  Slows a small area.</t>
+  </si>
+  <si>
+    <t>Bigger splash &amp; range, more slow!</t>
+  </si>
+  <si>
+    <t>How can she slow?!?  Bigger everything, more everything, it's a lot of things.</t>
+  </si>
+  <si>
+    <t>Our hero.  Applies -4 armor for 3 seconds on hit.</t>
+  </si>
+  <si>
+    <t>hit,brittle,4,3</t>
+  </si>
+  <si>
+    <t>hit,brittle,2,2</t>
+  </si>
+  <si>
+    <t>Shoots 2 spikes at once, slows by 18%, armor reduced by 2 on each target.</t>
+  </si>
+  <si>
+    <t>Literally freezes the roads surrounding it, slowing enemy movement speed.  Hits every enemy in its' range.</t>
+  </si>
+  <si>
+    <t>Electricity travels fast and far.  I dare you to touch it.  Hey, what's this knob do?</t>
+  </si>
+  <si>
+    <t>Made of some sort of sticky substance.  We dare not ask.</t>
+  </si>
+  <si>
+    <t>Hunts down its prey and kills it until it's dead.</t>
   </si>
 </sst>
 </file>
@@ -957,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -976,7 +979,6 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -992,16 +994,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1103,6 +1095,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1169,21 +1171,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="13" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="12" connectionId="7">
   <autoFilter ref="A1:AC59" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB58">
-    <sortCondition ref="A2:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC59">
+    <sortCondition ref="A2:A59"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="12"/>
-    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="9">
+    <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="11"/>
+    <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="8">
       <calculatedColumnFormula>SUM(K2*(24/L2))*J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="Gold/MaxDPS" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="Gold/MaxDPS" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name" dataDxfId="5">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
@@ -1195,13 +1197,13 @@
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
       <xmlColumnPr mapId="9" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="4">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="3">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="3">
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="2">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
@@ -1210,7 +1212,7 @@
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
       <xmlColumnPr mapId="9" xpath="/Root/Row/bulletFrame" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D8011812-4E3C-4FF1-80E9-B55E15FBC05C}" uniqueName="bulletHit" name="bulletHit" dataDxfId="2">
+    <tableColumn id="14" xr3:uid="{D8011812-4E3C-4FF1-80E9-B55E15FBC05C}" uniqueName="bulletHit" name="bulletHit" dataDxfId="1">
       <xmlColumnPr mapId="9" xpath="/Root/Row/bulletHit" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{D6FE27F0-9BA9-4042-A2FB-7EB813A3CD4E}" uniqueName="bulletSpeed" name="bulletSpeed">
@@ -1222,7 +1224,7 @@
     <tableColumn id="19" xr3:uid="{483C72D6-B33C-452D-BE8F-E524D370C58C}" uniqueName="fireSoundString" name="fireSoundString">
       <xmlColumnPr mapId="9" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B96E635B-FFE7-484F-A6BD-839BE5FD13B6}" uniqueName="hitSoundString" name="hitSoundString" dataDxfId="1">
+    <tableColumn id="12" xr3:uid="{B96E635B-FFE7-484F-A6BD-839BE5FD13B6}" uniqueName="hitSoundString" name="hitSoundString" dataDxfId="0">
       <xmlColumnPr mapId="9" xpath="/Root/Row/hitSoundString" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{1B12F4CC-722E-4BFB-9EA8-7BC8CB93A247}" uniqueName="upgradeOne" name="upgradeOne">
@@ -1557,10 +1559,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1573,7 @@
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1581,12 +1583,12 @@
     <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
@@ -1605,22 +1607,22 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>236</v>
+        <v>61</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>22</v>
@@ -1650,7 +1652,7 @@
         <v>29</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>28</v>
@@ -1662,31 +1664,31 @@
         <v>31</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AC1" s="6" t="s">
         <v>32</v>
@@ -1703,14 +1705,14 @@
         <f>Table1[[#This Row],[Cost]]</f>
         <v>40</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>17.333333333333332</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="20">
+      <c r="E2" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="19">
         <v>2.3076923076923079</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -1720,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1738,10 +1740,10 @@
         <v>23</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="5">
         <v>20</v>
@@ -1753,7 +1755,7 @@
         <v>48</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -1770,7 +1772,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1784,14 +1786,14 @@
         <f>C2+Table1[[#This Row],[Cost]]</f>
         <v>130</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>62.117647058823536</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="E3" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F3" s="19">
         <v>2.0928030303030303</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -1801,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1819,22 +1821,22 @@
         <v>23</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q3" s="5">
         <v>30</v>
       </c>
       <c r="R3" s="5">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>4</v>
@@ -1845,13 +1847,13 @@
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1865,14 +1867,14 @@
         <f>C3+Table1[[#This Row],[Cost]]</f>
         <v>310</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>270</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E4" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="19">
         <v>1.1481481481481481</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -1900,35 +1902,35 @@
         <v>24</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="5">
         <v>30</v>
       </c>
       <c r="R4" s="5">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1942,14 +1944,14 @@
         <f>C3+Table1[[#This Row],[Cost]]</f>
         <v>310</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>315</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F5" s="20">
+      <c r="E5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="19">
         <v>0.98412698412698407</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -1977,35 +1979,35 @@
         <v>23</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="5">
         <v>30</v>
       </c>
       <c r="R5" s="5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2019,14 +2021,14 @@
         <f>C2+Table1[[#This Row],[Cost]]</f>
         <v>175</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>90</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="19">
         <v>1.9444444444444444</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -2054,22 +2056,22 @@
         <v>23</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="5">
         <v>20</v>
       </c>
       <c r="R6" s="5">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>5</v>
@@ -2084,7 +2086,7 @@
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2098,14 +2100,14 @@
         <f>C6+Table1[[#This Row],[Cost]]</f>
         <v>355</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>146.66666666666666</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="E7" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="19">
         <v>2.4204545454545454</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -2133,35 +2135,35 @@
         <v>24</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="5">
         <v>30</v>
       </c>
       <c r="R7" s="5">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -2175,14 +2177,14 @@
         <f>C6+Table1[[#This Row],[Cost]]</f>
         <v>365</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>180</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="E8" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="19">
         <v>2.0277777777777777</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -2210,35 +2212,35 @@
         <v>24</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q8" s="5">
         <v>30</v>
       </c>
       <c r="R8" s="5">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2252,14 +2254,14 @@
         <f>C2+Table1[[#This Row],[Cost]]</f>
         <v>120</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>52.8</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="E9" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" s="19">
         <v>2.2727272727272729</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2269,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -2287,22 +2289,22 @@
         <v>23</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q9" s="5">
         <v>30</v>
       </c>
       <c r="R9" s="5">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>7</v>
@@ -2313,13 +2315,13 @@
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -2333,14 +2335,14 @@
         <f>C9+Table1[[#This Row],[Cost]]</f>
         <v>360</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>247.5</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="E10" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="19">
         <v>1.4545454545454546</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -2368,35 +2370,35 @@
         <v>23</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="5">
         <v>30</v>
       </c>
       <c r="R10" s="5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -2406,18 +2408,18 @@
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
-        <f>C9+Table1[[#This Row],[Cost]]</f>
-        <v>320</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="3" t="e">
+        <f>#REF!+Table1[[#This Row],[Cost]]</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>243.42857142857142</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>4</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="19">
         <v>1.3099415204678364</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -2445,35 +2447,35 @@
         <v>24</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="5">
         <v>30</v>
       </c>
       <c r="R11" s="5">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4" t="s">
-        <v>178</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2487,18 +2489,18 @@
         <f>Table1[[#This Row],[Cost]]</f>
         <v>30</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="E12" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="19">
         <v>1.4705882352941178</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2522,22 +2524,22 @@
         <v>24</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="5">
         <v>50</v>
       </c>
       <c r="R12" s="5">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>34</v>
@@ -2568,14 +2570,14 @@
         <f>C12+Table1[[#This Row],[Cost]]</f>
         <v>130</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>75</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="E13" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="19">
         <v>1.7333333333333334</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -2603,39 +2605,39 @@
         <v>24</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="5">
         <v>50</v>
       </c>
       <c r="R13" s="5">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2649,14 +2651,14 @@
         <f>C13+Table1[[#This Row],[Cost]]</f>
         <v>300</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>310</v>
       </c>
-      <c r="E14" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="20">
+      <c r="E14" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="19">
         <v>0.967741935483871</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -2684,37 +2686,37 @@
         <v>24</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="5">
         <v>50</v>
       </c>
       <c r="R14" s="5">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4" t="s">
-        <v>65</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2728,18 +2730,18 @@
         <f>C13+Table1[[#This Row],[Cost]]</f>
         <v>350</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>268.23529411764707</v>
       </c>
-      <c r="E15" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F15" s="20">
+      <c r="E15" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="19">
         <v>1.3048245614035088</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2763,35 +2765,35 @@
         <v>25</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q15" s="5">
         <v>50</v>
       </c>
       <c r="R15" s="5">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2805,14 +2807,14 @@
         <f>C12+Table1[[#This Row],[Cost]]</f>
         <v>145</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="E16" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="19">
         <v>1.5535714285714286</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -2840,25 +2842,25 @@
         <v>25</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="5">
         <v>50</v>
       </c>
       <c r="R16" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>38</v>
@@ -2866,13 +2868,13 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2886,14 +2888,14 @@
         <f>C16+Table1[[#This Row],[Cost]]</f>
         <v>335</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>225</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="20">
+      <c r="E17" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F17" s="19">
         <v>1.4888888888888889</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -2921,35 +2923,35 @@
         <v>25</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="5">
         <v>50</v>
       </c>
       <c r="R17" s="5">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="4" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2961,16 +2963,16 @@
       </c>
       <c r="C18" s="3">
         <f>C16+Table1[[#This Row],[Cost]]</f>
-        <v>385</v>
-      </c>
-      <c r="D18" s="22">
+        <v>355</v>
+      </c>
+      <c r="D18" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>200</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="20">
+      <c r="E18" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="19">
         <v>1.925</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -2992,41 +2994,41 @@
         <v>18</v>
       </c>
       <c r="M18" s="3">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="5">
         <v>50</v>
       </c>
       <c r="R18" s="5">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -3040,14 +3042,14 @@
         <f>C12+Table1[[#This Row],[Cost]]</f>
         <v>180</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>106.66666666666666</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="20">
+      <c r="E19" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="19">
         <v>1.6875000000000002</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -3075,10 +3077,10 @@
         <v>24</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q19" s="5">
         <v>50</v>
@@ -3090,7 +3092,7 @@
         <v>46</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>41</v>
@@ -3101,13 +3103,13 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -3119,16 +3121,16 @@
       </c>
       <c r="C20" s="3">
         <f>C19+Table1[[#This Row],[Cost]]</f>
-        <v>580</v>
-      </c>
-      <c r="D20" s="22">
+        <v>520</v>
+      </c>
+      <c r="D20" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>240</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="20">
+      <c r="E20" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="19">
         <v>2.4166666666666665</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -3150,41 +3152,41 @@
         <v>18</v>
       </c>
       <c r="M20" s="3">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="N20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="5">
         <v>50</v>
       </c>
       <c r="R20" s="5">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -3198,14 +3200,14 @@
         <f>C19+Table1[[#This Row],[Cost]]</f>
         <v>460</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>270</v>
       </c>
-      <c r="E21" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="20">
+      <c r="E21" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="19">
         <v>1.7037037037037037</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -3233,35 +3235,35 @@
         <v>25</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="5">
         <v>50</v>
       </c>
-      <c r="R21" s="5">
-        <v>53</v>
+      <c r="R21">
+        <v>54</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>46</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="4" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:29" collapsed="1" x14ac:dyDescent="0.25">
@@ -3275,24 +3277,24 @@
         <f>Table1[[#This Row],[Cost]]</f>
         <v>50</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>24</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="20">
+      <c r="E22" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="19">
         <v>1.8333333333333333</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3310,31 +3312,31 @@
         <v>14</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q22" s="5">
         <v>12</v>
       </c>
       <c r="R22" s="5">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
@@ -3342,7 +3344,7 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -3356,14 +3358,14 @@
         <f>C22+Table1[[#This Row],[Cost]]</f>
         <v>170</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>0</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="26">
         <v>3</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="19">
         <v>0</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -3389,41 +3391,41 @@
         <v>14</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="5">
         <v>50</v>
       </c>
-      <c r="R23" s="5">
-        <v>14</v>
+      <c r="R23">
+        <v>46</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y23" s="4" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3437,18 +3439,18 @@
         <f>C23+Table1[[#This Row],[Cost]]</f>
         <v>380</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>0</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="26">
         <v>3</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="19">
         <v>0</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3470,37 +3472,37 @@
         <v>14</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q24" s="5">
         <v>50</v>
       </c>
       <c r="R24" s="5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y24" s="4" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3514,18 +3516,18 @@
         <f>C23+Table1[[#This Row],[Cost]]</f>
         <v>410</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>0</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="20">
+      <c r="E25" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="19">
         <v>0</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3547,37 +3549,37 @@
         <v>14</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q25" s="5">
         <v>50</v>
       </c>
       <c r="R25" s="5">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y25" s="4" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -3591,24 +3593,24 @@
         <f>C22+Table1[[#This Row],[Cost]]</f>
         <v>150</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>84</v>
       </c>
-      <c r="E26" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="E26" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F26" s="19">
         <v>1.7222222222222223</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3626,28 +3628,28 @@
         <v>14</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="5">
         <v>12</v>
       </c>
       <c r="R26" s="5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
@@ -3656,7 +3658,7 @@
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3670,24 +3672,24 @@
         <f>C26+Table1[[#This Row],[Cost]]</f>
         <v>390</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>300</v>
       </c>
-      <c r="E27" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F27" s="20">
+      <c r="E27" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" s="19">
         <v>1.266025641025641</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -3705,22 +3707,22 @@
         <v>14</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q27" s="5">
         <v>12</v>
       </c>
       <c r="R27" s="5">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
@@ -3731,7 +3733,7 @@
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3745,24 +3747,24 @@
         <f>C26+Table1[[#This Row],[Cost]]</f>
         <v>430</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>234</v>
       </c>
-      <c r="E28" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F28" s="20">
+      <c r="E28" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F28" s="19">
         <v>1.8125</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H28">
         <v>12</v>
       </c>
       <c r="I28">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -3780,22 +3782,22 @@
         <v>14</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="5">
         <v>12</v>
       </c>
       <c r="R28" s="5">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
@@ -3806,7 +3808,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3820,14 +3822,14 @@
         <f>C22+Table1[[#This Row],[Cost]]</f>
         <v>190</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>119.25</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <v>3</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="19">
         <v>1.5757575757575757</v>
       </c>
       <c r="G29" s="13" t="s">
@@ -3855,33 +3857,33 @@
         <v>14</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q29" s="5">
         <v>12</v>
       </c>
       <c r="R29" s="5">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
@@ -3901,18 +3903,18 @@
         <f>C29+Table1[[#This Row],[Cost]]</f>
         <v>470</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>316</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <v>3</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="19">
         <v>1.484375</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H30">
         <v>45</v>
@@ -3936,35 +3938,35 @@
         <v>14</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q30" s="5">
         <v>12</v>
       </c>
       <c r="R30" s="5">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3974,22 +3976,22 @@
       <c r="B31" s="17">
         <v>3</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <f>C29+Table1[[#This Row],[Cost]]</f>
         <v>470</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>316</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F31" s="20">
+        <v>355.5</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="19">
         <v>1.484375</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -4004,7 +4006,7 @@
         <v>474</v>
       </c>
       <c r="L31" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M31" s="3">
         <v>280</v>
@@ -4013,22 +4015,22 @@
         <v>14</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="5">
         <v>12</v>
       </c>
       <c r="R31" s="5">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -4039,7 +4041,7 @@
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -4053,24 +4055,24 @@
         <f>Table1[[#This Row],[Cost]]</f>
         <v>40</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>19.200000000000003</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="26">
         <v>2</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="19">
         <v>2.083333333333333</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H32">
         <v>30</v>
       </c>
       <c r="I32">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -4088,41 +4090,41 @@
         <v>15</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="5">
         <v>24</v>
       </c>
-      <c r="R32" s="5">
-        <v>4</v>
+      <c r="R32">
+        <v>26</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4" t="s">
-        <v>109</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -4136,24 +4138,24 @@
         <f>C32+Table1[[#This Row],[Cost]]</f>
         <v>180</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>60</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="26">
         <v>3</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="19">
         <v>2.9605263157894735</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H33">
         <v>45</v>
       </c>
       <c r="I33">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -4171,37 +4173,37 @@
         <v>15</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q33" s="5">
         <v>26</v>
       </c>
       <c r="R33" s="5">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -4215,18 +4217,18 @@
         <f>C33+Table1[[#This Row],[Cost]]</f>
         <v>400</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>221.53846153846155</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="26">
         <v>3</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <v>1.8055555555555556</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H34">
         <v>50</v>
@@ -4250,35 +4252,35 @@
         <v>15</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q34" s="5">
         <v>28</v>
       </c>
       <c r="R34" s="5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4292,18 +4294,18 @@
         <f>C32+Table1[[#This Row],[Cost]]</f>
         <v>120</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>57.818181818181813</v>
       </c>
-      <c r="E35" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="20">
+      <c r="E35" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="19">
         <v>2.0754716981132075</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4327,39 +4329,39 @@
         <v>15</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q35" s="5">
         <v>30</v>
       </c>
       <c r="R35" s="5">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Z35" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4373,18 +4375,18 @@
         <f>C35+Table1[[#This Row],[Cost]]</f>
         <v>360</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>172.79999999999998</v>
       </c>
-      <c r="E36" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="20">
+      <c r="E36" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="19">
         <v>2.0833333333333335</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4408,37 +4410,37 @@
         <v>15</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q36" s="5">
         <v>30</v>
       </c>
       <c r="R36" s="5">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="S36" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4452,14 +4454,14 @@
         <f>C32+Table1[[#This Row],[Cost]]</f>
         <v>160</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>240</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <v>4</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="19">
         <v>0.66666666666666663</v>
       </c>
       <c r="G37" s="14" t="s">
@@ -4487,41 +4489,41 @@
         <v>15</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="5">
         <v>50</v>
       </c>
       <c r="R37" s="5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T37" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U37" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="V37" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4" t="s">
-        <v>197</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4535,18 +4537,18 @@
         <f>C37+Table1[[#This Row],[Cost]]</f>
         <v>390</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>560</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <v>4</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="19">
         <v>0.6964285714285714</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4570,37 +4572,37 @@
         <v>15</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="5">
         <v>50</v>
       </c>
       <c r="R38" s="5">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y38" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4614,18 +4616,18 @@
         <f>C37+Table1[[#This Row],[Cost]]</f>
         <v>420</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>400</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <v>3</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="19">
         <v>1.05</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H39">
         <v>47</v>
@@ -4649,35 +4651,35 @@
         <v>15</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q39" s="5">
         <v>50</v>
       </c>
       <c r="R39" s="5">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4691,14 +4693,14 @@
         <f>Table1[[#This Row],[Cost]]</f>
         <v>60</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>29.714285714285712</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <v>2</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="19">
         <v>2</v>
       </c>
       <c r="G40" s="15" t="s">
@@ -4726,25 +4728,25 @@
         <v>25</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q40" s="5">
         <v>30</v>
       </c>
       <c r="R40" s="5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>20</v>
@@ -4770,14 +4772,14 @@
         <f>Table1[[#This Row],[Cost]]+C40</f>
         <v>190</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>104</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <v>3</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="19">
         <v>1.8</v>
       </c>
       <c r="G41" s="15" t="s">
@@ -4805,25 +4807,25 @@
         <v>25</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q41" s="5">
         <v>30</v>
       </c>
       <c r="R41" s="5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -4833,7 +4835,7 @@
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -4847,18 +4849,18 @@
         <f>C41+Table1[[#This Row],[Cost]]</f>
         <v>440</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>420.92307692307696</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>3</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="19">
         <v>1.0444444444444445</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H42">
         <v>55</v>
@@ -4882,22 +4884,22 @@
         <v>25</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q42" s="5">
         <v>30</v>
       </c>
       <c r="R42" s="5">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
@@ -4908,7 +4910,7 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -4922,14 +4924,14 @@
         <f>C40+Table1[[#This Row],[Cost]]</f>
         <v>150</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>96</v>
       </c>
-      <c r="E43" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="20">
+      <c r="E43" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="19">
         <v>1.5625</v>
       </c>
       <c r="G43" s="15" t="s">
@@ -4957,25 +4959,25 @@
         <v>23</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="5">
         <v>106</v>
       </c>
       <c r="R43" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -4985,7 +4987,7 @@
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -4999,18 +5001,18 @@
         <f>C43+Table1[[#This Row],[Cost]]</f>
         <v>330</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>264</v>
       </c>
-      <c r="E44" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="20">
+      <c r="E44" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="19">
         <v>1.25</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -5034,22 +5036,22 @@
         <v>23</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="Q44" s="5">
         <v>106</v>
       </c>
-      <c r="R44" s="5">
-        <v>39</v>
+      <c r="R44">
+        <v>34</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
@@ -5060,7 +5062,7 @@
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -5074,14 +5076,14 @@
         <f>Table1[[#This Row],[Cost]]</f>
         <v>65</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>27</v>
       </c>
-      <c r="E45" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" s="20">
+      <c r="E45" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F45" s="19">
         <v>2.2159090909090908</v>
       </c>
       <c r="G45" s="16" t="s">
@@ -5109,22 +5111,22 @@
         <v>14</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q45" s="5">
         <v>20</v>
       </c>
       <c r="R45" s="5">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U45" s="4" t="s">
         <v>27</v>
@@ -5133,7 +5135,7 @@
         <v>19</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
@@ -5141,7 +5143,7 @@
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4" t="s">
-        <v>52</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -5155,14 +5157,14 @@
         <f>C45+Table1[[#This Row],[Cost]]</f>
         <v>155</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>108</v>
       </c>
-      <c r="E46" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="20">
+      <c r="E46" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="19">
         <v>1.4351851851851851</v>
       </c>
       <c r="G46" s="16" t="s">
@@ -5190,25 +5192,25 @@
         <v>14</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q46" s="5">
         <v>20</v>
       </c>
       <c r="R46" s="5">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -5232,18 +5234,18 @@
         <f>C46+Table1[[#This Row],[Cost]]</f>
         <v>395</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>375</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="F47" s="20">
+      <c r="E47" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F47" s="19">
         <v>1.0533333333333332</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5267,22 +5269,22 @@
         <v>14</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q47" s="5">
         <v>20</v>
       </c>
       <c r="R47" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T47" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -5293,7 +5295,7 @@
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -5307,14 +5309,14 @@
         <f>C45+Table1[[#This Row],[Cost]]</f>
         <v>185</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>102</v>
       </c>
-      <c r="E48" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="20">
+      <c r="E48" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="19">
         <v>1.7788461538461537</v>
       </c>
       <c r="G48" s="16" t="s">
@@ -5342,37 +5344,37 @@
         <v>14</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q48" s="5">
         <v>20</v>
       </c>
       <c r="R48" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -5386,18 +5388,18 @@
         <f>C48+Table1[[#This Row],[Cost]]</f>
         <v>395</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>276</v>
       </c>
-      <c r="E49" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="20">
+      <c r="E49" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="19">
         <v>1.4107142857142858</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5421,35 +5423,35 @@
         <v>14</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q49" s="5">
         <v>20</v>
       </c>
       <c r="R49" s="5">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -5463,18 +5465,18 @@
         <f>C45+Table1[[#This Row],[Cost]]</f>
         <v>200</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>126</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="26">
         <v>2</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="19">
         <v>1.5873015873015872</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -5498,37 +5500,37 @@
         <v>14</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q50" s="5">
         <v>20</v>
       </c>
       <c r="R50" s="5">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -5542,18 +5544,18 @@
         <f>C50+Table1[[#This Row],[Cost]]</f>
         <v>480</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>360</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="26">
         <v>3</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="19">
         <v>1.3333333333333333</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5577,35 +5579,35 @@
         <v>14</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q51" s="5">
         <v>20</v>
       </c>
-      <c r="R51" s="18">
-        <v>45</v>
+      <c r="R51" s="5">
+        <v>40</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -5619,24 +5621,24 @@
         <f>Table1[[#This Row],[Cost]]</f>
         <v>50</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>28</v>
       </c>
-      <c r="E52" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="20">
+      <c r="E52" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="19">
         <v>1.7857142857142858</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>129</v>
+      <c r="G52" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -5654,31 +5656,31 @@
         <v>25</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>20</v>
       </c>
-      <c r="R52">
-        <v>46</v>
+      <c r="R52" s="5">
+        <v>12</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
@@ -5686,7 +5688,7 @@
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -5700,24 +5702,24 @@
         <f>C52+Table1[[#This Row],[Cost]]</f>
         <v>150</v>
       </c>
-      <c r="D53" s="22">
+      <c r="D53" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>100</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F53" s="20">
+      <c r="E53" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" s="19">
         <v>1.5</v>
       </c>
-      <c r="G53" s="26" t="s">
-        <v>130</v>
+      <c r="G53" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -5735,37 +5737,37 @@
         <v>25</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>20</v>
       </c>
-      <c r="R53">
-        <v>47</v>
+      <c r="R53" s="5">
+        <v>33</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T53" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U53" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -5779,24 +5781,24 @@
         <f>C52+Table1[[#This Row],[Cost]]</f>
         <v>165</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>138</v>
       </c>
-      <c r="E54" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="20">
+      <c r="E54" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" s="19">
         <v>1.1956521739130435</v>
       </c>
-      <c r="G54" s="26" t="s">
-        <v>131</v>
+      <c r="G54" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -5814,37 +5816,37 @@
         <v>25</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>20</v>
       </c>
       <c r="R54">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U54" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -5858,24 +5860,24 @@
         <f>C52+Table1[[#This Row],[Cost]]</f>
         <v>190</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>135</v>
       </c>
-      <c r="E55" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="20">
+      <c r="E55" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" s="19">
         <v>1.4074074074074074</v>
       </c>
-      <c r="G55" s="26" t="s">
-        <v>133</v>
+      <c r="G55" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -5893,25 +5895,25 @@
         <v>25</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>20</v>
       </c>
-      <c r="R55">
-        <v>49</v>
+      <c r="R55" s="5">
+        <v>19</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T55" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U55" s="4" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
@@ -5921,7 +5923,7 @@
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4" t="s">
-        <v>134</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -5935,24 +5937,24 @@
         <f>C54+Table1[[#This Row],[Cost]]</f>
         <v>405</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>133.71428571428569</v>
       </c>
-      <c r="E56" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F56" s="20">
+      <c r="E56" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" s="19">
         <v>3</v>
       </c>
-      <c r="G56" s="26" t="s">
-        <v>135</v>
+      <c r="G56" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -5970,35 +5972,35 @@
         <v>25</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>20</v>
       </c>
       <c r="R56">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -6012,24 +6014,24 @@
         <f>C55+Table1[[#This Row],[Cost]]</f>
         <v>380</v>
       </c>
-      <c r="D57" s="22">
+      <c r="D57" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>228</v>
       </c>
-      <c r="E57" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F57" s="20">
+      <c r="E57" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" s="19">
         <v>1.6481481481481481</v>
       </c>
-      <c r="G57" s="26" t="s">
-        <v>136</v>
+      <c r="G57" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -6047,37 +6049,37 @@
         <v>25</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>50</v>
       </c>
-      <c r="R57">
-        <v>51</v>
+      <c r="R57" s="5">
+        <v>56</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y57" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -6091,24 +6093,24 @@
         <f>C53+Table1[[#This Row],[Cost]]</f>
         <v>440</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>196.36363636363635</v>
       </c>
-      <c r="E58" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="20">
+      <c r="E58" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" s="19">
         <v>2.2229166666666669</v>
       </c>
-      <c r="G58" s="26" t="s">
-        <v>149</v>
+      <c r="G58" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -6126,37 +6128,37 @@
         <v>25</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q58">
         <v>50</v>
       </c>
-      <c r="R58">
-        <v>52</v>
+      <c r="R58" s="5">
+        <v>39</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Y58" s="4" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -6166,22 +6168,22 @@
       <c r="B59" s="17">
         <v>1</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="24">
         <f>Table1[[#This Row],[Cost]]</f>
         <v>40</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
         <v>21.333333333333332</v>
       </c>
-      <c r="E59" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F59" s="20">
+      <c r="E59" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F59" s="19">
         <v>1.875</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6205,37 +6207,37 @@
         <v>25</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>50</v>
       </c>
-      <c r="R59">
-        <v>54</v>
+      <c r="R59" s="5">
+        <v>52</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="T59" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="Z59" s="4" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6251,8 +6253,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1 R1:R59 AA60:AA1048576 V59 S52:S58 T29:T31">
-    <cfRule type="top10" dxfId="0" priority="6" percent="1" rank="2"/>
+  <conditionalFormatting sqref="T1 AA60:AA1048576 V59 S52:S58 T29:T31 R1:R59">
+    <cfRule type="top10" dxfId="13" priority="6" percent="1" rank="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6279,62 +6281,62 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>146</v>
+      <c r="B2" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
-        <v>145</v>
+      <c r="B3" s="22" t="s">
+        <v>135</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>195</v>
+      <c r="B4" s="22" t="s">
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
-        <v>201</v>
+      <c r="B5" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>157</v>
+        <v>146</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E9">
         <v>535353</v>
@@ -6342,63 +6344,63 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>141</v>
+        <v>132</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>161</v>
+      <c r="B34" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="C34" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="23" t="s">
-        <v>163</v>
+      <c r="B35" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/towers/Towers.xlsx
+++ b/towers/Towers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA4E812-B7D4-4D92-8F82-7B6DE9525A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3EF0A3-21EF-452C-AE5D-120FC5AA37AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1174,7 +1174,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="12" connectionId="7">
   <autoFilter ref="A1:AC59" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC59">
-    <sortCondition ref="A2:A59"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="11"/>
@@ -1184,7 +1184,9 @@
       <calculatedColumnFormula>SUM(K2*(24/L2))*J2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="Gold/MaxDPS" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="Gold/MaxDPS" dataDxfId="6">
+      <calculatedColumnFormula>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name" dataDxfId="5">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
@@ -1559,10 +1561,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="topRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,6 +1715,7 @@
         <v>212</v>
       </c>
       <c r="F2" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>2.3076923076923079</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -1784,7 +1787,7 @@
       </c>
       <c r="C3" s="3">
         <f>C2+Table1[[#This Row],[Cost]]</f>
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="D3" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
@@ -1794,7 +1797,8 @@
         <v>212</v>
       </c>
       <c r="F3" s="19">
-        <v>2.0928030303030303</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>3.2196969696969693</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>0</v>
@@ -1815,7 +1819,7 @@
         <v>17</v>
       </c>
       <c r="M3" s="3">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>23</v>
@@ -1865,7 +1869,7 @@
       </c>
       <c r="C4" s="3">
         <f>C3+Table1[[#This Row],[Cost]]</f>
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="D4" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
@@ -1875,7 +1879,8 @@
         <v>212</v>
       </c>
       <c r="F4" s="19">
-        <v>1.1481481481481481</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.4074074074074074</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>4</v>
@@ -1942,7 +1947,7 @@
       </c>
       <c r="C5" s="3">
         <f>C3+Table1[[#This Row],[Cost]]</f>
-        <v>310</v>
+        <v>380</v>
       </c>
       <c r="D5" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
@@ -1952,7 +1957,8 @@
         <v>213</v>
       </c>
       <c r="F5" s="19">
-        <v>0.98412698412698407</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.2063492063492063</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>1</v>
@@ -2029,6 +2035,7 @@
         <v>212</v>
       </c>
       <c r="F6" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.9444444444444444</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -2108,6 +2115,7 @@
         <v>212</v>
       </c>
       <c r="F7" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>2.4204545454545454</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -2185,6 +2193,7 @@
         <v>212</v>
       </c>
       <c r="F8" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>2.0277777777777777</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -2262,6 +2271,7 @@
         <v>215</v>
       </c>
       <c r="F9" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>2.2727272727272729</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -2343,6 +2353,7 @@
         <v>212</v>
       </c>
       <c r="F10" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.4545454545454546</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -2408,9 +2419,9 @@
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="e">
-        <f>#REF!+Table1[[#This Row],[Cost]]</f>
-        <v>#REF!</v>
+      <c r="C11" s="3">
+        <f>C9+Table1[[#This Row],[Cost]]</f>
+        <v>320</v>
       </c>
       <c r="D11" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
@@ -2420,7 +2431,8 @@
         <v>4</v>
       </c>
       <c r="F11" s="19">
-        <v>1.3099415204678364</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.3145539906103287</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>8</v>
@@ -2497,6 +2509,7 @@
         <v>212</v>
       </c>
       <c r="F12" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.4705882352941178</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -2578,6 +2591,7 @@
         <v>212</v>
       </c>
       <c r="F13" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.7333333333333334</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -2659,6 +2673,7 @@
         <v>212</v>
       </c>
       <c r="F14" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>0.967741935483871</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -2738,6 +2753,7 @@
         <v>212</v>
       </c>
       <c r="F15" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.3048245614035088</v>
       </c>
       <c r="G15" s="12" t="s">
@@ -2815,6 +2831,7 @@
         <v>212</v>
       </c>
       <c r="F16" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.5535714285714286</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -2896,6 +2913,7 @@
         <v>212</v>
       </c>
       <c r="F17" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.4888888888888889</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -2973,7 +2991,8 @@
         <v>212</v>
       </c>
       <c r="F18" s="19">
-        <v>1.925</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.7749999999999999</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>38</v>
@@ -3050,6 +3069,7 @@
         <v>212</v>
       </c>
       <c r="F19" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.6875000000000002</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -3131,7 +3151,8 @@
         <v>212</v>
       </c>
       <c r="F20" s="19">
-        <v>2.4166666666666665</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>2.1666666666666665</v>
       </c>
       <c r="G20" s="12" t="s">
         <v>40</v>
@@ -3208,6 +3229,7 @@
         <v>212</v>
       </c>
       <c r="F21" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.7037037037037037</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -3285,7 +3307,8 @@
         <v>212</v>
       </c>
       <c r="F22" s="19">
-        <v>1.8333333333333333</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>2.0833333333333335</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>58</v>
@@ -3365,9 +3388,7 @@
       <c r="E23" s="26">
         <v>3</v>
       </c>
-      <c r="F23" s="19">
-        <v>0</v>
-      </c>
+      <c r="F23" s="19"/>
       <c r="G23" s="13" t="s">
         <v>42</v>
       </c>
@@ -3446,9 +3467,7 @@
       <c r="E24" s="26">
         <v>3</v>
       </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="13" t="s">
         <v>65</v>
       </c>
@@ -3523,9 +3542,7 @@
       <c r="E25" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F25" s="19">
-        <v>0</v>
-      </c>
+      <c r="F25" s="19"/>
       <c r="G25" s="13" t="s">
         <v>68</v>
       </c>
@@ -3601,7 +3618,8 @@
         <v>212</v>
       </c>
       <c r="F26" s="19">
-        <v>1.7222222222222223</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.7857142857142858</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>60</v>
@@ -3680,7 +3698,8 @@
         <v>213</v>
       </c>
       <c r="F27" s="19">
-        <v>1.266025641025641</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.3</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>66</v>
@@ -3755,7 +3774,8 @@
         <v>212</v>
       </c>
       <c r="F28" s="19">
-        <v>1.8125</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.8376068376068375</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>67</v>
@@ -3830,7 +3850,8 @@
         <v>3</v>
       </c>
       <c r="F29" s="19">
-        <v>1.5757575757575757</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.5932914046121593</v>
       </c>
       <c r="G29" s="13" t="s">
         <v>43</v>
@@ -3911,7 +3932,8 @@
         <v>3</v>
       </c>
       <c r="F30" s="19">
-        <v>1.484375</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.4873417721518987</v>
       </c>
       <c r="G30" s="13" t="s">
         <v>70</v>
@@ -3988,7 +4010,8 @@
         <v>212</v>
       </c>
       <c r="F31" s="19">
-        <v>1.484375</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.3220815752461321</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>69</v>
@@ -4063,6 +4086,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>2.083333333333333</v>
       </c>
       <c r="G32" s="14" t="s">
@@ -4146,7 +4170,8 @@
         <v>3</v>
       </c>
       <c r="F33" s="19">
-        <v>2.9605263157894735</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>3</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>78</v>
@@ -4225,6 +4250,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.8055555555555556</v>
       </c>
       <c r="G34" s="14" t="s">
@@ -4302,6 +4328,7 @@
         <v>212</v>
       </c>
       <c r="F35" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>2.0754716981132075</v>
       </c>
       <c r="G35" s="14" t="s">
@@ -4383,6 +4410,7 @@
         <v>215</v>
       </c>
       <c r="F36" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>2.0833333333333335</v>
       </c>
       <c r="G36" s="14" t="s">
@@ -4462,6 +4490,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="G37" s="14" t="s">
@@ -4545,6 +4574,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>0.6964285714285714</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -4624,6 +4654,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.05</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -4701,7 +4732,8 @@
         <v>2</v>
       </c>
       <c r="F40" s="19">
-        <v>2</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>2.0192307692307696</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>18</v>
@@ -4780,7 +4812,8 @@
         <v>3</v>
       </c>
       <c r="F41" s="19">
-        <v>1.8</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.8269230769230769</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>45</v>
@@ -4857,7 +4890,8 @@
         <v>3</v>
       </c>
       <c r="F42" s="19">
-        <v>1.0444444444444445</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.0453216374269005</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>76</v>
@@ -4932,6 +4966,7 @@
         <v>212</v>
       </c>
       <c r="F43" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.5625</v>
       </c>
       <c r="G43" s="15" t="s">
@@ -5009,6 +5044,7 @@
         <v>212</v>
       </c>
       <c r="F44" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.25</v>
       </c>
       <c r="G44" s="15" t="s">
@@ -5084,7 +5120,8 @@
         <v>212</v>
       </c>
       <c r="F45" s="19">
-        <v>2.2159090909090908</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>2.4074074074074074</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>26</v>
@@ -5165,6 +5202,7 @@
         <v>213</v>
       </c>
       <c r="F46" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.4351851851851851</v>
       </c>
       <c r="G46" s="16" t="s">
@@ -5242,6 +5280,7 @@
         <v>214</v>
       </c>
       <c r="F47" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.0533333333333332</v>
       </c>
       <c r="G47" s="16" t="s">
@@ -5317,7 +5356,8 @@
         <v>212</v>
       </c>
       <c r="F48" s="19">
-        <v>1.7788461538461537</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.8137254901960784</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>19</v>
@@ -5396,7 +5436,8 @@
         <v>212</v>
       </c>
       <c r="F49" s="19">
-        <v>1.4107142857142858</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.431159420289855</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>75</v>
@@ -5473,6 +5514,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.5873015873015872</v>
       </c>
       <c r="G50" s="16" t="s">
@@ -5552,6 +5594,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.3333333333333333</v>
       </c>
       <c r="G51" s="16" t="s">
@@ -5629,6 +5672,7 @@
         <v>212</v>
       </c>
       <c r="F52" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.7857142857142858</v>
       </c>
       <c r="G52" s="25" t="s">
@@ -5710,6 +5754,7 @@
         <v>212</v>
       </c>
       <c r="F53" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.5</v>
       </c>
       <c r="G53" s="25" t="s">
@@ -5789,6 +5834,7 @@
         <v>212</v>
       </c>
       <c r="F54" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.1956521739130435</v>
       </c>
       <c r="G54" s="25" t="s">
@@ -5868,6 +5914,7 @@
         <v>212</v>
       </c>
       <c r="F55" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.4074074074074074</v>
       </c>
       <c r="G55" s="25" t="s">
@@ -5945,7 +5992,8 @@
         <v>212</v>
       </c>
       <c r="F56" s="19">
-        <v>3</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>3.0288461538461542</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>125</v>
@@ -6022,7 +6070,8 @@
         <v>164</v>
       </c>
       <c r="F57" s="19">
-        <v>1.6481481481481481</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>1.6666666666666667</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>126</v>
@@ -6101,7 +6150,8 @@
         <v>164</v>
       </c>
       <c r="F58" s="19">
-        <v>2.2229166666666669</v>
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
+        <v>2.2407407407407409</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>139</v>
@@ -6180,6 +6230,7 @@
         <v>212</v>
       </c>
       <c r="F59" s="19">
+        <f>Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Max DPS]]</f>
         <v>1.875</v>
       </c>
       <c r="G59" s="4" t="s">
